--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SeleniumBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB9C1D-DFE0-418C-B5AF-0DFD840BD19A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD57C9C-4012-43EA-A459-637417546A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Villages" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ToRaid">Feuil1!$B$5:$E$116</definedName>
+    <definedName name="ToRaid">Villages!$B$5:$E$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2027,7 +2027,7 @@
   <dimension ref="B2:U164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="U5">
-        <f>(R5*60*60*1000+S5*60*1000+T5*1000)*2</f>
+        <f t="shared" ref="U5:U13" si="0">(R5*60*60*1000+S5*60*1000+T5*1000)*2</f>
         <v>1698000</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v>-56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>6118000</v>
@@ -2178,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <f>(R6*60*60*1000+S6*60*1000+T6*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>9372000</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
         <v>-48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>6998000</v>
@@ -2225,7 +2225,7 @@
         <v>19</v>
       </c>
       <c r="U7">
-        <f>(R7*60*60*1000+S7*60*1000+T7*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>6998000</v>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
         <v>-45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>8050000</v>
@@ -2258,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <f>(R8*60*60*1000+S8*60*1000+T8*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>8050000</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>-46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>9372000</v>
@@ -2291,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="U9">
-        <f>(R9*60*60*1000+S9*60*1000+T9*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>12924000</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>-47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>12924000</v>
@@ -2339,7 +2339,7 @@
         <v>59</v>
       </c>
       <c r="U10">
-        <f>(R10*60*60*1000+S10*60*1000+T10*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>6118000</v>
       </c>
     </row>
@@ -2348,19 +2348,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="D11" s="2">
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>12924000</v>
+        <v>16970000</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H13" si="0">H5+1</f>
+        <f t="shared" ref="H11:H13" si="1">H5+1</f>
         <v>2</v>
       </c>
       <c r="I11">
@@ -2387,7 +2387,7 @@
         <v>25</v>
       </c>
       <c r="U11">
-        <f>(R11*60*60*1000+S11*60*1000+T11*1000)*2</f>
+        <f t="shared" si="0"/>
         <v>16970000</v>
       </c>
     </row>
@@ -2396,19 +2396,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="D12" s="2">
-        <v>-49</v>
+        <v>-53</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>16970000</v>
+        <v>11</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I12">
@@ -2424,19 +2421,6 @@
       <c r="N12" t="str">
         <f>CHAR(34)&amp;J12&amp;CHAR(34)&amp;": "&amp;K12</f>
         <v>"Y": -56</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>47</v>
-      </c>
-      <c r="T12">
-        <v>42</v>
-      </c>
-      <c r="U12">
-        <f>(R12*60*60*1000+S12*60*1000+T12*1000)*2</f>
-        <v>12924000</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
@@ -2447,7 +2431,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
@@ -2458,26 +2442,11 @@
       </c>
       <c r="K13" t="str">
         <f>VLOOKUP(H13,ToRaid,I13,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N13" t="str">
         <f>CHAR(34)&amp;J13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K13&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-      <c r="R13">
-        <f>8-7</f>
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <f>64-26</f>
-        <v>38</v>
-      </c>
-      <c r="T13">
-        <v>47</v>
-      </c>
-      <c r="U13">
-        <f>(R13*60*60*1000+S13*60*1000+T13*1000)*2</f>
-        <v>11854000</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
@@ -2536,7 +2505,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="H17">
-        <f t="shared" ref="H17:H19" si="1">H11+1</f>
+        <f t="shared" ref="H17:H19" si="2">H11+1</f>
         <v>3</v>
       </c>
       <c r="I17">
@@ -2562,7 +2531,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I18">
@@ -2588,7 +2557,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I19">
@@ -2599,11 +2568,11 @@
       </c>
       <c r="K19" t="str">
         <f>VLOOKUP(H19,ToRaid,I19,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N19" t="str">
         <f>CHAR(34)&amp;J19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K19&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -2662,7 +2631,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="H23">
-        <f t="shared" ref="H23:H25" si="2">H17+1</f>
+        <f t="shared" ref="H23:H25" si="3">H17+1</f>
         <v>4</v>
       </c>
       <c r="I23">
@@ -2688,7 +2657,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I24">
@@ -2714,7 +2683,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I25">
@@ -2725,11 +2694,11 @@
       </c>
       <c r="K25" t="str">
         <f>VLOOKUP(H25,ToRaid,I25,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N25" t="str">
         <f>CHAR(34)&amp;J25&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K25&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -2788,7 +2757,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="H29">
-        <f t="shared" ref="H29:H31" si="3">H23+1</f>
+        <f t="shared" ref="H29:H31" si="4">H23+1</f>
         <v>5</v>
       </c>
       <c r="I29">
@@ -2814,7 +2783,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I30">
@@ -2840,7 +2809,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I31">
@@ -2851,11 +2820,11 @@
       </c>
       <c r="K31" t="str">
         <f>VLOOKUP(H31,ToRaid,I31,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N31" t="str">
         <f>CHAR(34)&amp;J31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K31&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2914,7 +2883,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="H35">
-        <f t="shared" ref="H35:H37" si="4">H29+1</f>
+        <f t="shared" ref="H35:H37" si="5">H29+1</f>
         <v>6</v>
       </c>
       <c r="I35">
@@ -2940,7 +2909,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I36">
@@ -2966,7 +2935,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I37">
@@ -2977,11 +2946,11 @@
       </c>
       <c r="K37" t="str">
         <f>VLOOKUP(H37,ToRaid,I37,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N37" t="str">
         <f>CHAR(34)&amp;J37&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K37&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -3016,7 +2985,7 @@
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H41">
-        <f t="shared" ref="H41:H43" si="5">H35+1</f>
+        <f t="shared" ref="H41:H43" si="6">H35+1</f>
         <v>7</v>
       </c>
       <c r="I41">
@@ -3027,16 +2996,16 @@
       </c>
       <c r="K41">
         <f>VLOOKUP(H41,ToRaid,I41,FALSE)</f>
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="N41" t="str">
         <f>CHAR(34)&amp;J41&amp;CHAR(34)&amp;": "&amp;K41&amp;","</f>
-        <v>"X": -21,</v>
+        <v>"X": -17,</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I42">
@@ -3047,16 +3016,16 @@
       </c>
       <c r="K42">
         <f>VLOOKUP(H42,ToRaid,I42,FALSE)</f>
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="N42" t="str">
         <f>CHAR(34)&amp;J42&amp;CHAR(34)&amp;": "&amp;K42</f>
-        <v>"Y": -47</v>
+        <v>"Y": -49</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="I43">
@@ -3106,7 +3075,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H47">
-        <f t="shared" ref="H47:H49" si="6">H41+1</f>
+        <f t="shared" ref="H47:H49" si="7">H41+1</f>
         <v>8</v>
       </c>
       <c r="I47">
@@ -3117,16 +3086,16 @@
       </c>
       <c r="K47">
         <f>VLOOKUP(H47,ToRaid,I47,FALSE)</f>
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="N47" t="str">
         <f>CHAR(34)&amp;J47&amp;CHAR(34)&amp;": "&amp;K47&amp;","</f>
-        <v>"X": -17,</v>
+        <v>"X": -35,</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I48">
@@ -3137,16 +3106,16 @@
       </c>
       <c r="K48">
         <f>VLOOKUP(H48,ToRaid,I48,FALSE)</f>
-        <v>-49</v>
+        <v>-53</v>
       </c>
       <c r="N48" t="str">
         <f>CHAR(34)&amp;J48&amp;CHAR(34)&amp;": "&amp;K48</f>
-        <v>"Y": -49</v>
+        <v>"Y": -53</v>
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="I49">
@@ -3157,11 +3126,11 @@
       </c>
       <c r="K49" t="str">
         <f>VLOOKUP(H49,ToRaid,I49,FALSE)</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="N49" t="str">
         <f>CHAR(34)&amp;J49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K49&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
+        <v>"isInactive": "yes"</v>
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.25">
@@ -3196,7 +3165,7 @@
     </row>
     <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H53">
-        <f t="shared" ref="H53:H55" si="7">H47+1</f>
+        <f t="shared" ref="H53:H55" si="8">H47+1</f>
         <v>9</v>
       </c>
       <c r="I53">
@@ -3216,7 +3185,7 @@
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I54">
@@ -3236,7 +3205,7 @@
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I55">
@@ -3286,7 +3255,7 @@
     </row>
     <row r="59" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H59">
-        <f t="shared" ref="H59:H61" si="8">H53+1</f>
+        <f t="shared" ref="H59:H61" si="9">H53+1</f>
         <v>10</v>
       </c>
       <c r="I59">
@@ -3306,7 +3275,7 @@
     </row>
     <row r="60" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I60">
@@ -3326,7 +3295,7 @@
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I61">
@@ -3376,7 +3345,7 @@
     </row>
     <row r="65" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H65">
-        <f t="shared" ref="H65:H67" si="9">H59+1</f>
+        <f t="shared" ref="H65:H67" si="10">H59+1</f>
         <v>11</v>
       </c>
       <c r="I65">
@@ -3396,7 +3365,7 @@
     </row>
     <row r="66" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I66">
@@ -3416,7 +3385,7 @@
     </row>
     <row r="67" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="I67">
@@ -3466,7 +3435,7 @@
     </row>
     <row r="71" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H71">
-        <f t="shared" ref="H71:H73" si="10">H65+1</f>
+        <f t="shared" ref="H71:H73" si="11">H65+1</f>
         <v>12</v>
       </c>
       <c r="I71">
@@ -3486,7 +3455,7 @@
     </row>
     <row r="72" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I72">
@@ -3506,7 +3475,7 @@
     </row>
     <row r="73" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="I73">
@@ -3549,7 +3518,7 @@
     </row>
     <row r="77" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H77">
-        <f t="shared" ref="H77:H79" si="11">H71+1</f>
+        <f t="shared" ref="H77:H79" si="12">H71+1</f>
         <v>13</v>
       </c>
       <c r="I77">
@@ -3562,7 +3531,7 @@
     </row>
     <row r="78" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="I78">
@@ -3575,7 +3544,7 @@
     </row>
     <row r="79" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="I79">
@@ -3611,7 +3580,7 @@
     </row>
     <row r="83" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H83">
-        <f t="shared" ref="H83:H85" si="12">H77+1</f>
+        <f t="shared" ref="H83:H85" si="13">H77+1</f>
         <v>14</v>
       </c>
       <c r="I83">
@@ -3624,7 +3593,7 @@
     </row>
     <row r="84" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="I84">
@@ -3637,7 +3606,7 @@
     </row>
     <row r="85" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="I85">
@@ -3673,7 +3642,7 @@
     </row>
     <row r="89" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H89">
-        <f t="shared" ref="H89:H91" si="13">H83+1</f>
+        <f t="shared" ref="H89:H91" si="14">H83+1</f>
         <v>15</v>
       </c>
       <c r="I89">
@@ -3686,7 +3655,7 @@
     </row>
     <row r="90" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="I90">
@@ -3699,7 +3668,7 @@
     </row>
     <row r="91" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="I91">
@@ -3735,7 +3704,7 @@
     </row>
     <row r="95" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H95">
-        <f t="shared" ref="H95:H97" si="14">H89+1</f>
+        <f t="shared" ref="H95:H97" si="15">H89+1</f>
         <v>16</v>
       </c>
       <c r="I95">
@@ -3748,7 +3717,7 @@
     </row>
     <row r="96" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I96">
@@ -3761,7 +3730,7 @@
     </row>
     <row r="97" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I97">
@@ -3797,7 +3766,7 @@
     </row>
     <row r="101" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H101">
-        <f t="shared" ref="H101:H103" si="15">H95+1</f>
+        <f t="shared" ref="H101:H103" si="16">H95+1</f>
         <v>17</v>
       </c>
       <c r="I101">
@@ -3810,7 +3779,7 @@
     </row>
     <row r="102" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="I102">
@@ -3823,7 +3792,7 @@
     </row>
     <row r="103" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="I103">
@@ -3859,7 +3828,7 @@
     </row>
     <row r="107" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H107">
-        <f t="shared" ref="H107:H109" si="16">H101+1</f>
+        <f t="shared" ref="H107:H109" si="17">H101+1</f>
         <v>18</v>
       </c>
       <c r="I107">
@@ -3872,7 +3841,7 @@
     </row>
     <row r="108" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="I108">
@@ -3885,7 +3854,7 @@
     </row>
     <row r="109" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="I109">
@@ -3921,7 +3890,7 @@
     </row>
     <row r="113" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H113">
-        <f t="shared" ref="H113:H115" si="17">H107+1</f>
+        <f t="shared" ref="H113:H115" si="18">H107+1</f>
         <v>19</v>
       </c>
       <c r="I113">
@@ -3934,7 +3903,7 @@
     </row>
     <row r="114" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="I114">
@@ -3947,7 +3916,7 @@
     </row>
     <row r="115" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="I115">
@@ -3983,7 +3952,7 @@
     </row>
     <row r="119" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H119">
-        <f t="shared" ref="H119:H121" si="18">H113+1</f>
+        <f t="shared" ref="H119:H121" si="19">H113+1</f>
         <v>20</v>
       </c>
       <c r="I119">
@@ -3996,7 +3965,7 @@
     </row>
     <row r="120" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I120">
@@ -4009,7 +3978,7 @@
     </row>
     <row r="121" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I121">
@@ -4045,7 +4014,7 @@
     </row>
     <row r="125" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H125">
-        <f t="shared" ref="H125:H127" si="19">H119+1</f>
+        <f t="shared" ref="H125:H127" si="20">H119+1</f>
         <v>21</v>
       </c>
       <c r="I125">
@@ -4058,7 +4027,7 @@
     </row>
     <row r="126" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="I126">
@@ -4071,7 +4040,7 @@
     </row>
     <row r="127" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="I127">
@@ -4107,7 +4076,7 @@
     </row>
     <row r="131" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H131">
-        <f t="shared" ref="H131:H133" si="20">H125+1</f>
+        <f t="shared" ref="H131:H133" si="21">H125+1</f>
         <v>22</v>
       </c>
       <c r="I131">
@@ -4120,7 +4089,7 @@
     </row>
     <row r="132" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H132">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="I132">
@@ -4133,7 +4102,7 @@
     </row>
     <row r="133" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H133">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="I133">
@@ -4169,7 +4138,7 @@
     </row>
     <row r="137" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H137">
-        <f t="shared" ref="H137:H139" si="21">H131+1</f>
+        <f t="shared" ref="H137:H139" si="22">H131+1</f>
         <v>23</v>
       </c>
       <c r="I137">
@@ -4182,7 +4151,7 @@
     </row>
     <row r="138" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H138">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="I138">
@@ -4195,7 +4164,7 @@
     </row>
     <row r="139" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H139">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="I139">
@@ -4231,7 +4200,7 @@
     </row>
     <row r="143" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H143">
-        <f t="shared" ref="H143:H145" si="22">H137+1</f>
+        <f t="shared" ref="H143:H145" si="23">H137+1</f>
         <v>24</v>
       </c>
       <c r="I143">
@@ -4244,7 +4213,7 @@
     </row>
     <row r="144" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="I144">
@@ -4257,7 +4226,7 @@
     </row>
     <row r="145" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="I145">
@@ -4293,7 +4262,7 @@
     </row>
     <row r="149" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H149">
-        <f t="shared" ref="H149:H151" si="23">H143+1</f>
+        <f t="shared" ref="H149:H151" si="24">H143+1</f>
         <v>25</v>
       </c>
       <c r="I149">
@@ -4306,7 +4275,7 @@
     </row>
     <row r="150" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="I150">
@@ -4319,7 +4288,7 @@
     </row>
     <row r="151" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="I151">
@@ -4355,7 +4324,7 @@
     </row>
     <row r="155" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H155">
-        <f t="shared" ref="H155:H157" si="24">H149+1</f>
+        <f t="shared" ref="H155:H157" si="25">H149+1</f>
         <v>26</v>
       </c>
       <c r="I155">
@@ -4368,7 +4337,7 @@
     </row>
     <row r="156" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="I156">
@@ -4381,7 +4350,7 @@
     </row>
     <row r="157" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="I157">
@@ -4417,7 +4386,7 @@
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H161">
-        <f t="shared" ref="H161:H163" si="25">H155+1</f>
+        <f t="shared" ref="H161:H163" si="26">H155+1</f>
         <v>27</v>
       </c>
       <c r="I161">
@@ -4430,7 +4399,7 @@
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="I162">
@@ -4443,7 +4412,7 @@
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>27</v>
       </c>
       <c r="I163">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\SeleniumBots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD57C9C-4012-43EA-A459-637417546A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF40768-12AC-47F3-906A-28CBDEC20C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="16">
   <si>
     <t>Oases</t>
   </si>
@@ -72,9 +72,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>timeToArrive</t>
-  </si>
-  <si>
     <t>HH</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,22 +451,22 @@
   <dimension ref="C2:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N162"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -478,7 +478,7 @@
         <v>"Id": 0,</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +490,7 @@
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -502,17 +502,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -524,7 +524,7 @@
         <v>"Id": 1,</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -548,17 +548,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -570,7 +570,7 @@
         <v>"Id": 2,</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -594,17 +594,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -616,7 +616,7 @@
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -640,17 +640,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -662,7 +662,7 @@
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -674,7 +674,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -686,17 +686,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -721,7 +721,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -733,17 +733,17 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>"X": -37,</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -780,17 +780,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -827,17 +827,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -850,7 +850,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
         <v>"X": -27,</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -874,17 +874,17 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -897,7 +897,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -909,7 +909,7 @@
         <v>"X": -23,</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -921,17 +921,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -944,7 +944,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -956,7 +956,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -968,17 +968,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -991,7 +991,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -1015,17 +1015,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -1062,17 +1062,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -1109,17 +1109,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -1156,17 +1156,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>6</v>
       </c>
@@ -1211,12 +1211,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -1253,17 +1253,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>4</v>
       </c>
@@ -1300,17 +1300,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>4</v>
       </c>
@@ -1347,17 +1347,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>"Id": 19,</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -1394,17 +1394,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>"Id": 20,</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>4</v>
       </c>
@@ -1441,17 +1441,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>"Id": 21,</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>4</v>
       </c>
@@ -1488,17 +1488,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>"Id": 22,</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>4</v>
       </c>
@@ -1535,17 +1535,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>"Id": 23,</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>4</v>
       </c>
@@ -1582,17 +1582,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>"Id": 24,</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>4</v>
       </c>
@@ -1629,17 +1629,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>"Id": 25,</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>4</v>
       </c>
@@ -1670,17 +1670,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>"Id": 26,</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>4</v>
       </c>
@@ -1711,17 +1711,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>"Id": 27,</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>4</v>
       </c>
@@ -1752,17 +1752,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>"Id": 28,</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>4</v>
       </c>
@@ -1793,17 +1793,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G147" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>"Id": 29,</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>4</v>
       </c>
@@ -1834,17 +1834,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>"Id": 30,</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>4</v>
       </c>
@@ -1875,17 +1875,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>"Id": 31,</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>4</v>
       </c>
@@ -1916,12 +1916,12 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>2</v>
       </c>
@@ -1930,17 +1930,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>2</v>
       </c>
@@ -1949,17 +1949,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>2</v>
       </c>
@@ -1968,17 +1968,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>2</v>
       </c>
@@ -1987,17 +1987,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>2</v>
       </c>
@@ -2006,12 +2006,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>4</v>
       </c>
@@ -2024,28 +2024,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
-  <dimension ref="B2:U164"/>
+  <dimension ref="B1:U164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N3" sqref="N3:N98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>-31</v>
+      </c>
+      <c r="D1">
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="N3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2079,16 +2087,16 @@
         <v>"Id": 1,</v>
       </c>
       <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>14</v>
       </c>
-      <c r="T4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2102,7 +2110,8 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>1698000</v>
+        <f>SQRT((C5-$C$1)^2+(D5-$D$1)^2)</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2131,25 +2140,26 @@
         <v>9</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U13" si="0">(R5*60*60*1000+S5*60*1000+T5*1000)*2</f>
+        <f t="shared" ref="U5:U11" si="0">(R5*60*60*1000+S5*60*1000+T5*1000)*2</f>
         <v>1698000</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="D6" s="2">
-        <v>-56</v>
+        <v>-54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>6118000</v>
+        <f>SQRT((C6-$C$1)^2+(D6-$D$1)^2)</f>
+        <v>3.1622776601683795</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2182,21 +2192,22 @@
         <v>9372000</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="D7" s="2">
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>6998000</v>
+        <f>SQRT((C7-$C$1)^2+(D7-$D$1)^2)</f>
+        <v>4.4721359549995796</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2229,21 +2240,22 @@
         <v>6998000</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D8" s="2">
-        <v>-45</v>
+        <v>-56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8">
-        <v>8050000</v>
+        <f>SQRT((C8-$C$1)^2+(D8-$D$1)^2)</f>
+        <v>5.0990195135927845</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
@@ -2262,21 +2274,22 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="D9" s="2">
         <v>-46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>9372000</v>
+        <f>SQRT((C9-$C$1)^2+(D9-$D$1)^2)</f>
+        <v>5.3851648071345037</v>
       </c>
       <c r="N9" t="s">
         <v>1</v>
@@ -2295,21 +2308,22 @@
         <v>12924000</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="D10" s="2">
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>12924000</v>
+        <f>SQRT((C10-$C$1)^2+(D10-$D$1)^2)</f>
+        <v>5.8309518948453007</v>
       </c>
       <c r="H10">
         <f>H4+1</f>
@@ -2343,21 +2357,22 @@
         <v>6118000</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>-17</v>
+        <v>-36</v>
       </c>
       <c r="D11" s="2">
-        <v>-49</v>
+        <v>-54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>16970000</v>
+        <f>SQRT((C11-$C$1)^2+(D11-$D$1)^2)</f>
+        <v>5.8309518948453007</v>
       </c>
       <c r="H11">
         <f t="shared" ref="H11:H13" si="1">H5+1</f>
@@ -2371,11 +2386,11 @@
       </c>
       <c r="K11">
         <f>VLOOKUP(H11,ToRaid,I11,FALSE)</f>
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="N11" t="str">
         <f>CHAR(34)&amp;J11&amp;CHAR(34)&amp;": "&amp;K11&amp;","</f>
-        <v>"X": -30,</v>
+        <v>"X": -32,</v>
       </c>
       <c r="R11">
         <v>2</v>
@@ -2391,18 +2406,22 @@
         <v>16970000</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="D12" s="2">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f>SQRT((C12-$C$1)^2+(D12-$D$1)^2)</f>
+        <v>6.0827625302982193</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -2416,20 +2435,30 @@
       </c>
       <c r="K12">
         <f>VLOOKUP(H12,ToRaid,I12,FALSE)</f>
-        <v>-56</v>
+        <v>-54</v>
       </c>
       <c r="N12" t="str">
         <f>CHAR(34)&amp;J12&amp;CHAR(34)&amp;": "&amp;K12</f>
-        <v>"Y": -56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-55</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f>SQRT((C13-$C$1)^2+(D13-$D$1)^2)</f>
+        <v>6.4031242374328485</v>
+      </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -2442,42 +2471,72 @@
       </c>
       <c r="K13" t="str">
         <f>VLOOKUP(H13,ToRaid,I13,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="N13" t="str">
         <f>CHAR(34)&amp;J13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K13&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2">
+        <v>-28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>SQRT((C14-$C$1)^2+(D14-$D$1)^2)</f>
+        <v>6.7082039324993694</v>
+      </c>
       <c r="N14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2">
+        <v>-32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <f>SQRT((C15-$C$1)^2+(D15-$D$1)^2)</f>
+        <v>7.0710678118654755</v>
+      </c>
       <c r="N15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2">
+        <v>-25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <f>SQRT((C16-$C$1)^2+(D16-$D$1)^2)</f>
+        <v>7.810249675906654</v>
+      </c>
       <c r="H16">
         <f>H10+1</f>
         <v>3</v>
@@ -2497,13 +2556,23 @@
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2">
+        <v>-24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f>SQRT((C17-$C$1)^2+(D17-$D$1)^2)</f>
+        <v>8.0622577482985491</v>
+      </c>
       <c r="H17">
         <f t="shared" ref="H17:H19" si="2">H11+1</f>
         <v>3</v>
@@ -2516,20 +2585,30 @@
       </c>
       <c r="K17">
         <f>VLOOKUP(H17,ToRaid,I17,FALSE)</f>
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="N17" t="str">
         <f>CHAR(34)&amp;J17&amp;CHAR(34)&amp;": "&amp;K17&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -35,</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f>SQRT((C18-$C$1)^2+(D18-$D$1)^2)</f>
+        <v>10.04987562112089</v>
+      </c>
       <c r="H18">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2542,20 +2621,30 @@
       </c>
       <c r="K18">
         <f>VLOOKUP(H18,ToRaid,I18,FALSE)</f>
-        <v>-48</v>
+        <v>-53</v>
       </c>
       <c r="N18" t="str">
         <f>CHAR(34)&amp;J18&amp;CHAR(34)&amp;": "&amp;K18</f>
-        <v>"Y": -48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"Y": -53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-47</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <f>SQRT((C19-$C$1)^2+(D19-$D$1)^2)</f>
+        <v>10.770329614269007</v>
+      </c>
       <c r="H19">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -2568,25 +2657,35 @@
       </c>
       <c r="K19" t="str">
         <f>VLOOKUP(H19,ToRaid,I19,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="N19" t="str">
         <f>CHAR(34)&amp;J19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K19&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-49</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <f>SQRT((C20-$C$1)^2+(D20-$D$1)^2)</f>
+        <v>14.142135623730951</v>
+      </c>
       <c r="N20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>17</v>
       </c>
@@ -2597,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>18</v>
       </c>
@@ -2623,7 +2722,7 @@
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>19</v>
       </c>
@@ -2642,14 +2741,14 @@
       </c>
       <c r="K23">
         <f>VLOOKUP(H23,ToRaid,I23,FALSE)</f>
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="N23" t="str">
         <f>CHAR(34)&amp;J23&amp;CHAR(34)&amp;": "&amp;K23&amp;","</f>
-        <v>"X": -28,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>20</v>
       </c>
@@ -2668,14 +2767,14 @@
       </c>
       <c r="K24">
         <f>VLOOKUP(H24,ToRaid,I24,FALSE)</f>
-        <v>-45</v>
+        <v>-56</v>
       </c>
       <c r="N24" t="str">
         <f>CHAR(34)&amp;J24&amp;CHAR(34)&amp;": "&amp;K24</f>
-        <v>"Y": -45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"Y": -56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>21</v>
       </c>
@@ -2701,7 +2800,7 @@
         <v>"isInactive": "yes"</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>22</v>
       </c>
@@ -2712,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>23</v>
       </c>
@@ -2723,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>24</v>
       </c>
@@ -2749,7 +2848,7 @@
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -2768,14 +2867,14 @@
       </c>
       <c r="K29">
         <f>VLOOKUP(H29,ToRaid,I29,FALSE)</f>
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="N29" t="str">
         <f>CHAR(34)&amp;J29&amp;CHAR(34)&amp;": "&amp;K29&amp;","</f>
-        <v>"X": -25,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>26</v>
       </c>
@@ -2801,7 +2900,7 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -2820,14 +2919,14 @@
       </c>
       <c r="K31" t="str">
         <f>VLOOKUP(H31,ToRaid,I31,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="N31" t="str">
         <f>CHAR(34)&amp;J31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K31&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>28</v>
       </c>
@@ -2838,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -2849,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>30</v>
       </c>
@@ -2875,7 +2974,7 @@
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -2894,14 +2993,14 @@
       </c>
       <c r="K35">
         <f>VLOOKUP(H35,ToRaid,I35,FALSE)</f>
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="N35" t="str">
         <f>CHAR(34)&amp;J35&amp;CHAR(34)&amp;": "&amp;K35&amp;","</f>
-        <v>"X": -21,</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>32</v>
       </c>
@@ -2920,14 +3019,14 @@
       </c>
       <c r="K36">
         <f>VLOOKUP(H36,ToRaid,I36,FALSE)</f>
-        <v>-47</v>
+        <v>-48</v>
       </c>
       <c r="N36" t="str">
         <f>CHAR(34)&amp;J36&amp;CHAR(34)&amp;": "&amp;K36</f>
-        <v>"Y": -47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"Y": -48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -2953,17 +3052,17 @@
         <v>"isInactive": "yes"</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H40">
         <f>H34+1</f>
         <v>7</v>
@@ -2983,7 +3082,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H41">
         <f t="shared" ref="H41:H43" si="6">H35+1</f>
         <v>7</v>
@@ -2996,14 +3095,14 @@
       </c>
       <c r="K41">
         <f>VLOOKUP(H41,ToRaid,I41,FALSE)</f>
-        <v>-17</v>
+        <v>-36</v>
       </c>
       <c r="N41" t="str">
         <f>CHAR(34)&amp;J41&amp;CHAR(34)&amp;": "&amp;K41&amp;","</f>
-        <v>"X": -17,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -36,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H42">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3016,14 +3115,14 @@
       </c>
       <c r="K42">
         <f>VLOOKUP(H42,ToRaid,I42,FALSE)</f>
-        <v>-49</v>
+        <v>-54</v>
       </c>
       <c r="N42" t="str">
         <f>CHAR(34)&amp;J42&amp;CHAR(34)&amp;": "&amp;K42</f>
-        <v>"Y": -49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H43">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3043,17 +3142,17 @@
         <v>"isInactive": "no"</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H46">
         <f>H40+1</f>
         <v>8</v>
@@ -3073,7 +3172,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H47">
         <f t="shared" ref="H47:H49" si="7">H41+1</f>
         <v>8</v>
@@ -3086,14 +3185,14 @@
       </c>
       <c r="K47">
         <f>VLOOKUP(H47,ToRaid,I47,FALSE)</f>
-        <v>-35</v>
+        <v>-37</v>
       </c>
       <c r="N47" t="str">
         <f>CHAR(34)&amp;J47&amp;CHAR(34)&amp;": "&amp;K47&amp;","</f>
-        <v>"X": -35,</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H48">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3106,14 +3205,14 @@
       </c>
       <c r="K48">
         <f>VLOOKUP(H48,ToRaid,I48,FALSE)</f>
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="N48" t="str">
         <f>CHAR(34)&amp;J48&amp;CHAR(34)&amp;": "&amp;K48</f>
-        <v>"Y": -53</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -50</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H49">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3126,24 +3225,24 @@
       </c>
       <c r="K49" t="str">
         <f>VLOOKUP(H49,ToRaid,I49,FALSE)</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="N49" t="str">
         <f>CHAR(34)&amp;J49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K49&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H52">
         <f>H46+1</f>
         <v>9</v>
@@ -3163,7 +3262,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H53">
         <f t="shared" ref="H53:H55" si="8">H47+1</f>
         <v>9</v>
@@ -3176,14 +3275,14 @@
       </c>
       <c r="K53">
         <f>VLOOKUP(H53,ToRaid,I53,FALSE)</f>
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="N53" t="str">
         <f>CHAR(34)&amp;J53&amp;CHAR(34)&amp;": "&amp;K53&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H54">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3196,14 +3295,14 @@
       </c>
       <c r="K54">
         <f>VLOOKUP(H54,ToRaid,I54,FALSE)</f>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="N54" t="str">
         <f>CHAR(34)&amp;J54&amp;CHAR(34)&amp;": "&amp;K54</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H55">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3214,26 +3313,26 @@
       <c r="J55" t="s">
         <v>9</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="str">
         <f>VLOOKUP(H55,ToRaid,I55,FALSE)</f>
-        <v>0</v>
+        <v>no</v>
       </c>
       <c r="N55" t="str">
         <f>CHAR(34)&amp;J55&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K55&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H58">
         <f>H52+1</f>
         <v>10</v>
@@ -3253,7 +3352,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H59">
         <f t="shared" ref="H59:H61" si="9">H53+1</f>
         <v>10</v>
@@ -3266,14 +3365,14 @@
       </c>
       <c r="K59">
         <f>VLOOKUP(H59,ToRaid,I59,FALSE)</f>
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="N59" t="str">
         <f>CHAR(34)&amp;J59&amp;CHAR(34)&amp;": "&amp;K59&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H60">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -3286,14 +3385,14 @@
       </c>
       <c r="K60">
         <f>VLOOKUP(H60,ToRaid,I60,FALSE)</f>
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="N60" t="str">
         <f>CHAR(34)&amp;J60&amp;CHAR(34)&amp;": "&amp;K60</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H61">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -3304,26 +3403,26 @@
       <c r="J61" t="s">
         <v>9</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="str">
         <f>VLOOKUP(H61,ToRaid,I61,FALSE)</f>
-        <v>0</v>
+        <v>yes</v>
       </c>
       <c r="N61" t="str">
         <f>CHAR(34)&amp;J61&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K61&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "yes"</v>
+      </c>
+    </row>
+    <row r="62" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H64">
         <f>H58+1</f>
         <v>11</v>
@@ -3343,7 +3442,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H65">
         <f t="shared" ref="H65:H67" si="10">H59+1</f>
         <v>11</v>
@@ -3356,14 +3455,14 @@
       </c>
       <c r="K65">
         <f>VLOOKUP(H65,ToRaid,I65,FALSE)</f>
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="N65" t="str">
         <f>CHAR(34)&amp;J65&amp;CHAR(34)&amp;": "&amp;K65&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H66">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -3376,14 +3475,14 @@
       </c>
       <c r="K66">
         <f>VLOOKUP(H66,ToRaid,I66,FALSE)</f>
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="N66" t="str">
         <f>CHAR(34)&amp;J66&amp;CHAR(34)&amp;": "&amp;K66</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -58</v>
+      </c>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H67">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -3394,26 +3493,26 @@
       <c r="J67" t="s">
         <v>9</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="str">
         <f>VLOOKUP(H67,ToRaid,I67,FALSE)</f>
-        <v>0</v>
+        <v>no</v>
       </c>
       <c r="N67" t="str">
         <f>CHAR(34)&amp;J67&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H70">
         <f>H64+1</f>
         <v>12</v>
@@ -3433,7 +3532,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H71">
         <f t="shared" ref="H71:H73" si="11">H65+1</f>
         <v>12</v>
@@ -3446,14 +3545,14 @@
       </c>
       <c r="K71">
         <f>VLOOKUP(H71,ToRaid,I71,FALSE)</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="N71" t="str">
         <f>CHAR(34)&amp;J71&amp;CHAR(34)&amp;": "&amp;K71&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -25,</v>
+      </c>
+    </row>
+    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H72">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -3466,14 +3565,14 @@
       </c>
       <c r="K72">
         <f>VLOOKUP(H72,ToRaid,I72,FALSE)</f>
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="N72" t="str">
         <f>CHAR(34)&amp;J72&amp;CHAR(34)&amp;": "&amp;K72</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H73">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -3484,26 +3583,26 @@
       <c r="J73" t="s">
         <v>9</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="str">
         <f>VLOOKUP(H73,ToRaid,I73,FALSE)</f>
-        <v>0</v>
+        <v>yes</v>
       </c>
       <c r="N73" t="str">
         <f>CHAR(34)&amp;J73&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K73&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "yes"</v>
+      </c>
+    </row>
+    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H76">
         <f>H70+1</f>
         <v>13</v>
@@ -3511,12 +3610,19 @@
       <c r="I76">
         <v>1</v>
       </c>
+      <c r="J76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <f>VLOOKUP(H76,ToRaid,I76,FALSE)</f>
+        <v>13</v>
+      </c>
       <c r="N76" t="str">
         <f>CHAR(34)&amp;J76&amp;CHAR(34)&amp;": "&amp;K76&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 13,</v>
+      </c>
+    </row>
+    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H77">
         <f t="shared" ref="H77:H79" si="12">H71+1</f>
         <v>13</v>
@@ -3524,12 +3630,19 @@
       <c r="I77">
         <v>2</v>
       </c>
+      <c r="J77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <f>VLOOKUP(H77,ToRaid,I77,FALSE)</f>
+        <v>-24</v>
+      </c>
       <c r="N77" t="str">
         <f>CHAR(34)&amp;J77&amp;CHAR(34)&amp;": "&amp;K77&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -24,</v>
+      </c>
+    </row>
+    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H78">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -3537,12 +3650,19 @@
       <c r="I78">
         <v>3</v>
       </c>
+      <c r="J78" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78">
+        <f>VLOOKUP(H78,ToRaid,I78,FALSE)</f>
+        <v>-55</v>
+      </c>
       <c r="N78" t="str">
         <f>CHAR(34)&amp;J78&amp;CHAR(34)&amp;": "&amp;K78</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H79">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -3550,22 +3670,29 @@
       <c r="I79">
         <v>4</v>
       </c>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="str">
+        <f>VLOOKUP(H79,ToRaid,I79,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="N79" t="str">
         <f>CHAR(34)&amp;J79&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K79&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H82">
         <f>H76+1</f>
         <v>14</v>
@@ -3573,12 +3700,19 @@
       <c r="I82">
         <v>1</v>
       </c>
+      <c r="J82" t="s">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <f>VLOOKUP(H82,ToRaid,I82,FALSE)</f>
+        <v>14</v>
+      </c>
       <c r="N82" t="str">
         <f>CHAR(34)&amp;J82&amp;CHAR(34)&amp;": "&amp;K82&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 14,</v>
+      </c>
+    </row>
+    <row r="83" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H83">
         <f t="shared" ref="H83:H85" si="13">H77+1</f>
         <v>14</v>
@@ -3586,12 +3720,19 @@
       <c r="I83">
         <v>2</v>
       </c>
+      <c r="J83" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83">
+        <f>VLOOKUP(H83,ToRaid,I83,FALSE)</f>
+        <v>-21</v>
+      </c>
       <c r="N83" t="str">
         <f>CHAR(34)&amp;J83&amp;CHAR(34)&amp;": "&amp;K83&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -21,</v>
+      </c>
+    </row>
+    <row r="84" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H84">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -3599,12 +3740,19 @@
       <c r="I84">
         <v>3</v>
       </c>
+      <c r="J84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <f>VLOOKUP(H84,ToRaid,I84,FALSE)</f>
+        <v>-52</v>
+      </c>
       <c r="N84" t="str">
         <f>CHAR(34)&amp;J84&amp;CHAR(34)&amp;": "&amp;K84</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="85" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H85">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -3612,22 +3760,29 @@
       <c r="I85">
         <v>4</v>
       </c>
+      <c r="J85" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" t="str">
+        <f>VLOOKUP(H85,ToRaid,I85,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="N85" t="str">
         <f>CHAR(34)&amp;J85&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K85&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="86" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H88">
         <f>H82+1</f>
         <v>15</v>
@@ -3635,12 +3790,19 @@
       <c r="I88">
         <v>1</v>
       </c>
+      <c r="J88" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <f>VLOOKUP(H88,ToRaid,I88,FALSE)</f>
+        <v>15</v>
+      </c>
       <c r="N88" t="str">
         <f>CHAR(34)&amp;J88&amp;CHAR(34)&amp;": "&amp;K88&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 15,</v>
+      </c>
+    </row>
+    <row r="89" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H89">
         <f t="shared" ref="H89:H91" si="14">H83+1</f>
         <v>15</v>
@@ -3648,12 +3810,19 @@
       <c r="I89">
         <v>2</v>
       </c>
+      <c r="J89" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <f>VLOOKUP(H89,ToRaid,I89,FALSE)</f>
+        <v>-21</v>
+      </c>
       <c r="N89" t="str">
         <f>CHAR(34)&amp;J89&amp;CHAR(34)&amp;": "&amp;K89&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -21,</v>
+      </c>
+    </row>
+    <row r="90" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H90">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -3661,12 +3830,19 @@
       <c r="I90">
         <v>3</v>
       </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <f>VLOOKUP(H90,ToRaid,I90,FALSE)</f>
+        <v>-47</v>
+      </c>
       <c r="N90" t="str">
         <f>CHAR(34)&amp;J90&amp;CHAR(34)&amp;": "&amp;K90</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -47</v>
+      </c>
+    </row>
+    <row r="91" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H91">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -3674,22 +3850,29 @@
       <c r="I91">
         <v>4</v>
       </c>
+      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" t="str">
+        <f>VLOOKUP(H91,ToRaid,I91,FALSE)</f>
+        <v>yes</v>
+      </c>
       <c r="N91" t="str">
         <f>CHAR(34)&amp;J91&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K91&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "yes"</v>
+      </c>
+    </row>
+    <row r="92" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H94">
         <f>H88+1</f>
         <v>16</v>
@@ -3697,12 +3880,19 @@
       <c r="I94">
         <v>1</v>
       </c>
+      <c r="J94" t="s">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <f>VLOOKUP(H94,ToRaid,I94,FALSE)</f>
+        <v>16</v>
+      </c>
       <c r="N94" t="str">
         <f>CHAR(34)&amp;J94&amp;CHAR(34)&amp;": "&amp;K94&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 16,</v>
+      </c>
+    </row>
+    <row r="95" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H95">
         <f t="shared" ref="H95:H97" si="15">H89+1</f>
         <v>16</v>
@@ -3710,12 +3900,19 @@
       <c r="I95">
         <v>2</v>
       </c>
+      <c r="J95" t="s">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <f>VLOOKUP(H95,ToRaid,I95,FALSE)</f>
+        <v>-17</v>
+      </c>
       <c r="N95" t="str">
         <f>CHAR(34)&amp;J95&amp;CHAR(34)&amp;": "&amp;K95&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="96" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H96">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -3723,12 +3920,19 @@
       <c r="I96">
         <v>3</v>
       </c>
+      <c r="J96" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <f>VLOOKUP(H96,ToRaid,I96,FALSE)</f>
+        <v>-49</v>
+      </c>
       <c r="N96" t="str">
         <f>CHAR(34)&amp;J96&amp;CHAR(34)&amp;": "&amp;K96</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": -49</v>
+      </c>
+    </row>
+    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H97">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -3736,22 +3940,29 @@
       <c r="I97">
         <v>4</v>
       </c>
+      <c r="J97" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" t="str">
+        <f>VLOOKUP(H97,ToRaid,I97,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="N97" t="str">
         <f>CHAR(34)&amp;J97&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K97&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "no"</v>
+      </c>
+    </row>
+    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H100">
         <f>H94+1</f>
         <v>17</v>
@@ -3759,12 +3970,19 @@
       <c r="I100">
         <v>1</v>
       </c>
+      <c r="J100" t="s">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <f>VLOOKUP(H100,ToRaid,I100,FALSE)</f>
+        <v>17</v>
+      </c>
       <c r="N100" t="str">
         <f>CHAR(34)&amp;J100&amp;CHAR(34)&amp;": "&amp;K100&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 17,</v>
+      </c>
+    </row>
+    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H101">
         <f t="shared" ref="H101:H103" si="16">H95+1</f>
         <v>17</v>
@@ -3772,12 +3990,19 @@
       <c r="I101">
         <v>2</v>
       </c>
+      <c r="J101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <f>VLOOKUP(H101,ToRaid,I101,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N101" t="str">
         <f>CHAR(34)&amp;J101&amp;CHAR(34)&amp;": "&amp;K101&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H102">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -3785,12 +4010,19 @@
       <c r="I102">
         <v>3</v>
       </c>
+      <c r="J102" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <f>VLOOKUP(H102,ToRaid,I102,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N102" t="str">
         <f>CHAR(34)&amp;J102&amp;CHAR(34)&amp;": "&amp;K102</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H103">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -3798,22 +4030,29 @@
       <c r="I103">
         <v>4</v>
       </c>
+      <c r="J103" t="s">
+        <v>9</v>
+      </c>
+      <c r="K103">
+        <f>VLOOKUP(H103,ToRaid,I103,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N103" t="str">
         <f>CHAR(34)&amp;J103&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K103&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "0"</v>
+      </c>
+    </row>
+    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H106">
         <f>H100+1</f>
         <v>18</v>
@@ -3821,12 +4060,19 @@
       <c r="I106">
         <v>1</v>
       </c>
+      <c r="J106" t="s">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <f>VLOOKUP(H106,ToRaid,I106,FALSE)</f>
+        <v>18</v>
+      </c>
       <c r="N106" t="str">
         <f>CHAR(34)&amp;J106&amp;CHAR(34)&amp;": "&amp;K106&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Id": 18,</v>
+      </c>
+    </row>
+    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H107">
         <f t="shared" ref="H107:H109" si="17">H101+1</f>
         <v>18</v>
@@ -3834,12 +4080,19 @@
       <c r="I107">
         <v>2</v>
       </c>
+      <c r="J107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <f>VLOOKUP(H107,ToRaid,I107,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N107" t="str">
         <f>CHAR(34)&amp;J107&amp;CHAR(34)&amp;": "&amp;K107&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H108">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -3847,12 +4100,19 @@
       <c r="I108">
         <v>3</v>
       </c>
+      <c r="J108" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108">
+        <f>VLOOKUP(H108,ToRaid,I108,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N108" t="str">
         <f>CHAR(34)&amp;J108&amp;CHAR(34)&amp;": "&amp;K108</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H109">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -3860,22 +4120,29 @@
       <c r="I109">
         <v>4</v>
       </c>
+      <c r="J109" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109">
+        <f>VLOOKUP(H109,ToRaid,I109,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N109" t="str">
         <f>CHAR(34)&amp;J109&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K109&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
+        <v>"isInactive": "0"</v>
+      </c>
+    </row>
+    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H112">
         <f>H106+1</f>
         <v>19</v>
@@ -3888,7 +4155,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H113">
         <f t="shared" ref="H113:H115" si="18">H107+1</f>
         <v>19</v>
@@ -3901,7 +4168,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H114">
         <f t="shared" si="18"/>
         <v>19</v>
@@ -3914,7 +4181,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H115">
         <f t="shared" si="18"/>
         <v>19</v>
@@ -3927,17 +4194,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H118">
         <f>H112+1</f>
         <v>20</v>
@@ -3950,7 +4217,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H119">
         <f t="shared" ref="H119:H121" si="19">H113+1</f>
         <v>20</v>
@@ -3963,7 +4230,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H120">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -3976,7 +4243,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H121">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -3989,17 +4256,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H124">
         <f>H118+1</f>
         <v>21</v>
@@ -4012,7 +4279,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H125">
         <f t="shared" ref="H125:H127" si="20">H119+1</f>
         <v>21</v>
@@ -4025,7 +4292,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H126">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -4038,7 +4305,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H127">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -4051,17 +4318,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H130">
         <f>H124+1</f>
         <v>22</v>
@@ -4074,7 +4341,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H131">
         <f t="shared" ref="H131:H133" si="21">H125+1</f>
         <v>22</v>
@@ -4087,7 +4354,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H132">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -4100,7 +4367,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H133">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -4113,17 +4380,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H136">
         <f>H130+1</f>
         <v>23</v>
@@ -4136,7 +4403,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H137">
         <f t="shared" ref="H137:H139" si="22">H131+1</f>
         <v>23</v>
@@ -4149,7 +4416,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H138">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -4162,7 +4429,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H139">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -4175,17 +4442,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N140" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H142">
         <f>H136+1</f>
         <v>24</v>
@@ -4198,7 +4465,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H143">
         <f t="shared" ref="H143:H145" si="23">H137+1</f>
         <v>24</v>
@@ -4211,7 +4478,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H144">
         <f t="shared" si="23"/>
         <v>24</v>
@@ -4224,7 +4491,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H145">
         <f t="shared" si="23"/>
         <v>24</v>
@@ -4237,17 +4504,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N146" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H148">
         <f>H142+1</f>
         <v>25</v>
@@ -4260,7 +4527,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H149">
         <f t="shared" ref="H149:H151" si="24">H143+1</f>
         <v>25</v>
@@ -4273,7 +4540,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H150">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -4286,7 +4553,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H151">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -4299,17 +4566,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H154">
         <f>H148+1</f>
         <v>26</v>
@@ -4322,7 +4589,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H155">
         <f t="shared" ref="H155:H157" si="25">H149+1</f>
         <v>26</v>
@@ -4335,7 +4602,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H156">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -4348,7 +4615,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H157">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -4361,17 +4628,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H160">
         <f>H154+1</f>
         <v>27</v>
@@ -4384,7 +4651,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H161">
         <f t="shared" ref="H161:H163" si="26">H155+1</f>
         <v>27</v>
@@ -4397,7 +4664,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H162">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -4410,7 +4677,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H163">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -4423,14 +4690,14 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
       <c r="N164" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:F12">
-    <sortCondition ref="F5:F12"/>
+  <sortState ref="C5:F21">
+    <sortCondition ref="F5:F21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Travian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF40768-12AC-47F3-906A-28CBDEC20C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E9D38F-C11F-4EF9-A9B1-BD1CBD1F025C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="17">
   <si>
     <t>Oases</t>
   </si>
@@ -63,25 +63,28 @@
     <t>ID</t>
   </si>
   <si>
-    <t>isInactive</t>
+    <t>Distance</t>
   </si>
   <si>
-    <t>no</t>
+    <t>Note</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>4 mai</t>
   </si>
   <si>
-    <t>HH</t>
+    <t>natar</t>
   </si>
   <si>
-    <t>MM</t>
+    <t>CanRaid</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>true</t>
   </si>
   <si>
-    <t>Distance</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Fort ?</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -152,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,19 +465,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -478,7 +489,7 @@
         <v>"Id": 0,</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +501,7 @@
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -502,17 +513,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -524,7 +535,7 @@
         <v>"Id": 1,</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -536,7 +547,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -548,17 +559,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -570,7 +581,7 @@
         <v>"Id": 2,</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -582,7 +593,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -594,17 +605,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -616,7 +627,7 @@
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -628,7 +639,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -640,17 +651,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -662,7 +673,7 @@
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -674,7 +685,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -686,17 +697,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -709,7 +720,7 @@
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -721,7 +732,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -733,17 +744,17 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -756,7 +767,7 @@
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -768,7 +779,7 @@
         <v>"X": -37,</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -780,17 +791,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -803,7 +814,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -815,7 +826,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -827,17 +838,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -850,7 +861,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -862,7 +873,7 @@
         <v>"X": -27,</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -874,17 +885,17 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -897,7 +908,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -909,7 +920,7 @@
         <v>"X": -23,</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -921,17 +932,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -944,7 +955,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -956,7 +967,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -968,17 +979,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -991,7 +1002,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +1014,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -1015,17 +1026,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1049,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -1062,17 +1073,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -1109,17 +1120,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -1156,17 +1167,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>4</v>
       </c>
@@ -1203,7 +1214,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>6</v>
       </c>
@@ -1211,12 +1222,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -1253,17 +1264,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1287,7 @@
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>4</v>
       </c>
@@ -1300,17 +1311,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -1323,7 +1334,7 @@
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>4</v>
       </c>
@@ -1347,17 +1358,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>"Id": 19,</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1393,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -1394,17 +1405,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>"Id": 20,</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -1429,7 +1440,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>4</v>
       </c>
@@ -1441,17 +1452,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>"Id": 21,</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1487,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>4</v>
       </c>
@@ -1488,17 +1499,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>2</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>"Id": 22,</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1534,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>4</v>
       </c>
@@ -1535,17 +1546,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>"Id": 23,</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>3</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>4</v>
       </c>
@@ -1582,17 +1593,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1616,7 @@
         <v>"Id": 24,</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>4</v>
       </c>
@@ -1629,17 +1640,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1663,7 @@
         <v>"Id": 25,</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1672,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>4</v>
       </c>
@@ -1670,17 +1681,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>"Id": 26,</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>4</v>
       </c>
@@ -1711,17 +1722,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1745,7 @@
         <v>"Id": 27,</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>3</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>4</v>
       </c>
@@ -1752,17 +1763,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>"Id": 28,</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1795,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>4</v>
       </c>
@@ -1793,17 +1804,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1827,7 @@
         <v>"Id": 29,</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1836,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>4</v>
       </c>
@@ -1834,17 +1845,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>"Id": 30,</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>3</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>4</v>
       </c>
@@ -1875,17 +1886,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1909,7 @@
         <v>"Id": 31,</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1918,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>4</v>
       </c>
@@ -1916,12 +1927,12 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>2</v>
       </c>
@@ -1930,17 +1941,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>2</v>
       </c>
@@ -1949,17 +1960,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>2</v>
       </c>
@@ -1968,17 +1979,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>2</v>
       </c>
@@ -1987,17 +1998,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>2</v>
       </c>
@@ -2006,12 +2017,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>4</v>
       </c>
@@ -2024,18 +2035,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
-  <dimension ref="B1:U164"/>
+  <dimension ref="B1:N164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N98"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>-31</v>
       </c>
@@ -2043,17 +2054,17 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2064,10 +2075,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2086,17 +2100,8 @@
         <f>CHAR(34)&amp;J4&amp;CHAR(34)&amp;": "&amp;K4&amp;","</f>
         <v>"Id": 1,</v>
       </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2107,11 +2112,11 @@
         <v>-50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <f>SQRT((C5-$C$1)^2+(D5-$D$1)^2)</f>
-        <v>1.4142135623730951</v>
+        <f>ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
+        <v>1.41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2130,21 +2135,8 @@
         <f>CHAR(34)&amp;J5&amp;CHAR(34)&amp;": "&amp;K5&amp;","</f>
         <v>"X": -32,</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>14</v>
-      </c>
-      <c r="T5">
-        <v>9</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U11" si="0">(R5*60*60*1000+S5*60*1000+T5*1000)*2</f>
-        <v>1698000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -2152,14 +2144,17 @@
         <v>-32</v>
       </c>
       <c r="D6" s="2">
-        <v>-54</v>
+        <v>-52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <f>SQRT((C6-$C$1)^2+(D6-$D$1)^2)</f>
-        <v>3.1622776601683795</v>
+        <f>ROUND(SQRT((C6-$C$1)^2+(D6-$D$1)^2),2)</f>
+        <v>1.41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2178,21 +2173,8 @@
         <f>CHAR(34)&amp;J6&amp;CHAR(34)&amp;": "&amp;K6</f>
         <v>"Y": -50</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>18</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>9372000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -2203,11 +2185,11 @@
         <v>-53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <f>SQRT((C7-$C$1)^2+(D7-$D$1)^2)</f>
-        <v>4.4721359549995796</v>
+        <f>ROUND(SQRT((C7-$C$1)^2+(D7-$D$1)^2),2)</f>
+        <v>4.47</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -2216,99 +2198,63 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K7" t="str">
         <f>VLOOKUP(H7,ToRaid,I7,FALSE)</f>
-        <v>yes</v>
+        <v>true</v>
       </c>
       <c r="N7" t="str">
         <f>CHAR(34)&amp;J7&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K7&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>58</v>
-      </c>
-      <c r="T7">
-        <v>19</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>6998000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
+        <v>-31</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(SQRT((C8-$C$1)^2+(D8-$D$1)^2),2)</f>
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>-30</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>-56</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <f>SQRT((C8-$C$1)^2+(D8-$D$1)^2)</f>
-        <v>5.0990195135927845</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>5</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>8050000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-33</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-46</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <f>SQRT((C9-$C$1)^2+(D9-$D$1)^2)</f>
-        <v>5.3851648071345037</v>
+        <f>ROUND(SQRT((C9-$C$1)^2+(D9-$D$1)^2),2)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N9" t="s">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>47</v>
-      </c>
-      <c r="T9">
-        <v>42</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>12924000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -2316,14 +2262,14 @@
         <v>-26</v>
       </c>
       <c r="D10" s="2">
-        <v>-48</v>
+        <v>-52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <f>SQRT((C10-$C$1)^2+(D10-$D$1)^2)</f>
-        <v>5.8309518948453007</v>
+        <f>ROUND(SQRT((C10-$C$1)^2+(D10-$D$1)^2),2)</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H10">
         <f>H4+1</f>
@@ -2343,39 +2289,29 @@
         <f>CHAR(34)&amp;J10&amp;CHAR(34)&amp;": "&amp;K10&amp;","</f>
         <v>"Id": 2,</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="T10">
-        <v>59</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>6118000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="D11" s="2">
-        <v>-54</v>
+        <v>-46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <f>SQRT((C11-$C$1)^2+(D11-$D$1)^2)</f>
-        <v>5.8309518948453007</v>
+        <f>ROUND(SQRT((C11-$C$1)^2+(D11-$D$1)^2),2)</f>
+        <v>5.39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H13" si="1">H5+1</f>
+        <f t="shared" ref="H11:H13" si="0">H5+1</f>
         <v>2</v>
       </c>
       <c r="I11">
@@ -2392,39 +2328,26 @@
         <f>CHAR(34)&amp;J11&amp;CHAR(34)&amp;": "&amp;K11&amp;","</f>
         <v>"X": -32,</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>21</v>
-      </c>
-      <c r="T11">
-        <v>25</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>16970000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="D12" s="2">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <f>SQRT((C12-$C$1)^2+(D12-$D$1)^2)</f>
-        <v>6.0827625302982193</v>
+        <f>ROUND(SQRT((C12-$C$1)^2+(D12-$D$1)^2),2)</f>
+        <v>5.83</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I12">
@@ -2435,14 +2358,14 @@
       </c>
       <c r="K12">
         <f>VLOOKUP(H12,ToRaid,I12,FALSE)</f>
-        <v>-54</v>
+        <v>-52</v>
       </c>
       <c r="N12" t="str">
         <f>CHAR(34)&amp;J12&amp;CHAR(34)&amp;": "&amp;K12</f>
-        <v>"Y": -54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -2450,92 +2373,101 @@
         <v>-26</v>
       </c>
       <c r="D13" s="2">
-        <v>-55</v>
+        <v>-48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <f>SQRT((C13-$C$1)^2+(D13-$D$1)^2)</f>
-        <v>6.4031242374328485</v>
+        <f>ROUND(SQRT((C13-$C$1)^2+(D13-$D$1)^2),2)</f>
+        <v>5.83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K13" t="str">
         <f>VLOOKUP(H13,ToRaid,I13,FALSE)</f>
-        <v>no</v>
+        <v>false</v>
       </c>
       <c r="N13" t="str">
         <f>CHAR(34)&amp;J13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K13&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="D14" s="2">
         <v>-45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <f>SQRT((C14-$C$1)^2+(D14-$D$1)^2)</f>
-        <v>6.7082039324993694</v>
+        <f>ROUND(SQRT((C14-$C$1)^2+(D14-$D$1)^2),2)</f>
+        <v>6.08</v>
       </c>
       <c r="N14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="D15" s="2">
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <f>SQRT((C15-$C$1)^2+(D15-$D$1)^2)</f>
-        <v>7.0710678118654755</v>
+        <f>ROUND(SQRT((C15-$C$1)^2+(D15-$D$1)^2),2)</f>
+        <v>6.08</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
       </c>
       <c r="N15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="D16" s="2">
-        <v>-46</v>
+        <v>-57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <f>SQRT((C16-$C$1)^2+(D16-$D$1)^2)</f>
-        <v>7.810249675906654</v>
+        <f>ROUND(SQRT((C16-$C$1)^2+(D16-$D$1)^2),2)</f>
+        <v>6.32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
       </c>
       <c r="H16">
         <f>H10+1</f>
@@ -2556,25 +2488,25 @@
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="D17" s="2">
         <v>-55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <f>SQRT((C17-$C$1)^2+(D17-$D$1)^2)</f>
-        <v>8.0622577482985491</v>
+        <f>ROUND(SQRT((C17-$C$1)^2+(D17-$D$1)^2),2)</f>
+        <v>6.4</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H19" si="2">H11+1</f>
+        <f t="shared" ref="H17:H19" si="1">H11+1</f>
         <v>3</v>
       </c>
       <c r="I17">
@@ -2592,25 +2524,25 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="D18" s="2">
-        <v>-52</v>
+        <v>-45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <f>SQRT((C18-$C$1)^2+(D18-$D$1)^2)</f>
-        <v>10.04987562112089</v>
+        <f>ROUND(SQRT((C18-$C$1)^2+(D18-$D$1)^2),2)</f>
+        <v>6.71</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I18">
@@ -2628,81 +2560,107 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="D19" s="2">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <f>SQRT((C19-$C$1)^2+(D19-$D$1)^2)</f>
-        <v>10.770329614269007</v>
+        <f>ROUND(SQRT((C19-$C$1)^2+(D19-$D$1)^2),2)</f>
+        <v>7.07</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K19" t="str">
         <f>VLOOKUP(H19,ToRaid,I19,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N19" t="str">
         <f>CHAR(34)&amp;J19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K19&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="D20" s="2">
-        <v>-49</v>
+        <v>-45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <f>SQRT((C20-$C$1)^2+(D20-$D$1)^2)</f>
-        <v>14.142135623730951</v>
+        <f>ROUND(SQRT((C20-$C$1)^2+(D20-$D$1)^2),2)</f>
+        <v>7.21</v>
       </c>
       <c r="N20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2">
+        <v>-25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f>ROUND(SQRT((C21-$C$1)^2+(D21-$D$1)^2),2)</f>
+        <v>7.81</v>
+      </c>
       <c r="N21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2">
+        <v>-24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-55</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <f>ROUND(SQRT((C22-$C$1)^2+(D22-$D$1)^2),2)</f>
+        <v>8.06</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
       <c r="H22">
         <f>H16+1</f>
         <v>4</v>
@@ -2722,15 +2680,25 @@
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2">
+        <v>-23</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <f>ROUND(SQRT((C23-$C$1)^2+(D23-$D$1)^2),2)</f>
+        <v>8.25</v>
+      </c>
       <c r="H23">
-        <f t="shared" ref="H23:H25" si="3">H17+1</f>
+        <f t="shared" ref="H23:H25" si="2">H17+1</f>
         <v>4</v>
       </c>
       <c r="I23">
@@ -2741,22 +2709,32 @@
       </c>
       <c r="K23">
         <f>VLOOKUP(H23,ToRaid,I23,FALSE)</f>
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="N23" t="str">
         <f>CHAR(34)&amp;J23&amp;CHAR(34)&amp;": "&amp;K23&amp;","</f>
-        <v>"X": -30,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"X": -31,</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2">
+        <v>-28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <f>ROUND(SQRT((C24-$C$1)^2+(D24-$D$1)^2),2)</f>
+        <v>8.5399999999999991</v>
+      </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I24">
@@ -2767,68 +2745,105 @@
       </c>
       <c r="K24">
         <f>VLOOKUP(H24,ToRaid,I24,FALSE)</f>
-        <v>-56</v>
+        <v>-46</v>
       </c>
       <c r="N24" t="str">
         <f>CHAR(34)&amp;J24&amp;CHAR(34)&amp;": "&amp;K24</f>
-        <v>"Y": -56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-58</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <f>ROUND(SQRT((C25-$C$1)^2+(D25-$D$1)^2),2)</f>
+        <v>8.6</v>
+      </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I25">
         <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K25" t="str">
         <f>VLOOKUP(H25,ToRaid,I25,FALSE)</f>
-        <v>yes</v>
+        <v>false</v>
       </c>
       <c r="N25" t="str">
         <f>CHAR(34)&amp;J25&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K25&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <f>ROUND(SQRT((C26-$C$1)^2+(D26-$D$1)^2),2)</f>
+        <v>8.94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
       <c r="N26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="C27" s="2">
+        <v>-39</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-59</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <f>ROUND(SQRT((C27-$C$1)^2+(D27-$D$1)^2),2)</f>
+        <v>11.31</v>
+      </c>
       <c r="N27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="F28">
+        <f t="shared" ref="F6:F29" si="3">ROUND(SQRT((C28-$C$1)^2+(D28-$D$1)^2),2)</f>
+        <v>59.68</v>
+      </c>
       <c r="H28">
         <f>H22+1</f>
         <v>5</v>
@@ -2848,13 +2863,17 @@
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>59.68</v>
+      </c>
       <c r="H29">
         <f t="shared" ref="H29:H31" si="4">H23+1</f>
         <v>5</v>
@@ -2867,14 +2886,14 @@
       </c>
       <c r="K29">
         <f>VLOOKUP(H29,ToRaid,I29,FALSE)</f>
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="N29" t="str">
         <f>CHAR(34)&amp;J29&amp;CHAR(34)&amp;": "&amp;K29&amp;","</f>
-        <v>"X": -33,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>26</v>
       </c>
@@ -2893,14 +2912,14 @@
       </c>
       <c r="K30">
         <f>VLOOKUP(H30,ToRaid,I30,FALSE)</f>
-        <v>-46</v>
+        <v>-56</v>
       </c>
       <c r="N30" t="str">
         <f>CHAR(34)&amp;J30&amp;CHAR(34)&amp;": "&amp;K30</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"Y": -56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>27</v>
       </c>
@@ -2915,18 +2934,18 @@
         <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K31" t="str">
         <f>VLOOKUP(H31,ToRaid,I31,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N31" t="str">
         <f>CHAR(34)&amp;J31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K31&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>28</v>
       </c>
@@ -2937,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>29</v>
       </c>
@@ -2948,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>30</v>
       </c>
@@ -2974,7 +2993,7 @@
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -3000,7 +3019,7 @@
         <v>"X": -26,</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>32</v>
       </c>
@@ -3019,14 +3038,14 @@
       </c>
       <c r="K36">
         <f>VLOOKUP(H36,ToRaid,I36,FALSE)</f>
-        <v>-48</v>
+        <v>-52</v>
       </c>
       <c r="N36" t="str">
         <f>CHAR(34)&amp;J36&amp;CHAR(34)&amp;": "&amp;K36</f>
-        <v>"Y": -48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>33</v>
       </c>
@@ -3041,28 +3060,28 @@
         <v>4</v>
       </c>
       <c r="J37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K37" t="str">
         <f>VLOOKUP(H37,ToRaid,I37,FALSE)</f>
-        <v>yes</v>
+        <v>false</v>
       </c>
       <c r="N37" t="str">
         <f>CHAR(34)&amp;J37&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K37&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H40">
         <f>H34+1</f>
         <v>7</v>
@@ -3082,7 +3101,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H41">
         <f t="shared" ref="H41:H43" si="6">H35+1</f>
         <v>7</v>
@@ -3095,14 +3114,14 @@
       </c>
       <c r="K41">
         <f>VLOOKUP(H41,ToRaid,I41,FALSE)</f>
-        <v>-36</v>
+        <v>-33</v>
       </c>
       <c r="N41" t="str">
         <f>CHAR(34)&amp;J41&amp;CHAR(34)&amp;": "&amp;K41&amp;","</f>
-        <v>"X": -36,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H42">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3115,14 +3134,14 @@
       </c>
       <c r="K42">
         <f>VLOOKUP(H42,ToRaid,I42,FALSE)</f>
-        <v>-54</v>
+        <v>-46</v>
       </c>
       <c r="N42" t="str">
         <f>CHAR(34)&amp;J42&amp;CHAR(34)&amp;": "&amp;K42</f>
-        <v>"Y": -54</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H43">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -3131,28 +3150,28 @@
         <v>4</v>
       </c>
       <c r="J43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K43" t="str">
         <f>VLOOKUP(H43,ToRaid,I43,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N43" t="str">
         <f>CHAR(34)&amp;J43&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K43&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H46">
         <f>H40+1</f>
         <v>8</v>
@@ -3172,7 +3191,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H47">
         <f t="shared" ref="H47:H49" si="7">H41+1</f>
         <v>8</v>
@@ -3185,14 +3204,14 @@
       </c>
       <c r="K47">
         <f>VLOOKUP(H47,ToRaid,I47,FALSE)</f>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="N47" t="str">
         <f>CHAR(34)&amp;J47&amp;CHAR(34)&amp;": "&amp;K47&amp;","</f>
-        <v>"X": -37,</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+        <v>"X": -36,</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H48">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3205,14 +3224,14 @@
       </c>
       <c r="K48">
         <f>VLOOKUP(H48,ToRaid,I48,FALSE)</f>
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="N48" t="str">
         <f>CHAR(34)&amp;J48&amp;CHAR(34)&amp;": "&amp;K48</f>
-        <v>"Y": -50</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -3221,28 +3240,28 @@
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K49" t="str">
         <f>VLOOKUP(H49,ToRaid,I49,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N49" t="str">
         <f>CHAR(34)&amp;J49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K49&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H52">
         <f>H46+1</f>
         <v>9</v>
@@ -3262,7 +3281,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" ref="H53:H55" si="8">H47+1</f>
         <v>9</v>
@@ -3282,7 +3301,7 @@
         <v>"X": -26,</v>
       </c>
     </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3295,14 +3314,14 @@
       </c>
       <c r="K54">
         <f>VLOOKUP(H54,ToRaid,I54,FALSE)</f>
-        <v>-55</v>
+        <v>-48</v>
       </c>
       <c r="N54" t="str">
         <f>CHAR(34)&amp;J54&amp;CHAR(34)&amp;": "&amp;K54</f>
-        <v>"Y": -55</v>
-      </c>
-    </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -48</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H55">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -3311,28 +3330,28 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K55" t="str">
         <f>VLOOKUP(H55,ToRaid,I55,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N55" t="str">
         <f>CHAR(34)&amp;J55&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K55&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H58">
         <f>H52+1</f>
         <v>10</v>
@@ -3352,7 +3371,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H59">
         <f t="shared" ref="H59:H61" si="9">H53+1</f>
         <v>10</v>
@@ -3365,14 +3384,14 @@
       </c>
       <c r="K59">
         <f>VLOOKUP(H59,ToRaid,I59,FALSE)</f>
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="N59" t="str">
         <f>CHAR(34)&amp;J59&amp;CHAR(34)&amp;": "&amp;K59&amp;","</f>
-        <v>"X": -28,</v>
-      </c>
-    </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H60">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -3392,7 +3411,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H61">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -3401,28 +3420,28 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K61" t="str">
         <f>VLOOKUP(H61,ToRaid,I61,FALSE)</f>
-        <v>yes</v>
+        <v>false</v>
       </c>
       <c r="N61" t="str">
         <f>CHAR(34)&amp;J61&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K61&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H64">
         <f>H58+1</f>
         <v>11</v>
@@ -3442,7 +3461,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H65">
         <f t="shared" ref="H65:H67" si="10">H59+1</f>
         <v>11</v>
@@ -3455,14 +3474,14 @@
       </c>
       <c r="K65">
         <f>VLOOKUP(H65,ToRaid,I65,FALSE)</f>
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="N65" t="str">
         <f>CHAR(34)&amp;J65&amp;CHAR(34)&amp;": "&amp;K65&amp;","</f>
-        <v>"X": -32,</v>
-      </c>
-    </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H66">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -3475,14 +3494,14 @@
       </c>
       <c r="K66">
         <f>VLOOKUP(H66,ToRaid,I66,FALSE)</f>
-        <v>-58</v>
+        <v>-50</v>
       </c>
       <c r="N66" t="str">
         <f>CHAR(34)&amp;J66&amp;CHAR(34)&amp;": "&amp;K66</f>
-        <v>"Y": -58</v>
-      </c>
-    </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -50</v>
+      </c>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H67">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -3491,28 +3510,28 @@
         <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K67" t="str">
         <f>VLOOKUP(H67,ToRaid,I67,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N67" t="str">
         <f>CHAR(34)&amp;J67&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H70">
         <f>H64+1</f>
         <v>12</v>
@@ -3532,7 +3551,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H71">
         <f t="shared" ref="H71:H73" si="11">H65+1</f>
         <v>12</v>
@@ -3545,14 +3564,14 @@
       </c>
       <c r="K71">
         <f>VLOOKUP(H71,ToRaid,I71,FALSE)</f>
-        <v>-25</v>
+        <v>-33</v>
       </c>
       <c r="N71" t="str">
         <f>CHAR(34)&amp;J71&amp;CHAR(34)&amp;": "&amp;K71&amp;","</f>
-        <v>"X": -25,</v>
-      </c>
-    </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H72">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -3565,14 +3584,14 @@
       </c>
       <c r="K72">
         <f>VLOOKUP(H72,ToRaid,I72,FALSE)</f>
-        <v>-46</v>
+        <v>-57</v>
       </c>
       <c r="N72" t="str">
         <f>CHAR(34)&amp;J72&amp;CHAR(34)&amp;": "&amp;K72</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -57</v>
+      </c>
+    </row>
+    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H73">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -3581,28 +3600,28 @@
         <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K73" t="str">
         <f>VLOOKUP(H73,ToRaid,I73,FALSE)</f>
-        <v>yes</v>
+        <v>false</v>
       </c>
       <c r="N73" t="str">
         <f>CHAR(34)&amp;J73&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K73&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H76">
         <f>H70+1</f>
         <v>13</v>
@@ -3622,7 +3641,7 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H77">
         <f t="shared" ref="H77:H79" si="12">H71+1</f>
         <v>13</v>
@@ -3635,14 +3654,14 @@
       </c>
       <c r="K77">
         <f>VLOOKUP(H77,ToRaid,I77,FALSE)</f>
-        <v>-24</v>
+        <v>-26</v>
       </c>
       <c r="N77" t="str">
         <f>CHAR(34)&amp;J77&amp;CHAR(34)&amp;": "&amp;K77&amp;","</f>
-        <v>"X": -24,</v>
-      </c>
-    </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H78">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -3662,7 +3681,7 @@
         <v>"Y": -55</v>
       </c>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H79">
         <f t="shared" si="12"/>
         <v>13</v>
@@ -3671,28 +3690,28 @@
         <v>4</v>
       </c>
       <c r="J79" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K79" t="str">
         <f>VLOOKUP(H79,ToRaid,I79,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N79" t="str">
         <f>CHAR(34)&amp;J79&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K79&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H82">
         <f>H76+1</f>
         <v>14</v>
@@ -3712,7 +3731,7 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H83">
         <f t="shared" ref="H83:H85" si="13">H77+1</f>
         <v>14</v>
@@ -3725,14 +3744,14 @@
       </c>
       <c r="K83">
         <f>VLOOKUP(H83,ToRaid,I83,FALSE)</f>
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="N83" t="str">
         <f>CHAR(34)&amp;J83&amp;CHAR(34)&amp;": "&amp;K83&amp;","</f>
-        <v>"X": -21,</v>
-      </c>
-    </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H84">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -3745,14 +3764,14 @@
       </c>
       <c r="K84">
         <f>VLOOKUP(H84,ToRaid,I84,FALSE)</f>
-        <v>-52</v>
+        <v>-45</v>
       </c>
       <c r="N84" t="str">
         <f>CHAR(34)&amp;J84&amp;CHAR(34)&amp;": "&amp;K84</f>
-        <v>"Y": -52</v>
-      </c>
-    </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H85">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -3761,28 +3780,28 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K85" t="str">
         <f>VLOOKUP(H85,ToRaid,I85,FALSE)</f>
-        <v>no</v>
+        <v>true</v>
       </c>
       <c r="N85" t="str">
         <f>CHAR(34)&amp;J85&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K85&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H88">
         <f>H82+1</f>
         <v>15</v>
@@ -3802,7 +3821,7 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H89">
         <f t="shared" ref="H89:H91" si="14">H83+1</f>
         <v>15</v>
@@ -3815,14 +3834,14 @@
       </c>
       <c r="K89">
         <f>VLOOKUP(H89,ToRaid,I89,FALSE)</f>
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="N89" t="str">
         <f>CHAR(34)&amp;J89&amp;CHAR(34)&amp;": "&amp;K89&amp;","</f>
-        <v>"X": -21,</v>
-      </c>
-    </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H90">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -3835,14 +3854,14 @@
       </c>
       <c r="K90">
         <f>VLOOKUP(H90,ToRaid,I90,FALSE)</f>
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="N90" t="str">
         <f>CHAR(34)&amp;J90&amp;CHAR(34)&amp;": "&amp;K90</f>
-        <v>"Y": -47</v>
-      </c>
-    </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -58</v>
+      </c>
+    </row>
+    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H91">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -3851,28 +3870,28 @@
         <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K91" t="str">
         <f>VLOOKUP(H91,ToRaid,I91,FALSE)</f>
-        <v>yes</v>
+        <v>true</v>
       </c>
       <c r="N91" t="str">
         <f>CHAR(34)&amp;J91&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K91&amp;CHAR(34)</f>
-        <v>"isInactive": "yes"</v>
-      </c>
-    </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H94">
         <f>H88+1</f>
         <v>16</v>
@@ -3892,7 +3911,7 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H95">
         <f t="shared" ref="H95:H97" si="15">H89+1</f>
         <v>16</v>
@@ -3905,14 +3924,14 @@
       </c>
       <c r="K95">
         <f>VLOOKUP(H95,ToRaid,I95,FALSE)</f>
-        <v>-17</v>
+        <v>-35</v>
       </c>
       <c r="N95" t="str">
         <f>CHAR(34)&amp;J95&amp;CHAR(34)&amp;": "&amp;K95&amp;","</f>
-        <v>"X": -17,</v>
-      </c>
-    </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -35,</v>
+      </c>
+    </row>
+    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H96">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -3925,14 +3944,14 @@
       </c>
       <c r="K96">
         <f>VLOOKUP(H96,ToRaid,I96,FALSE)</f>
-        <v>-49</v>
+        <v>-45</v>
       </c>
       <c r="N96" t="str">
         <f>CHAR(34)&amp;J96&amp;CHAR(34)&amp;": "&amp;K96</f>
-        <v>"Y": -49</v>
-      </c>
-    </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H97">
         <f t="shared" si="15"/>
         <v>16</v>
@@ -3941,28 +3960,28 @@
         <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K97" t="str">
         <f>VLOOKUP(H97,ToRaid,I97,FALSE)</f>
-        <v>no</v>
+        <v>false</v>
       </c>
       <c r="N97" t="str">
         <f>CHAR(34)&amp;J97&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K97&amp;CHAR(34)</f>
-        <v>"isInactive": "no"</v>
-      </c>
-    </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H100">
         <f>H94+1</f>
         <v>17</v>
@@ -3982,7 +4001,7 @@
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H101">
         <f t="shared" ref="H101:H103" si="16">H95+1</f>
         <v>17</v>
@@ -3995,14 +4014,14 @@
       </c>
       <c r="K101">
         <f>VLOOKUP(H101,ToRaid,I101,FALSE)</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="N101" t="str">
         <f>CHAR(34)&amp;J101&amp;CHAR(34)&amp;": "&amp;K101&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -25,</v>
+      </c>
+    </row>
+    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H102">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -4015,14 +4034,14 @@
       </c>
       <c r="K102">
         <f>VLOOKUP(H102,ToRaid,I102,FALSE)</f>
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="N102" t="str">
         <f>CHAR(34)&amp;J102&amp;CHAR(34)&amp;": "&amp;K102</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H103">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -4031,28 +4050,28 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>9</v>
-      </c>
-      <c r="K103">
+        <v>13</v>
+      </c>
+      <c r="K103" t="str">
         <f>VLOOKUP(H103,ToRaid,I103,FALSE)</f>
-        <v>0</v>
+        <v>true</v>
       </c>
       <c r="N103" t="str">
         <f>CHAR(34)&amp;J103&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K103&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H106">
         <f>H100+1</f>
         <v>18</v>
@@ -4072,7 +4091,7 @@
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H107">
         <f t="shared" ref="H107:H109" si="17">H101+1</f>
         <v>18</v>
@@ -4085,14 +4104,14 @@
       </c>
       <c r="K107">
         <f>VLOOKUP(H107,ToRaid,I107,FALSE)</f>
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="N107" t="str">
         <f>CHAR(34)&amp;J107&amp;CHAR(34)&amp;": "&amp;K107&amp;","</f>
-        <v>"X": 0,</v>
-      </c>
-    </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -24,</v>
+      </c>
+    </row>
+    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H108">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -4105,14 +4124,14 @@
       </c>
       <c r="K108">
         <f>VLOOKUP(H108,ToRaid,I108,FALSE)</f>
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="N108" t="str">
         <f>CHAR(34)&amp;J108&amp;CHAR(34)&amp;": "&amp;K108</f>
-        <v>"Y": 0</v>
-      </c>
-    </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H109">
         <f t="shared" si="17"/>
         <v>18</v>
@@ -4121,28 +4140,28 @@
         <v>4</v>
       </c>
       <c r="J109" t="s">
-        <v>9</v>
-      </c>
-      <c r="K109">
+        <v>13</v>
+      </c>
+      <c r="K109" t="str">
         <f>VLOOKUP(H109,ToRaid,I109,FALSE)</f>
-        <v>0</v>
+        <v>true</v>
       </c>
       <c r="N109" t="str">
         <f>CHAR(34)&amp;J109&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K109&amp;CHAR(34)</f>
-        <v>"isInactive": "0"</v>
-      </c>
-    </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H112">
         <f>H106+1</f>
         <v>19</v>
@@ -4150,12 +4169,19 @@
       <c r="I112">
         <v>1</v>
       </c>
+      <c r="J112" t="s">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <f>VLOOKUP(H112,ToRaid,I112,FALSE)</f>
+        <v>19</v>
+      </c>
       <c r="N112" t="str">
         <f>CHAR(34)&amp;J112&amp;CHAR(34)&amp;": "&amp;K112&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Id": 19,</v>
+      </c>
+    </row>
+    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H113">
         <f t="shared" ref="H113:H115" si="18">H107+1</f>
         <v>19</v>
@@ -4163,12 +4189,19 @@
       <c r="I113">
         <v>2</v>
       </c>
+      <c r="J113" t="s">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <f>VLOOKUP(H113,ToRaid,I113,FALSE)</f>
+        <v>-23</v>
+      </c>
       <c r="N113" t="str">
         <f>CHAR(34)&amp;J113&amp;CHAR(34)&amp;": "&amp;K113&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"X": -23,</v>
+      </c>
+    </row>
+    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H114">
         <f t="shared" si="18"/>
         <v>19</v>
@@ -4176,12 +4209,19 @@
       <c r="I114">
         <v>3</v>
       </c>
+      <c r="J114" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <f>VLOOKUP(H114,ToRaid,I114,FALSE)</f>
+        <v>-53</v>
+      </c>
       <c r="N114" t="str">
         <f>CHAR(34)&amp;J114&amp;CHAR(34)&amp;": "&amp;K114</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"Y": -53</v>
+      </c>
+    </row>
+    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H115">
         <f t="shared" si="18"/>
         <v>19</v>
@@ -4189,22 +4229,29 @@
       <c r="I115">
         <v>4</v>
       </c>
+      <c r="J115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" t="str">
+        <f>VLOOKUP(H115,ToRaid,I115,FALSE)</f>
+        <v>false</v>
+      </c>
       <c r="N115" t="str">
         <f>CHAR(34)&amp;J115&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K115&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.3">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H118">
         <f>H112+1</f>
         <v>20</v>
@@ -4217,7 +4264,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H119">
         <f t="shared" ref="H119:H121" si="19">H113+1</f>
         <v>20</v>
@@ -4230,7 +4277,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H120">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -4243,7 +4290,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H121">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -4256,17 +4303,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H124">
         <f>H118+1</f>
         <v>21</v>
@@ -4279,7 +4326,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H125">
         <f t="shared" ref="H125:H127" si="20">H119+1</f>
         <v>21</v>
@@ -4292,7 +4339,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H126">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -4305,7 +4352,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H127">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -4318,17 +4365,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H130">
         <f>H124+1</f>
         <v>22</v>
@@ -4341,7 +4388,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H131">
         <f t="shared" ref="H131:H133" si="21">H125+1</f>
         <v>22</v>
@@ -4354,7 +4401,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H132">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -4367,7 +4414,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H133">
         <f t="shared" si="21"/>
         <v>22</v>
@@ -4380,17 +4427,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H136">
         <f>H130+1</f>
         <v>23</v>
@@ -4403,7 +4450,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H137">
         <f t="shared" ref="H137:H139" si="22">H131+1</f>
         <v>23</v>
@@ -4416,7 +4463,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H138">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -4429,7 +4476,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="139" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H139">
         <f t="shared" si="22"/>
         <v>23</v>
@@ -4442,17 +4489,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="140" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N140" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H142">
         <f>H136+1</f>
         <v>24</v>
@@ -4465,7 +4512,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H143">
         <f t="shared" ref="H143:H145" si="23">H137+1</f>
         <v>24</v>
@@ -4478,7 +4525,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H144">
         <f t="shared" si="23"/>
         <v>24</v>
@@ -4491,7 +4538,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="145" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H145">
         <f t="shared" si="23"/>
         <v>24</v>
@@ -4504,17 +4551,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="146" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N146" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H148">
         <f>H142+1</f>
         <v>25</v>
@@ -4527,7 +4574,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="149" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H149">
         <f t="shared" ref="H149:H151" si="24">H143+1</f>
         <v>25</v>
@@ -4540,7 +4587,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="150" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H150">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -4553,7 +4600,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="151" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H151">
         <f t="shared" si="24"/>
         <v>25</v>
@@ -4566,17 +4613,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="152" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H154">
         <f>H148+1</f>
         <v>26</v>
@@ -4589,7 +4636,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="155" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H155">
         <f t="shared" ref="H155:H157" si="25">H149+1</f>
         <v>26</v>
@@ -4602,7 +4649,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="156" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H156">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -4615,7 +4662,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="157" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H157">
         <f t="shared" si="25"/>
         <v>26</v>
@@ -4628,17 +4675,17 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="158" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H160">
         <f>H154+1</f>
         <v>27</v>
@@ -4651,7 +4698,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H161">
         <f t="shared" ref="H161:H163" si="26">H155+1</f>
         <v>27</v>
@@ -4664,7 +4711,7 @@
         <v>"": ,</v>
       </c>
     </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H162">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -4677,7 +4724,7 @@
         <v xml:space="preserve">"": </v>
       </c>
     </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H163">
         <f t="shared" si="26"/>
         <v>27</v>
@@ -4690,15 +4737,16 @@
         <v>"": ""</v>
       </c>
     </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
       <c r="N164" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:F21">
-    <sortCondition ref="F5:F21"/>
+  <sortState ref="C5:F27">
+    <sortCondition ref="F5:F27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E9D38F-C11F-4EF9-A9B1-BD1CBD1F025C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD8FB1-626B-4D1C-8304-83BCABE4BDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="16">
   <si>
     <t>Oases</t>
   </si>
@@ -66,15 +66,6 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>4 mai</t>
-  </si>
-  <si>
-    <t>natar</t>
-  </si>
-  <si>
     <t>CanRaid</t>
   </si>
   <si>
@@ -84,14 +75,20 @@
     <t>false</t>
   </si>
   <si>
-    <t>Fort ?</t>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>4 Mai</t>
+  </si>
+  <si>
+    <t>https://ts4.travian.com/position_details.php?x=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,10 +130,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,15 +143,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2035,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
-  <dimension ref="B1:N164"/>
+  <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2068,10 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C1">
         <v>-31</v>
       </c>
@@ -2054,17 +2079,17 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2075,33 +2100,38 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f>VLOOKUP(H4,ToRaid,I4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="N4" t="str">
-        <f>CHAR(34)&amp;J4&amp;CHAR(34)&amp;": "&amp;K4&amp;","</f>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>VLOOKUP(I4,ToRaid,J4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="str">
+        <f>CHAR(34)&amp;K4&amp;CHAR(34)&amp;": "&amp;L4&amp;","</f>
         <v>"Id": 1,</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>$A$1&amp;C5&amp;"&amp;y="&amp;D5</f>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-50</v>
+      </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2112,31 +2142,39 @@
         <v>-50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <f>ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
         <v>1.41</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <f>VLOOKUP(H5,ToRaid,I5,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP(I5,ToRaid,J5,FALSE)</f>
         <v>-32</v>
       </c>
-      <c r="N5" t="str">
-        <f>CHAR(34)&amp;J5&amp;CHAR(34)&amp;": "&amp;K5&amp;","</f>
+      <c r="O5" t="str">
+        <f>CHAR(34)&amp;K5&amp;CHAR(34)&amp;": "&amp;L5&amp;","</f>
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" ref="A6:A37" si="0">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-52</v>
+      </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -2147,2606 +2185,4015 @@
         <v>-52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <f>ROUND(SQRT((C6-$C$1)^2+(D6-$D$1)^2),2)</f>
         <v>1.41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(I6,ToRaid,J6,FALSE)</f>
+        <v>-50</v>
+      </c>
+      <c r="O6" t="str">
+        <f>CHAR(34)&amp;K6&amp;CHAR(34)&amp;": "&amp;L6</f>
+        <v>"Y": -50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-54</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-54</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <f>VLOOKUP(H6,ToRaid,I6,FALSE)</f>
-        <v>-50</v>
-      </c>
-      <c r="N6" t="str">
-        <f>CHAR(34)&amp;J6&amp;CHAR(34)&amp;": "&amp;K6</f>
-        <v>"Y": -50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-35</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F7">
         <f>ROUND(SQRT((C7-$C$1)^2+(D7-$D$1)^2),2)</f>
-        <v>4.47</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>3.16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>31</v>
       </c>
       <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="str">
-        <f>VLOOKUP(H7,ToRaid,I7,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="str">
+        <f>VLOOKUP(I7,ToRaid,J7,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N7" t="str">
-        <f>CHAR(34)&amp;J7&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K7&amp;CHAR(34)</f>
+      <c r="O7" t="str">
+        <f>CHAR(34)&amp;K7&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L7&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-54</v>
+      </c>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>-31</v>
+        <v>-32</v>
       </c>
       <c r="D8" s="2">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <f>ROUND(SQRT((C8-$C$1)^2+(D8-$D$1)^2),2)</f>
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3.16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-53</v>
+      </c>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>-30</v>
+        <v>-35</v>
       </c>
       <c r="D9" s="2">
-        <v>-56</v>
+        <v>-53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <f>ROUND(SQRT((C9-$C$1)^2+(D9-$D$1)^2),2)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4.47</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-31&amp;y=-46</v>
+      </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>-26</v>
+        <v>-31</v>
       </c>
       <c r="D10" s="2">
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <f>ROUND(SQRT((C10-$C$1)^2+(D10-$D$1)^2),2)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H10">
-        <f>H4+1</f>
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>170</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <f>VLOOKUP(H10,ToRaid,I10,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="N10" t="str">
-        <f>CHAR(34)&amp;J10&amp;CHAR(34)&amp;": "&amp;K10&amp;","</f>
+        <f>I4+1</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f>VLOOKUP(I10,ToRaid,J10,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="O10" t="str">
+        <f>CHAR(34)&amp;K10&amp;CHAR(34)&amp;": "&amp;L10&amp;","</f>
         <v>"Id": 2,</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-56</v>
+      </c>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="D11" s="2">
-        <v>-46</v>
+        <v>-56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <f>ROUND(SQRT((C11-$C$1)^2+(D11-$D$1)^2),2)</f>
-        <v>5.39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ref="H11:H13" si="0">H5+1</f>
-        <v>2</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <f>VLOOKUP(H11,ToRaid,I11,FALSE)</f>
+        <f t="shared" ref="I11:I13" si="1">I5+1</f>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f>VLOOKUP(I11,ToRaid,J11,FALSE)</f>
         <v>-32</v>
       </c>
-      <c r="N11" t="str">
-        <f>CHAR(34)&amp;J11&amp;CHAR(34)&amp;": "&amp;K11&amp;","</f>
+      <c r="O11" t="str">
+        <f>CHAR(34)&amp;K11&amp;CHAR(34)&amp;": "&amp;L11&amp;","</f>
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-52</v>
+      </c>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-36</v>
+        <v>-26</v>
       </c>
       <c r="D12" s="2">
-        <v>-54</v>
+        <v>-52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <f>ROUND(SQRT((C12-$C$1)^2+(D12-$D$1)^2),2)</f>
-        <v>5.83</v>
-      </c>
-      <c r="H12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G12" s="2">
+        <v>217</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f>VLOOKUP(I12,ToRaid,J12,FALSE)</f>
+        <v>-52</v>
+      </c>
+      <c r="O12" t="str">
+        <f>CHAR(34)&amp;K12&amp;CHAR(34)&amp;": "&amp;L12</f>
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <f>VLOOKUP(H12,ToRaid,I12,FALSE)</f>
-        <v>-52</v>
-      </c>
-      <c r="N12" t="str">
-        <f>CHAR(34)&amp;J12&amp;CHAR(34)&amp;": "&amp;K12</f>
-        <v>"Y": -52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-46</v>
+      </c>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="D13" s="2">
-        <v>-48</v>
+        <v>-46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <f>ROUND(SQRT((C13-$C$1)^2+(D13-$D$1)^2),2)</f>
-        <v>5.83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
+        <v>5.39</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="str">
+        <f>VLOOKUP(I13,ToRaid,J13,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O13" t="str">
+        <f>CHAR(34)&amp;K13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L13&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="str">
-        <f>VLOOKUP(H13,ToRaid,I13,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N13" t="str">
-        <f>CHAR(34)&amp;J13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K13&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-54</v>
+      </c>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>-30</v>
+        <v>-36</v>
       </c>
       <c r="D14" s="2">
-        <v>-45</v>
+        <v>-54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <f>ROUND(SQRT((C14-$C$1)^2+(D14-$D$1)^2),2)</f>
-        <v>6.08</v>
-      </c>
-      <c r="N14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5.83</v>
+      </c>
+      <c r="G14" s="2">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-48</v>
+      </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>-37</v>
+        <v>-26</v>
       </c>
       <c r="D15" s="2">
-        <v>-50</v>
+        <v>-48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <f>ROUND(SQRT((C15-$C$1)^2+(D15-$D$1)^2),2)</f>
-        <v>6.08</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5.83</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-45</v>
+      </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>-33</v>
+        <v>-30</v>
       </c>
       <c r="D16" s="2">
-        <v>-57</v>
+        <v>-45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <f>ROUND(SQRT((C16-$C$1)^2+(D16-$D$1)^2),2)</f>
-        <v>6.32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <f>H10+1</f>
-        <v>3</v>
-      </c>
+        <v>6.08</v>
+      </c>
+      <c r="G16" s="2">
+        <v>195</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <f>VLOOKUP(H16,ToRaid,I16,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="N16" t="str">
-        <f>CHAR(34)&amp;J16&amp;CHAR(34)&amp;": "&amp;K16&amp;","</f>
+        <f>I10+1</f>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(I16,ToRaid,J16,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="O16" t="str">
+        <f>CHAR(34)&amp;K16&amp;CHAR(34)&amp;": "&amp;L16&amp;","</f>
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-50</v>
+      </c>
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>-26</v>
+        <v>-37</v>
       </c>
       <c r="D17" s="2">
-        <v>-55</v>
+        <v>-50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <f>ROUND(SQRT((C17-$C$1)^2+(D17-$D$1)^2),2)</f>
-        <v>6.4</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H19" si="1">H11+1</f>
-        <v>3</v>
+        <v>6.08</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <f>VLOOKUP(H17,ToRaid,I17,FALSE)</f>
-        <v>-35</v>
-      </c>
-      <c r="N17" t="str">
-        <f>CHAR(34)&amp;J17&amp;CHAR(34)&amp;": "&amp;K17&amp;","</f>
-        <v>"X": -35,</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I17:I19" si="2">I11+1</f>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(I17,ToRaid,J17,FALSE)</f>
+        <v>-30</v>
+      </c>
+      <c r="O17" t="str">
+        <f>CHAR(34)&amp;K17&amp;CHAR(34)&amp;": "&amp;L17&amp;","</f>
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-57</v>
+      </c>
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>-28</v>
+        <v>-33</v>
       </c>
       <c r="D18" s="2">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <f>ROUND(SQRT((C18-$C$1)^2+(D18-$D$1)^2),2)</f>
-        <v>6.71</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
+        <v>6.32</v>
+      </c>
+      <c r="G18" s="2">
+        <v>190</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <f>VLOOKUP(H18,ToRaid,I18,FALSE)</f>
-        <v>-53</v>
-      </c>
-      <c r="N18" t="str">
-        <f>CHAR(34)&amp;J18&amp;CHAR(34)&amp;": "&amp;K18</f>
-        <v>"Y": -53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(I18,ToRaid,J18,FALSE)</f>
+        <v>-54</v>
+      </c>
+      <c r="O18" t="str">
+        <f>CHAR(34)&amp;K18&amp;CHAR(34)&amp;": "&amp;L18</f>
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-55</v>
+      </c>
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-32</v>
+        <v>-26</v>
       </c>
       <c r="D19" s="2">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <f>ROUND(SQRT((C19-$C$1)^2+(D19-$D$1)^2),2)</f>
-        <v>7.07</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6.4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="str">
-        <f>VLOOKUP(H19,ToRaid,I19,FALSE)</f>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="str">
+        <f>VLOOKUP(I19,ToRaid,J19,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N19" t="str">
-        <f>CHAR(34)&amp;J19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K19&amp;CHAR(34)</f>
+      <c r="O19" t="str">
+        <f>CHAR(34)&amp;K19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L19&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-45</v>
+      </c>
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>-35</v>
+        <v>-28</v>
       </c>
       <c r="D20" s="2">
         <v>-45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <f>ROUND(SQRT((C20-$C$1)^2+(D20-$D$1)^2),2)</f>
-        <v>7.21</v>
-      </c>
-      <c r="N20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6.71</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-58</v>
+      </c>
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="D21" s="2">
-        <v>-46</v>
+        <v>-58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <f>ROUND(SQRT((C21-$C$1)^2+(D21-$D$1)^2),2)</f>
-        <v>7.81</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7.07</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-45</v>
+      </c>
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>-24</v>
+        <v>-35</v>
       </c>
       <c r="D22" s="2">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F22">
         <f>ROUND(SQRT((C22-$C$1)^2+(D22-$D$1)^2),2)</f>
-        <v>8.06</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <f>H16+1</f>
-        <v>4</v>
-      </c>
+        <v>7.21</v>
+      </c>
+      <c r="G22" s="2">
+        <v>189</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <f>VLOOKUP(H22,ToRaid,I22,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="N22" t="str">
-        <f>CHAR(34)&amp;J22&amp;CHAR(34)&amp;": "&amp;K22&amp;","</f>
+        <f>I16+1</f>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(I22,ToRaid,J22,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="O22" t="str">
+        <f>CHAR(34)&amp;K22&amp;CHAR(34)&amp;": "&amp;L22&amp;","</f>
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-46</v>
+      </c>
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="D23" s="2">
-        <v>-53</v>
+        <v>-46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <f>ROUND(SQRT((C23-$C$1)^2+(D23-$D$1)^2),2)</f>
-        <v>8.25</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H25" si="2">H17+1</f>
-        <v>4</v>
+        <v>7.81</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11</v>
       </c>
       <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23">
-        <f>VLOOKUP(H23,ToRaid,I23,FALSE)</f>
-        <v>-31</v>
-      </c>
-      <c r="N23" t="str">
-        <f>CHAR(34)&amp;J23&amp;CHAR(34)&amp;": "&amp;K23&amp;","</f>
-        <v>"X": -31,</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I23:I25" si="3">I17+1</f>
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(I23,ToRaid,J23,FALSE)</f>
+        <v>-32</v>
+      </c>
+      <c r="O23" t="str">
+        <f>CHAR(34)&amp;K23&amp;CHAR(34)&amp;": "&amp;L23&amp;","</f>
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-55</v>
+      </c>
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>-28</v>
+        <v>-24</v>
       </c>
       <c r="D24" s="2">
-        <v>-59</v>
+        <v>-55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <f>ROUND(SQRT((C24-$C$1)^2+(D24-$D$1)^2),2)</f>
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8.06</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <f>VLOOKUP(H24,ToRaid,I24,FALSE)</f>
-        <v>-46</v>
-      </c>
-      <c r="N24" t="str">
-        <f>CHAR(34)&amp;J24&amp;CHAR(34)&amp;": "&amp;K24</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <f>VLOOKUP(I24,ToRaid,J24,FALSE)</f>
+        <v>-54</v>
+      </c>
+      <c r="O24" t="str">
+        <f>CHAR(34)&amp;K24&amp;CHAR(34)&amp;": "&amp;L24</f>
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-23&amp;y=-53</v>
+      </c>
       <c r="B25" s="2">
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>-26</v>
+        <v>-23</v>
       </c>
       <c r="D25" s="2">
-        <v>-58</v>
+        <v>-53</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <f>ROUND(SQRT((C25-$C$1)^2+(D25-$D$1)^2),2)</f>
-        <v>8.6</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
+        <v>8.25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>124</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="str">
-        <f>VLOOKUP(H25,ToRaid,I25,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N25" t="str">
-        <f>CHAR(34)&amp;J25&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K25&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="str">
+        <f>VLOOKUP(I25,ToRaid,J25,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O25" t="str">
+        <f>CHAR(34)&amp;K25&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L25&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-59</v>
+      </c>
       <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="D26" s="2">
-        <v>-43</v>
+        <v>-59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <f>ROUND(SQRT((C26-$C$1)^2+(D26-$D$1)^2),2)</f>
-        <v>8.94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9</v>
+      </c>
+      <c r="O26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-58</v>
+      </c>
       <c r="B27" s="2">
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>-39</v>
+        <v>-26</v>
       </c>
       <c r="D27" s="2">
-        <v>-59</v>
+        <v>-58</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <f>ROUND(SQRT((C27-$C$1)^2+(D27-$D$1)^2),2)</f>
-        <v>11.31</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8.6</v>
+      </c>
+      <c r="G27" s="2">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-43</v>
+      </c>
       <c r="B28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="2">
+        <v>-27</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-43</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F28">
-        <f t="shared" ref="F6:F29" si="3">ROUND(SQRT((C28-$C$1)^2+(D28-$D$1)^2),2)</f>
-        <v>59.68</v>
-      </c>
-      <c r="H28">
-        <f>H22+1</f>
-        <v>5</v>
+        <f>ROUND(SQRT((C28-$C$1)^2+(D28-$D$1)^2),2)</f>
+        <v>8.94</v>
+      </c>
+      <c r="G28" s="2">
+        <v>30</v>
       </c>
       <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <f>VLOOKUP(H28,ToRaid,I28,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="N28" t="str">
-        <f>CHAR(34)&amp;J28&amp;CHAR(34)&amp;": "&amp;K28&amp;","</f>
+        <f>I22+1</f>
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(I28,ToRaid,J28,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="O28" t="str">
+        <f>CHAR(34)&amp;K28&amp;CHAR(34)&amp;": "&amp;L28&amp;","</f>
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-56</v>
+      </c>
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="2">
+        <v>-39</v>
+      </c>
+      <c r="D29" s="2">
+        <v>-56</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F29">
-        <f t="shared" si="3"/>
-        <v>59.68</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H31" si="4">H23+1</f>
-        <v>5</v>
+        <f>ROUND(SQRT((C29-$C$1)^2+(D29-$D$1)^2),2)</f>
+        <v>9.43</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <f>VLOOKUP(H29,ToRaid,I29,FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="N29" t="str">
-        <f>CHAR(34)&amp;J29&amp;CHAR(34)&amp;": "&amp;K29&amp;","</f>
-        <v>"X": -30,</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I29:I31" si="4">I23+1</f>
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(I29,ToRaid,J29,FALSE)</f>
+        <v>-35</v>
+      </c>
+      <c r="O29" t="str">
+        <f>CHAR(34)&amp;K29&amp;CHAR(34)&amp;": "&amp;L29&amp;","</f>
+        <v>"X": -35,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-42</v>
+      </c>
       <c r="B30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="H30">
+      <c r="C30" s="2">
+        <v>-28</v>
+      </c>
+      <c r="D30" s="2">
+        <v>-42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <f>ROUND(SQRT((C30-$C$1)^2+(D30-$D$1)^2),2)</f>
+        <v>9.49</v>
+      </c>
+      <c r="G30" s="2">
+        <v>11</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <f>VLOOKUP(H30,ToRaid,I30,FALSE)</f>
-        <v>-56</v>
-      </c>
-      <c r="N30" t="str">
-        <f>CHAR(34)&amp;J30&amp;CHAR(34)&amp;": "&amp;K30</f>
-        <v>"Y": -56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(I30,ToRaid,J30,FALSE)</f>
+        <v>-53</v>
+      </c>
+      <c r="O30" t="str">
+        <f>CHAR(34)&amp;K30&amp;CHAR(34)&amp;": "&amp;L30</f>
+        <v>"Y": -53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-61</v>
+      </c>
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="H31">
+      <c r="C31" s="2">
+        <v>-32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>-61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31">
+        <f>ROUND(SQRT((C31-$C$1)^2+(D31-$D$1)^2),2)</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" t="str">
-        <f>VLOOKUP(H31,ToRaid,I31,FALSE)</f>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" t="str">
+        <f>VLOOKUP(I31,ToRaid,J31,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N31" t="str">
-        <f>CHAR(34)&amp;J31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K31&amp;CHAR(34)</f>
+      <c r="O31" t="str">
+        <f>CHAR(34)&amp;K31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L31&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-41&amp;y=-52</v>
+      </c>
       <c r="B32" s="2">
         <v>28</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="N32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>-41</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-52</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <f>ROUND(SQRT((C32-$C$1)^2+(D32-$D$1)^2),2)</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-47</v>
+      </c>
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="N33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-47</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <f>ROUND(SQRT((C33-$C$1)^2+(D33-$D$1)^2),2)</f>
+        <v>10.77</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-41</v>
+      </c>
       <c r="B34" s="2">
         <v>30</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="H34">
-        <f>H28+1</f>
+      <c r="C34" s="2">
+        <v>-39</v>
+      </c>
+      <c r="D34" s="2">
+        <v>-41</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <f>ROUND(SQRT((C34-$C$1)^2+(D34-$D$1)^2),2)</f>
+        <v>12.81</v>
+      </c>
+      <c r="G34" s="2">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <f>I28+1</f>
         <v>6</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <f>VLOOKUP(H34,ToRaid,I34,FALSE)</f>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(I34,ToRaid,J34,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="N34" t="str">
-        <f>CHAR(34)&amp;J34&amp;CHAR(34)&amp;": "&amp;K34&amp;","</f>
+      <c r="O34" t="str">
+        <f>CHAR(34)&amp;K34&amp;CHAR(34)&amp;": "&amp;L34&amp;","</f>
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-46</v>
+      </c>
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="H35">
-        <f t="shared" ref="H35:H37" si="5">H29+1</f>
+      <c r="C35" s="2">
+        <v>-43</v>
+      </c>
+      <c r="D35" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <f>ROUND(SQRT((C35-$C$1)^2+(D35-$D$1)^2),2)</f>
+        <v>13</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I37" si="5">I29+1</f>
         <v>6</v>
       </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35">
-        <f>VLOOKUP(H35,ToRaid,I35,FALSE)</f>
-        <v>-26</v>
-      </c>
-      <c r="N35" t="str">
-        <f>CHAR(34)&amp;J35&amp;CHAR(34)&amp;": "&amp;K35&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(I35,ToRaid,J35,FALSE)</f>
+        <v>-31</v>
+      </c>
+      <c r="O35" t="str">
+        <f>CHAR(34)&amp;K35&amp;CHAR(34)&amp;": "&amp;L35&amp;","</f>
+        <v>"X": -31,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-38&amp;y=-40</v>
+      </c>
       <c r="B36" s="2">
         <v>32</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="H36">
+      <c r="C36" s="2">
+        <v>-38</v>
+      </c>
+      <c r="D36" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <f>ROUND(SQRT((C36-$C$1)^2+(D36-$D$1)^2),2)</f>
+        <v>13.04</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <f>VLOOKUP(H36,ToRaid,I36,FALSE)</f>
-        <v>-52</v>
-      </c>
-      <c r="N36" t="str">
-        <f>CHAR(34)&amp;J36&amp;CHAR(34)&amp;": "&amp;K36</f>
-        <v>"Y": -52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(I36,ToRaid,J36,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O36" t="str">
+        <f>CHAR(34)&amp;K36&amp;CHAR(34)&amp;": "&amp;L36</f>
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-39</v>
+      </c>
       <c r="B37" s="2">
         <v>33</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="H37">
+      <c r="C37" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D37" s="2">
+        <v>-39</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <f>ROUND(SQRT((C37-$C$1)^2+(D37-$D$1)^2),2)</f>
+        <v>13.42</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" t="str">
-        <f>VLOOKUP(H37,ToRaid,I37,FALSE)</f>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" t="str">
+        <f>VLOOKUP(I37,ToRaid,J37,FALSE)</f>
         <v>false</v>
       </c>
-      <c r="N37" t="str">
-        <f>CHAR(34)&amp;J37&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K37&amp;CHAR(34)</f>
+      <c r="O37" t="str">
+        <f>CHAR(34)&amp;K37&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L37&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H40">
-        <f>H34+1</f>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>I34+1</f>
         <v>7</v>
       </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <f>VLOOKUP(H40,ToRaid,I40,FALSE)</f>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(I40,ToRaid,J40,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="N40" t="str">
-        <f>CHAR(34)&amp;J40&amp;CHAR(34)&amp;": "&amp;K40&amp;","</f>
+      <c r="O40" t="str">
+        <f>CHAR(34)&amp;K40&amp;CHAR(34)&amp;": "&amp;L40&amp;","</f>
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H41">
-        <f t="shared" ref="H41:H43" si="6">H35+1</f>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" ref="I41:I43" si="6">I35+1</f>
         <v>7</v>
       </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41">
-        <f>VLOOKUP(H41,ToRaid,I41,FALSE)</f>
-        <v>-33</v>
-      </c>
-      <c r="N41" t="str">
-        <f>CHAR(34)&amp;J41&amp;CHAR(34)&amp;": "&amp;K41&amp;","</f>
-        <v>"X": -33,</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H42">
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(I41,ToRaid,J41,FALSE)</f>
+        <v>-30</v>
+      </c>
+      <c r="O41" t="str">
+        <f>CHAR(34)&amp;K41&amp;CHAR(34)&amp;": "&amp;L41&amp;","</f>
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I42">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <f>VLOOKUP(H42,ToRaid,I42,FALSE)</f>
-        <v>-46</v>
-      </c>
-      <c r="N42" t="str">
-        <f>CHAR(34)&amp;J42&amp;CHAR(34)&amp;": "&amp;K42</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H43">
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(I42,ToRaid,J42,FALSE)</f>
+        <v>-56</v>
+      </c>
+      <c r="O42" t="str">
+        <f>CHAR(34)&amp;K42&amp;CHAR(34)&amp;": "&amp;L42</f>
+        <v>"Y": -56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I43">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="str">
-        <f>VLOOKUP(H43,ToRaid,I43,FALSE)</f>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" t="str">
+        <f>VLOOKUP(I43,ToRaid,J43,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N43" t="str">
-        <f>CHAR(34)&amp;J43&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K43&amp;CHAR(34)</f>
+      <c r="O43" t="str">
+        <f>CHAR(34)&amp;K43&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L43&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H46">
-        <f>H40+1</f>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <f>I40+1</f>
         <v>8</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <f>VLOOKUP(H46,ToRaid,I46,FALSE)</f>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <f>VLOOKUP(I46,ToRaid,J46,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="N46" t="str">
-        <f>CHAR(34)&amp;J46&amp;CHAR(34)&amp;": "&amp;K46&amp;","</f>
+      <c r="O46" t="str">
+        <f>CHAR(34)&amp;K46&amp;CHAR(34)&amp;": "&amp;L46&amp;","</f>
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H47">
-        <f t="shared" ref="H47:H49" si="7">H41+1</f>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <f t="shared" ref="I47:I49" si="7">I41+1</f>
         <v>8</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47">
-        <f>VLOOKUP(H47,ToRaid,I47,FALSE)</f>
-        <v>-36</v>
-      </c>
-      <c r="N47" t="str">
-        <f>CHAR(34)&amp;J47&amp;CHAR(34)&amp;": "&amp;K47&amp;","</f>
-        <v>"X": -36,</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H48">
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <f>VLOOKUP(I47,ToRaid,J47,FALSE)</f>
+        <v>-26</v>
+      </c>
+      <c r="O47" t="str">
+        <f>CHAR(34)&amp;K47&amp;CHAR(34)&amp;": "&amp;L47&amp;","</f>
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I48">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48">
-        <f>VLOOKUP(H48,ToRaid,I48,FALSE)</f>
-        <v>-54</v>
-      </c>
-      <c r="N48" t="str">
-        <f>CHAR(34)&amp;J48&amp;CHAR(34)&amp;": "&amp;K48</f>
-        <v>"Y": -54</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H49">
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <f>VLOOKUP(I48,ToRaid,J48,FALSE)</f>
+        <v>-52</v>
+      </c>
+      <c r="O48" t="str">
+        <f>CHAR(34)&amp;K48&amp;CHAR(34)&amp;": "&amp;L48</f>
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I49">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
-      <c r="K49" t="str">
-        <f>VLOOKUP(H49,ToRaid,I49,FALSE)</f>
-        <v>true</v>
-      </c>
-      <c r="N49" t="str">
-        <f>CHAR(34)&amp;J49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K49&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H52">
-        <f>H46+1</f>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" t="str">
+        <f>VLOOKUP(I49,ToRaid,J49,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O49" t="str">
+        <f>CHAR(34)&amp;K49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L49&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>I46+1</f>
         <v>9</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>2</v>
-      </c>
-      <c r="K52">
-        <f>VLOOKUP(H52,ToRaid,I52,FALSE)</f>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <f>VLOOKUP(I52,ToRaid,J52,FALSE)</f>
         <v>9</v>
       </c>
-      <c r="N52" t="str">
-        <f>CHAR(34)&amp;J52&amp;CHAR(34)&amp;": "&amp;K52&amp;","</f>
+      <c r="O52" t="str">
+        <f>CHAR(34)&amp;K52&amp;CHAR(34)&amp;": "&amp;L52&amp;","</f>
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="53" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H53">
-        <f t="shared" ref="H53:H55" si="8">H47+1</f>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" ref="I53:I55" si="8">I47+1</f>
         <v>9</v>
       </c>
-      <c r="I53">
-        <v>2</v>
-      </c>
-      <c r="J53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53">
-        <f>VLOOKUP(H53,ToRaid,I53,FALSE)</f>
-        <v>-26</v>
-      </c>
-      <c r="N53" t="str">
-        <f>CHAR(34)&amp;J53&amp;CHAR(34)&amp;": "&amp;K53&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H54">
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <f>VLOOKUP(I53,ToRaid,J53,FALSE)</f>
+        <v>-33</v>
+      </c>
+      <c r="O53" t="str">
+        <f>CHAR(34)&amp;K53&amp;CHAR(34)&amp;": "&amp;L53&amp;","</f>
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I54">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54">
-        <f>VLOOKUP(H54,ToRaid,I54,FALSE)</f>
-        <v>-48</v>
-      </c>
-      <c r="N54" t="str">
-        <f>CHAR(34)&amp;J54&amp;CHAR(34)&amp;": "&amp;K54</f>
-        <v>"Y": -48</v>
-      </c>
-    </row>
-    <row r="55" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H55">
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <f>VLOOKUP(I54,ToRaid,J54,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O54" t="str">
+        <f>CHAR(34)&amp;K54&amp;CHAR(34)&amp;": "&amp;L54</f>
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I55">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" t="str">
-        <f>VLOOKUP(H55,ToRaid,I55,FALSE)</f>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" t="str">
+        <f>VLOOKUP(I55,ToRaid,J55,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N55" t="str">
-        <f>CHAR(34)&amp;J55&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K55&amp;CHAR(34)</f>
+      <c r="O55" t="str">
+        <f>CHAR(34)&amp;K55&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L55&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="56" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H58">
-        <f>H52+1</f>
+    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <f>I52+1</f>
         <v>10</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>2</v>
-      </c>
-      <c r="K58">
-        <f>VLOOKUP(H58,ToRaid,I58,FALSE)</f>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f>VLOOKUP(I58,ToRaid,J58,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="N58" t="str">
-        <f>CHAR(34)&amp;J58&amp;CHAR(34)&amp;": "&amp;K58&amp;","</f>
+      <c r="O58" t="str">
+        <f>CHAR(34)&amp;K58&amp;CHAR(34)&amp;": "&amp;L58&amp;","</f>
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="59" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H59">
-        <f t="shared" ref="H59:H61" si="9">H53+1</f>
+    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <f t="shared" ref="I59:I61" si="9">I53+1</f>
         <v>10</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
-      <c r="J59" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59">
-        <f>VLOOKUP(H59,ToRaid,I59,FALSE)</f>
-        <v>-30</v>
-      </c>
-      <c r="N59" t="str">
-        <f>CHAR(34)&amp;J59&amp;CHAR(34)&amp;": "&amp;K59&amp;","</f>
-        <v>"X": -30,</v>
-      </c>
-    </row>
-    <row r="60" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H60">
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <f>VLOOKUP(I59,ToRaid,J59,FALSE)</f>
+        <v>-36</v>
+      </c>
+      <c r="O59" t="str">
+        <f>CHAR(34)&amp;K59&amp;CHAR(34)&amp;": "&amp;L59&amp;","</f>
+        <v>"X": -36,</v>
+      </c>
+    </row>
+    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I60">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60">
-        <f>VLOOKUP(H60,ToRaid,I60,FALSE)</f>
-        <v>-45</v>
-      </c>
-      <c r="N60" t="str">
-        <f>CHAR(34)&amp;J60&amp;CHAR(34)&amp;": "&amp;K60</f>
-        <v>"Y": -45</v>
-      </c>
-    </row>
-    <row r="61" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H61">
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <f>VLOOKUP(I60,ToRaid,J60,FALSE)</f>
+        <v>-54</v>
+      </c>
+      <c r="O60" t="str">
+        <f>CHAR(34)&amp;K60&amp;CHAR(34)&amp;": "&amp;L60</f>
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I61">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="I61">
-        <v>4</v>
-      </c>
-      <c r="J61" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61" t="str">
-        <f>VLOOKUP(H61,ToRaid,I61,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N61" t="str">
-        <f>CHAR(34)&amp;J61&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K61&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="62" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H64">
-        <f>H58+1</f>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" t="str">
+        <f>VLOOKUP(I61,ToRaid,J61,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O61" t="str">
+        <f>CHAR(34)&amp;K61&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L61&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f>I58+1</f>
         <v>11</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64">
-        <f>VLOOKUP(H64,ToRaid,I64,FALSE)</f>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <f>VLOOKUP(I64,ToRaid,J64,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="N64" t="str">
-        <f>CHAR(34)&amp;J64&amp;CHAR(34)&amp;": "&amp;K64&amp;","</f>
+      <c r="O64" t="str">
+        <f>CHAR(34)&amp;K64&amp;CHAR(34)&amp;": "&amp;L64&amp;","</f>
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H65">
-        <f t="shared" ref="H65:H67" si="10">H59+1</f>
+    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" ref="I65:I67" si="10">I59+1</f>
         <v>11</v>
       </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65">
-        <f>VLOOKUP(H65,ToRaid,I65,FALSE)</f>
-        <v>-37</v>
-      </c>
-      <c r="N65" t="str">
-        <f>CHAR(34)&amp;J65&amp;CHAR(34)&amp;": "&amp;K65&amp;","</f>
-        <v>"X": -37,</v>
-      </c>
-    </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H66">
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <f>VLOOKUP(I65,ToRaid,J65,FALSE)</f>
+        <v>-26</v>
+      </c>
+      <c r="O65" t="str">
+        <f>CHAR(34)&amp;K65&amp;CHAR(34)&amp;": "&amp;L65&amp;","</f>
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I66">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-      <c r="J66" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66">
-        <f>VLOOKUP(H66,ToRaid,I66,FALSE)</f>
-        <v>-50</v>
-      </c>
-      <c r="N66" t="str">
-        <f>CHAR(34)&amp;J66&amp;CHAR(34)&amp;": "&amp;K66</f>
-        <v>"Y": -50</v>
-      </c>
-    </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H67">
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <f>VLOOKUP(I66,ToRaid,J66,FALSE)</f>
+        <v>-48</v>
+      </c>
+      <c r="O66" t="str">
+        <f>CHAR(34)&amp;K66&amp;CHAR(34)&amp;": "&amp;L66</f>
+        <v>"Y": -48</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I67">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="I67">
-        <v>4</v>
-      </c>
-      <c r="J67" t="s">
-        <v>13</v>
-      </c>
-      <c r="K67" t="str">
-        <f>VLOOKUP(H67,ToRaid,I67,FALSE)</f>
+      <c r="J67">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" t="str">
+        <f>VLOOKUP(I67,ToRaid,J67,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N67" t="str">
-        <f>CHAR(34)&amp;J67&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K67&amp;CHAR(34)</f>
+      <c r="O67" t="str">
+        <f>CHAR(34)&amp;K67&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L67&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H70">
-        <f>H64+1</f>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <f>I64+1</f>
         <v>12</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>2</v>
-      </c>
-      <c r="K70">
-        <f>VLOOKUP(H70,ToRaid,I70,FALSE)</f>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <f>VLOOKUP(I70,ToRaid,J70,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="N70" t="str">
-        <f>CHAR(34)&amp;J70&amp;CHAR(34)&amp;": "&amp;K70&amp;","</f>
+      <c r="O70" t="str">
+        <f>CHAR(34)&amp;K70&amp;CHAR(34)&amp;": "&amp;L70&amp;","</f>
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H71">
-        <f t="shared" ref="H71:H73" si="11">H65+1</f>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <f t="shared" ref="I71:I73" si="11">I65+1</f>
         <v>12</v>
       </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71" t="s">
-        <v>3</v>
-      </c>
-      <c r="K71">
-        <f>VLOOKUP(H71,ToRaid,I71,FALSE)</f>
-        <v>-33</v>
-      </c>
-      <c r="N71" t="str">
-        <f>CHAR(34)&amp;J71&amp;CHAR(34)&amp;": "&amp;K71&amp;","</f>
-        <v>"X": -33,</v>
-      </c>
-    </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H72">
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <f>VLOOKUP(I71,ToRaid,J71,FALSE)</f>
+        <v>-30</v>
+      </c>
+      <c r="O71" t="str">
+        <f>CHAR(34)&amp;K71&amp;CHAR(34)&amp;": "&amp;L71&amp;","</f>
+        <v>"X": -30,</v>
+      </c>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I72">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72">
-        <f>VLOOKUP(H72,ToRaid,I72,FALSE)</f>
-        <v>-57</v>
-      </c>
-      <c r="N72" t="str">
-        <f>CHAR(34)&amp;J72&amp;CHAR(34)&amp;": "&amp;K72</f>
-        <v>"Y": -57</v>
-      </c>
-    </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H73">
+      <c r="J72">
+        <v>3</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <f>VLOOKUP(I72,ToRaid,J72,FALSE)</f>
+        <v>-45</v>
+      </c>
+      <c r="O72" t="str">
+        <f>CHAR(34)&amp;K72&amp;CHAR(34)&amp;": "&amp;L72</f>
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I73">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="I73">
-        <v>4</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" t="str">
+        <f>VLOOKUP(I73,ToRaid,J73,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O73" t="str">
+        <f>CHAR(34)&amp;K73&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L73&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <f>I70+1</f>
         <v>13</v>
       </c>
-      <c r="K73" t="str">
-        <f>VLOOKUP(H73,ToRaid,I73,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N73" t="str">
-        <f>CHAR(34)&amp;J73&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K73&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H76">
-        <f>H70+1</f>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <f>VLOOKUP(I76,ToRaid,J76,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>2</v>
-      </c>
-      <c r="K76">
-        <f>VLOOKUP(H76,ToRaid,I76,FALSE)</f>
+      <c r="O76" t="str">
+        <f>CHAR(34)&amp;K76&amp;CHAR(34)&amp;": "&amp;L76&amp;","</f>
+        <v>"Id": 13,</v>
+      </c>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <f t="shared" ref="I77:I79" si="12">I71+1</f>
         <v>13</v>
       </c>
-      <c r="N76" t="str">
-        <f>CHAR(34)&amp;J76&amp;CHAR(34)&amp;": "&amp;K76&amp;","</f>
-        <v>"Id": 13,</v>
-      </c>
-    </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H77">
-        <f t="shared" ref="H77:H79" si="12">H71+1</f>
-        <v>13</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77" t="s">
-        <v>3</v>
-      </c>
-      <c r="K77">
-        <f>VLOOKUP(H77,ToRaid,I77,FALSE)</f>
-        <v>-26</v>
-      </c>
-      <c r="N77" t="str">
-        <f>CHAR(34)&amp;J77&amp;CHAR(34)&amp;": "&amp;K77&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H78">
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <f>VLOOKUP(I77,ToRaid,J77,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O77" t="str">
+        <f>CHAR(34)&amp;K77&amp;CHAR(34)&amp;": "&amp;L77&amp;","</f>
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I78">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
-      <c r="J78" t="s">
-        <v>4</v>
-      </c>
-      <c r="K78">
-        <f>VLOOKUP(H78,ToRaid,I78,FALSE)</f>
-        <v>-55</v>
-      </c>
-      <c r="N78" t="str">
-        <f>CHAR(34)&amp;J78&amp;CHAR(34)&amp;": "&amp;K78</f>
-        <v>"Y": -55</v>
-      </c>
-    </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H79">
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <f>VLOOKUP(I78,ToRaid,J78,FALSE)</f>
+        <v>-50</v>
+      </c>
+      <c r="O78" t="str">
+        <f>CHAR(34)&amp;K78&amp;CHAR(34)&amp;": "&amp;L78</f>
+        <v>"Y": -50</v>
+      </c>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I79">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="I79">
-        <v>4</v>
-      </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
-      <c r="K79" t="str">
-        <f>VLOOKUP(H79,ToRaid,I79,FALSE)</f>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="str">
+        <f>VLOOKUP(I79,ToRaid,J79,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N79" t="str">
-        <f>CHAR(34)&amp;J79&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K79&amp;CHAR(34)</f>
+      <c r="O79" t="str">
+        <f>CHAR(34)&amp;K79&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L79&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H82">
-        <f>H76+1</f>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <f>I76+1</f>
         <v>14</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>2</v>
-      </c>
-      <c r="K82">
-        <f>VLOOKUP(H82,ToRaid,I82,FALSE)</f>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <f>VLOOKUP(I82,ToRaid,J82,FALSE)</f>
         <v>14</v>
       </c>
-      <c r="N82" t="str">
-        <f>CHAR(34)&amp;J82&amp;CHAR(34)&amp;": "&amp;K82&amp;","</f>
+      <c r="O82" t="str">
+        <f>CHAR(34)&amp;K82&amp;CHAR(34)&amp;": "&amp;L82&amp;","</f>
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H83">
-        <f t="shared" ref="H83:H85" si="13">H77+1</f>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <f t="shared" ref="I83:I85" si="13">I77+1</f>
         <v>14</v>
       </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83">
-        <f>VLOOKUP(H83,ToRaid,I83,FALSE)</f>
-        <v>-28</v>
-      </c>
-      <c r="N83" t="str">
-        <f>CHAR(34)&amp;J83&amp;CHAR(34)&amp;": "&amp;K83&amp;","</f>
-        <v>"X": -28,</v>
-      </c>
-    </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H84">
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <f>VLOOKUP(I83,ToRaid,J83,FALSE)</f>
+        <v>-33</v>
+      </c>
+      <c r="O83" t="str">
+        <f>CHAR(34)&amp;K83&amp;CHAR(34)&amp;": "&amp;L83&amp;","</f>
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I84">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="I84">
-        <v>3</v>
-      </c>
-      <c r="J84" t="s">
-        <v>4</v>
-      </c>
-      <c r="K84">
-        <f>VLOOKUP(H84,ToRaid,I84,FALSE)</f>
-        <v>-45</v>
-      </c>
-      <c r="N84" t="str">
-        <f>CHAR(34)&amp;J84&amp;CHAR(34)&amp;": "&amp;K84</f>
-        <v>"Y": -45</v>
-      </c>
-    </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H85">
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <f>VLOOKUP(I84,ToRaid,J84,FALSE)</f>
+        <v>-57</v>
+      </c>
+      <c r="O84" t="str">
+        <f>CHAR(34)&amp;K84&amp;CHAR(34)&amp;": "&amp;L84</f>
+        <v>"Y": -57</v>
+      </c>
+    </row>
+    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I85">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="I85">
-        <v>4</v>
-      </c>
-      <c r="J85" t="s">
-        <v>13</v>
-      </c>
-      <c r="K85" t="str">
-        <f>VLOOKUP(H85,ToRaid,I85,FALSE)</f>
-        <v>true</v>
-      </c>
-      <c r="N85" t="str">
-        <f>CHAR(34)&amp;J85&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K85&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H88">
-        <f>H82+1</f>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" t="str">
+        <f>VLOOKUP(I85,ToRaid,J85,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O85" t="str">
+        <f>CHAR(34)&amp;K85&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L85&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <f>I82+1</f>
         <v>15</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>2</v>
-      </c>
-      <c r="K88">
-        <f>VLOOKUP(H88,ToRaid,I88,FALSE)</f>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <f>VLOOKUP(I88,ToRaid,J88,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="N88" t="str">
-        <f>CHAR(34)&amp;J88&amp;CHAR(34)&amp;": "&amp;K88&amp;","</f>
+      <c r="O88" t="str">
+        <f>CHAR(34)&amp;K88&amp;CHAR(34)&amp;": "&amp;L88&amp;","</f>
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H89">
-        <f t="shared" ref="H89:H91" si="14">H83+1</f>
+    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <f t="shared" ref="I89:I91" si="14">I83+1</f>
         <v>15</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89">
-        <f>VLOOKUP(H89,ToRaid,I89,FALSE)</f>
-        <v>-32</v>
-      </c>
-      <c r="N89" t="str">
-        <f>CHAR(34)&amp;J89&amp;CHAR(34)&amp;": "&amp;K89&amp;","</f>
-        <v>"X": -32,</v>
-      </c>
-    </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H90">
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <f>VLOOKUP(I89,ToRaid,J89,FALSE)</f>
+        <v>-26</v>
+      </c>
+      <c r="O89" t="str">
+        <f>CHAR(34)&amp;K89&amp;CHAR(34)&amp;": "&amp;L89&amp;","</f>
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I90">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
-      <c r="J90" t="s">
-        <v>4</v>
-      </c>
-      <c r="K90">
-        <f>VLOOKUP(H90,ToRaid,I90,FALSE)</f>
-        <v>-58</v>
-      </c>
-      <c r="N90" t="str">
-        <f>CHAR(34)&amp;J90&amp;CHAR(34)&amp;": "&amp;K90</f>
-        <v>"Y": -58</v>
-      </c>
-    </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H91">
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90" t="s">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <f>VLOOKUP(I90,ToRaid,J90,FALSE)</f>
+        <v>-55</v>
+      </c>
+      <c r="O90" t="str">
+        <f>CHAR(34)&amp;K90&amp;CHAR(34)&amp;": "&amp;L90</f>
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I91">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="I91">
-        <v>4</v>
-      </c>
-      <c r="J91" t="s">
-        <v>13</v>
-      </c>
-      <c r="K91" t="str">
-        <f>VLOOKUP(H91,ToRaid,I91,FALSE)</f>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" t="str">
+        <f>VLOOKUP(I91,ToRaid,J91,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N91" t="str">
-        <f>CHAR(34)&amp;J91&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K91&amp;CHAR(34)</f>
+      <c r="O91" t="str">
+        <f>CHAR(34)&amp;K91&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L91&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H94">
-        <f>H88+1</f>
+    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <f>I88+1</f>
         <v>16</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>2</v>
-      </c>
-      <c r="K94">
-        <f>VLOOKUP(H94,ToRaid,I94,FALSE)</f>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <f>VLOOKUP(I94,ToRaid,J94,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="N94" t="str">
-        <f>CHAR(34)&amp;J94&amp;CHAR(34)&amp;": "&amp;K94&amp;","</f>
+      <c r="O94" t="str">
+        <f>CHAR(34)&amp;K94&amp;CHAR(34)&amp;": "&amp;L94&amp;","</f>
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H95">
-        <f t="shared" ref="H95:H97" si="15">H89+1</f>
+    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <f t="shared" ref="I95:I97" si="15">I89+1</f>
         <v>16</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95" t="s">
-        <v>3</v>
-      </c>
-      <c r="K95">
-        <f>VLOOKUP(H95,ToRaid,I95,FALSE)</f>
-        <v>-35</v>
-      </c>
-      <c r="N95" t="str">
-        <f>CHAR(34)&amp;J95&amp;CHAR(34)&amp;": "&amp;K95&amp;","</f>
-        <v>"X": -35,</v>
-      </c>
-    </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H96">
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95" t="s">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <f>VLOOKUP(I95,ToRaid,J95,FALSE)</f>
+        <v>-28</v>
+      </c>
+      <c r="O95" t="str">
+        <f>CHAR(34)&amp;K95&amp;CHAR(34)&amp;": "&amp;L95&amp;","</f>
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I96">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="I96">
-        <v>3</v>
-      </c>
-      <c r="J96" t="s">
-        <v>4</v>
-      </c>
-      <c r="K96">
-        <f>VLOOKUP(H96,ToRaid,I96,FALSE)</f>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <f>VLOOKUP(I96,ToRaid,J96,FALSE)</f>
         <v>-45</v>
       </c>
-      <c r="N96" t="str">
-        <f>CHAR(34)&amp;J96&amp;CHAR(34)&amp;": "&amp;K96</f>
+      <c r="O96" t="str">
+        <f>CHAR(34)&amp;K96&amp;CHAR(34)&amp;": "&amp;L96</f>
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H97">
+    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I97">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="I97">
-        <v>4</v>
-      </c>
-      <c r="J97" t="s">
-        <v>13</v>
-      </c>
-      <c r="K97" t="str">
-        <f>VLOOKUP(H97,ToRaid,I97,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N97" t="str">
-        <f>CHAR(34)&amp;J97&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K97&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H100">
-        <f>H94+1</f>
+      <c r="J97">
+        <v>4</v>
+      </c>
+      <c r="K97" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" t="str">
+        <f>VLOOKUP(I97,ToRaid,J97,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O97" t="str">
+        <f>CHAR(34)&amp;K97&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L97&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <f>I94+1</f>
         <v>17</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>2</v>
-      </c>
-      <c r="K100">
-        <f>VLOOKUP(H100,ToRaid,I100,FALSE)</f>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <f>VLOOKUP(I100,ToRaid,J100,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="N100" t="str">
-        <f>CHAR(34)&amp;J100&amp;CHAR(34)&amp;": "&amp;K100&amp;","</f>
+      <c r="O100" t="str">
+        <f>CHAR(34)&amp;K100&amp;CHAR(34)&amp;": "&amp;L100&amp;","</f>
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H101">
-        <f t="shared" ref="H101:H103" si="16">H95+1</f>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <f t="shared" ref="I101:I103" si="16">I95+1</f>
         <v>17</v>
       </c>
-      <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101">
-        <f>VLOOKUP(H101,ToRaid,I101,FALSE)</f>
-        <v>-25</v>
-      </c>
-      <c r="N101" t="str">
-        <f>CHAR(34)&amp;J101&amp;CHAR(34)&amp;": "&amp;K101&amp;","</f>
-        <v>"X": -25,</v>
-      </c>
-    </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H102">
+      <c r="J101">
+        <v>2</v>
+      </c>
+      <c r="K101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <f>VLOOKUP(I101,ToRaid,J101,FALSE)</f>
+        <v>-32</v>
+      </c>
+      <c r="O101" t="str">
+        <f>CHAR(34)&amp;K101&amp;CHAR(34)&amp;": "&amp;L101&amp;","</f>
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I102">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="I102">
-        <v>3</v>
-      </c>
-      <c r="J102" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102">
-        <f>VLOOKUP(H102,ToRaid,I102,FALSE)</f>
-        <v>-46</v>
-      </c>
-      <c r="N102" t="str">
-        <f>CHAR(34)&amp;J102&amp;CHAR(34)&amp;": "&amp;K102</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H103">
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <f>VLOOKUP(I102,ToRaid,J102,FALSE)</f>
+        <v>-58</v>
+      </c>
+      <c r="O102" t="str">
+        <f>CHAR(34)&amp;K102&amp;CHAR(34)&amp;": "&amp;L102</f>
+        <v>"Y": -58</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I103">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="I103">
-        <v>4</v>
-      </c>
-      <c r="J103" t="s">
-        <v>13</v>
-      </c>
-      <c r="K103" t="str">
-        <f>VLOOKUP(H103,ToRaid,I103,FALSE)</f>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="str">
+        <f>VLOOKUP(I103,ToRaid,J103,FALSE)</f>
         <v>true</v>
       </c>
-      <c r="N103" t="str">
-        <f>CHAR(34)&amp;J103&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K103&amp;CHAR(34)</f>
+      <c r="O103" t="str">
+        <f>CHAR(34)&amp;K103&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L103&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H106">
-        <f>H100+1</f>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <f>I100+1</f>
         <v>18</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>2</v>
-      </c>
-      <c r="K106">
-        <f>VLOOKUP(H106,ToRaid,I106,FALSE)</f>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <f>VLOOKUP(I106,ToRaid,J106,FALSE)</f>
         <v>18</v>
       </c>
-      <c r="N106" t="str">
-        <f>CHAR(34)&amp;J106&amp;CHAR(34)&amp;": "&amp;K106&amp;","</f>
+      <c r="O106" t="str">
+        <f>CHAR(34)&amp;K106&amp;CHAR(34)&amp;": "&amp;L106&amp;","</f>
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H107">
-        <f t="shared" ref="H107:H109" si="17">H101+1</f>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <f t="shared" ref="I107:I109" si="17">I101+1</f>
         <v>18</v>
       </c>
-      <c r="I107">
-        <v>2</v>
-      </c>
-      <c r="J107" t="s">
-        <v>3</v>
-      </c>
-      <c r="K107">
-        <f>VLOOKUP(H107,ToRaid,I107,FALSE)</f>
-        <v>-24</v>
-      </c>
-      <c r="N107" t="str">
-        <f>CHAR(34)&amp;J107&amp;CHAR(34)&amp;": "&amp;K107&amp;","</f>
-        <v>"X": -24,</v>
-      </c>
-    </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H108">
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <f>VLOOKUP(I107,ToRaid,J107,FALSE)</f>
+        <v>-35</v>
+      </c>
+      <c r="O107" t="str">
+        <f>CHAR(34)&amp;K107&amp;CHAR(34)&amp;": "&amp;L107&amp;","</f>
+        <v>"X": -35,</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I108">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="I108">
-        <v>3</v>
-      </c>
-      <c r="J108" t="s">
-        <v>4</v>
-      </c>
-      <c r="K108">
-        <f>VLOOKUP(H108,ToRaid,I108,FALSE)</f>
-        <v>-55</v>
-      </c>
-      <c r="N108" t="str">
-        <f>CHAR(34)&amp;J108&amp;CHAR(34)&amp;": "&amp;K108</f>
-        <v>"Y": -55</v>
-      </c>
-    </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H109">
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <f>VLOOKUP(I108,ToRaid,J108,FALSE)</f>
+        <v>-45</v>
+      </c>
+      <c r="O108" t="str">
+        <f>CHAR(34)&amp;K108&amp;CHAR(34)&amp;": "&amp;L108</f>
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I109">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="I109">
-        <v>4</v>
-      </c>
-      <c r="J109" t="s">
-        <v>13</v>
-      </c>
-      <c r="K109" t="str">
-        <f>VLOOKUP(H109,ToRaid,I109,FALSE)</f>
-        <v>true</v>
-      </c>
-      <c r="N109" t="str">
-        <f>CHAR(34)&amp;J109&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K109&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H112">
-        <f>H106+1</f>
+      <c r="J109">
+        <v>4</v>
+      </c>
+      <c r="K109" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" t="str">
+        <f>VLOOKUP(I109,ToRaid,J109,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O109" t="str">
+        <f>CHAR(34)&amp;K109&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L109&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <f>I106+1</f>
         <v>19</v>
       </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112" t="s">
-        <v>2</v>
-      </c>
-      <c r="K112">
-        <f>VLOOKUP(H112,ToRaid,I112,FALSE)</f>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <f>VLOOKUP(I112,ToRaid,J112,FALSE)</f>
         <v>19</v>
       </c>
-      <c r="N112" t="str">
-        <f>CHAR(34)&amp;J112&amp;CHAR(34)&amp;": "&amp;K112&amp;","</f>
+      <c r="O112" t="str">
+        <f>CHAR(34)&amp;K112&amp;CHAR(34)&amp;": "&amp;L112&amp;","</f>
         <v>"Id": 19,</v>
       </c>
     </row>
-    <row r="113" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H113">
-        <f t="shared" ref="H113:H115" si="18">H107+1</f>
+    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <f t="shared" ref="I113:I115" si="18">I107+1</f>
         <v>19</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
-      <c r="J113" t="s">
-        <v>3</v>
-      </c>
-      <c r="K113">
-        <f>VLOOKUP(H113,ToRaid,I113,FALSE)</f>
-        <v>-23</v>
-      </c>
-      <c r="N113" t="str">
-        <f>CHAR(34)&amp;J113&amp;CHAR(34)&amp;": "&amp;K113&amp;","</f>
-        <v>"X": -23,</v>
-      </c>
-    </row>
-    <row r="114" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H114">
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <f>VLOOKUP(I113,ToRaid,J113,FALSE)</f>
+        <v>-25</v>
+      </c>
+      <c r="O113" t="str">
+        <f>CHAR(34)&amp;K113&amp;CHAR(34)&amp;": "&amp;L113&amp;","</f>
+        <v>"X": -25,</v>
+      </c>
+    </row>
+    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I114">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114">
-        <f>VLOOKUP(H114,ToRaid,I114,FALSE)</f>
-        <v>-53</v>
-      </c>
-      <c r="N114" t="str">
-        <f>CHAR(34)&amp;J114&amp;CHAR(34)&amp;": "&amp;K114</f>
-        <v>"Y": -53</v>
-      </c>
-    </row>
-    <row r="115" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H115">
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114" t="s">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <f>VLOOKUP(I114,ToRaid,J114,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O114" t="str">
+        <f>CHAR(34)&amp;K114&amp;CHAR(34)&amp;": "&amp;L114</f>
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I115">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="I115">
-        <v>4</v>
-      </c>
-      <c r="J115" t="s">
-        <v>13</v>
-      </c>
-      <c r="K115" t="str">
-        <f>VLOOKUP(H115,ToRaid,I115,FALSE)</f>
-        <v>false</v>
-      </c>
-      <c r="N115" t="str">
-        <f>CHAR(34)&amp;J115&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K115&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="116" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H118">
-        <f>H112+1</f>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" t="str">
+        <f>VLOOKUP(I115,ToRaid,J115,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O115" t="str">
+        <f>CHAR(34)&amp;K115&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L115&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <f>I112+1</f>
         <v>20</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="N118" t="str">
-        <f>CHAR(34)&amp;J118&amp;CHAR(34)&amp;": "&amp;K118&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="119" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H119">
-        <f t="shared" ref="H119:H121" si="19">H113+1</f>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <f>VLOOKUP(I118,ToRaid,J118,FALSE)</f>
         <v>20</v>
       </c>
+      <c r="O118" t="str">
+        <f>CHAR(34)&amp;K118&amp;CHAR(34)&amp;": "&amp;L118&amp;","</f>
+        <v>"Id": 20,</v>
+      </c>
+    </row>
+    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119">
-        <v>2</v>
-      </c>
-      <c r="N119" t="str">
-        <f>CHAR(34)&amp;J119&amp;CHAR(34)&amp;": "&amp;K119&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="120" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H120">
+        <f t="shared" ref="I119:I121" si="19">I113+1</f>
+        <v>20</v>
+      </c>
+      <c r="J119">
+        <v>2</v>
+      </c>
+      <c r="K119" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <f>VLOOKUP(I119,ToRaid,J119,FALSE)</f>
+        <v>-24</v>
+      </c>
+      <c r="O119" t="str">
+        <f>CHAR(34)&amp;K119&amp;CHAR(34)&amp;": "&amp;L119&amp;","</f>
+        <v>"X": -24,</v>
+      </c>
+    </row>
+    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I120">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="I120">
-        <v>3</v>
-      </c>
-      <c r="N120" t="str">
-        <f>CHAR(34)&amp;J120&amp;CHAR(34)&amp;": "&amp;K120</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="121" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H121">
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120" t="s">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <f>VLOOKUP(I120,ToRaid,J120,FALSE)</f>
+        <v>-55</v>
+      </c>
+      <c r="O120" t="str">
+        <f>CHAR(34)&amp;K120&amp;CHAR(34)&amp;": "&amp;L120</f>
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I121">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="I121">
-        <v>4</v>
-      </c>
-      <c r="N121" t="str">
-        <f>CHAR(34)&amp;J121&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K121&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="122" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H124">
-        <f>H118+1</f>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121" t="s">
+        <v>10</v>
+      </c>
+      <c r="L121" t="str">
+        <f>VLOOKUP(I121,ToRaid,J121,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O121" t="str">
+        <f>CHAR(34)&amp;K121&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L121&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <f>I118+1</f>
         <v>21</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="N124" t="str">
-        <f>CHAR(34)&amp;J124&amp;CHAR(34)&amp;": "&amp;K124&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="125" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H125">
-        <f t="shared" ref="H125:H127" si="20">H119+1</f>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="s">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <f>VLOOKUP(I124,ToRaid,J124,FALSE)</f>
         <v>21</v>
       </c>
+      <c r="O124" t="str">
+        <f>CHAR(34)&amp;K124&amp;CHAR(34)&amp;": "&amp;L124&amp;","</f>
+        <v>"Id": 21,</v>
+      </c>
+    </row>
+    <row r="125" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="N125" t="str">
-        <f>CHAR(34)&amp;J125&amp;CHAR(34)&amp;": "&amp;K125&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="126" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H126">
+        <f t="shared" ref="I125:I127" si="20">I119+1</f>
+        <v>21</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125" t="s">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <f>VLOOKUP(I125,ToRaid,J125,FALSE)</f>
+        <v>-23</v>
+      </c>
+      <c r="O125" t="str">
+        <f>CHAR(34)&amp;K125&amp;CHAR(34)&amp;": "&amp;L125&amp;","</f>
+        <v>"X": -23,</v>
+      </c>
+    </row>
+    <row r="126" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I126">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="N126" t="str">
-        <f>CHAR(34)&amp;J126&amp;CHAR(34)&amp;": "&amp;K126</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="127" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H127">
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126" t="s">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <f>VLOOKUP(I126,ToRaid,J126,FALSE)</f>
+        <v>-53</v>
+      </c>
+      <c r="O126" t="str">
+        <f>CHAR(34)&amp;K126&amp;CHAR(34)&amp;": "&amp;L126</f>
+        <v>"Y": -53</v>
+      </c>
+    </row>
+    <row r="127" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I127">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="I127">
-        <v>4</v>
-      </c>
-      <c r="N127" t="str">
-        <f>CHAR(34)&amp;J127&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K127&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="128" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H130">
-        <f>H124+1</f>
+      <c r="J127">
+        <v>4</v>
+      </c>
+      <c r="K127" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" t="str">
+        <f>VLOOKUP(I127,ToRaid,J127,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O127" t="str">
+        <f>CHAR(34)&amp;K127&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L127&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <f>I124+1</f>
         <v>22</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="N130" t="str">
-        <f>CHAR(34)&amp;J130&amp;CHAR(34)&amp;": "&amp;K130&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H131">
-        <f t="shared" ref="H131:H133" si="21">H125+1</f>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <f>VLOOKUP(I130,ToRaid,J130,FALSE)</f>
         <v>22</v>
       </c>
+      <c r="O130" t="str">
+        <f>CHAR(34)&amp;K130&amp;CHAR(34)&amp;": "&amp;L130&amp;","</f>
+        <v>"Id": 22,</v>
+      </c>
+    </row>
+    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="N131" t="str">
-        <f>CHAR(34)&amp;J131&amp;CHAR(34)&amp;": "&amp;K131&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H132">
+        <f t="shared" ref="I131:I133" si="21">I125+1</f>
+        <v>22</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <f>VLOOKUP(I131,ToRaid,J131,FALSE)</f>
+        <v>-28</v>
+      </c>
+      <c r="O131" t="str">
+        <f>CHAR(34)&amp;K131&amp;CHAR(34)&amp;": "&amp;L131&amp;","</f>
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="132" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I132">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-      <c r="N132" t="str">
-        <f>CHAR(34)&amp;J132&amp;CHAR(34)&amp;": "&amp;K132</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H133">
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132" t="s">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <f>VLOOKUP(I132,ToRaid,J132,FALSE)</f>
+        <v>-59</v>
+      </c>
+      <c r="O132" t="str">
+        <f>CHAR(34)&amp;K132&amp;CHAR(34)&amp;": "&amp;L132</f>
+        <v>"Y": -59</v>
+      </c>
+    </row>
+    <row r="133" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I133">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="I133">
-        <v>4</v>
-      </c>
-      <c r="N133" t="str">
-        <f>CHAR(34)&amp;J133&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K133&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H136">
-        <f>H130+1</f>
+      <c r="J133">
+        <v>4</v>
+      </c>
+      <c r="K133" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" t="str">
+        <f>VLOOKUP(I133,ToRaid,J133,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O133" t="str">
+        <f>CHAR(34)&amp;K133&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L133&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <f>I130+1</f>
         <v>23</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="N136" t="str">
-        <f>CHAR(34)&amp;J136&amp;CHAR(34)&amp;": "&amp;K136&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H137">
-        <f t="shared" ref="H137:H139" si="22">H131+1</f>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <f>VLOOKUP(I136,ToRaid,J136,FALSE)</f>
         <v>23</v>
       </c>
+      <c r="O136" t="str">
+        <f>CHAR(34)&amp;K136&amp;CHAR(34)&amp;": "&amp;L136&amp;","</f>
+        <v>"Id": 23,</v>
+      </c>
+    </row>
+    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137">
-        <v>2</v>
-      </c>
-      <c r="N137" t="str">
-        <f>CHAR(34)&amp;J137&amp;CHAR(34)&amp;": "&amp;K137&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H138">
+        <f t="shared" ref="I137:I139" si="22">I131+1</f>
+        <v>23</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+      <c r="K137" t="s">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <f>VLOOKUP(I137,ToRaid,J137,FALSE)</f>
+        <v>-26</v>
+      </c>
+      <c r="O137" t="str">
+        <f>CHAR(34)&amp;K137&amp;CHAR(34)&amp;": "&amp;L137&amp;","</f>
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I138">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="N138" t="str">
-        <f>CHAR(34)&amp;J138&amp;CHAR(34)&amp;": "&amp;K138</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="139" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H139">
+      <c r="J138">
+        <v>3</v>
+      </c>
+      <c r="K138" t="s">
+        <v>4</v>
+      </c>
+      <c r="L138">
+        <f>VLOOKUP(I138,ToRaid,J138,FALSE)</f>
+        <v>-58</v>
+      </c>
+      <c r="O138" t="str">
+        <f>CHAR(34)&amp;K138&amp;CHAR(34)&amp;": "&amp;L138</f>
+        <v>"Y": -58</v>
+      </c>
+    </row>
+    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I139">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="I139">
-        <v>4</v>
-      </c>
-      <c r="N139" t="str">
-        <f>CHAR(34)&amp;J139&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K139&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="140" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N141" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H142">
-        <f>H136+1</f>
+      <c r="J139">
+        <v>4</v>
+      </c>
+      <c r="K139" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" t="str">
+        <f>VLOOKUP(I139,ToRaid,J139,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O139" t="str">
+        <f>CHAR(34)&amp;K139&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L139&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <f>I136+1</f>
         <v>24</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="N142" t="str">
-        <f>CHAR(34)&amp;J142&amp;CHAR(34)&amp;": "&amp;K142&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H143">
-        <f t="shared" ref="H143:H145" si="23">H137+1</f>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <f>VLOOKUP(I142,ToRaid,J142,FALSE)</f>
         <v>24</v>
       </c>
+      <c r="O142" t="str">
+        <f>CHAR(34)&amp;K142&amp;CHAR(34)&amp;": "&amp;L142&amp;","</f>
+        <v>"Id": 24,</v>
+      </c>
+    </row>
+    <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143">
-        <v>2</v>
-      </c>
-      <c r="N143" t="str">
-        <f>CHAR(34)&amp;J143&amp;CHAR(34)&amp;": "&amp;K143&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H144">
+        <f t="shared" ref="I143:I145" si="23">I137+1</f>
+        <v>24</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <f>VLOOKUP(I143,ToRaid,J143,FALSE)</f>
+        <v>-27</v>
+      </c>
+      <c r="O143" t="str">
+        <f>CHAR(34)&amp;K143&amp;CHAR(34)&amp;": "&amp;L143&amp;","</f>
+        <v>"X": -27,</v>
+      </c>
+    </row>
+    <row r="144" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I144">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="N144" t="str">
-        <f>CHAR(34)&amp;J144&amp;CHAR(34)&amp;": "&amp;K144</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="145" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H145">
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144" t="s">
+        <v>4</v>
+      </c>
+      <c r="L144">
+        <f>VLOOKUP(I144,ToRaid,J144,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O144" t="str">
+        <f>CHAR(34)&amp;K144&amp;CHAR(34)&amp;": "&amp;L144</f>
+        <v>"Y": -43</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I145">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="I145">
-        <v>4</v>
-      </c>
-      <c r="N145" t="str">
-        <f>CHAR(34)&amp;J145&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K145&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="146" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H148">
-        <f>H142+1</f>
+      <c r="J145">
+        <v>4</v>
+      </c>
+      <c r="K145" t="s">
+        <v>10</v>
+      </c>
+      <c r="L145" t="str">
+        <f>VLOOKUP(I145,ToRaid,J145,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O145" t="str">
+        <f>CHAR(34)&amp;K145&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L145&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <f>I142+1</f>
         <v>25</v>
       </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="N148" t="str">
-        <f>CHAR(34)&amp;J148&amp;CHAR(34)&amp;": "&amp;K148&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="149" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H149">
-        <f t="shared" ref="H149:H151" si="24">H143+1</f>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <f>VLOOKUP(I148,ToRaid,J148,FALSE)</f>
         <v>25</v>
       </c>
+      <c r="O148" t="str">
+        <f>CHAR(34)&amp;K148&amp;CHAR(34)&amp;": "&amp;L148&amp;","</f>
+        <v>"Id": 25,</v>
+      </c>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I149">
-        <v>2</v>
-      </c>
-      <c r="N149" t="str">
-        <f>CHAR(34)&amp;J149&amp;CHAR(34)&amp;": "&amp;K149&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="150" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H150">
+        <f t="shared" ref="I149:I151" si="24">I143+1</f>
+        <v>25</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149" t="s">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <f>VLOOKUP(I149,ToRaid,J149,FALSE)</f>
+        <v>-39</v>
+      </c>
+      <c r="O149" t="str">
+        <f>CHAR(34)&amp;K149&amp;CHAR(34)&amp;": "&amp;L149&amp;","</f>
+        <v>"X": -39,</v>
+      </c>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I150">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-      <c r="N150" t="str">
-        <f>CHAR(34)&amp;J150&amp;CHAR(34)&amp;": "&amp;K150</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="151" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H151">
+      <c r="J150">
+        <v>3</v>
+      </c>
+      <c r="K150" t="s">
+        <v>4</v>
+      </c>
+      <c r="L150">
+        <f>VLOOKUP(I150,ToRaid,J150,FALSE)</f>
+        <v>-56</v>
+      </c>
+      <c r="O150" t="str">
+        <f>CHAR(34)&amp;K150&amp;CHAR(34)&amp;": "&amp;L150</f>
+        <v>"Y": -56</v>
+      </c>
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I151">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="I151">
-        <v>4</v>
-      </c>
-      <c r="N151" t="str">
-        <f>CHAR(34)&amp;J151&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K151&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="152" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N153" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H154">
-        <f>H148+1</f>
+      <c r="J151">
+        <v>4</v>
+      </c>
+      <c r="K151" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" t="str">
+        <f>VLOOKUP(I151,ToRaid,J151,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O151" t="str">
+        <f>CHAR(34)&amp;K151&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L151&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <f>I148+1</f>
         <v>26</v>
       </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-      <c r="N154" t="str">
-        <f>CHAR(34)&amp;J154&amp;CHAR(34)&amp;": "&amp;K154&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="155" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H155">
-        <f t="shared" ref="H155:H157" si="25">H149+1</f>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <f>VLOOKUP(I154,ToRaid,J154,FALSE)</f>
         <v>26</v>
       </c>
+      <c r="O154" t="str">
+        <f>CHAR(34)&amp;K154&amp;CHAR(34)&amp;": "&amp;L154&amp;","</f>
+        <v>"Id": 26,</v>
+      </c>
+    </row>
+    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I155">
-        <v>2</v>
-      </c>
-      <c r="N155" t="str">
-        <f>CHAR(34)&amp;J155&amp;CHAR(34)&amp;": "&amp;K155&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="156" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H156">
+        <f t="shared" ref="I155:I157" si="25">I149+1</f>
+        <v>26</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155" t="s">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <f>VLOOKUP(I155,ToRaid,J155,FALSE)</f>
+        <v>-28</v>
+      </c>
+      <c r="O155" t="str">
+        <f>CHAR(34)&amp;K155&amp;CHAR(34)&amp;": "&amp;L155&amp;","</f>
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I156">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="I156">
-        <v>3</v>
-      </c>
-      <c r="N156" t="str">
-        <f>CHAR(34)&amp;J156&amp;CHAR(34)&amp;": "&amp;K156</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="157" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H157">
+      <c r="J156">
+        <v>3</v>
+      </c>
+      <c r="K156" t="s">
+        <v>4</v>
+      </c>
+      <c r="L156">
+        <f>VLOOKUP(I156,ToRaid,J156,FALSE)</f>
+        <v>-42</v>
+      </c>
+      <c r="O156" t="str">
+        <f>CHAR(34)&amp;K156&amp;CHAR(34)&amp;": "&amp;L156</f>
+        <v>"Y": -42</v>
+      </c>
+    </row>
+    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I157">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="I157">
-        <v>4</v>
-      </c>
-      <c r="N157" t="str">
-        <f>CHAR(34)&amp;J157&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K157&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="158" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N159" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H160">
-        <f>H154+1</f>
+      <c r="J157">
+        <v>4</v>
+      </c>
+      <c r="K157" t="s">
+        <v>10</v>
+      </c>
+      <c r="L157" t="str">
+        <f>VLOOKUP(I157,ToRaid,J157,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O157" t="str">
+        <f>CHAR(34)&amp;K157&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L157&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <f>I154+1</f>
         <v>27</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-      <c r="N160" t="str">
-        <f>CHAR(34)&amp;J160&amp;CHAR(34)&amp;": "&amp;K160&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H161">
-        <f t="shared" ref="H161:H163" si="26">H155+1</f>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" t="s">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <f>VLOOKUP(I160,ToRaid,J160,FALSE)</f>
         <v>27</v>
       </c>
+      <c r="O160" t="str">
+        <f>CHAR(34)&amp;K160&amp;CHAR(34)&amp;": "&amp;L160&amp;","</f>
+        <v>"Id": 27,</v>
+      </c>
+    </row>
+    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I161">
-        <v>2</v>
-      </c>
-      <c r="N161" t="str">
-        <f>CHAR(34)&amp;J161&amp;CHAR(34)&amp;": "&amp;K161&amp;","</f>
-        <v>"": ,</v>
-      </c>
-    </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H162">
+        <f t="shared" ref="I161:I163" si="26">I155+1</f>
+        <v>27</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161" t="s">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <f>VLOOKUP(I161,ToRaid,J161,FALSE)</f>
+        <v>-32</v>
+      </c>
+      <c r="O161" t="str">
+        <f>CHAR(34)&amp;K161&amp;CHAR(34)&amp;": "&amp;L161&amp;","</f>
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I162">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="I162">
-        <v>3</v>
-      </c>
-      <c r="N162" t="str">
-        <f>CHAR(34)&amp;J162&amp;CHAR(34)&amp;": "&amp;K162</f>
-        <v xml:space="preserve">"": </v>
-      </c>
-    </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H163">
+      <c r="J162">
+        <v>3</v>
+      </c>
+      <c r="K162" t="s">
+        <v>4</v>
+      </c>
+      <c r="L162">
+        <f>VLOOKUP(I162,ToRaid,J162,FALSE)</f>
+        <v>-61</v>
+      </c>
+      <c r="O162" t="str">
+        <f>CHAR(34)&amp;K162&amp;CHAR(34)&amp;": "&amp;L162</f>
+        <v>"Y": -61</v>
+      </c>
+    </row>
+    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I163">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="I163">
-        <v>4</v>
-      </c>
-      <c r="N163" t="str">
-        <f>CHAR(34)&amp;J163&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;K163&amp;CHAR(34)</f>
-        <v>"": ""</v>
-      </c>
-    </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="N164" t="s">
-        <v>5</v>
+      <c r="J163">
+        <v>4</v>
+      </c>
+      <c r="K163" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" t="str">
+        <f>VLOOKUP(I163,ToRaid,J163,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O163" t="str">
+        <f>CHAR(34)&amp;K163&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L163&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <f>I160+1</f>
+        <v>28</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <f>VLOOKUP(I166,ToRaid,J166,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" ref="O166:O197" si="27">CHAR(34)&amp;K166&amp;CHAR(34)&amp;": "&amp;L166&amp;","</f>
+        <v>"Id": 28,</v>
+      </c>
+    </row>
+    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <f t="shared" ref="I167:I169" si="28">I161+1</f>
+        <v>28</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167" t="s">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <f>VLOOKUP(I167,ToRaid,J167,FALSE)</f>
+        <v>-41</v>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="27"/>
+        <v>"X": -41,</v>
+      </c>
+    </row>
+    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="J168">
+        <v>3</v>
+      </c>
+      <c r="K168" t="s">
+        <v>4</v>
+      </c>
+      <c r="L168">
+        <f>VLOOKUP(I168,ToRaid,J168,FALSE)</f>
+        <v>-52</v>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" ref="O168:O199" si="29">CHAR(34)&amp;K168&amp;CHAR(34)&amp;": "&amp;L168</f>
+        <v>"Y": -52</v>
+      </c>
+    </row>
+    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <f t="shared" si="28"/>
+        <v>28</v>
+      </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169" t="s">
+        <v>10</v>
+      </c>
+      <c r="L169" t="str">
+        <f>VLOOKUP(I169,ToRaid,J169,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" ref="O169:O200" si="30">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <f>I166+1</f>
+        <v>29</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172" t="s">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <f>VLOOKUP(I172,ToRaid,J172,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="O172" t="str">
+        <f t="shared" ref="O172:O217" si="31">CHAR(34)&amp;K172&amp;CHAR(34)&amp;": "&amp;L172&amp;","</f>
+        <v>"Id": 29,</v>
+      </c>
+    </row>
+    <row r="173" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <f t="shared" ref="I173:I175" si="32">I167+1</f>
+        <v>29</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173" t="s">
+        <v>3</v>
+      </c>
+      <c r="L173">
+        <f>VLOOKUP(I173,ToRaid,J173,FALSE)</f>
+        <v>-21</v>
+      </c>
+      <c r="O173" t="str">
+        <f t="shared" si="31"/>
+        <v>"X": -21,</v>
+      </c>
+    </row>
+    <row r="174" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <f t="shared" si="32"/>
+        <v>29</v>
+      </c>
+      <c r="J174">
+        <v>3</v>
+      </c>
+      <c r="K174" t="s">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <f>VLOOKUP(I174,ToRaid,J174,FALSE)</f>
+        <v>-47</v>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" ref="O174:O217" si="33">CHAR(34)&amp;K174&amp;CHAR(34)&amp;": "&amp;L174</f>
+        <v>"Y": -47</v>
+      </c>
+    </row>
+    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <f t="shared" si="32"/>
+        <v>29</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" t="str">
+        <f>VLOOKUP(I175,ToRaid,J175,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O175" t="str">
+        <f t="shared" ref="O175:O217" si="34">CHAR(34)&amp;K175&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L175&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <f>I172+1</f>
+        <v>30</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <f>VLOOKUP(I178,ToRaid,J178,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="O178" t="str">
+        <f t="shared" ref="O178:O217" si="35">CHAR(34)&amp;K178&amp;CHAR(34)&amp;": "&amp;L178&amp;","</f>
+        <v>"Id": 30,</v>
+      </c>
+    </row>
+    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <f t="shared" ref="I179:I181" si="36">I173+1</f>
+        <v>30</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179" t="s">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <f>VLOOKUP(I179,ToRaid,J179,FALSE)</f>
+        <v>-39</v>
+      </c>
+      <c r="O179" t="str">
+        <f t="shared" si="35"/>
+        <v>"X": -39,</v>
+      </c>
+    </row>
+    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <f t="shared" si="36"/>
+        <v>30</v>
+      </c>
+      <c r="J180">
+        <v>3</v>
+      </c>
+      <c r="K180" t="s">
+        <v>4</v>
+      </c>
+      <c r="L180">
+        <f>VLOOKUP(I180,ToRaid,J180,FALSE)</f>
+        <v>-41</v>
+      </c>
+      <c r="O180" t="str">
+        <f t="shared" ref="O180:O217" si="37">CHAR(34)&amp;K180&amp;CHAR(34)&amp;": "&amp;L180</f>
+        <v>"Y": -41</v>
+      </c>
+    </row>
+    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <f t="shared" si="36"/>
+        <v>30</v>
+      </c>
+      <c r="J181">
+        <v>4</v>
+      </c>
+      <c r="K181" t="s">
+        <v>10</v>
+      </c>
+      <c r="L181" t="str">
+        <f>VLOOKUP(I181,ToRaid,J181,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O181" t="str">
+        <f t="shared" ref="O181:O217" si="38">CHAR(34)&amp;K181&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L181&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O183" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <f>I178+1</f>
+        <v>31</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184" t="s">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <f>VLOOKUP(I184,ToRaid,J184,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="O184" t="str">
+        <f t="shared" ref="O184:O217" si="39">CHAR(34)&amp;K184&amp;CHAR(34)&amp;": "&amp;L184&amp;","</f>
+        <v>"Id": 31,</v>
+      </c>
+    </row>
+    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <f t="shared" ref="I185:I187" si="40">I179+1</f>
+        <v>31</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+      <c r="K185" t="s">
+        <v>3</v>
+      </c>
+      <c r="L185">
+        <f>VLOOKUP(I185,ToRaid,J185,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O185" t="str">
+        <f t="shared" si="39"/>
+        <v>"X": -43,</v>
+      </c>
+    </row>
+    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="J186">
+        <v>3</v>
+      </c>
+      <c r="K186" t="s">
+        <v>4</v>
+      </c>
+      <c r="L186">
+        <f>VLOOKUP(I186,ToRaid,J186,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O186" t="str">
+        <f t="shared" ref="O186:O217" si="41">CHAR(34)&amp;K186&amp;CHAR(34)&amp;": "&amp;L186</f>
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="J187">
+        <v>4</v>
+      </c>
+      <c r="K187" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" t="str">
+        <f>VLOOKUP(I187,ToRaid,J187,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O187" t="str">
+        <f t="shared" ref="O187:O217" si="42">CHAR(34)&amp;K187&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L187&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <f>I184+1</f>
+        <v>32</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <f>VLOOKUP(I190,ToRaid,J190,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="O190" t="str">
+        <f t="shared" ref="O190:O217" si="43">CHAR(34)&amp;K190&amp;CHAR(34)&amp;": "&amp;L190&amp;","</f>
+        <v>"Id": 32,</v>
+      </c>
+    </row>
+    <row r="191" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <f t="shared" ref="I191:I193" si="44">I185+1</f>
+        <v>32</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191" t="s">
+        <v>3</v>
+      </c>
+      <c r="L191">
+        <f>VLOOKUP(I191,ToRaid,J191,FALSE)</f>
+        <v>-38</v>
+      </c>
+      <c r="O191" t="str">
+        <f t="shared" si="43"/>
+        <v>"X": -38,</v>
+      </c>
+    </row>
+    <row r="192" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="J192">
+        <v>3</v>
+      </c>
+      <c r="K192" t="s">
+        <v>4</v>
+      </c>
+      <c r="L192">
+        <f>VLOOKUP(I192,ToRaid,J192,FALSE)</f>
+        <v>-40</v>
+      </c>
+      <c r="O192" t="str">
+        <f t="shared" ref="O192:O217" si="45">CHAR(34)&amp;K192&amp;CHAR(34)&amp;": "&amp;L192</f>
+        <v>"Y": -40</v>
+      </c>
+    </row>
+    <row r="193" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <f t="shared" si="44"/>
+        <v>32</v>
+      </c>
+      <c r="J193">
+        <v>4</v>
+      </c>
+      <c r="K193" t="s">
+        <v>10</v>
+      </c>
+      <c r="L193" t="str">
+        <f>VLOOKUP(I193,ToRaid,J193,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O193" t="str">
+        <f t="shared" ref="O193:O217" si="46">CHAR(34)&amp;K193&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L193&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="194" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <f>I190+1</f>
+        <v>33</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196" t="s">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <f>VLOOKUP(I196,ToRaid,J196,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="O196" t="str">
+        <f t="shared" ref="O196:O217" si="47">CHAR(34)&amp;K196&amp;CHAR(34)&amp;": "&amp;L196&amp;","</f>
+        <v>"Id": 33,</v>
+      </c>
+    </row>
+    <row r="197" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <f t="shared" ref="I197:I199" si="48">I191+1</f>
+        <v>33</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197" t="s">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <f>VLOOKUP(I197,ToRaid,J197,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O197" t="str">
+        <f t="shared" si="47"/>
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="198" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <f t="shared" si="48"/>
+        <v>33</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+      <c r="K198" t="s">
+        <v>4</v>
+      </c>
+      <c r="L198">
+        <f>VLOOKUP(I198,ToRaid,J198,FALSE)</f>
+        <v>-39</v>
+      </c>
+      <c r="O198" t="str">
+        <f t="shared" ref="O198:O217" si="49">CHAR(34)&amp;K198&amp;CHAR(34)&amp;": "&amp;L198</f>
+        <v>"Y": -39</v>
+      </c>
+    </row>
+    <row r="199" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <f t="shared" si="48"/>
+        <v>33</v>
+      </c>
+      <c r="J199">
+        <v>4</v>
+      </c>
+      <c r="K199" t="s">
+        <v>10</v>
+      </c>
+      <c r="L199" t="str">
+        <f>VLOOKUP(I199,ToRaid,J199,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O199" t="str">
+        <f t="shared" ref="O199:O217" si="50">CHAR(34)&amp;K199&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L199&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="200" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <f>I196+1</f>
+        <v>34</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202" t="s">
+        <v>2</v>
+      </c>
+      <c r="L202" t="e">
+        <f>VLOOKUP(I202,ToRaid,J202,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O202" t="e">
+        <f t="shared" ref="O202:O217" si="51">CHAR(34)&amp;K202&amp;CHAR(34)&amp;": "&amp;L202&amp;","</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <f t="shared" ref="I203:I205" si="52">I197+1</f>
+        <v>34</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+      <c r="K203" t="s">
+        <v>3</v>
+      </c>
+      <c r="L203" t="e">
+        <f>VLOOKUP(I203,ToRaid,J203,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O203" t="e">
+        <f t="shared" si="51"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="J204">
+        <v>3</v>
+      </c>
+      <c r="K204" t="s">
+        <v>4</v>
+      </c>
+      <c r="L204" t="e">
+        <f>VLOOKUP(I204,ToRaid,J204,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O204" t="e">
+        <f t="shared" ref="O204:O217" si="53">CHAR(34)&amp;K204&amp;CHAR(34)&amp;": "&amp;L204</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <f t="shared" si="52"/>
+        <v>34</v>
+      </c>
+      <c r="J205">
+        <v>4</v>
+      </c>
+      <c r="K205" t="s">
+        <v>10</v>
+      </c>
+      <c r="L205" t="e">
+        <f>VLOOKUP(I205,ToRaid,J205,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O205" t="e">
+        <f t="shared" ref="O205:O217" si="54">CHAR(34)&amp;K205&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L205&amp;CHAR(34)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <f>I202+1</f>
+        <v>35</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208" t="s">
+        <v>2</v>
+      </c>
+      <c r="L208" t="e">
+        <f>VLOOKUP(I208,ToRaid,J208,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O208" t="e">
+        <f t="shared" ref="O208:O217" si="55">CHAR(34)&amp;K208&amp;CHAR(34)&amp;": "&amp;L208&amp;","</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <f t="shared" ref="I209:I211" si="56">I203+1</f>
+        <v>35</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209" t="s">
+        <v>3</v>
+      </c>
+      <c r="L209" t="e">
+        <f>VLOOKUP(I209,ToRaid,J209,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O209" t="e">
+        <f t="shared" si="55"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <f t="shared" si="56"/>
+        <v>35</v>
+      </c>
+      <c r="J210">
+        <v>3</v>
+      </c>
+      <c r="K210" t="s">
+        <v>4</v>
+      </c>
+      <c r="L210" t="e">
+        <f>VLOOKUP(I210,ToRaid,J210,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O210" t="e">
+        <f t="shared" ref="O210:O217" si="57">CHAR(34)&amp;K210&amp;CHAR(34)&amp;": "&amp;L210</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <f t="shared" si="56"/>
+        <v>35</v>
+      </c>
+      <c r="J211">
+        <v>4</v>
+      </c>
+      <c r="K211" t="s">
+        <v>10</v>
+      </c>
+      <c r="L211" t="e">
+        <f>VLOOKUP(I211,ToRaid,J211,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O211" t="e">
+        <f t="shared" ref="O211:O217" si="58">CHAR(34)&amp;K211&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L211&amp;CHAR(34)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <f>I208+1</f>
+        <v>36</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214" t="s">
+        <v>2</v>
+      </c>
+      <c r="L214" t="e">
+        <f>VLOOKUP(I214,ToRaid,J214,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O214" t="e">
+        <f t="shared" ref="O214:O217" si="59">CHAR(34)&amp;K214&amp;CHAR(34)&amp;": "&amp;L214&amp;","</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <f t="shared" ref="I215:I217" si="60">I209+1</f>
+        <v>36</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+      <c r="K215" t="s">
+        <v>3</v>
+      </c>
+      <c r="L215" t="e">
+        <f>VLOOKUP(I215,ToRaid,J215,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O215" t="e">
+        <f t="shared" si="59"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="J216">
+        <v>3</v>
+      </c>
+      <c r="K216" t="s">
+        <v>4</v>
+      </c>
+      <c r="L216" t="e">
+        <f>VLOOKUP(I216,ToRaid,J216,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O216" t="e">
+        <f t="shared" ref="O216:O217" si="61">CHAR(34)&amp;K216&amp;CHAR(34)&amp;": "&amp;L216</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <f t="shared" si="60"/>
+        <v>36</v>
+      </c>
+      <c r="J217">
+        <v>4</v>
+      </c>
+      <c r="K217" t="s">
+        <v>10</v>
+      </c>
+      <c r="L217" t="e">
+        <f>VLOOKUP(I217,ToRaid,J217,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="O217" t="e">
+        <f t="shared" ref="O217" si="62">CHAR(34)&amp;K217&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L217&amp;CHAR(34)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <f>I214+1</f>
+        <v>37</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220" t="s">
+        <v>2</v>
+      </c>
+      <c r="L220" t="e">
+        <f>VLOOKUP(I220,ToRaid,J220,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <f t="shared" ref="I221:I223" si="63">I215+1</f>
+        <v>37</v>
+      </c>
+      <c r="J221">
+        <v>2</v>
+      </c>
+      <c r="K221" t="s">
+        <v>3</v>
+      </c>
+      <c r="L221" t="e">
+        <f>VLOOKUP(I221,ToRaid,J221,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="J222">
+        <v>3</v>
+      </c>
+      <c r="K222" t="s">
+        <v>4</v>
+      </c>
+      <c r="L222" t="e">
+        <f>VLOOKUP(I222,ToRaid,J222,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <f t="shared" si="63"/>
+        <v>37</v>
+      </c>
+      <c r="J223">
+        <v>4</v>
+      </c>
+      <c r="K223" t="s">
+        <v>10</v>
+      </c>
+      <c r="L223" t="e">
+        <f>VLOOKUP(I223,ToRaid,J223,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:F27">
-    <sortCondition ref="F5:F27"/>
+  <sortState ref="C5:H29">
+    <sortCondition ref="F5:F29"/>
   </sortState>
+  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24 G26:G37 E5:E37">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(E5="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(G6="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(G25="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{21C15D62-C8D4-4DC3-9466-8933159407D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD8FB1-626B-4D1C-8304-83BCABE4BDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68A2FF-792C-49CD-93E4-7AE41846BAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="16">
   <si>
     <t>Oases</t>
   </si>
@@ -78,10 +78,10 @@
     <t>Points</t>
   </si>
   <si>
-    <t>4 Mai</t>
+    <t>https://ts4.travian.com/position_details.php?x=</t>
   </si>
   <si>
-    <t>https://ts4.travian.com/position_details.php?x=</t>
+    <t>actif</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,35 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2057,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
-  <dimension ref="A1:O223"/>
+  <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,9 +2096,9 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1">
         <v>-31</v>
@@ -2079,17 +2107,17 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2126,11 +2154,23 @@
         <f>CHAR(34)&amp;K4&amp;CHAR(34)&amp;": "&amp;L4&amp;","</f>
         <v>"Id": 1,</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S4" s="2">
+        <v>-32</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-50</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>$A$1&amp;C5&amp;"&amp;y="&amp;D5</f>
-        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-50</v>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-52</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2139,17 +2179,17 @@
         <v>-32</v>
       </c>
       <c r="D5" s="2">
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5">
-        <f>ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
+        <f t="shared" ref="F5:F36" si="0">ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
         <v>1.41</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5">
@@ -2169,11 +2209,23 @@
         <f>CHAR(34)&amp;K5&amp;CHAR(34)&amp;": "&amp;L5&amp;","</f>
         <v>"X": -32,</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S5" s="2">
+        <v>-32</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-52</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A37" si="0">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
-        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-52</v>
+        <f t="shared" ref="A6:A37" si="1">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-50</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2182,20 +2234,17 @@
         <v>-32</v>
       </c>
       <c r="D6" s="2">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <f>ROUND(SQRT((C6-$C$1)^2+(D6-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
       <c r="G6" s="2">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2208,23 +2257,35 @@
       </c>
       <c r="L6">
         <f>VLOOKUP(I6,ToRaid,J6,FALSE)</f>
-        <v>-50</v>
+        <v>-52</v>
       </c>
       <c r="O6" t="str">
         <f>CHAR(34)&amp;K6&amp;CHAR(34)&amp;": "&amp;L6</f>
-        <v>"Y": -50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"Y": -52</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-30</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-54</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-54</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-54</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="D7" s="2">
         <v>-54</v>
@@ -2233,11 +2294,11 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f>ROUND(SQRT((C7-$C$1)^2+(D7-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>3.16</v>
       </c>
       <c r="G7" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2256,17 +2317,29 @@
         <f>CHAR(34)&amp;K7&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L7&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S7" s="2">
+        <v>-32</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-54</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-54</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-54</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="D8" s="2">
         <v>-54</v>
@@ -2275,19 +2348,31 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <f>ROUND(SQRT((C8-$C$1)^2+(D8-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>3.16</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S8" s="2">
+        <v>-35</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-53</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-53</v>
       </c>
       <c r="B9" s="2">
@@ -2303,7 +2388,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <f>ROUND(SQRT((C9-$C$1)^2+(D9-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>4.47</v>
       </c>
       <c r="G9" s="2">
@@ -2313,10 +2398,22 @@
       <c r="O9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S9" s="2">
+        <v>-31</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-46</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-31&amp;y=-46</v>
       </c>
       <c r="B10" s="2">
@@ -2332,11 +2429,11 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <f>ROUND(SQRT((C10-$C$1)^2+(D10-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10">
@@ -2357,10 +2454,22 @@
         <f>CHAR(34)&amp;K10&amp;CHAR(34)&amp;": "&amp;L10&amp;","</f>
         <v>"Id": 2,</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S10" s="2">
+        <v>-30</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-56</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-56</v>
       </c>
       <c r="B11" s="2">
@@ -2376,14 +2485,14 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <f>ROUND(SQRT((C11-$C$1)^2+(D11-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G11" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I13" si="1">I5+1</f>
+        <f t="shared" ref="I11:I13" si="2">I5+1</f>
         <v>2</v>
       </c>
       <c r="J11">
@@ -2400,34 +2509,46 @@
         <f>CHAR(34)&amp;K11&amp;CHAR(34)&amp;": "&amp;L11&amp;","</f>
         <v>"X": -32,</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <v>-26</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-52</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-52</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-46</v>
       </c>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="D12" s="2">
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <f>ROUND(SQRT((C12-$C$1)^2+(D12-$D$1)^2),2)</f>
-        <v>5.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>5.39</v>
       </c>
       <c r="G12" s="2">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J12">
@@ -2438,39 +2559,51 @@
       </c>
       <c r="L12">
         <f>VLOOKUP(I12,ToRaid,J12,FALSE)</f>
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="O12" t="str">
         <f>CHAR(34)&amp;K12&amp;CHAR(34)&amp;": "&amp;L12</f>
-        <v>"Y": -52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"Y": -50</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-33</v>
+      </c>
+      <c r="T12" s="2">
+        <v>-46</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-46</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-54</v>
       </c>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="D13" s="2">
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <f>ROUND(SQRT((C13-$C$1)^2+(D13-$D$1)^2),2)</f>
-        <v>5.39</v>
+        <f t="shared" si="0"/>
+        <v>5.83</v>
       </c>
       <c r="G13" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J13">
@@ -2481,92 +2614,128 @@
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(I13,ToRaid,J13,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O13" t="str">
         <f>CHAR(34)&amp;K13&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L13&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "true"</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-36</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-54</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-54</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-48</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>-36</v>
+        <v>-26</v>
       </c>
       <c r="D14" s="2">
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F14">
-        <f>ROUND(SQRT((C14-$C$1)^2+(D14-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.83</v>
       </c>
       <c r="G14" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S14" s="2">
+        <v>-26</v>
+      </c>
+      <c r="T14" s="2">
+        <v>-48</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-48</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-50</v>
       </c>
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>-26</v>
+        <v>-37</v>
       </c>
       <c r="D15" s="2">
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F15">
-        <f>ROUND(SQRT((C15-$C$1)^2+(D15-$D$1)^2),2)</f>
-        <v>5.83</v>
+        <f t="shared" si="0"/>
+        <v>6.08</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <v>-30</v>
+      </c>
+      <c r="T15" s="2">
+        <v>-45</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-45</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-55</v>
       </c>
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="D16" s="2">
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <f>ROUND(SQRT((C16-$C$1)^2+(D16-$D$1)^2),2)</f>
-        <v>6.08</v>
+        <f t="shared" si="0"/>
+        <v>6.4</v>
       </c>
       <c r="G16" s="2">
-        <v>195</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16">
@@ -2587,33 +2756,45 @@
         <f>CHAR(34)&amp;K16&amp;CHAR(34)&amp;": "&amp;L16&amp;","</f>
         <v>"Id": 3,</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S16" s="2">
+        <v>-37</v>
+      </c>
+      <c r="T16" s="2">
+        <v>-50</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-50</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-45</v>
       </c>
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="D17" s="2">
-        <v>-50</v>
+        <v>-45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F17">
-        <f>ROUND(SQRT((C17-$C$1)^2+(D17-$D$1)^2),2)</f>
-        <v>6.08</v>
+        <f t="shared" si="0"/>
+        <v>6.71</v>
       </c>
       <c r="G17" s="2">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I19" si="2">I11+1</f>
+        <f t="shared" ref="I17:I19" si="3">I11+1</f>
         <v>3</v>
       </c>
       <c r="J17">
@@ -2624,40 +2805,52 @@
       </c>
       <c r="L17">
         <f>VLOOKUP(I17,ToRaid,J17,FALSE)</f>
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="O17" t="str">
         <f>CHAR(34)&amp;K17&amp;CHAR(34)&amp;": "&amp;L17&amp;","</f>
-        <v>"X": -30,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"X": -32,</v>
+      </c>
+      <c r="S17" s="2">
+        <v>-33</v>
+      </c>
+      <c r="T17" s="2">
+        <v>-57</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-57</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-58</v>
       </c>
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="D18" s="2">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <f>ROUND(SQRT((C18-$C$1)^2+(D18-$D$1)^2),2)</f>
-        <v>6.32</v>
+        <f t="shared" si="0"/>
+        <v>7.07</v>
       </c>
       <c r="G18" s="2">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J18">
@@ -2674,33 +2867,45 @@
         <f>CHAR(34)&amp;K18&amp;CHAR(34)&amp;": "&amp;L18</f>
         <v>"Y": -54</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S18" s="2">
+        <v>-26</v>
+      </c>
+      <c r="T18" s="2">
+        <v>-55</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-55</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-45</v>
       </c>
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="D19" s="2">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <f>ROUND(SQRT((C19-$C$1)^2+(D19-$D$1)^2),2)</f>
-        <v>6.4</v>
+        <f t="shared" si="0"/>
+        <v>7.21</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J19">
@@ -2717,88 +2922,126 @@
         <f>CHAR(34)&amp;K19&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L19&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S19" s="2">
+        <v>-28</v>
+      </c>
+      <c r="T19" s="2">
+        <v>-45</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-45</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-46</v>
       </c>
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="D20" s="2">
-        <v>-45</v>
+        <v>-46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F20">
-        <f>ROUND(SQRT((C20-$C$1)^2+(D20-$D$1)^2),2)</f>
-        <v>6.71</v>
+        <f t="shared" si="0"/>
+        <v>7.81</v>
       </c>
       <c r="G20" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S20" s="2">
+        <v>-32</v>
+      </c>
+      <c r="T20" s="2">
+        <v>-58</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-58</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-55</v>
       </c>
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="D21" s="2">
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F21">
-        <f>ROUND(SQRT((C21-$C$1)^2+(D21-$D$1)^2),2)</f>
-        <v>7.07</v>
+        <f t="shared" si="0"/>
+        <v>8.06</v>
       </c>
       <c r="G21" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S21" s="2">
+        <v>-35</v>
+      </c>
+      <c r="T21" s="2">
+        <v>-45</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-45</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-58</v>
       </c>
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2">
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="D22" s="2">
-        <v>-45</v>
+        <v>-58</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22">
-        <f>ROUND(SQRT((C22-$C$1)^2+(D22-$D$1)^2),2)</f>
-        <v>7.21</v>
+        <f t="shared" si="0"/>
+        <v>8.6</v>
       </c>
       <c r="G22" s="2">
-        <v>189</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I22">
         <f>I16+1</f>
         <v>4</v>
@@ -2817,33 +3060,45 @@
         <f>CHAR(34)&amp;K22&amp;CHAR(34)&amp;": "&amp;L22&amp;","</f>
         <v>"Id": 4,</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S22" s="2">
+        <v>-25</v>
+      </c>
+      <c r="T22" s="2">
+        <v>-46</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-46</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-43</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="D23" s="2">
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F23">
-        <f>ROUND(SQRT((C23-$C$1)^2+(D23-$D$1)^2),2)</f>
-        <v>7.81</v>
+        <f t="shared" si="0"/>
+        <v>8.94</v>
       </c>
       <c r="G23" s="2">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I25" si="3">I17+1</f>
+        <f t="shared" ref="I23:I25" si="4">I17+1</f>
         <v>4</v>
       </c>
       <c r="J23">
@@ -2854,39 +3109,51 @@
       </c>
       <c r="L23">
         <f>VLOOKUP(I23,ToRaid,J23,FALSE)</f>
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="O23" t="str">
         <f>CHAR(34)&amp;K23&amp;CHAR(34)&amp;": "&amp;L23&amp;","</f>
-        <v>"X": -32,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"X": -30,</v>
+      </c>
+      <c r="S23" s="2">
+        <v>-24</v>
+      </c>
+      <c r="T23" s="2">
+        <v>-55</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-55</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-51</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="2">
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="D24" s="2">
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <f>ROUND(SQRT((C24-$C$1)^2+(D24-$D$1)^2),2)</f>
-        <v>8.06</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J24">
@@ -2903,34 +3170,46 @@
         <f>CHAR(34)&amp;K24&amp;CHAR(34)&amp;": "&amp;L24</f>
         <v>"Y": -54</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <v>-23</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-53</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-23&amp;y=-53</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-56</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>-23</v>
+        <v>-39</v>
       </c>
       <c r="D25" s="2">
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <f>ROUND(SQRT((C25-$C$1)^2+(D25-$D$1)^2),2)</f>
-        <v>8.25</v>
+        <f t="shared" si="0"/>
+        <v>9.43</v>
       </c>
       <c r="G25" s="2">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J25">
@@ -2947,89 +3226,122 @@
         <f>CHAR(34)&amp;K25&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L25&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S25" s="2">
+        <v>-28</v>
+      </c>
+      <c r="T25" s="2">
+        <v>-59</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-59</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-54</v>
       </c>
       <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="D26" s="2">
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <f>ROUND(SQRT((C26-$C$1)^2+(D26-$D$1)^2),2)</f>
-        <v>8.5399999999999991</v>
+        <f t="shared" si="0"/>
+        <v>9.49</v>
       </c>
       <c r="G26" s="2">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <v>-26</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-58</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V26" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-58</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-42</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="D27" s="2">
-        <v>-58</v>
+        <v>-42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27">
-        <f>ROUND(SQRT((C27-$C$1)^2+(D27-$D$1)^2),2)</f>
-        <v>8.6</v>
+        <f t="shared" si="0"/>
+        <v>9.49</v>
       </c>
       <c r="G27" s="2">
-        <v>57</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S27" s="2">
+        <v>-27</v>
+      </c>
+      <c r="T27" s="2">
+        <v>-43</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-43</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-41&amp;y=-52</v>
       </c>
       <c r="B28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>-27</v>
+        <v>-41</v>
       </c>
       <c r="D28" s="2">
-        <v>-43</v>
+        <v>-52</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <f>ROUND(SQRT((C28-$C$1)^2+(D28-$D$1)^2),2)</f>
-        <v>8.94</v>
+        <f t="shared" si="0"/>
+        <v>10.050000000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <f>I22+1</f>
@@ -3049,33 +3361,45 @@
         <f>CHAR(34)&amp;K28&amp;CHAR(34)&amp;": "&amp;L28&amp;","</f>
         <v>"Id": 5,</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S28" s="2">
+        <v>-39</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-56</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-56</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-52</v>
       </c>
       <c r="B29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>-39</v>
+        <v>-21</v>
       </c>
       <c r="D29" s="2">
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F29">
-        <f>ROUND(SQRT((C29-$C$1)^2+(D29-$D$1)^2),2)</f>
-        <v>9.43</v>
+        <f t="shared" si="0"/>
+        <v>10.050000000000001</v>
       </c>
       <c r="G29" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I31" si="4">I23+1</f>
+        <f t="shared" ref="I29:I31" si="5">I23+1</f>
         <v>5</v>
       </c>
       <c r="J29">
@@ -3092,33 +3416,45 @@
         <f>CHAR(34)&amp;K29&amp;CHAR(34)&amp;": "&amp;L29&amp;","</f>
         <v>"X": -35,</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <v>-28</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-42</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-42</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-47</v>
       </c>
       <c r="B30" s="2">
         <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="D30" s="2">
-        <v>-42</v>
+        <v>-47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F30">
-        <f>ROUND(SQRT((C30-$C$1)^2+(D30-$D$1)^2),2)</f>
-        <v>9.49</v>
+        <f t="shared" si="0"/>
+        <v>10.77</v>
       </c>
       <c r="G30" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J30">
@@ -3135,33 +3471,45 @@
         <f>CHAR(34)&amp;K30&amp;CHAR(34)&amp;": "&amp;L30</f>
         <v>"Y": -53</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <v>-32</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-61</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-61</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-54</v>
       </c>
       <c r="B31" s="2">
         <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="D31" s="2">
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F31">
-        <f>ROUND(SQRT((C31-$C$1)^2+(D31-$D$1)^2),2)</f>
-        <v>10.050000000000001</v>
+        <f t="shared" si="0"/>
+        <v>11.4</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J31">
@@ -3178,86 +3526,122 @@
         <f>CHAR(34)&amp;K31&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L31&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <v>-41</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-52</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-41&amp;y=-52</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-22&amp;y=-58</v>
       </c>
       <c r="B32" s="2">
         <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>-41</v>
+        <v>-22</v>
       </c>
       <c r="D32" s="2">
-        <v>-52</v>
+        <v>-58</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F32">
-        <f>ROUND(SQRT((C32-$C$1)^2+(D32-$D$1)^2),2)</f>
-        <v>10.050000000000001</v>
+        <f t="shared" si="0"/>
+        <v>11.4</v>
       </c>
       <c r="G32" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="O32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S32" s="2">
+        <v>-21</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-47</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-47</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-56</v>
       </c>
       <c r="B33" s="2">
         <v>29</v>
       </c>
       <c r="C33" s="2">
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="D33" s="2">
-        <v>-47</v>
+        <v>-56</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>12.08</v>
+      </c>
+      <c r="G33" s="2">
+        <v>179</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="2">
+        <v>-39</v>
+      </c>
+      <c r="T33" s="2">
+        <v>-41</v>
+      </c>
+      <c r="U33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
-        <f>ROUND(SQRT((C33-$C$1)^2+(D33-$D$1)^2),2)</f>
-        <v>10.77</v>
-      </c>
-      <c r="G33" s="2">
-        <v>10</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="V33" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-41</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-53</v>
       </c>
       <c r="B34" s="2">
         <v>30</v>
       </c>
       <c r="C34" s="2">
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="D34" s="2">
-        <v>-41</v>
+        <v>-53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <f>ROUND(SQRT((C34-$C$1)^2+(D34-$D$1)^2),2)</f>
-        <v>12.81</v>
+        <f t="shared" si="0"/>
+        <v>12.17</v>
       </c>
       <c r="G34" s="2">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="I34">
         <f>I28+1</f>
@@ -3277,11 +3661,23 @@
         <f>CHAR(34)&amp;K34&amp;CHAR(34)&amp;": "&amp;L34&amp;","</f>
         <v>"Id": 6,</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S34" s="2">
+        <v>-43</v>
+      </c>
+      <c r="T34" s="2">
+        <v>-46</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-46</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-55</v>
       </c>
       <c r="B35" s="2">
         <v>31</v>
@@ -3290,20 +3686,20 @@
         <v>-43</v>
       </c>
       <c r="D35" s="2">
-        <v>-46</v>
+        <v>-55</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <f>ROUND(SQRT((C35-$C$1)^2+(D35-$D$1)^2),2)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12.65</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I37" si="5">I29+1</f>
+        <f t="shared" ref="I35:I37" si="6">I29+1</f>
         <v>6</v>
       </c>
       <c r="J35">
@@ -3320,33 +3716,45 @@
         <f>CHAR(34)&amp;K35&amp;CHAR(34)&amp;": "&amp;L35&amp;","</f>
         <v>"X": -31,</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <v>-38</v>
+      </c>
+      <c r="T35" s="2">
+        <v>-40</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-38&amp;y=-40</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-39</v>
       </c>
       <c r="B36" s="2">
         <v>32</v>
       </c>
       <c r="C36" s="2">
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="D36" s="2">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <f>ROUND(SQRT((C36-$C$1)^2+(D36-$D$1)^2),2)</f>
-        <v>13.04</v>
+        <f t="shared" si="0"/>
+        <v>12.65</v>
       </c>
       <c r="G36" s="2">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J36">
@@ -3363,17 +3771,29 @@
         <f>CHAR(34)&amp;K36&amp;CHAR(34)&amp;": "&amp;L36</f>
         <v>"Y": -46</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <v>-37</v>
+      </c>
+      <c r="T36" s="2">
+        <v>-39</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-39</v>
+        <f t="shared" si="1"/>
+        <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-39</v>
       </c>
       <c r="B37" s="2">
         <v>33</v>
       </c>
       <c r="C37" s="2">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="D37" s="2">
         <v>-39</v>
@@ -3382,14 +3802,14 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <f>ROUND(SQRT((C37-$C$1)^2+(D37-$D$1)^2),2)</f>
-        <v>13.42</v>
+        <f t="shared" ref="F37:F63" si="7">ROUND(SQRT((C37-$C$1)^2+(D37-$D$1)^2),2)</f>
+        <v>12.65</v>
       </c>
       <c r="G37" s="2">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J37">
@@ -3407,17 +3827,86 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" ref="A38:A95" si="8">$A$1&amp;C38&amp;"&amp;y="&amp;D38</f>
+        <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-41</v>
+      </c>
+      <c r="B38" s="2">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-39</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-41</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>12.81</v>
+      </c>
+      <c r="G38" s="2">
+        <v>50</v>
+      </c>
       <c r="O38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-51</v>
+      </c>
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-51</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G39" s="2">
+        <v>114</v>
+      </c>
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-46</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-43</v>
+      </c>
+      <c r="D40" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2</v>
+      </c>
       <c r="I40">
         <f>I34+1</f>
         <v>7</v>
@@ -3437,9 +3926,32 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-38&amp;y=-40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-38</v>
+      </c>
+      <c r="D41" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>13.04</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15</v>
+      </c>
       <c r="I41">
-        <f t="shared" ref="I41:I43" si="6">I35+1</f>
+        <f t="shared" ref="I41:I43" si="9">I35+1</f>
         <v>7</v>
       </c>
       <c r="J41">
@@ -3457,9 +3969,32 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-48</v>
+      </c>
+      <c r="B42" s="2">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2">
+        <v>-44</v>
+      </c>
+      <c r="D42" s="2">
+        <v>-48</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>13.34</v>
+      </c>
+      <c r="G42" s="2">
+        <v>180</v>
+      </c>
       <c r="I42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J42">
@@ -3477,9 +4012,32 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <v>-37</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-39</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>13.42</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8</v>
+      </c>
       <c r="I43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J43">
@@ -3497,17 +4055,86 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2">
+        <v>-43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>-44</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
       <c r="O44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-39</v>
+      </c>
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
+        <v>-24</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-39</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G45" s="2">
+        <v>23</v>
+      </c>
       <c r="O45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2">
+        <v>-43</v>
+      </c>
+      <c r="D46" s="2">
+        <v>-44</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>13.89</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
       <c r="I46">
         <f>I40+1</f>
         <v>8</v>
@@ -3527,9 +4154,32 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-53</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D47" s="2">
+        <v>-53</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>14.14</v>
+      </c>
+      <c r="G47" s="2">
+        <v>10</v>
+      </c>
       <c r="I47">
-        <f t="shared" ref="I47:I49" si="7">I41+1</f>
+        <f t="shared" ref="I47:I49" si="10">I41+1</f>
         <v>8</v>
       </c>
       <c r="J47">
@@ -3540,16 +4190,39 @@
       </c>
       <c r="L47">
         <f>VLOOKUP(I47,ToRaid,J47,FALSE)</f>
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="O47" t="str">
         <f>CHAR(34)&amp;K47&amp;CHAR(34)&amp;": "&amp;L47&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D48" s="2">
+        <v>-49</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>14.14</v>
+      </c>
+      <c r="G48" s="2">
+        <v>34</v>
+      </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J48">
@@ -3560,16 +4233,39 @@
       </c>
       <c r="L48">
         <f>VLOOKUP(I48,ToRaid,J48,FALSE)</f>
-        <v>-52</v>
+        <v>-46</v>
       </c>
       <c r="O48" t="str">
         <f>CHAR(34)&amp;K48&amp;CHAR(34)&amp;": "&amp;L48</f>
-        <v>"Y": -52</v>
-      </c>
-    </row>
-    <row r="49" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-37</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>-33</v>
+      </c>
+      <c r="D49" s="2">
+        <v>-37</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>14.14</v>
+      </c>
+      <c r="G49" s="2">
+        <v>14</v>
+      </c>
       <c r="I49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J49">
@@ -3580,24 +4276,93 @@
       </c>
       <c r="L49" t="str">
         <f>VLOOKUP(I49,ToRaid,J49,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O49" t="str">
         <f>CHAR(34)&amp;K49&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L49&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="50" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-40</v>
+      </c>
+      <c r="B50" s="2">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D50" s="2">
+        <v>-40</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>14.87</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41</v>
+      </c>
       <c r="O50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-45&amp;y=-57</v>
+      </c>
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2">
+        <v>-45</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-57</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>15.23</v>
+      </c>
+      <c r="G51" s="2">
+        <v>181</v>
+      </c>
       <c r="O51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-37</v>
+      </c>
+      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2">
+        <v>-25</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-37</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>15.23</v>
+      </c>
+      <c r="G52" s="2">
+        <v>6</v>
+      </c>
       <c r="I52">
         <f>I46+1</f>
         <v>9</v>
@@ -3617,9 +4382,32 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="53" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-23&amp;y=-38</v>
+      </c>
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2">
+        <v>-23</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>15.26</v>
+      </c>
+      <c r="G53" s="2">
+        <v>82</v>
+      </c>
       <c r="I53">
-        <f t="shared" ref="I53:I55" si="8">I47+1</f>
+        <f t="shared" ref="I53:I55" si="11">I47+1</f>
         <v>9</v>
       </c>
       <c r="J53">
@@ -3630,16 +4418,39 @@
       </c>
       <c r="L53">
         <f>VLOOKUP(I53,ToRaid,J53,FALSE)</f>
-        <v>-33</v>
+        <v>-36</v>
       </c>
       <c r="O53" t="str">
         <f>CHAR(34)&amp;K53&amp;CHAR(34)&amp;": "&amp;L53&amp;","</f>
-        <v>"X": -33,</v>
-      </c>
-    </row>
-    <row r="54" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -36,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
+      </c>
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D54" s="2">
+        <v>-44</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="7"/>
+        <v>15.65</v>
+      </c>
+      <c r="G54" s="2">
+        <v>10</v>
+      </c>
       <c r="I54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="J54">
@@ -3650,16 +4461,39 @@
       </c>
       <c r="L54">
         <f>VLOOKUP(I54,ToRaid,J54,FALSE)</f>
-        <v>-46</v>
+        <v>-54</v>
       </c>
       <c r="O54" t="str">
         <f>CHAR(34)&amp;K54&amp;CHAR(34)&amp;": "&amp;L54</f>
-        <v>"Y": -46</v>
-      </c>
-    </row>
-    <row r="55" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
+      </c>
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D55" s="2">
+        <v>-44</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="7"/>
+        <v>15.65</v>
+      </c>
+      <c r="G55" s="2">
+        <v>24</v>
+      </c>
       <c r="I55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="J55">
@@ -3677,17 +4511,86 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="56" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-46</v>
+      </c>
+      <c r="B56" s="2">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2">
+        <v>-16</v>
+      </c>
+      <c r="D56" s="2">
+        <v>-46</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="7"/>
+        <v>15.81</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7</v>
+      </c>
       <c r="O56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-45</v>
+      </c>
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D57" s="2">
+        <v>-45</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="7"/>
+        <v>16.16</v>
+      </c>
+      <c r="G57" s="2">
+        <v>4</v>
+      </c>
       <c r="O57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-38</v>
+      </c>
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2">
+        <v>-21</v>
+      </c>
+      <c r="D58" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="7"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G58" s="2">
+        <v>32</v>
+      </c>
       <c r="I58">
         <f>I52+1</f>
         <v>10</v>
@@ -3707,9 +4610,32 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="59" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-43</v>
+      </c>
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D59" s="2">
+        <v>-43</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7</v>
+      </c>
       <c r="I59">
-        <f t="shared" ref="I59:I61" si="9">I53+1</f>
+        <f t="shared" ref="I59:I61" si="12">I53+1</f>
         <v>10</v>
       </c>
       <c r="J59">
@@ -3720,16 +4646,39 @@
       </c>
       <c r="L59">
         <f>VLOOKUP(I59,ToRaid,J59,FALSE)</f>
-        <v>-36</v>
+        <v>-26</v>
       </c>
       <c r="O59" t="str">
         <f>CHAR(34)&amp;K59&amp;CHAR(34)&amp;": "&amp;L59&amp;","</f>
-        <v>"X": -36,</v>
-      </c>
-    </row>
-    <row r="60" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-43</v>
+      </c>
+      <c r="B60" s="2">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2">
+        <v>-16</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-43</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="G60" s="2">
+        <v>15</v>
+      </c>
       <c r="I60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J60">
@@ -3740,16 +4689,39 @@
       </c>
       <c r="L60">
         <f>VLOOKUP(I60,ToRaid,J60,FALSE)</f>
-        <v>-54</v>
+        <v>-48</v>
       </c>
       <c r="O60" t="str">
         <f>CHAR(34)&amp;K60&amp;CHAR(34)&amp;": "&amp;L60</f>
-        <v>"Y": -54</v>
-      </c>
-    </row>
-    <row r="61" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-18&amp;y=-37</v>
+      </c>
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-37</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="7"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G61" s="2">
+        <v>14</v>
+      </c>
       <c r="I61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J61">
@@ -3767,17 +4739,70 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="62" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-38</v>
+      </c>
+      <c r="B62" s="2">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2">
+        <v>-17</v>
+      </c>
+      <c r="D62" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="7"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G62" s="2">
+        <v>26</v>
+      </c>
       <c r="O62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-38</v>
+      </c>
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2">
+        <v>-46</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-38</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="7"/>
+        <v>19.850000000000001</v>
+      </c>
+      <c r="G63" s="2">
+        <v>117</v>
+      </c>
       <c r="O63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B64" s="2">
+        <v>60</v>
+      </c>
       <c r="I64">
         <f>I58+1</f>
         <v>11</v>
@@ -3797,9 +4822,16 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="65" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B65" s="2">
+        <v>61</v>
+      </c>
       <c r="I65">
-        <f t="shared" ref="I65:I67" si="10">I59+1</f>
+        <f t="shared" ref="I65:I67" si="13">I59+1</f>
         <v>11</v>
       </c>
       <c r="J65">
@@ -3810,16 +4842,23 @@
       </c>
       <c r="L65">
         <f>VLOOKUP(I65,ToRaid,J65,FALSE)</f>
-        <v>-26</v>
+        <v>-37</v>
       </c>
       <c r="O65" t="str">
         <f>CHAR(34)&amp;K65&amp;CHAR(34)&amp;": "&amp;L65&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="66" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B66" s="2">
+        <v>62</v>
+      </c>
       <c r="I66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J66">
@@ -3830,16 +4869,23 @@
       </c>
       <c r="L66">
         <f>VLOOKUP(I66,ToRaid,J66,FALSE)</f>
-        <v>-48</v>
+        <v>-50</v>
       </c>
       <c r="O66" t="str">
         <f>CHAR(34)&amp;K66&amp;CHAR(34)&amp;": "&amp;L66</f>
-        <v>"Y": -48</v>
-      </c>
-    </row>
-    <row r="67" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B67" s="2">
+        <v>63</v>
+      </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="J67">
@@ -3857,17 +4903,38 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="68" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B68" s="2">
+        <v>64</v>
+      </c>
       <c r="O68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B69" s="2">
+        <v>65</v>
+      </c>
       <c r="O69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B70" s="2">
+        <v>66</v>
+      </c>
       <c r="I70">
         <f>I64+1</f>
         <v>12</v>
@@ -3887,9 +4954,16 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="71" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B71" s="2">
+        <v>67</v>
+      </c>
       <c r="I71">
-        <f t="shared" ref="I71:I73" si="11">I65+1</f>
+        <f t="shared" ref="I71:I73" si="14">I65+1</f>
         <v>12</v>
       </c>
       <c r="J71">
@@ -3900,16 +4974,23 @@
       </c>
       <c r="L71">
         <f>VLOOKUP(I71,ToRaid,J71,FALSE)</f>
-        <v>-30</v>
+        <v>-26</v>
       </c>
       <c r="O71" t="str">
         <f>CHAR(34)&amp;K71&amp;CHAR(34)&amp;": "&amp;L71&amp;","</f>
-        <v>"X": -30,</v>
-      </c>
-    </row>
-    <row r="72" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -26,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B72" s="2">
+        <v>68</v>
+      </c>
       <c r="I72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="J72">
@@ -3920,16 +5001,23 @@
       </c>
       <c r="L72">
         <f>VLOOKUP(I72,ToRaid,J72,FALSE)</f>
-        <v>-45</v>
+        <v>-55</v>
       </c>
       <c r="O72" t="str">
         <f>CHAR(34)&amp;K72&amp;CHAR(34)&amp;": "&amp;L72</f>
-        <v>"Y": -45</v>
-      </c>
-    </row>
-    <row r="73" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B73" s="2">
+        <v>69</v>
+      </c>
       <c r="I73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="J73">
@@ -3940,24 +5028,45 @@
       </c>
       <c r="L73" t="str">
         <f>VLOOKUP(I73,ToRaid,J73,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O73" t="str">
         <f>CHAR(34)&amp;K73&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L73&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="74" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B74" s="2">
+        <v>70</v>
+      </c>
       <c r="O74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B75" s="2">
+        <v>71</v>
+      </c>
       <c r="O75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B76" s="2">
+        <v>72</v>
+      </c>
       <c r="I76">
         <f>I70+1</f>
         <v>13</v>
@@ -3977,9 +5086,16 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="77" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B77" s="2">
+        <v>73</v>
+      </c>
       <c r="I77">
-        <f t="shared" ref="I77:I79" si="12">I71+1</f>
+        <f t="shared" ref="I77:I79" si="15">I71+1</f>
         <v>13</v>
       </c>
       <c r="J77">
@@ -3990,16 +5106,23 @@
       </c>
       <c r="L77">
         <f>VLOOKUP(I77,ToRaid,J77,FALSE)</f>
-        <v>-37</v>
+        <v>-28</v>
       </c>
       <c r="O77" t="str">
         <f>CHAR(34)&amp;K77&amp;CHAR(34)&amp;": "&amp;L77&amp;","</f>
-        <v>"X": -37,</v>
-      </c>
-    </row>
-    <row r="78" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -28,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B78" s="2">
+        <v>74</v>
+      </c>
       <c r="I78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="J78">
@@ -4010,16 +5133,23 @@
       </c>
       <c r="L78">
         <f>VLOOKUP(I78,ToRaid,J78,FALSE)</f>
-        <v>-50</v>
+        <v>-45</v>
       </c>
       <c r="O78" t="str">
         <f>CHAR(34)&amp;K78&amp;CHAR(34)&amp;": "&amp;L78</f>
-        <v>"Y": -50</v>
-      </c>
-    </row>
-    <row r="79" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B79" s="2">
+        <v>75</v>
+      </c>
       <c r="I79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="J79">
@@ -4037,17 +5167,38 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="80" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B80" s="2">
+        <v>76</v>
+      </c>
       <c r="O80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B81" s="2">
+        <v>77</v>
+      </c>
       <c r="O81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B82" s="2">
+        <v>78</v>
+      </c>
       <c r="I82">
         <f>I76+1</f>
         <v>14</v>
@@ -4067,9 +5218,16 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="83" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B83" s="2">
+        <v>79</v>
+      </c>
       <c r="I83">
-        <f t="shared" ref="I83:I85" si="13">I77+1</f>
+        <f t="shared" ref="I83:I85" si="16">I77+1</f>
         <v>14</v>
       </c>
       <c r="J83">
@@ -4080,16 +5238,23 @@
       </c>
       <c r="L83">
         <f>VLOOKUP(I83,ToRaid,J83,FALSE)</f>
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="O83" t="str">
         <f>CHAR(34)&amp;K83&amp;CHAR(34)&amp;": "&amp;L83&amp;","</f>
-        <v>"X": -33,</v>
-      </c>
-    </row>
-    <row r="84" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -32,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B84" s="2">
+        <v>80</v>
+      </c>
       <c r="I84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="J84">
@@ -4100,16 +5265,23 @@
       </c>
       <c r="L84">
         <f>VLOOKUP(I84,ToRaid,J84,FALSE)</f>
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="O84" t="str">
         <f>CHAR(34)&amp;K84&amp;CHAR(34)&amp;": "&amp;L84</f>
-        <v>"Y": -57</v>
-      </c>
-    </row>
-    <row r="85" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B85" s="2">
+        <v>81</v>
+      </c>
       <c r="I85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="J85">
@@ -4120,24 +5292,45 @@
       </c>
       <c r="L85" t="str">
         <f>VLOOKUP(I85,ToRaid,J85,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O85" t="str">
         <f>CHAR(34)&amp;K85&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L85&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
-      </c>
-    </row>
-    <row r="86" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B86" s="2">
+        <v>82</v>
+      </c>
       <c r="O86" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B87" s="2">
+        <v>83</v>
+      </c>
       <c r="O87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B88" s="2">
+        <v>84</v>
+      </c>
       <c r="I88">
         <f>I82+1</f>
         <v>15</v>
@@ -4157,9 +5350,16 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="89" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B89" s="2">
+        <v>85</v>
+      </c>
       <c r="I89">
-        <f t="shared" ref="I89:I91" si="14">I83+1</f>
+        <f t="shared" ref="I89:I91" si="17">I83+1</f>
         <v>15</v>
       </c>
       <c r="J89">
@@ -4170,16 +5370,23 @@
       </c>
       <c r="L89">
         <f>VLOOKUP(I89,ToRaid,J89,FALSE)</f>
-        <v>-26</v>
+        <v>-35</v>
       </c>
       <c r="O89" t="str">
         <f>CHAR(34)&amp;K89&amp;CHAR(34)&amp;": "&amp;L89&amp;","</f>
-        <v>"X": -26,</v>
-      </c>
-    </row>
-    <row r="90" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -35,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B90" s="2">
+        <v>86</v>
+      </c>
       <c r="I90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="J90">
@@ -4190,16 +5397,23 @@
       </c>
       <c r="L90">
         <f>VLOOKUP(I90,ToRaid,J90,FALSE)</f>
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="O90" t="str">
         <f>CHAR(34)&amp;K90&amp;CHAR(34)&amp;": "&amp;L90</f>
-        <v>"Y": -55</v>
-      </c>
-    </row>
-    <row r="91" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B91" s="2">
+        <v>87</v>
+      </c>
       <c r="I91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="J91">
@@ -4210,24 +5424,45 @@
       </c>
       <c r="L91" t="str">
         <f>VLOOKUP(I91,ToRaid,J91,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O91" t="str">
         <f>CHAR(34)&amp;K91&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L91&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="92" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B92" s="2">
+        <v>88</v>
+      </c>
       <c r="O92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B93" s="2">
+        <v>89</v>
+      </c>
       <c r="O93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B94" s="2">
+        <v>90</v>
+      </c>
       <c r="I94">
         <f>I88+1</f>
         <v>16</v>
@@ -4247,9 +5482,16 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="95" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="8"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+      </c>
+      <c r="B95" s="2">
+        <v>91</v>
+      </c>
       <c r="I95">
-        <f t="shared" ref="I95:I97" si="15">I89+1</f>
+        <f t="shared" ref="I95:I97" si="18">I89+1</f>
         <v>16</v>
       </c>
       <c r="J95">
@@ -4260,16 +5502,16 @@
       </c>
       <c r="L95">
         <f>VLOOKUP(I95,ToRaid,J95,FALSE)</f>
-        <v>-28</v>
+        <v>-25</v>
       </c>
       <c r="O95" t="str">
         <f>CHAR(34)&amp;K95&amp;CHAR(34)&amp;": "&amp;L95&amp;","</f>
-        <v>"X": -28,</v>
-      </c>
-    </row>
-    <row r="96" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"X": -25,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="J96">
@@ -4280,16 +5522,16 @@
       </c>
       <c r="L96">
         <f>VLOOKUP(I96,ToRaid,J96,FALSE)</f>
-        <v>-45</v>
+        <v>-46</v>
       </c>
       <c r="O96" t="str">
         <f>CHAR(34)&amp;K96&amp;CHAR(34)&amp;": "&amp;L96</f>
-        <v>"Y": -45</v>
+        <v>"Y": -46</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="J97">
@@ -4339,7 +5581,7 @@
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I101">
-        <f t="shared" ref="I101:I103" si="16">I95+1</f>
+        <f t="shared" ref="I101:I103" si="19">I95+1</f>
         <v>17</v>
       </c>
       <c r="J101">
@@ -4350,16 +5592,16 @@
       </c>
       <c r="L101">
         <f>VLOOKUP(I101,ToRaid,J101,FALSE)</f>
-        <v>-32</v>
+        <v>-24</v>
       </c>
       <c r="O101" t="str">
         <f>CHAR(34)&amp;K101&amp;CHAR(34)&amp;": "&amp;L101&amp;","</f>
-        <v>"X": -32,</v>
+        <v>"X": -24,</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="J102">
@@ -4370,16 +5612,16 @@
       </c>
       <c r="L102">
         <f>VLOOKUP(I102,ToRaid,J102,FALSE)</f>
-        <v>-58</v>
+        <v>-55</v>
       </c>
       <c r="O102" t="str">
         <f>CHAR(34)&amp;K102&amp;CHAR(34)&amp;": "&amp;L102</f>
-        <v>"Y": -58</v>
+        <v>"Y": -55</v>
       </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="J103">
@@ -4429,7 +5671,7 @@
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I107">
-        <f t="shared" ref="I107:I109" si="17">I101+1</f>
+        <f t="shared" ref="I107:I109" si="20">I101+1</f>
         <v>18</v>
       </c>
       <c r="J107">
@@ -4440,16 +5682,16 @@
       </c>
       <c r="L107">
         <f>VLOOKUP(I107,ToRaid,J107,FALSE)</f>
-        <v>-35</v>
+        <v>-26</v>
       </c>
       <c r="O107" t="str">
         <f>CHAR(34)&amp;K107&amp;CHAR(34)&amp;": "&amp;L107&amp;","</f>
-        <v>"X": -35,</v>
+        <v>"X": -26,</v>
       </c>
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="J108">
@@ -4460,16 +5702,16 @@
       </c>
       <c r="L108">
         <f>VLOOKUP(I108,ToRaid,J108,FALSE)</f>
-        <v>-45</v>
+        <v>-58</v>
       </c>
       <c r="O108" t="str">
         <f>CHAR(34)&amp;K108&amp;CHAR(34)&amp;": "&amp;L108</f>
-        <v>"Y": -45</v>
+        <v>"Y": -58</v>
       </c>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="J109">
@@ -4519,7 +5761,7 @@
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I113">
-        <f t="shared" ref="I113:I115" si="18">I107+1</f>
+        <f t="shared" ref="I113:I115" si="21">I107+1</f>
         <v>19</v>
       </c>
       <c r="J113">
@@ -4530,16 +5772,16 @@
       </c>
       <c r="L113">
         <f>VLOOKUP(I113,ToRaid,J113,FALSE)</f>
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="O113" t="str">
         <f>CHAR(34)&amp;K113&amp;CHAR(34)&amp;": "&amp;L113&amp;","</f>
-        <v>"X": -25,</v>
+        <v>"X": -27,</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="J114">
@@ -4550,16 +5792,16 @@
       </c>
       <c r="L114">
         <f>VLOOKUP(I114,ToRaid,J114,FALSE)</f>
-        <v>-46</v>
+        <v>-43</v>
       </c>
       <c r="O114" t="str">
         <f>CHAR(34)&amp;K114&amp;CHAR(34)&amp;": "&amp;L114</f>
-        <v>"Y": -46</v>
+        <v>"Y": -43</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="J115">
@@ -4609,7 +5851,7 @@
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I119">
-        <f t="shared" ref="I119:I121" si="19">I113+1</f>
+        <f t="shared" ref="I119:I121" si="22">I113+1</f>
         <v>20</v>
       </c>
       <c r="J119">
@@ -4620,16 +5862,16 @@
       </c>
       <c r="L119">
         <f>VLOOKUP(I119,ToRaid,J119,FALSE)</f>
-        <v>-24</v>
+        <v>-40</v>
       </c>
       <c r="O119" t="str">
         <f>CHAR(34)&amp;K119&amp;CHAR(34)&amp;": "&amp;L119&amp;","</f>
-        <v>"X": -24,</v>
+        <v>"X": -40,</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J120">
@@ -4640,16 +5882,16 @@
       </c>
       <c r="L120">
         <f>VLOOKUP(I120,ToRaid,J120,FALSE)</f>
-        <v>-55</v>
+        <v>-51</v>
       </c>
       <c r="O120" t="str">
         <f>CHAR(34)&amp;K120&amp;CHAR(34)&amp;": "&amp;L120</f>
-        <v>"Y": -55</v>
+        <v>"Y": -51</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J121">
@@ -4660,11 +5902,11 @@
       </c>
       <c r="L121" t="str">
         <f>VLOOKUP(I121,ToRaid,J121,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O121" t="str">
         <f>CHAR(34)&amp;K121&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L121&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.25">
@@ -4699,7 +5941,7 @@
     </row>
     <row r="125" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I125">
-        <f t="shared" ref="I125:I127" si="20">I119+1</f>
+        <f t="shared" ref="I125:I127" si="23">I119+1</f>
         <v>21</v>
       </c>
       <c r="J125">
@@ -4710,16 +5952,16 @@
       </c>
       <c r="L125">
         <f>VLOOKUP(I125,ToRaid,J125,FALSE)</f>
-        <v>-23</v>
+        <v>-39</v>
       </c>
       <c r="O125" t="str">
         <f>CHAR(34)&amp;K125&amp;CHAR(34)&amp;": "&amp;L125&amp;","</f>
-        <v>"X": -23,</v>
+        <v>"X": -39,</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J126">
@@ -4730,16 +5972,16 @@
       </c>
       <c r="L126">
         <f>VLOOKUP(I126,ToRaid,J126,FALSE)</f>
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="O126" t="str">
         <f>CHAR(34)&amp;K126&amp;CHAR(34)&amp;": "&amp;L126</f>
-        <v>"Y": -53</v>
+        <v>"Y": -56</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J127">
@@ -4750,11 +5992,11 @@
       </c>
       <c r="L127" t="str">
         <f>VLOOKUP(I127,ToRaid,J127,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O127" t="str">
         <f>CHAR(34)&amp;K127&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L127&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.25">
@@ -4789,7 +6031,7 @@
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I131">
-        <f t="shared" ref="I131:I133" si="21">I125+1</f>
+        <f t="shared" ref="I131:I133" si="24">I125+1</f>
         <v>22</v>
       </c>
       <c r="J131">
@@ -4800,16 +6042,16 @@
       </c>
       <c r="L131">
         <f>VLOOKUP(I131,ToRaid,J131,FALSE)</f>
-        <v>-28</v>
+        <v>-40</v>
       </c>
       <c r="O131" t="str">
         <f>CHAR(34)&amp;K131&amp;CHAR(34)&amp;": "&amp;L131&amp;","</f>
-        <v>"X": -28,</v>
+        <v>"X": -40,</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I132">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J132">
@@ -4820,16 +6062,16 @@
       </c>
       <c r="L132">
         <f>VLOOKUP(I132,ToRaid,J132,FALSE)</f>
-        <v>-59</v>
+        <v>-54</v>
       </c>
       <c r="O132" t="str">
         <f>CHAR(34)&amp;K132&amp;CHAR(34)&amp;": "&amp;L132</f>
-        <v>"Y": -59</v>
+        <v>"Y": -54</v>
       </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I133">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J133">
@@ -4840,11 +6082,11 @@
       </c>
       <c r="L133" t="str">
         <f>VLOOKUP(I133,ToRaid,J133,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O133" t="str">
         <f>CHAR(34)&amp;K133&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L133&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.25">
@@ -4879,7 +6121,7 @@
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I137">
-        <f t="shared" ref="I137:I139" si="22">I131+1</f>
+        <f t="shared" ref="I137:I139" si="25">I131+1</f>
         <v>23</v>
       </c>
       <c r="J137">
@@ -4890,16 +6132,16 @@
       </c>
       <c r="L137">
         <f>VLOOKUP(I137,ToRaid,J137,FALSE)</f>
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="O137" t="str">
         <f>CHAR(34)&amp;K137&amp;CHAR(34)&amp;": "&amp;L137&amp;","</f>
-        <v>"X": -26,</v>
+        <v>"X": -28,</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="J138">
@@ -4910,16 +6152,16 @@
       </c>
       <c r="L138">
         <f>VLOOKUP(I138,ToRaid,J138,FALSE)</f>
-        <v>-58</v>
+        <v>-42</v>
       </c>
       <c r="O138" t="str">
         <f>CHAR(34)&amp;K138&amp;CHAR(34)&amp;": "&amp;L138</f>
-        <v>"Y": -58</v>
+        <v>"Y": -42</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="J139">
@@ -4930,11 +6172,11 @@
       </c>
       <c r="L139" t="str">
         <f>VLOOKUP(I139,ToRaid,J139,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O139" t="str">
         <f>CHAR(34)&amp;K139&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L139&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.25">
@@ -4969,7 +6211,7 @@
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I143">
-        <f t="shared" ref="I143:I145" si="23">I137+1</f>
+        <f t="shared" ref="I143:I145" si="26">I137+1</f>
         <v>24</v>
       </c>
       <c r="J143">
@@ -4980,16 +6222,16 @@
       </c>
       <c r="L143">
         <f>VLOOKUP(I143,ToRaid,J143,FALSE)</f>
-        <v>-27</v>
+        <v>-41</v>
       </c>
       <c r="O143" t="str">
         <f>CHAR(34)&amp;K143&amp;CHAR(34)&amp;": "&amp;L143&amp;","</f>
-        <v>"X": -27,</v>
+        <v>"X": -41,</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J144">
@@ -5000,16 +6242,16 @@
       </c>
       <c r="L144">
         <f>VLOOKUP(I144,ToRaid,J144,FALSE)</f>
-        <v>-43</v>
+        <v>-52</v>
       </c>
       <c r="O144" t="str">
         <f>CHAR(34)&amp;K144&amp;CHAR(34)&amp;": "&amp;L144</f>
-        <v>"Y": -43</v>
+        <v>"Y": -52</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J145">
@@ -5059,7 +6301,7 @@
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I149">
-        <f t="shared" ref="I149:I151" si="24">I143+1</f>
+        <f t="shared" ref="I149:I151" si="27">I143+1</f>
         <v>25</v>
       </c>
       <c r="J149">
@@ -5070,16 +6312,16 @@
       </c>
       <c r="L149">
         <f>VLOOKUP(I149,ToRaid,J149,FALSE)</f>
-        <v>-39</v>
+        <v>-21</v>
       </c>
       <c r="O149" t="str">
         <f>CHAR(34)&amp;K149&amp;CHAR(34)&amp;": "&amp;L149&amp;","</f>
-        <v>"X": -39,</v>
+        <v>"X": -21,</v>
       </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="J150">
@@ -5090,16 +6332,16 @@
       </c>
       <c r="L150">
         <f>VLOOKUP(I150,ToRaid,J150,FALSE)</f>
-        <v>-56</v>
+        <v>-52</v>
       </c>
       <c r="O150" t="str">
         <f>CHAR(34)&amp;K150&amp;CHAR(34)&amp;": "&amp;L150</f>
-        <v>"Y": -56</v>
+        <v>"Y": -52</v>
       </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="J151">
@@ -5149,7 +6391,7 @@
     </row>
     <row r="155" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I155">
-        <f t="shared" ref="I155:I157" si="25">I149+1</f>
+        <f t="shared" ref="I155:I157" si="28">I149+1</f>
         <v>26</v>
       </c>
       <c r="J155">
@@ -5160,16 +6402,16 @@
       </c>
       <c r="L155">
         <f>VLOOKUP(I155,ToRaid,J155,FALSE)</f>
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="O155" t="str">
         <f>CHAR(34)&amp;K155&amp;CHAR(34)&amp;": "&amp;L155&amp;","</f>
-        <v>"X": -28,</v>
+        <v>"X": -21,</v>
       </c>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="J156">
@@ -5180,16 +6422,16 @@
       </c>
       <c r="L156">
         <f>VLOOKUP(I156,ToRaid,J156,FALSE)</f>
-        <v>-42</v>
+        <v>-47</v>
       </c>
       <c r="O156" t="str">
         <f>CHAR(34)&amp;K156&amp;CHAR(34)&amp;": "&amp;L156</f>
-        <v>"Y": -42</v>
+        <v>"Y": -47</v>
       </c>
     </row>
     <row r="157" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>26</v>
       </c>
       <c r="J157">
@@ -5239,7 +6481,7 @@
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I161">
-        <f t="shared" ref="I161:I163" si="26">I155+1</f>
+        <f t="shared" ref="I161:I163" si="29">I155+1</f>
         <v>27</v>
       </c>
       <c r="J161">
@@ -5250,16 +6492,16 @@
       </c>
       <c r="L161">
         <f>VLOOKUP(I161,ToRaid,J161,FALSE)</f>
-        <v>-32</v>
+        <v>-42</v>
       </c>
       <c r="O161" t="str">
         <f>CHAR(34)&amp;K161&amp;CHAR(34)&amp;": "&amp;L161&amp;","</f>
-        <v>"X": -32,</v>
+        <v>"X": -42,</v>
       </c>
     </row>
     <row r="162" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="J162">
@@ -5270,16 +6512,16 @@
       </c>
       <c r="L162">
         <f>VLOOKUP(I162,ToRaid,J162,FALSE)</f>
-        <v>-61</v>
+        <v>-54</v>
       </c>
       <c r="O162" t="str">
         <f>CHAR(34)&amp;K162&amp;CHAR(34)&amp;": "&amp;L162</f>
-        <v>"Y": -61</v>
+        <v>"Y": -54</v>
       </c>
     </row>
     <row r="163" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="J163">
@@ -5323,13 +6565,13 @@
         <v>28</v>
       </c>
       <c r="O166" t="str">
-        <f t="shared" ref="O166:O197" si="27">CHAR(34)&amp;K166&amp;CHAR(34)&amp;": "&amp;L166&amp;","</f>
+        <f t="shared" ref="O166:O167" si="30">CHAR(34)&amp;K166&amp;CHAR(34)&amp;": "&amp;L166&amp;","</f>
         <v>"Id": 28,</v>
       </c>
     </row>
     <row r="167" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I167">
-        <f t="shared" ref="I167:I169" si="28">I161+1</f>
+        <f t="shared" ref="I167:I169" si="31">I161+1</f>
         <v>28</v>
       </c>
       <c r="J167">
@@ -5340,16 +6582,16 @@
       </c>
       <c r="L167">
         <f>VLOOKUP(I167,ToRaid,J167,FALSE)</f>
-        <v>-41</v>
+        <v>-22</v>
       </c>
       <c r="O167" t="str">
-        <f t="shared" si="27"/>
-        <v>"X": -41,</v>
+        <f t="shared" si="30"/>
+        <v>"X": -22,</v>
       </c>
     </row>
     <row r="168" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I168">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="J168">
@@ -5360,16 +6602,16 @@
       </c>
       <c r="L168">
         <f>VLOOKUP(I168,ToRaid,J168,FALSE)</f>
-        <v>-52</v>
+        <v>-58</v>
       </c>
       <c r="O168" t="str">
-        <f t="shared" ref="O168:O199" si="29">CHAR(34)&amp;K168&amp;CHAR(34)&amp;": "&amp;L168</f>
-        <v>"Y": -52</v>
+        <f t="shared" ref="O168" si="32">CHAR(34)&amp;K168&amp;CHAR(34)&amp;": "&amp;L168</f>
+        <v>"Y": -58</v>
       </c>
     </row>
     <row r="169" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I169">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="J169">
@@ -5383,7 +6625,7 @@
         <v>true</v>
       </c>
       <c r="O169" t="str">
-        <f t="shared" ref="O169:O200" si="30">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
+        <f t="shared" ref="O169" si="33">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -5413,13 +6655,13 @@
         <v>29</v>
       </c>
       <c r="O172" t="str">
-        <f t="shared" ref="O172:O217" si="31">CHAR(34)&amp;K172&amp;CHAR(34)&amp;": "&amp;L172&amp;","</f>
+        <f t="shared" ref="O172:O173" si="34">CHAR(34)&amp;K172&amp;CHAR(34)&amp;": "&amp;L172&amp;","</f>
         <v>"Id": 29,</v>
       </c>
     </row>
     <row r="173" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I173">
-        <f t="shared" ref="I173:I175" si="32">I167+1</f>
+        <f t="shared" ref="I173:I175" si="35">I167+1</f>
         <v>29</v>
       </c>
       <c r="J173">
@@ -5430,16 +6672,16 @@
       </c>
       <c r="L173">
         <f>VLOOKUP(I173,ToRaid,J173,FALSE)</f>
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="O173" t="str">
-        <f t="shared" si="31"/>
-        <v>"X": -21,</v>
+        <f t="shared" si="34"/>
+        <v>"X": -42,</v>
       </c>
     </row>
     <row r="174" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I174">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>29</v>
       </c>
       <c r="J174">
@@ -5450,16 +6692,16 @@
       </c>
       <c r="L174">
         <f>VLOOKUP(I174,ToRaid,J174,FALSE)</f>
-        <v>-47</v>
+        <v>-56</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ref="O174:O217" si="33">CHAR(34)&amp;K174&amp;CHAR(34)&amp;": "&amp;L174</f>
-        <v>"Y": -47</v>
+        <f t="shared" ref="O174" si="36">CHAR(34)&amp;K174&amp;CHAR(34)&amp;": "&amp;L174</f>
+        <v>"Y": -56</v>
       </c>
     </row>
     <row r="175" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I175">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>29</v>
       </c>
       <c r="J175">
@@ -5470,11 +6712,11 @@
       </c>
       <c r="L175" t="str">
         <f>VLOOKUP(I175,ToRaid,J175,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O175" t="str">
-        <f t="shared" ref="O175:O217" si="34">CHAR(34)&amp;K175&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L175&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <f t="shared" ref="O175" si="37">CHAR(34)&amp;K175&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L175&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="176" spans="9:15" x14ac:dyDescent="0.25">
@@ -5503,13 +6745,13 @@
         <v>30</v>
       </c>
       <c r="O178" t="str">
-        <f t="shared" ref="O178:O217" si="35">CHAR(34)&amp;K178&amp;CHAR(34)&amp;": "&amp;L178&amp;","</f>
+        <f t="shared" ref="O178:O179" si="38">CHAR(34)&amp;K178&amp;CHAR(34)&amp;": "&amp;L178&amp;","</f>
         <v>"Id": 30,</v>
       </c>
     </row>
     <row r="179" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I179">
-        <f t="shared" ref="I179:I181" si="36">I173+1</f>
+        <f t="shared" ref="I179:I181" si="39">I173+1</f>
         <v>30</v>
       </c>
       <c r="J179">
@@ -5520,16 +6762,16 @@
       </c>
       <c r="L179">
         <f>VLOOKUP(I179,ToRaid,J179,FALSE)</f>
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="O179" t="str">
-        <f t="shared" si="35"/>
-        <v>"X": -39,</v>
+        <f t="shared" si="38"/>
+        <v>"X": -43,</v>
       </c>
     </row>
     <row r="180" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I180">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30</v>
       </c>
       <c r="J180">
@@ -5540,16 +6782,16 @@
       </c>
       <c r="L180">
         <f>VLOOKUP(I180,ToRaid,J180,FALSE)</f>
-        <v>-41</v>
+        <v>-53</v>
       </c>
       <c r="O180" t="str">
-        <f t="shared" ref="O180:O217" si="37">CHAR(34)&amp;K180&amp;CHAR(34)&amp;": "&amp;L180</f>
-        <v>"Y": -41</v>
+        <f t="shared" ref="O180" si="40">CHAR(34)&amp;K180&amp;CHAR(34)&amp;": "&amp;L180</f>
+        <v>"Y": -53</v>
       </c>
     </row>
     <row r="181" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I181">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>30</v>
       </c>
       <c r="J181">
@@ -5560,11 +6802,11 @@
       </c>
       <c r="L181" t="str">
         <f>VLOOKUP(I181,ToRaid,J181,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O181" t="str">
-        <f t="shared" ref="O181:O217" si="38">CHAR(34)&amp;K181&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L181&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <f t="shared" ref="O181" si="41">CHAR(34)&amp;K181&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L181&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="182" spans="9:15" x14ac:dyDescent="0.25">
@@ -5593,13 +6835,13 @@
         <v>31</v>
       </c>
       <c r="O184" t="str">
-        <f t="shared" ref="O184:O217" si="39">CHAR(34)&amp;K184&amp;CHAR(34)&amp;": "&amp;L184&amp;","</f>
+        <f t="shared" ref="O184:O185" si="42">CHAR(34)&amp;K184&amp;CHAR(34)&amp;": "&amp;L184&amp;","</f>
         <v>"Id": 31,</v>
       </c>
     </row>
     <row r="185" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I185">
-        <f t="shared" ref="I185:I187" si="40">I179+1</f>
+        <f t="shared" ref="I185:I187" si="43">I179+1</f>
         <v>31</v>
       </c>
       <c r="J185">
@@ -5613,13 +6855,13 @@
         <v>-43</v>
       </c>
       <c r="O185" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>"X": -43,</v>
       </c>
     </row>
     <row r="186" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I186">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>31</v>
       </c>
       <c r="J186">
@@ -5630,16 +6872,16 @@
       </c>
       <c r="L186">
         <f>VLOOKUP(I186,ToRaid,J186,FALSE)</f>
-        <v>-46</v>
+        <v>-55</v>
       </c>
       <c r="O186" t="str">
-        <f t="shared" ref="O186:O217" si="41">CHAR(34)&amp;K186&amp;CHAR(34)&amp;": "&amp;L186</f>
-        <v>"Y": -46</v>
+        <f t="shared" ref="O186" si="44">CHAR(34)&amp;K186&amp;CHAR(34)&amp;": "&amp;L186</f>
+        <v>"Y": -55</v>
       </c>
     </row>
     <row r="187" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I187">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>31</v>
       </c>
       <c r="J187">
@@ -5650,11 +6892,11 @@
       </c>
       <c r="L187" t="str">
         <f>VLOOKUP(I187,ToRaid,J187,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O187" t="str">
-        <f t="shared" ref="O187:O217" si="42">CHAR(34)&amp;K187&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L187&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <f t="shared" ref="O187" si="45">CHAR(34)&amp;K187&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L187&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="188" spans="9:15" x14ac:dyDescent="0.25">
@@ -5683,13 +6925,13 @@
         <v>32</v>
       </c>
       <c r="O190" t="str">
-        <f t="shared" ref="O190:O217" si="43">CHAR(34)&amp;K190&amp;CHAR(34)&amp;": "&amp;L190&amp;","</f>
+        <f t="shared" ref="O190:O191" si="46">CHAR(34)&amp;K190&amp;CHAR(34)&amp;": "&amp;L190&amp;","</f>
         <v>"Id": 32,</v>
       </c>
     </row>
     <row r="191" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I191">
-        <f t="shared" ref="I191:I193" si="44">I185+1</f>
+        <f t="shared" ref="I191:I193" si="47">I185+1</f>
         <v>32</v>
       </c>
       <c r="J191">
@@ -5700,16 +6942,16 @@
       </c>
       <c r="L191">
         <f>VLOOKUP(I191,ToRaid,J191,FALSE)</f>
-        <v>-38</v>
+        <v>-35</v>
       </c>
       <c r="O191" t="str">
-        <f t="shared" si="43"/>
-        <v>"X": -38,</v>
+        <f t="shared" si="46"/>
+        <v>"X": -35,</v>
       </c>
     </row>
     <row r="192" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I192">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>32</v>
       </c>
       <c r="J192">
@@ -5720,16 +6962,16 @@
       </c>
       <c r="L192">
         <f>VLOOKUP(I192,ToRaid,J192,FALSE)</f>
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="O192" t="str">
-        <f t="shared" ref="O192:O217" si="45">CHAR(34)&amp;K192&amp;CHAR(34)&amp;": "&amp;L192</f>
-        <v>"Y": -40</v>
+        <f t="shared" ref="O192" si="48">CHAR(34)&amp;K192&amp;CHAR(34)&amp;": "&amp;L192</f>
+        <v>"Y": -39</v>
       </c>
     </row>
     <row r="193" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I193">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>32</v>
       </c>
       <c r="J193">
@@ -5740,11 +6982,11 @@
       </c>
       <c r="L193" t="str">
         <f>VLOOKUP(I193,ToRaid,J193,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O193" t="str">
-        <f t="shared" ref="O193:O217" si="46">CHAR(34)&amp;K193&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L193&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <f t="shared" ref="O193" si="49">CHAR(34)&amp;K193&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L193&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="194" spans="9:15" x14ac:dyDescent="0.25">
@@ -5773,13 +7015,13 @@
         <v>33</v>
       </c>
       <c r="O196" t="str">
-        <f t="shared" ref="O196:O217" si="47">CHAR(34)&amp;K196&amp;CHAR(34)&amp;": "&amp;L196&amp;","</f>
+        <f t="shared" ref="O196:O197" si="50">CHAR(34)&amp;K196&amp;CHAR(34)&amp;": "&amp;L196&amp;","</f>
         <v>"Id": 33,</v>
       </c>
     </row>
     <row r="197" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I197">
-        <f t="shared" ref="I197:I199" si="48">I191+1</f>
+        <f t="shared" ref="I197:I199" si="51">I191+1</f>
         <v>33</v>
       </c>
       <c r="J197">
@@ -5790,16 +7032,16 @@
       </c>
       <c r="L197">
         <f>VLOOKUP(I197,ToRaid,J197,FALSE)</f>
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="O197" t="str">
-        <f t="shared" si="47"/>
-        <v>"X": -37,</v>
+        <f t="shared" si="50"/>
+        <v>"X": -27,</v>
       </c>
     </row>
     <row r="198" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I198">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>33</v>
       </c>
       <c r="J198">
@@ -5813,13 +7055,13 @@
         <v>-39</v>
       </c>
       <c r="O198" t="str">
-        <f t="shared" ref="O198:O217" si="49">CHAR(34)&amp;K198&amp;CHAR(34)&amp;": "&amp;L198</f>
+        <f t="shared" ref="O198" si="52">CHAR(34)&amp;K198&amp;CHAR(34)&amp;": "&amp;L198</f>
         <v>"Y": -39</v>
       </c>
     </row>
     <row r="199" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I199">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>33</v>
       </c>
       <c r="J199">
@@ -5833,7 +7075,7 @@
         <v>true</v>
       </c>
       <c r="O199" t="str">
-        <f t="shared" ref="O199:O217" si="50">CHAR(34)&amp;K199&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L199&amp;CHAR(34)</f>
+        <f t="shared" ref="O199" si="53">CHAR(34)&amp;K199&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L199&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -5858,18 +7100,18 @@
       <c r="K202" t="s">
         <v>2</v>
       </c>
-      <c r="L202" t="e">
+      <c r="L202">
         <f>VLOOKUP(I202,ToRaid,J202,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O202" t="e">
-        <f t="shared" ref="O202:O217" si="51">CHAR(34)&amp;K202&amp;CHAR(34)&amp;": "&amp;L202&amp;","</f>
-        <v>#N/A</v>
+        <v>34</v>
+      </c>
+      <c r="O202" t="str">
+        <f t="shared" ref="O202:O203" si="54">CHAR(34)&amp;K202&amp;CHAR(34)&amp;": "&amp;L202&amp;","</f>
+        <v>"Id": 34,</v>
       </c>
     </row>
     <row r="203" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I203">
-        <f t="shared" ref="I203:I205" si="52">I197+1</f>
+        <f t="shared" ref="I203:I205" si="55">I197+1</f>
         <v>34</v>
       </c>
       <c r="J203">
@@ -5878,18 +7120,18 @@
       <c r="K203" t="s">
         <v>3</v>
       </c>
-      <c r="L203" t="e">
+      <c r="L203">
         <f>VLOOKUP(I203,ToRaid,J203,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O203" t="e">
-        <f t="shared" si="51"/>
-        <v>#N/A</v>
+        <v>-39</v>
+      </c>
+      <c r="O203" t="str">
+        <f t="shared" si="54"/>
+        <v>"X": -39,</v>
       </c>
     </row>
     <row r="204" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I204">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>34</v>
       </c>
       <c r="J204">
@@ -5898,18 +7140,18 @@
       <c r="K204" t="s">
         <v>4</v>
       </c>
-      <c r="L204" t="e">
+      <c r="L204">
         <f>VLOOKUP(I204,ToRaid,J204,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O204" t="e">
-        <f t="shared" ref="O204:O217" si="53">CHAR(34)&amp;K204&amp;CHAR(34)&amp;": "&amp;L204</f>
-        <v>#N/A</v>
+        <v>-41</v>
+      </c>
+      <c r="O204" t="str">
+        <f t="shared" ref="O204" si="56">CHAR(34)&amp;K204&amp;CHAR(34)&amp;": "&amp;L204</f>
+        <v>"Y": -41</v>
       </c>
     </row>
     <row r="205" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I205">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>34</v>
       </c>
       <c r="J205">
@@ -5918,13 +7160,13 @@
       <c r="K205" t="s">
         <v>10</v>
       </c>
-      <c r="L205" t="e">
+      <c r="L205" t="str">
         <f>VLOOKUP(I205,ToRaid,J205,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O205" t="e">
-        <f t="shared" ref="O205:O217" si="54">CHAR(34)&amp;K205&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L205&amp;CHAR(34)</f>
-        <v>#N/A</v>
+        <v>true</v>
+      </c>
+      <c r="O205" t="str">
+        <f t="shared" ref="O205" si="57">CHAR(34)&amp;K205&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L205&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="206" spans="9:15" x14ac:dyDescent="0.25">
@@ -5948,18 +7190,18 @@
       <c r="K208" t="s">
         <v>2</v>
       </c>
-      <c r="L208" t="e">
+      <c r="L208">
         <f>VLOOKUP(I208,ToRaid,J208,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O208" t="e">
-        <f t="shared" ref="O208:O217" si="55">CHAR(34)&amp;K208&amp;CHAR(34)&amp;": "&amp;L208&amp;","</f>
-        <v>#N/A</v>
+        <v>35</v>
+      </c>
+      <c r="O208" t="str">
+        <f t="shared" ref="O208:O209" si="58">CHAR(34)&amp;K208&amp;CHAR(34)&amp;": "&amp;L208&amp;","</f>
+        <v>"Id": 35,</v>
       </c>
     </row>
     <row r="209" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I209">
-        <f t="shared" ref="I209:I211" si="56">I203+1</f>
+        <f t="shared" ref="I209:I211" si="59">I203+1</f>
         <v>35</v>
       </c>
       <c r="J209">
@@ -5968,18 +7210,18 @@
       <c r="K209" t="s">
         <v>3</v>
       </c>
-      <c r="L209" t="e">
+      <c r="L209">
         <f>VLOOKUP(I209,ToRaid,J209,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O209" t="e">
-        <f t="shared" si="55"/>
-        <v>#N/A</v>
+        <v>-44</v>
+      </c>
+      <c r="O209" t="str">
+        <f t="shared" si="58"/>
+        <v>"X": -44,</v>
       </c>
     </row>
     <row r="210" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I210">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>35</v>
       </c>
       <c r="J210">
@@ -5988,18 +7230,18 @@
       <c r="K210" t="s">
         <v>4</v>
       </c>
-      <c r="L210" t="e">
+      <c r="L210">
         <f>VLOOKUP(I210,ToRaid,J210,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O210" t="e">
-        <f t="shared" ref="O210:O217" si="57">CHAR(34)&amp;K210&amp;CHAR(34)&amp;": "&amp;L210</f>
-        <v>#N/A</v>
+        <v>-51</v>
+      </c>
+      <c r="O210" t="str">
+        <f t="shared" ref="O210" si="60">CHAR(34)&amp;K210&amp;CHAR(34)&amp;": "&amp;L210</f>
+        <v>"Y": -51</v>
       </c>
     </row>
     <row r="211" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I211">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>35</v>
       </c>
       <c r="J211">
@@ -6008,13 +7250,13 @@
       <c r="K211" t="s">
         <v>10</v>
       </c>
-      <c r="L211" t="e">
+      <c r="L211" t="str">
         <f>VLOOKUP(I211,ToRaid,J211,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O211" t="e">
-        <f t="shared" ref="O211:O217" si="58">CHAR(34)&amp;K211&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L211&amp;CHAR(34)</f>
-        <v>#N/A</v>
+        <v>false</v>
+      </c>
+      <c r="O211" t="str">
+        <f t="shared" ref="O211" si="61">CHAR(34)&amp;K211&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L211&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="212" spans="9:15" x14ac:dyDescent="0.25">
@@ -6038,18 +7280,18 @@
       <c r="K214" t="s">
         <v>2</v>
       </c>
-      <c r="L214" t="e">
+      <c r="L214">
         <f>VLOOKUP(I214,ToRaid,J214,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O214" t="e">
-        <f t="shared" ref="O214:O217" si="59">CHAR(34)&amp;K214&amp;CHAR(34)&amp;": "&amp;L214&amp;","</f>
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="O214" t="str">
+        <f t="shared" ref="O214:O215" si="62">CHAR(34)&amp;K214&amp;CHAR(34)&amp;": "&amp;L214&amp;","</f>
+        <v>"Id": 36,</v>
       </c>
     </row>
     <row r="215" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I215">
-        <f t="shared" ref="I215:I217" si="60">I209+1</f>
+        <f t="shared" ref="I215:I217" si="63">I209+1</f>
         <v>36</v>
       </c>
       <c r="J215">
@@ -6058,18 +7300,18 @@
       <c r="K215" t="s">
         <v>3</v>
       </c>
-      <c r="L215" t="e">
+      <c r="L215">
         <f>VLOOKUP(I215,ToRaid,J215,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O215" t="e">
-        <f t="shared" si="59"/>
-        <v>#N/A</v>
+        <v>-43</v>
+      </c>
+      <c r="O215" t="str">
+        <f t="shared" si="62"/>
+        <v>"X": -43,</v>
       </c>
     </row>
     <row r="216" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I216">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>36</v>
       </c>
       <c r="J216">
@@ -6078,18 +7320,18 @@
       <c r="K216" t="s">
         <v>4</v>
       </c>
-      <c r="L216" t="e">
+      <c r="L216">
         <f>VLOOKUP(I216,ToRaid,J216,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O216" t="e">
-        <f t="shared" ref="O216:O217" si="61">CHAR(34)&amp;K216&amp;CHAR(34)&amp;": "&amp;L216</f>
-        <v>#N/A</v>
+        <v>-46</v>
+      </c>
+      <c r="O216" t="str">
+        <f t="shared" ref="O216" si="64">CHAR(34)&amp;K216&amp;CHAR(34)&amp;": "&amp;L216</f>
+        <v>"Y": -46</v>
       </c>
     </row>
     <row r="217" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I217">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>36</v>
       </c>
       <c r="J217">
@@ -6098,13 +7340,23 @@
       <c r="K217" t="s">
         <v>10</v>
       </c>
-      <c r="L217" t="e">
+      <c r="L217" t="str">
         <f>VLOOKUP(I217,ToRaid,J217,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O217" t="e">
-        <f t="shared" ref="O217" si="62">CHAR(34)&amp;K217&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L217&amp;CHAR(34)</f>
-        <v>#N/A</v>
+        <v>true</v>
+      </c>
+      <c r="O217" t="str">
+        <f t="shared" ref="O217" si="65">CHAR(34)&amp;K217&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L217&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="218" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O219" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="9:15" x14ac:dyDescent="0.25">
@@ -6118,14 +7370,18 @@
       <c r="K220" t="s">
         <v>2</v>
       </c>
-      <c r="L220" t="e">
+      <c r="L220">
         <f>VLOOKUP(I220,ToRaid,J220,FALSE)</f>
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="O220" t="str">
+        <f>CHAR(34)&amp;K220&amp;CHAR(34)&amp;": "&amp;L220&amp;","</f>
+        <v>"Id": 37,</v>
       </c>
     </row>
     <row r="221" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I221">
-        <f t="shared" ref="I221:I223" si="63">I215+1</f>
+        <f t="shared" ref="I221:I223" si="66">I215+1</f>
         <v>37</v>
       </c>
       <c r="J221">
@@ -6134,14 +7390,18 @@
       <c r="K221" t="s">
         <v>3</v>
       </c>
-      <c r="L221" t="e">
+      <c r="L221">
         <f>VLOOKUP(I221,ToRaid,J221,FALSE)</f>
-        <v>#N/A</v>
+        <v>-38</v>
+      </c>
+      <c r="O221" t="str">
+        <f>CHAR(34)&amp;K221&amp;CHAR(34)&amp;": "&amp;L221&amp;","</f>
+        <v>"X": -38,</v>
       </c>
     </row>
     <row r="222" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I222">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>37</v>
       </c>
       <c r="J222">
@@ -6150,14 +7410,18 @@
       <c r="K222" t="s">
         <v>4</v>
       </c>
-      <c r="L222" t="e">
+      <c r="L222">
         <f>VLOOKUP(I222,ToRaid,J222,FALSE)</f>
-        <v>#N/A</v>
+        <v>-40</v>
+      </c>
+      <c r="O222" t="str">
+        <f>CHAR(34)&amp;K222&amp;CHAR(34)&amp;": "&amp;L222</f>
+        <v>"Y": -40</v>
       </c>
     </row>
     <row r="223" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I223">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>37</v>
       </c>
       <c r="J223">
@@ -6166,28 +7430,3922 @@
       <c r="K223" t="s">
         <v>10</v>
       </c>
-      <c r="L223" t="e">
+      <c r="L223" t="str">
         <f>VLOOKUP(I223,ToRaid,J223,FALSE)</f>
-        <v>#N/A</v>
+        <v>true</v>
+      </c>
+      <c r="O223" t="str">
+        <f>CHAR(34)&amp;K223&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L223&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="224" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <f>I220+1</f>
+        <v>38</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226" t="s">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <f>VLOOKUP(I226,ToRaid,J226,FALSE)</f>
+        <v>38</v>
+      </c>
+      <c r="O226" t="str">
+        <f>CHAR(34)&amp;K226&amp;CHAR(34)&amp;": "&amp;L226&amp;","</f>
+        <v>"Id": 38,</v>
+      </c>
+    </row>
+    <row r="227" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <f t="shared" ref="I227:I229" si="67">I221+1</f>
+        <v>38</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227" t="s">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <f>VLOOKUP(I227,ToRaid,J227,FALSE)</f>
+        <v>-44</v>
+      </c>
+      <c r="O227" t="str">
+        <f>CHAR(34)&amp;K227&amp;CHAR(34)&amp;": "&amp;L227&amp;","</f>
+        <v>"X": -44,</v>
+      </c>
+    </row>
+    <row r="228" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <f t="shared" si="67"/>
+        <v>38</v>
+      </c>
+      <c r="J228">
+        <v>3</v>
+      </c>
+      <c r="K228" t="s">
+        <v>4</v>
+      </c>
+      <c r="L228">
+        <f>VLOOKUP(I228,ToRaid,J228,FALSE)</f>
+        <v>-48</v>
+      </c>
+      <c r="O228" t="str">
+        <f>CHAR(34)&amp;K228&amp;CHAR(34)&amp;": "&amp;L228</f>
+        <v>"Y": -48</v>
+      </c>
+    </row>
+    <row r="229" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <f t="shared" si="67"/>
+        <v>38</v>
+      </c>
+      <c r="J229">
+        <v>4</v>
+      </c>
+      <c r="K229" t="s">
+        <v>10</v>
+      </c>
+      <c r="L229" t="str">
+        <f>VLOOKUP(I229,ToRaid,J229,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O229" t="str">
+        <f>CHAR(34)&amp;K229&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L229&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="230" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <f>I226+1</f>
+        <v>39</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232" t="s">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <f>VLOOKUP(I232,ToRaid,J232,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="O232" t="str">
+        <f>CHAR(34)&amp;K232&amp;CHAR(34)&amp;": "&amp;L232&amp;","</f>
+        <v>"Id": 39,</v>
+      </c>
+    </row>
+    <row r="233" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <f t="shared" ref="I233:I235" si="68">I227+1</f>
+        <v>39</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="K233" t="s">
+        <v>3</v>
+      </c>
+      <c r="L233">
+        <f>VLOOKUP(I233,ToRaid,J233,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O233" t="str">
+        <f>CHAR(34)&amp;K233&amp;CHAR(34)&amp;": "&amp;L233&amp;","</f>
+        <v>"X": -37,</v>
+      </c>
+    </row>
+    <row r="234" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="J234">
+        <v>3</v>
+      </c>
+      <c r="K234" t="s">
+        <v>4</v>
+      </c>
+      <c r="L234">
+        <f>VLOOKUP(I234,ToRaid,J234,FALSE)</f>
+        <v>-39</v>
+      </c>
+      <c r="O234" t="str">
+        <f>CHAR(34)&amp;K234&amp;CHAR(34)&amp;": "&amp;L234</f>
+        <v>"Y": -39</v>
+      </c>
+    </row>
+    <row r="235" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <f t="shared" si="68"/>
+        <v>39</v>
+      </c>
+      <c r="J235">
+        <v>4</v>
+      </c>
+      <c r="K235" t="s">
+        <v>10</v>
+      </c>
+      <c r="L235" t="str">
+        <f>VLOOKUP(I235,ToRaid,J235,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O235" t="str">
+        <f>CHAR(34)&amp;K235&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L235&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="236" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <f>I232+1</f>
+        <v>40</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238" t="s">
+        <v>2</v>
+      </c>
+      <c r="L238">
+        <f>VLOOKUP(I238,ToRaid,J238,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="O238" t="str">
+        <f>CHAR(34)&amp;K238&amp;CHAR(34)&amp;": "&amp;L238&amp;","</f>
+        <v>"Id": 40,</v>
+      </c>
+    </row>
+    <row r="239" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <f t="shared" ref="I239:I241" si="69">I233+1</f>
+        <v>40</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="K239" t="s">
+        <v>3</v>
+      </c>
+      <c r="L239">
+        <f>VLOOKUP(I239,ToRaid,J239,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O239" t="str">
+        <f>CHAR(34)&amp;K239&amp;CHAR(34)&amp;": "&amp;L239&amp;","</f>
+        <v>"X": -43,</v>
+      </c>
+    </row>
+    <row r="240" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <f t="shared" si="69"/>
+        <v>40</v>
+      </c>
+      <c r="J240">
+        <v>3</v>
+      </c>
+      <c r="K240" t="s">
+        <v>4</v>
+      </c>
+      <c r="L240">
+        <f>VLOOKUP(I240,ToRaid,J240,FALSE)</f>
+        <v>-44</v>
+      </c>
+      <c r="O240" t="str">
+        <f>CHAR(34)&amp;K240&amp;CHAR(34)&amp;": "&amp;L240</f>
+        <v>"Y": -44</v>
+      </c>
+    </row>
+    <row r="241" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <f t="shared" si="69"/>
+        <v>40</v>
+      </c>
+      <c r="J241">
+        <v>4</v>
+      </c>
+      <c r="K241" t="s">
+        <v>10</v>
+      </c>
+      <c r="L241" t="str">
+        <f>VLOOKUP(I241,ToRaid,J241,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O241" t="str">
+        <f>CHAR(34)&amp;K241&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L241&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="242" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O243" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <f>I238+1</f>
+        <v>41</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244" t="s">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <f>VLOOKUP(I244,ToRaid,J244,FALSE)</f>
+        <v>41</v>
+      </c>
+      <c r="O244" t="str">
+        <f>CHAR(34)&amp;K244&amp;CHAR(34)&amp;": "&amp;L244&amp;","</f>
+        <v>"Id": 41,</v>
+      </c>
+    </row>
+    <row r="245" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <f t="shared" ref="I245:I247" si="70">I239+1</f>
+        <v>41</v>
+      </c>
+      <c r="J245">
+        <v>2</v>
+      </c>
+      <c r="K245" t="s">
+        <v>3</v>
+      </c>
+      <c r="L245">
+        <f>VLOOKUP(I245,ToRaid,J245,FALSE)</f>
+        <v>-24</v>
+      </c>
+      <c r="O245" t="str">
+        <f>CHAR(34)&amp;K245&amp;CHAR(34)&amp;": "&amp;L245&amp;","</f>
+        <v>"X": -24,</v>
+      </c>
+    </row>
+    <row r="246" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <f t="shared" si="70"/>
+        <v>41</v>
+      </c>
+      <c r="J246">
+        <v>3</v>
+      </c>
+      <c r="K246" t="s">
+        <v>4</v>
+      </c>
+      <c r="L246">
+        <f>VLOOKUP(I246,ToRaid,J246,FALSE)</f>
+        <v>-39</v>
+      </c>
+      <c r="O246" t="str">
+        <f>CHAR(34)&amp;K246&amp;CHAR(34)&amp;": "&amp;L246</f>
+        <v>"Y": -39</v>
+      </c>
+    </row>
+    <row r="247" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <f t="shared" si="70"/>
+        <v>41</v>
+      </c>
+      <c r="J247">
+        <v>4</v>
+      </c>
+      <c r="K247" t="s">
+        <v>10</v>
+      </c>
+      <c r="L247" t="str">
+        <f>VLOOKUP(I247,ToRaid,J247,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O247" t="str">
+        <f>CHAR(34)&amp;K247&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L247&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="248" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O249" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <f>I244+1</f>
+        <v>42</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <f>VLOOKUP(I250,ToRaid,J250,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="O250" t="str">
+        <f>CHAR(34)&amp;K250&amp;CHAR(34)&amp;": "&amp;L250&amp;","</f>
+        <v>"Id": 42,</v>
+      </c>
+    </row>
+    <row r="251" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <f t="shared" ref="I251:I253" si="71">I245+1</f>
+        <v>42</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="K251" t="s">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <f>VLOOKUP(I251,ToRaid,J251,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O251" t="str">
+        <f>CHAR(34)&amp;K251&amp;CHAR(34)&amp;": "&amp;L251&amp;","</f>
+        <v>"X": -43,</v>
+      </c>
+    </row>
+    <row r="252" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <f t="shared" si="71"/>
+        <v>42</v>
+      </c>
+      <c r="J252">
+        <v>3</v>
+      </c>
+      <c r="K252" t="s">
+        <v>4</v>
+      </c>
+      <c r="L252">
+        <f>VLOOKUP(I252,ToRaid,J252,FALSE)</f>
+        <v>-44</v>
+      </c>
+      <c r="O252" t="str">
+        <f>CHAR(34)&amp;K252&amp;CHAR(34)&amp;": "&amp;L252</f>
+        <v>"Y": -44</v>
+      </c>
+    </row>
+    <row r="253" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <f t="shared" si="71"/>
+        <v>42</v>
+      </c>
+      <c r="J253">
+        <v>4</v>
+      </c>
+      <c r="K253" t="s">
+        <v>10</v>
+      </c>
+      <c r="L253" t="str">
+        <f>VLOOKUP(I253,ToRaid,J253,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O253" t="str">
+        <f>CHAR(34)&amp;K253&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L253&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="254" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <f>I250+1</f>
+        <v>43</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256" t="s">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <f>VLOOKUP(I256,ToRaid,J256,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="O256" t="str">
+        <f>CHAR(34)&amp;K256&amp;CHAR(34)&amp;": "&amp;L256&amp;","</f>
+        <v>"Id": 43,</v>
+      </c>
+    </row>
+    <row r="257" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <f t="shared" ref="I257:I259" si="72">I251+1</f>
+        <v>43</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257" t="s">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <f>VLOOKUP(I257,ToRaid,J257,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="O257" t="str">
+        <f>CHAR(34)&amp;K257&amp;CHAR(34)&amp;": "&amp;L257&amp;","</f>
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="258" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <f t="shared" si="72"/>
+        <v>43</v>
+      </c>
+      <c r="J258">
+        <v>3</v>
+      </c>
+      <c r="K258" t="s">
+        <v>4</v>
+      </c>
+      <c r="L258">
+        <f>VLOOKUP(I258,ToRaid,J258,FALSE)</f>
+        <v>-53</v>
+      </c>
+      <c r="O258" t="str">
+        <f>CHAR(34)&amp;K258&amp;CHAR(34)&amp;": "&amp;L258</f>
+        <v>"Y": -53</v>
+      </c>
+    </row>
+    <row r="259" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <f t="shared" si="72"/>
+        <v>43</v>
+      </c>
+      <c r="J259">
+        <v>4</v>
+      </c>
+      <c r="K259" t="s">
+        <v>10</v>
+      </c>
+      <c r="L259" t="str">
+        <f>VLOOKUP(I259,ToRaid,J259,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O259" t="str">
+        <f>CHAR(34)&amp;K259&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L259&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="260" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <f>I256+1</f>
+        <v>44</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262" t="s">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <f>VLOOKUP(I262,ToRaid,J262,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="O262" t="str">
+        <f>CHAR(34)&amp;K262&amp;CHAR(34)&amp;": "&amp;L262&amp;","</f>
+        <v>"Id": 44,</v>
+      </c>
+    </row>
+    <row r="263" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <f t="shared" ref="I263:I265" si="73">I257+1</f>
+        <v>44</v>
+      </c>
+      <c r="J263">
+        <v>2</v>
+      </c>
+      <c r="K263" t="s">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <f>VLOOKUP(I263,ToRaid,J263,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="O263" t="str">
+        <f>CHAR(34)&amp;K263&amp;CHAR(34)&amp;": "&amp;L263&amp;","</f>
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="264" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <f t="shared" si="73"/>
+        <v>44</v>
+      </c>
+      <c r="J264">
+        <v>3</v>
+      </c>
+      <c r="K264" t="s">
+        <v>4</v>
+      </c>
+      <c r="L264">
+        <f>VLOOKUP(I264,ToRaid,J264,FALSE)</f>
+        <v>-49</v>
+      </c>
+      <c r="O264" t="str">
+        <f>CHAR(34)&amp;K264&amp;CHAR(34)&amp;": "&amp;L264</f>
+        <v>"Y": -49</v>
+      </c>
+    </row>
+    <row r="265" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <f t="shared" si="73"/>
+        <v>44</v>
+      </c>
+      <c r="J265">
+        <v>4</v>
+      </c>
+      <c r="K265" t="s">
+        <v>10</v>
+      </c>
+      <c r="L265" t="str">
+        <f>VLOOKUP(I265,ToRaid,J265,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O265" t="str">
+        <f>CHAR(34)&amp;K265&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L265&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="266" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O267" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <f>I262+1</f>
+        <v>45</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268" t="s">
+        <v>2</v>
+      </c>
+      <c r="L268">
+        <f>VLOOKUP(I268,ToRaid,J268,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="O268" t="str">
+        <f>CHAR(34)&amp;K268&amp;CHAR(34)&amp;": "&amp;L268&amp;","</f>
+        <v>"Id": 45,</v>
+      </c>
+    </row>
+    <row r="269" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <f t="shared" ref="I269:I271" si="74">I263+1</f>
+        <v>45</v>
+      </c>
+      <c r="J269">
+        <v>2</v>
+      </c>
+      <c r="K269" t="s">
+        <v>3</v>
+      </c>
+      <c r="L269">
+        <f>VLOOKUP(I269,ToRaid,J269,FALSE)</f>
+        <v>-33</v>
+      </c>
+      <c r="O269" t="str">
+        <f>CHAR(34)&amp;K269&amp;CHAR(34)&amp;": "&amp;L269&amp;","</f>
+        <v>"X": -33,</v>
+      </c>
+    </row>
+    <row r="270" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <f t="shared" si="74"/>
+        <v>45</v>
+      </c>
+      <c r="J270">
+        <v>3</v>
+      </c>
+      <c r="K270" t="s">
+        <v>4</v>
+      </c>
+      <c r="L270">
+        <f>VLOOKUP(I270,ToRaid,J270,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O270" t="str">
+        <f>CHAR(34)&amp;K270&amp;CHAR(34)&amp;": "&amp;L270</f>
+        <v>"Y": -37</v>
+      </c>
+    </row>
+    <row r="271" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <f t="shared" si="74"/>
+        <v>45</v>
+      </c>
+      <c r="J271">
+        <v>4</v>
+      </c>
+      <c r="K271" t="s">
+        <v>10</v>
+      </c>
+      <c r="L271" t="str">
+        <f>VLOOKUP(I271,ToRaid,J271,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O271" t="str">
+        <f>CHAR(34)&amp;K271&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L271&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="272" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <f>I268+1</f>
+        <v>46</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274" t="s">
+        <v>2</v>
+      </c>
+      <c r="L274">
+        <f>VLOOKUP(I274,ToRaid,J274,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="O274" t="str">
+        <f>CHAR(34)&amp;K274&amp;CHAR(34)&amp;": "&amp;L274&amp;","</f>
+        <v>"Id": 46,</v>
+      </c>
+    </row>
+    <row r="275" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <f t="shared" ref="I275:I277" si="75">I269+1</f>
+        <v>46</v>
+      </c>
+      <c r="J275">
+        <v>2</v>
+      </c>
+      <c r="K275" t="s">
+        <v>3</v>
+      </c>
+      <c r="L275">
+        <f>VLOOKUP(I275,ToRaid,J275,FALSE)</f>
+        <v>-21</v>
+      </c>
+      <c r="O275" t="str">
+        <f>CHAR(34)&amp;K275&amp;CHAR(34)&amp;": "&amp;L275&amp;","</f>
+        <v>"X": -21,</v>
+      </c>
+    </row>
+    <row r="276" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <f t="shared" si="75"/>
+        <v>46</v>
+      </c>
+      <c r="J276">
+        <v>3</v>
+      </c>
+      <c r="K276" t="s">
+        <v>4</v>
+      </c>
+      <c r="L276">
+        <f>VLOOKUP(I276,ToRaid,J276,FALSE)</f>
+        <v>-40</v>
+      </c>
+      <c r="O276" t="str">
+        <f>CHAR(34)&amp;K276&amp;CHAR(34)&amp;": "&amp;L276</f>
+        <v>"Y": -40</v>
+      </c>
+    </row>
+    <row r="277" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <f t="shared" si="75"/>
+        <v>46</v>
+      </c>
+      <c r="J277">
+        <v>4</v>
+      </c>
+      <c r="K277" t="s">
+        <v>10</v>
+      </c>
+      <c r="L277" t="str">
+        <f>VLOOKUP(I277,ToRaid,J277,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O277" t="str">
+        <f>CHAR(34)&amp;K277&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L277&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="278" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O279" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <f>I274+1</f>
+        <v>47</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280" t="s">
+        <v>2</v>
+      </c>
+      <c r="L280">
+        <f>VLOOKUP(I280,ToRaid,J280,FALSE)</f>
+        <v>47</v>
+      </c>
+      <c r="O280" t="str">
+        <f>CHAR(34)&amp;K280&amp;CHAR(34)&amp;": "&amp;L280&amp;","</f>
+        <v>"Id": 47,</v>
+      </c>
+    </row>
+    <row r="281" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <f t="shared" ref="I281:I283" si="76">I275+1</f>
+        <v>47</v>
+      </c>
+      <c r="J281">
+        <v>2</v>
+      </c>
+      <c r="K281" t="s">
+        <v>3</v>
+      </c>
+      <c r="L281">
+        <f>VLOOKUP(I281,ToRaid,J281,FALSE)</f>
+        <v>-45</v>
+      </c>
+      <c r="O281" t="str">
+        <f>CHAR(34)&amp;K281&amp;CHAR(34)&amp;": "&amp;L281&amp;","</f>
+        <v>"X": -45,</v>
+      </c>
+    </row>
+    <row r="282" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <f t="shared" si="76"/>
+        <v>47</v>
+      </c>
+      <c r="J282">
+        <v>3</v>
+      </c>
+      <c r="K282" t="s">
+        <v>4</v>
+      </c>
+      <c r="L282">
+        <f>VLOOKUP(I282,ToRaid,J282,FALSE)</f>
+        <v>-57</v>
+      </c>
+      <c r="O282" t="str">
+        <f>CHAR(34)&amp;K282&amp;CHAR(34)&amp;": "&amp;L282</f>
+        <v>"Y": -57</v>
+      </c>
+    </row>
+    <row r="283" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <f t="shared" si="76"/>
+        <v>47</v>
+      </c>
+      <c r="J283">
+        <v>4</v>
+      </c>
+      <c r="K283" t="s">
+        <v>10</v>
+      </c>
+      <c r="L283" t="str">
+        <f>VLOOKUP(I283,ToRaid,J283,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O283" t="str">
+        <f>CHAR(34)&amp;K283&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L283&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="284" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O285" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <f>I280+1</f>
+        <v>48</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286" t="s">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <f>VLOOKUP(I286,ToRaid,J286,FALSE)</f>
+        <v>48</v>
+      </c>
+      <c r="O286" t="str">
+        <f>CHAR(34)&amp;K286&amp;CHAR(34)&amp;": "&amp;L286&amp;","</f>
+        <v>"Id": 48,</v>
+      </c>
+    </row>
+    <row r="287" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <f t="shared" ref="I287:I289" si="77">I281+1</f>
+        <v>48</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287" t="s">
+        <v>3</v>
+      </c>
+      <c r="L287">
+        <f>VLOOKUP(I287,ToRaid,J287,FALSE)</f>
+        <v>-25</v>
+      </c>
+      <c r="O287" t="str">
+        <f>CHAR(34)&amp;K287&amp;CHAR(34)&amp;": "&amp;L287&amp;","</f>
+        <v>"X": -25,</v>
+      </c>
+    </row>
+    <row r="288" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <f t="shared" si="77"/>
+        <v>48</v>
+      </c>
+      <c r="J288">
+        <v>3</v>
+      </c>
+      <c r="K288" t="s">
+        <v>4</v>
+      </c>
+      <c r="L288">
+        <f>VLOOKUP(I288,ToRaid,J288,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O288" t="str">
+        <f>CHAR(34)&amp;K288&amp;CHAR(34)&amp;": "&amp;L288</f>
+        <v>"Y": -37</v>
+      </c>
+    </row>
+    <row r="289" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <f t="shared" si="77"/>
+        <v>48</v>
+      </c>
+      <c r="J289">
+        <v>4</v>
+      </c>
+      <c r="K289" t="s">
+        <v>10</v>
+      </c>
+      <c r="L289" t="str">
+        <f>VLOOKUP(I289,ToRaid,J289,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O289" t="str">
+        <f>CHAR(34)&amp;K289&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L289&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="290" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O291" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <f>I286+1</f>
+        <v>49</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292" t="s">
+        <v>2</v>
+      </c>
+      <c r="L292">
+        <f>VLOOKUP(I292,ToRaid,J292,FALSE)</f>
+        <v>49</v>
+      </c>
+      <c r="O292" t="str">
+        <f>CHAR(34)&amp;K292&amp;CHAR(34)&amp;": "&amp;L292&amp;","</f>
+        <v>"Id": 49,</v>
+      </c>
+    </row>
+    <row r="293" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <f t="shared" ref="I293:I295" si="78">I287+1</f>
+        <v>49</v>
+      </c>
+      <c r="J293">
+        <v>2</v>
+      </c>
+      <c r="K293" t="s">
+        <v>3</v>
+      </c>
+      <c r="L293">
+        <f>VLOOKUP(I293,ToRaid,J293,FALSE)</f>
+        <v>-23</v>
+      </c>
+      <c r="O293" t="str">
+        <f>CHAR(34)&amp;K293&amp;CHAR(34)&amp;": "&amp;L293&amp;","</f>
+        <v>"X": -23,</v>
+      </c>
+    </row>
+    <row r="294" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <f t="shared" si="78"/>
+        <v>49</v>
+      </c>
+      <c r="J294">
+        <v>3</v>
+      </c>
+      <c r="K294" t="s">
+        <v>4</v>
+      </c>
+      <c r="L294">
+        <f>VLOOKUP(I294,ToRaid,J294,FALSE)</f>
+        <v>-38</v>
+      </c>
+      <c r="O294" t="str">
+        <f>CHAR(34)&amp;K294&amp;CHAR(34)&amp;": "&amp;L294</f>
+        <v>"Y": -38</v>
+      </c>
+    </row>
+    <row r="295" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <f t="shared" si="78"/>
+        <v>49</v>
+      </c>
+      <c r="J295">
+        <v>4</v>
+      </c>
+      <c r="K295" t="s">
+        <v>10</v>
+      </c>
+      <c r="L295" t="str">
+        <f>VLOOKUP(I295,ToRaid,J295,FALSE)</f>
+        <v>false</v>
+      </c>
+      <c r="O295" t="str">
+        <f>CHAR(34)&amp;K295&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L295&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="296" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <f>I292+1</f>
+        <v>50</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+      <c r="K298" t="s">
+        <v>2</v>
+      </c>
+      <c r="L298">
+        <f>VLOOKUP(I298,ToRaid,J298,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="O298" t="str">
+        <f t="shared" ref="O298:O299" si="79">CHAR(34)&amp;K298&amp;CHAR(34)&amp;": "&amp;L298&amp;","</f>
+        <v>"Id": 50,</v>
+      </c>
+    </row>
+    <row r="299" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <f t="shared" ref="I299:I301" si="80">I293+1</f>
+        <v>50</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299" t="s">
+        <v>3</v>
+      </c>
+      <c r="L299">
+        <f>VLOOKUP(I299,ToRaid,J299,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="O299" t="str">
+        <f t="shared" si="79"/>
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="300" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <f t="shared" si="80"/>
+        <v>50</v>
+      </c>
+      <c r="J300">
+        <v>3</v>
+      </c>
+      <c r="K300" t="s">
+        <v>4</v>
+      </c>
+      <c r="L300">
+        <f>VLOOKUP(I300,ToRaid,J300,FALSE)</f>
+        <v>-44</v>
+      </c>
+      <c r="O300" t="str">
+        <f t="shared" ref="O300" si="81">CHAR(34)&amp;K300&amp;CHAR(34)&amp;": "&amp;L300</f>
+        <v>"Y": -44</v>
+      </c>
+    </row>
+    <row r="301" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <f t="shared" si="80"/>
+        <v>50</v>
+      </c>
+      <c r="J301">
+        <v>4</v>
+      </c>
+      <c r="K301" t="s">
+        <v>10</v>
+      </c>
+      <c r="L301" t="str">
+        <f>VLOOKUP(I301,ToRaid,J301,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O301" t="str">
+        <f t="shared" ref="O301" si="82">CHAR(34)&amp;K301&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L301&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="302" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O303" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <f>I298+1</f>
+        <v>51</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+      <c r="K304" t="s">
+        <v>2</v>
+      </c>
+      <c r="L304">
+        <f>VLOOKUP(I304,ToRaid,J304,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="O304" t="str">
+        <f t="shared" ref="O304:O305" si="83">CHAR(34)&amp;K304&amp;CHAR(34)&amp;": "&amp;L304&amp;","</f>
+        <v>"Id": 51,</v>
+      </c>
+    </row>
+    <row r="305" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <f t="shared" ref="I305:I307" si="84">I299+1</f>
+        <v>51</v>
+      </c>
+      <c r="J305">
+        <v>2</v>
+      </c>
+      <c r="K305" t="s">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <f>VLOOKUP(I305,ToRaid,J305,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="O305" t="str">
+        <f t="shared" si="83"/>
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="306" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <f t="shared" si="84"/>
+        <v>51</v>
+      </c>
+      <c r="J306">
+        <v>3</v>
+      </c>
+      <c r="K306" t="s">
+        <v>4</v>
+      </c>
+      <c r="L306">
+        <f>VLOOKUP(I306,ToRaid,J306,FALSE)</f>
+        <v>-44</v>
+      </c>
+      <c r="O306" t="str">
+        <f t="shared" ref="O306" si="85">CHAR(34)&amp;K306&amp;CHAR(34)&amp;": "&amp;L306</f>
+        <v>"Y": -44</v>
+      </c>
+    </row>
+    <row r="307" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <f t="shared" si="84"/>
+        <v>51</v>
+      </c>
+      <c r="J307">
+        <v>4</v>
+      </c>
+      <c r="K307" t="s">
+        <v>10</v>
+      </c>
+      <c r="L307" t="str">
+        <f>VLOOKUP(I307,ToRaid,J307,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O307" t="str">
+        <f t="shared" ref="O307" si="86">CHAR(34)&amp;K307&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L307&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="308" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O309" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <f>I304+1</f>
+        <v>52</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310" t="s">
+        <v>2</v>
+      </c>
+      <c r="L310">
+        <f>VLOOKUP(I310,ToRaid,J310,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="O310" t="str">
+        <f t="shared" ref="O310:O311" si="87">CHAR(34)&amp;K310&amp;CHAR(34)&amp;": "&amp;L310&amp;","</f>
+        <v>"Id": 52,</v>
+      </c>
+    </row>
+    <row r="311" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <f t="shared" ref="I311:I313" si="88">I305+1</f>
+        <v>52</v>
+      </c>
+      <c r="J311">
+        <v>2</v>
+      </c>
+      <c r="K311" t="s">
+        <v>3</v>
+      </c>
+      <c r="L311">
+        <f>VLOOKUP(I311,ToRaid,J311,FALSE)</f>
+        <v>-16</v>
+      </c>
+      <c r="O311" t="str">
+        <f t="shared" si="87"/>
+        <v>"X": -16,</v>
+      </c>
+    </row>
+    <row r="312" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <f t="shared" si="88"/>
+        <v>52</v>
+      </c>
+      <c r="J312">
+        <v>3</v>
+      </c>
+      <c r="K312" t="s">
+        <v>4</v>
+      </c>
+      <c r="L312">
+        <f>VLOOKUP(I312,ToRaid,J312,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O312" t="str">
+        <f t="shared" ref="O312" si="89">CHAR(34)&amp;K312&amp;CHAR(34)&amp;": "&amp;L312</f>
+        <v>"Y": -46</v>
+      </c>
+    </row>
+    <row r="313" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <f t="shared" si="88"/>
+        <v>52</v>
+      </c>
+      <c r="J313">
+        <v>4</v>
+      </c>
+      <c r="K313" t="s">
+        <v>10</v>
+      </c>
+      <c r="L313" t="str">
+        <f>VLOOKUP(I313,ToRaid,J313,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O313" t="str">
+        <f t="shared" ref="O313" si="90">CHAR(34)&amp;K313&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L313&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="314" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O315" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <f>I310+1</f>
+        <v>53</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+      <c r="K316" t="s">
+        <v>2</v>
+      </c>
+      <c r="L316">
+        <f>VLOOKUP(I316,ToRaid,J316,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="O316" t="str">
+        <f t="shared" ref="O316:O317" si="91">CHAR(34)&amp;K316&amp;CHAR(34)&amp;": "&amp;L316&amp;","</f>
+        <v>"Id": 53,</v>
+      </c>
+    </row>
+    <row r="317" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <f t="shared" ref="I317:I319" si="92">I311+1</f>
+        <v>53</v>
+      </c>
+      <c r="J317">
+        <v>2</v>
+      </c>
+      <c r="K317" t="s">
+        <v>3</v>
+      </c>
+      <c r="L317">
+        <f>VLOOKUP(I317,ToRaid,J317,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O317" t="str">
+        <f t="shared" si="91"/>
+        <v>"X": -46,</v>
+      </c>
+    </row>
+    <row r="318" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <f t="shared" si="92"/>
+        <v>53</v>
+      </c>
+      <c r="J318">
+        <v>3</v>
+      </c>
+      <c r="K318" t="s">
+        <v>4</v>
+      </c>
+      <c r="L318">
+        <f>VLOOKUP(I318,ToRaid,J318,FALSE)</f>
+        <v>-45</v>
+      </c>
+      <c r="O318" t="str">
+        <f t="shared" ref="O318" si="93">CHAR(34)&amp;K318&amp;CHAR(34)&amp;": "&amp;L318</f>
+        <v>"Y": -45</v>
+      </c>
+    </row>
+    <row r="319" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <f t="shared" si="92"/>
+        <v>53</v>
+      </c>
+      <c r="J319">
+        <v>4</v>
+      </c>
+      <c r="K319" t="s">
+        <v>10</v>
+      </c>
+      <c r="L319" t="str">
+        <f>VLOOKUP(I319,ToRaid,J319,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O319" t="str">
+        <f t="shared" ref="O319" si="94">CHAR(34)&amp;K319&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L319&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="320" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O321" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <f>I316+1</f>
+        <v>54</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322" t="s">
+        <v>2</v>
+      </c>
+      <c r="L322">
+        <f>VLOOKUP(I322,ToRaid,J322,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="O322" t="str">
+        <f t="shared" ref="O322:O323" si="95">CHAR(34)&amp;K322&amp;CHAR(34)&amp;": "&amp;L322&amp;","</f>
+        <v>"Id": 54,</v>
+      </c>
+    </row>
+    <row r="323" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <f t="shared" ref="I323:I325" si="96">I317+1</f>
+        <v>54</v>
+      </c>
+      <c r="J323">
+        <v>2</v>
+      </c>
+      <c r="K323" t="s">
+        <v>3</v>
+      </c>
+      <c r="L323">
+        <f>VLOOKUP(I323,ToRaid,J323,FALSE)</f>
+        <v>-21</v>
+      </c>
+      <c r="O323" t="str">
+        <f t="shared" si="95"/>
+        <v>"X": -21,</v>
+      </c>
+    </row>
+    <row r="324" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <f t="shared" si="96"/>
+        <v>54</v>
+      </c>
+      <c r="J324">
+        <v>3</v>
+      </c>
+      <c r="K324" t="s">
+        <v>4</v>
+      </c>
+      <c r="L324">
+        <f>VLOOKUP(I324,ToRaid,J324,FALSE)</f>
+        <v>-38</v>
+      </c>
+      <c r="O324" t="str">
+        <f t="shared" ref="O324" si="97">CHAR(34)&amp;K324&amp;CHAR(34)&amp;": "&amp;L324</f>
+        <v>"Y": -38</v>
+      </c>
+    </row>
+    <row r="325" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <f t="shared" si="96"/>
+        <v>54</v>
+      </c>
+      <c r="J325">
+        <v>4</v>
+      </c>
+      <c r="K325" t="s">
+        <v>10</v>
+      </c>
+      <c r="L325" t="str">
+        <f>VLOOKUP(I325,ToRaid,J325,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O325" t="str">
+        <f t="shared" ref="O325" si="98">CHAR(34)&amp;K325&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L325&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="326" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O327" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <f>I322+1</f>
+        <v>55</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+      <c r="K328" t="s">
+        <v>2</v>
+      </c>
+      <c r="L328">
+        <f>VLOOKUP(I328,ToRaid,J328,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="O328" t="str">
+        <f t="shared" ref="O328:O329" si="99">CHAR(34)&amp;K328&amp;CHAR(34)&amp;": "&amp;L328&amp;","</f>
+        <v>"Id": 55,</v>
+      </c>
+    </row>
+    <row r="329" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <f t="shared" ref="I329:I331" si="100">I323+1</f>
+        <v>55</v>
+      </c>
+      <c r="J329">
+        <v>2</v>
+      </c>
+      <c r="K329" t="s">
+        <v>3</v>
+      </c>
+      <c r="L329">
+        <f>VLOOKUP(I329,ToRaid,J329,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O329" t="str">
+        <f t="shared" si="99"/>
+        <v>"X": -46,</v>
+      </c>
+    </row>
+    <row r="330" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <f t="shared" si="100"/>
+        <v>55</v>
+      </c>
+      <c r="J330">
+        <v>3</v>
+      </c>
+      <c r="K330" t="s">
+        <v>4</v>
+      </c>
+      <c r="L330">
+        <f>VLOOKUP(I330,ToRaid,J330,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O330" t="str">
+        <f t="shared" ref="O330" si="101">CHAR(34)&amp;K330&amp;CHAR(34)&amp;": "&amp;L330</f>
+        <v>"Y": -43</v>
+      </c>
+    </row>
+    <row r="331" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <f t="shared" si="100"/>
+        <v>55</v>
+      </c>
+      <c r="J331">
+        <v>4</v>
+      </c>
+      <c r="K331" t="s">
+        <v>10</v>
+      </c>
+      <c r="L331" t="str">
+        <f>VLOOKUP(I331,ToRaid,J331,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O331" t="str">
+        <f t="shared" ref="O331" si="102">CHAR(34)&amp;K331&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L331&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="332" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <f>I328+1</f>
+        <v>56</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334" t="s">
+        <v>2</v>
+      </c>
+      <c r="L334">
+        <f>VLOOKUP(I334,ToRaid,J334,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="O334" t="str">
+        <f t="shared" ref="O334:O335" si="103">CHAR(34)&amp;K334&amp;CHAR(34)&amp;": "&amp;L334&amp;","</f>
+        <v>"Id": 56,</v>
+      </c>
+    </row>
+    <row r="335" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <f t="shared" ref="I335:I337" si="104">I329+1</f>
+        <v>56</v>
+      </c>
+      <c r="J335">
+        <v>2</v>
+      </c>
+      <c r="K335" t="s">
+        <v>3</v>
+      </c>
+      <c r="L335">
+        <f>VLOOKUP(I335,ToRaid,J335,FALSE)</f>
+        <v>-16</v>
+      </c>
+      <c r="O335" t="str">
+        <f t="shared" si="103"/>
+        <v>"X": -16,</v>
+      </c>
+    </row>
+    <row r="336" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <f t="shared" si="104"/>
+        <v>56</v>
+      </c>
+      <c r="J336">
+        <v>3</v>
+      </c>
+      <c r="K336" t="s">
+        <v>4</v>
+      </c>
+      <c r="L336">
+        <f>VLOOKUP(I336,ToRaid,J336,FALSE)</f>
+        <v>-43</v>
+      </c>
+      <c r="O336" t="str">
+        <f t="shared" ref="O336" si="105">CHAR(34)&amp;K336&amp;CHAR(34)&amp;": "&amp;L336</f>
+        <v>"Y": -43</v>
+      </c>
+    </row>
+    <row r="337" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <f t="shared" si="104"/>
+        <v>56</v>
+      </c>
+      <c r="J337">
+        <v>4</v>
+      </c>
+      <c r="K337" t="s">
+        <v>10</v>
+      </c>
+      <c r="L337" t="str">
+        <f>VLOOKUP(I337,ToRaid,J337,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O337" t="str">
+        <f t="shared" ref="O337" si="106">CHAR(34)&amp;K337&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L337&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="338" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O339" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <f>I334+1</f>
+        <v>57</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340" t="s">
+        <v>2</v>
+      </c>
+      <c r="L340">
+        <f>VLOOKUP(I340,ToRaid,J340,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="O340" t="str">
+        <f t="shared" ref="O340:O341" si="107">CHAR(34)&amp;K340&amp;CHAR(34)&amp;": "&amp;L340&amp;","</f>
+        <v>"Id": 57,</v>
+      </c>
+    </row>
+    <row r="341" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <f t="shared" ref="I341:I343" si="108">I335+1</f>
+        <v>57</v>
+      </c>
+      <c r="J341">
+        <v>2</v>
+      </c>
+      <c r="K341" t="s">
+        <v>3</v>
+      </c>
+      <c r="L341">
+        <f>VLOOKUP(I341,ToRaid,J341,FALSE)</f>
+        <v>-18</v>
+      </c>
+      <c r="O341" t="str">
+        <f t="shared" si="107"/>
+        <v>"X": -18,</v>
+      </c>
+    </row>
+    <row r="342" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <f t="shared" si="108"/>
+        <v>57</v>
+      </c>
+      <c r="J342">
+        <v>3</v>
+      </c>
+      <c r="K342" t="s">
+        <v>4</v>
+      </c>
+      <c r="L342">
+        <f>VLOOKUP(I342,ToRaid,J342,FALSE)</f>
+        <v>-37</v>
+      </c>
+      <c r="O342" t="str">
+        <f t="shared" ref="O342" si="109">CHAR(34)&amp;K342&amp;CHAR(34)&amp;": "&amp;L342</f>
+        <v>"Y": -37</v>
+      </c>
+    </row>
+    <row r="343" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <f t="shared" si="108"/>
+        <v>57</v>
+      </c>
+      <c r="J343">
+        <v>4</v>
+      </c>
+      <c r="K343" t="s">
+        <v>10</v>
+      </c>
+      <c r="L343" t="str">
+        <f>VLOOKUP(I343,ToRaid,J343,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O343" t="str">
+        <f t="shared" ref="O343" si="110">CHAR(34)&amp;K343&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L343&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="344" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <f>I340+1</f>
+        <v>58</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346" t="s">
+        <v>2</v>
+      </c>
+      <c r="L346">
+        <f>VLOOKUP(I346,ToRaid,J346,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="O346" t="str">
+        <f t="shared" ref="O346:O347" si="111">CHAR(34)&amp;K346&amp;CHAR(34)&amp;": "&amp;L346&amp;","</f>
+        <v>"Id": 58,</v>
+      </c>
+    </row>
+    <row r="347" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <f t="shared" ref="I347:I349" si="112">I341+1</f>
+        <v>58</v>
+      </c>
+      <c r="J347">
+        <v>2</v>
+      </c>
+      <c r="K347" t="s">
+        <v>3</v>
+      </c>
+      <c r="L347">
+        <f>VLOOKUP(I347,ToRaid,J347,FALSE)</f>
+        <v>-17</v>
+      </c>
+      <c r="O347" t="str">
+        <f t="shared" si="111"/>
+        <v>"X": -17,</v>
+      </c>
+    </row>
+    <row r="348" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <f t="shared" si="112"/>
+        <v>58</v>
+      </c>
+      <c r="J348">
+        <v>3</v>
+      </c>
+      <c r="K348" t="s">
+        <v>4</v>
+      </c>
+      <c r="L348">
+        <f>VLOOKUP(I348,ToRaid,J348,FALSE)</f>
+        <v>-38</v>
+      </c>
+      <c r="O348" t="str">
+        <f t="shared" ref="O348" si="113">CHAR(34)&amp;K348&amp;CHAR(34)&amp;": "&amp;L348</f>
+        <v>"Y": -38</v>
+      </c>
+    </row>
+    <row r="349" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <f t="shared" si="112"/>
+        <v>58</v>
+      </c>
+      <c r="J349">
+        <v>4</v>
+      </c>
+      <c r="K349" t="s">
+        <v>10</v>
+      </c>
+      <c r="L349" t="str">
+        <f>VLOOKUP(I349,ToRaid,J349,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O349" t="str">
+        <f t="shared" ref="O349" si="114">CHAR(34)&amp;K349&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L349&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="350" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O351" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <f>I346+1</f>
+        <v>59</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352" t="s">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <f>VLOOKUP(I352,ToRaid,J352,FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="O352" t="str">
+        <f>CHAR(34)&amp;K352&amp;CHAR(34)&amp;": "&amp;L352&amp;","</f>
+        <v>"Id": 59,</v>
+      </c>
+    </row>
+    <row r="353" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <f t="shared" ref="I353:I355" si="115">I347+1</f>
+        <v>59</v>
+      </c>
+      <c r="J353">
+        <v>2</v>
+      </c>
+      <c r="K353" t="s">
+        <v>3</v>
+      </c>
+      <c r="L353">
+        <f>VLOOKUP(I353,ToRaid,J353,FALSE)</f>
+        <v>-46</v>
+      </c>
+      <c r="O353" t="str">
+        <f>CHAR(34)&amp;K353&amp;CHAR(34)&amp;": "&amp;L353&amp;","</f>
+        <v>"X": -46,</v>
+      </c>
+    </row>
+    <row r="354" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <f t="shared" si="115"/>
+        <v>59</v>
+      </c>
+      <c r="J354">
+        <v>3</v>
+      </c>
+      <c r="K354" t="s">
+        <v>4</v>
+      </c>
+      <c r="L354">
+        <f>VLOOKUP(I354,ToRaid,J354,FALSE)</f>
+        <v>-38</v>
+      </c>
+      <c r="O354" t="str">
+        <f>CHAR(34)&amp;K354&amp;CHAR(34)&amp;": "&amp;L354</f>
+        <v>"Y": -38</v>
+      </c>
+    </row>
+    <row r="355" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <f t="shared" si="115"/>
+        <v>59</v>
+      </c>
+      <c r="J355">
+        <v>4</v>
+      </c>
+      <c r="K355" t="s">
+        <v>10</v>
+      </c>
+      <c r="L355" t="str">
+        <f>VLOOKUP(I355,ToRaid,J355,FALSE)</f>
+        <v>true</v>
+      </c>
+      <c r="O355" t="str">
+        <f>CHAR(34)&amp;K355&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L355&amp;CHAR(34)</f>
+        <v>"CanRaid": "true"</v>
+      </c>
+    </row>
+    <row r="356" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I358">
+        <f>I352+1</f>
+        <v>60</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358" t="s">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <f>VLOOKUP(I358,ToRaid,J358,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="O358" t="str">
+        <f>CHAR(34)&amp;K358&amp;CHAR(34)&amp;": "&amp;L358&amp;","</f>
+        <v>"Id": 60,</v>
+      </c>
+    </row>
+    <row r="359" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <f t="shared" ref="I359:I361" si="116">I353+1</f>
+        <v>60</v>
+      </c>
+      <c r="J359">
+        <v>2</v>
+      </c>
+      <c r="K359" t="s">
+        <v>3</v>
+      </c>
+      <c r="L359">
+        <f>VLOOKUP(I359,ToRaid,J359,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O359" t="str">
+        <f>CHAR(34)&amp;K359&amp;CHAR(34)&amp;": "&amp;L359&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="360" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <f t="shared" si="116"/>
+        <v>60</v>
+      </c>
+      <c r="J360">
+        <v>3</v>
+      </c>
+      <c r="K360" t="s">
+        <v>4</v>
+      </c>
+      <c r="L360">
+        <f>VLOOKUP(I360,ToRaid,J360,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O360" t="str">
+        <f>CHAR(34)&amp;K360&amp;CHAR(34)&amp;": "&amp;L360</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="361" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <f t="shared" si="116"/>
+        <v>60</v>
+      </c>
+      <c r="J361">
+        <v>4</v>
+      </c>
+      <c r="K361" t="s">
+        <v>10</v>
+      </c>
+      <c r="L361">
+        <f>VLOOKUP(I361,ToRaid,J361,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O361" t="str">
+        <f>CHAR(34)&amp;K361&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L361&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="362" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O363" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <f>I358+1</f>
+        <v>61</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+      <c r="K364" t="s">
+        <v>2</v>
+      </c>
+      <c r="L364">
+        <f>VLOOKUP(I364,ToRaid,J364,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="O364" t="str">
+        <f>CHAR(34)&amp;K364&amp;CHAR(34)&amp;": "&amp;L364&amp;","</f>
+        <v>"Id": 61,</v>
+      </c>
+    </row>
+    <row r="365" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <f t="shared" ref="I365:I367" si="117">I359+1</f>
+        <v>61</v>
+      </c>
+      <c r="J365">
+        <v>2</v>
+      </c>
+      <c r="K365" t="s">
+        <v>3</v>
+      </c>
+      <c r="L365">
+        <f>VLOOKUP(I365,ToRaid,J365,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O365" t="str">
+        <f>CHAR(34)&amp;K365&amp;CHAR(34)&amp;": "&amp;L365&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="366" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <f t="shared" si="117"/>
+        <v>61</v>
+      </c>
+      <c r="J366">
+        <v>3</v>
+      </c>
+      <c r="K366" t="s">
+        <v>4</v>
+      </c>
+      <c r="L366">
+        <f>VLOOKUP(I366,ToRaid,J366,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O366" t="str">
+        <f>CHAR(34)&amp;K366&amp;CHAR(34)&amp;": "&amp;L366</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="367" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <f t="shared" si="117"/>
+        <v>61</v>
+      </c>
+      <c r="J367">
+        <v>4</v>
+      </c>
+      <c r="K367" t="s">
+        <v>10</v>
+      </c>
+      <c r="L367">
+        <f>VLOOKUP(I367,ToRaid,J367,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O367" t="str">
+        <f>CHAR(34)&amp;K367&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L367&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="368" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <f>I364+1</f>
+        <v>62</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370" t="s">
+        <v>2</v>
+      </c>
+      <c r="L370">
+        <f>VLOOKUP(I370,ToRaid,J370,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="O370" t="str">
+        <f>CHAR(34)&amp;K370&amp;CHAR(34)&amp;": "&amp;L370&amp;","</f>
+        <v>"Id": 62,</v>
+      </c>
+    </row>
+    <row r="371" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <f t="shared" ref="I371:I373" si="118">I365+1</f>
+        <v>62</v>
+      </c>
+      <c r="J371">
+        <v>2</v>
+      </c>
+      <c r="K371" t="s">
+        <v>3</v>
+      </c>
+      <c r="L371">
+        <f>VLOOKUP(I371,ToRaid,J371,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O371" t="str">
+        <f>CHAR(34)&amp;K371&amp;CHAR(34)&amp;": "&amp;L371&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="372" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <f t="shared" si="118"/>
+        <v>62</v>
+      </c>
+      <c r="J372">
+        <v>3</v>
+      </c>
+      <c r="K372" t="s">
+        <v>4</v>
+      </c>
+      <c r="L372">
+        <f>VLOOKUP(I372,ToRaid,J372,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O372" t="str">
+        <f>CHAR(34)&amp;K372&amp;CHAR(34)&amp;": "&amp;L372</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="373" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <f t="shared" si="118"/>
+        <v>62</v>
+      </c>
+      <c r="J373">
+        <v>4</v>
+      </c>
+      <c r="K373" t="s">
+        <v>10</v>
+      </c>
+      <c r="L373">
+        <f>VLOOKUP(I373,ToRaid,J373,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O373" t="str">
+        <f>CHAR(34)&amp;K373&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L373&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="374" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <f>I370+1</f>
+        <v>63</v>
+      </c>
+      <c r="J376">
+        <v>1</v>
+      </c>
+      <c r="K376" t="s">
+        <v>2</v>
+      </c>
+      <c r="L376">
+        <f>VLOOKUP(I376,ToRaid,J376,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="O376" t="str">
+        <f>CHAR(34)&amp;K376&amp;CHAR(34)&amp;": "&amp;L376&amp;","</f>
+        <v>"Id": 63,</v>
+      </c>
+    </row>
+    <row r="377" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I377">
+        <f t="shared" ref="I377:I379" si="119">I371+1</f>
+        <v>63</v>
+      </c>
+      <c r="J377">
+        <v>2</v>
+      </c>
+      <c r="K377" t="s">
+        <v>3</v>
+      </c>
+      <c r="L377">
+        <f>VLOOKUP(I377,ToRaid,J377,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O377" t="str">
+        <f>CHAR(34)&amp;K377&amp;CHAR(34)&amp;": "&amp;L377&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="378" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I378">
+        <f t="shared" si="119"/>
+        <v>63</v>
+      </c>
+      <c r="J378">
+        <v>3</v>
+      </c>
+      <c r="K378" t="s">
+        <v>4</v>
+      </c>
+      <c r="L378">
+        <f>VLOOKUP(I378,ToRaid,J378,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O378" t="str">
+        <f>CHAR(34)&amp;K378&amp;CHAR(34)&amp;": "&amp;L378</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="379" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <f t="shared" si="119"/>
+        <v>63</v>
+      </c>
+      <c r="J379">
+        <v>4</v>
+      </c>
+      <c r="K379" t="s">
+        <v>10</v>
+      </c>
+      <c r="L379">
+        <f>VLOOKUP(I379,ToRaid,J379,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O379" t="str">
+        <f>CHAR(34)&amp;K379&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L379&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="380" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O381" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <f>I376+1</f>
+        <v>64</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382" t="s">
+        <v>2</v>
+      </c>
+      <c r="L382">
+        <f>VLOOKUP(I382,ToRaid,J382,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="O382" t="str">
+        <f>CHAR(34)&amp;K382&amp;CHAR(34)&amp;": "&amp;L382&amp;","</f>
+        <v>"Id": 64,</v>
+      </c>
+    </row>
+    <row r="383" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <f t="shared" ref="I383:I385" si="120">I377+1</f>
+        <v>64</v>
+      </c>
+      <c r="J383">
+        <v>2</v>
+      </c>
+      <c r="K383" t="s">
+        <v>3</v>
+      </c>
+      <c r="L383">
+        <f>VLOOKUP(I383,ToRaid,J383,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O383" t="str">
+        <f>CHAR(34)&amp;K383&amp;CHAR(34)&amp;": "&amp;L383&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="384" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <f t="shared" si="120"/>
+        <v>64</v>
+      </c>
+      <c r="J384">
+        <v>3</v>
+      </c>
+      <c r="K384" t="s">
+        <v>4</v>
+      </c>
+      <c r="L384">
+        <f>VLOOKUP(I384,ToRaid,J384,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O384" t="str">
+        <f>CHAR(34)&amp;K384&amp;CHAR(34)&amp;": "&amp;L384</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="385" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <f t="shared" si="120"/>
+        <v>64</v>
+      </c>
+      <c r="J385">
+        <v>4</v>
+      </c>
+      <c r="K385" t="s">
+        <v>10</v>
+      </c>
+      <c r="L385">
+        <f>VLOOKUP(I385,ToRaid,J385,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O385" t="str">
+        <f>CHAR(34)&amp;K385&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L385&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="386" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I388">
+        <f>I382+1</f>
+        <v>65</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388" t="s">
+        <v>2</v>
+      </c>
+      <c r="L388">
+        <f>VLOOKUP(I388,ToRaid,J388,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="O388" t="str">
+        <f>CHAR(34)&amp;K388&amp;CHAR(34)&amp;": "&amp;L388&amp;","</f>
+        <v>"Id": 65,</v>
+      </c>
+    </row>
+    <row r="389" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I389">
+        <f t="shared" ref="I389:I391" si="121">I383+1</f>
+        <v>65</v>
+      </c>
+      <c r="J389">
+        <v>2</v>
+      </c>
+      <c r="K389" t="s">
+        <v>3</v>
+      </c>
+      <c r="L389">
+        <f>VLOOKUP(I389,ToRaid,J389,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O389" t="str">
+        <f>CHAR(34)&amp;K389&amp;CHAR(34)&amp;": "&amp;L389&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="390" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <f t="shared" si="121"/>
+        <v>65</v>
+      </c>
+      <c r="J390">
+        <v>3</v>
+      </c>
+      <c r="K390" t="s">
+        <v>4</v>
+      </c>
+      <c r="L390">
+        <f>VLOOKUP(I390,ToRaid,J390,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O390" t="str">
+        <f>CHAR(34)&amp;K390&amp;CHAR(34)&amp;": "&amp;L390</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="391" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <f t="shared" si="121"/>
+        <v>65</v>
+      </c>
+      <c r="J391">
+        <v>4</v>
+      </c>
+      <c r="K391" t="s">
+        <v>10</v>
+      </c>
+      <c r="L391">
+        <f>VLOOKUP(I391,ToRaid,J391,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O391" t="str">
+        <f>CHAR(34)&amp;K391&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L391&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="392" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I394">
+        <f>I388+1</f>
+        <v>66</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394" t="s">
+        <v>2</v>
+      </c>
+      <c r="L394">
+        <f>VLOOKUP(I394,ToRaid,J394,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="O394" t="str">
+        <f>CHAR(34)&amp;K394&amp;CHAR(34)&amp;": "&amp;L394&amp;","</f>
+        <v>"Id": 66,</v>
+      </c>
+    </row>
+    <row r="395" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <f t="shared" ref="I395:I397" si="122">I389+1</f>
+        <v>66</v>
+      </c>
+      <c r="J395">
+        <v>2</v>
+      </c>
+      <c r="K395" t="s">
+        <v>3</v>
+      </c>
+      <c r="L395">
+        <f>VLOOKUP(I395,ToRaid,J395,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O395" t="str">
+        <f>CHAR(34)&amp;K395&amp;CHAR(34)&amp;": "&amp;L395&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="396" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I396">
+        <f t="shared" si="122"/>
+        <v>66</v>
+      </c>
+      <c r="J396">
+        <v>3</v>
+      </c>
+      <c r="K396" t="s">
+        <v>4</v>
+      </c>
+      <c r="L396">
+        <f>VLOOKUP(I396,ToRaid,J396,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O396" t="str">
+        <f>CHAR(34)&amp;K396&amp;CHAR(34)&amp;": "&amp;L396</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="397" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <f t="shared" si="122"/>
+        <v>66</v>
+      </c>
+      <c r="J397">
+        <v>4</v>
+      </c>
+      <c r="K397" t="s">
+        <v>10</v>
+      </c>
+      <c r="L397">
+        <f>VLOOKUP(I397,ToRaid,J397,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O397" t="str">
+        <f>CHAR(34)&amp;K397&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L397&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="398" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O399" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I400">
+        <f>I394+1</f>
+        <v>67</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400" t="s">
+        <v>2</v>
+      </c>
+      <c r="L400">
+        <f>VLOOKUP(I400,ToRaid,J400,FALSE)</f>
+        <v>67</v>
+      </c>
+      <c r="O400" t="str">
+        <f>CHAR(34)&amp;K400&amp;CHAR(34)&amp;": "&amp;L400&amp;","</f>
+        <v>"Id": 67,</v>
+      </c>
+    </row>
+    <row r="401" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <f t="shared" ref="I401:I403" si="123">I395+1</f>
+        <v>67</v>
+      </c>
+      <c r="J401">
+        <v>2</v>
+      </c>
+      <c r="K401" t="s">
+        <v>3</v>
+      </c>
+      <c r="L401">
+        <f>VLOOKUP(I401,ToRaid,J401,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O401" t="str">
+        <f>CHAR(34)&amp;K401&amp;CHAR(34)&amp;": "&amp;L401&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="402" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I402">
+        <f t="shared" si="123"/>
+        <v>67</v>
+      </c>
+      <c r="J402">
+        <v>3</v>
+      </c>
+      <c r="K402" t="s">
+        <v>4</v>
+      </c>
+      <c r="L402">
+        <f>VLOOKUP(I402,ToRaid,J402,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O402" t="str">
+        <f>CHAR(34)&amp;K402&amp;CHAR(34)&amp;": "&amp;L402</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="403" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <f t="shared" si="123"/>
+        <v>67</v>
+      </c>
+      <c r="J403">
+        <v>4</v>
+      </c>
+      <c r="K403" t="s">
+        <v>10</v>
+      </c>
+      <c r="L403">
+        <f>VLOOKUP(I403,ToRaid,J403,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O403" t="str">
+        <f>CHAR(34)&amp;K403&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L403&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="404" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O405" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <f>I400+1</f>
+        <v>68</v>
+      </c>
+      <c r="J406">
+        <v>1</v>
+      </c>
+      <c r="K406" t="s">
+        <v>2</v>
+      </c>
+      <c r="L406">
+        <f>VLOOKUP(I406,ToRaid,J406,FALSE)</f>
+        <v>68</v>
+      </c>
+      <c r="O406" t="str">
+        <f>CHAR(34)&amp;K406&amp;CHAR(34)&amp;": "&amp;L406&amp;","</f>
+        <v>"Id": 68,</v>
+      </c>
+    </row>
+    <row r="407" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I407">
+        <f t="shared" ref="I407:I409" si="124">I401+1</f>
+        <v>68</v>
+      </c>
+      <c r="J407">
+        <v>2</v>
+      </c>
+      <c r="K407" t="s">
+        <v>3</v>
+      </c>
+      <c r="L407">
+        <f>VLOOKUP(I407,ToRaid,J407,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O407" t="str">
+        <f>CHAR(34)&amp;K407&amp;CHAR(34)&amp;": "&amp;L407&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="408" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I408">
+        <f t="shared" si="124"/>
+        <v>68</v>
+      </c>
+      <c r="J408">
+        <v>3</v>
+      </c>
+      <c r="K408" t="s">
+        <v>4</v>
+      </c>
+      <c r="L408">
+        <f>VLOOKUP(I408,ToRaid,J408,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O408" t="str">
+        <f>CHAR(34)&amp;K408&amp;CHAR(34)&amp;": "&amp;L408</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="409" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <f t="shared" si="124"/>
+        <v>68</v>
+      </c>
+      <c r="J409">
+        <v>4</v>
+      </c>
+      <c r="K409" t="s">
+        <v>10</v>
+      </c>
+      <c r="L409">
+        <f>VLOOKUP(I409,ToRaid,J409,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O409" t="str">
+        <f>CHAR(34)&amp;K409&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L409&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="410" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O411" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <f>I406+1</f>
+        <v>69</v>
+      </c>
+      <c r="J412">
+        <v>1</v>
+      </c>
+      <c r="K412" t="s">
+        <v>2</v>
+      </c>
+      <c r="L412">
+        <f>VLOOKUP(I412,ToRaid,J412,FALSE)</f>
+        <v>69</v>
+      </c>
+      <c r="O412" t="str">
+        <f>CHAR(34)&amp;K412&amp;CHAR(34)&amp;": "&amp;L412&amp;","</f>
+        <v>"Id": 69,</v>
+      </c>
+    </row>
+    <row r="413" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I413">
+        <f t="shared" ref="I413:I415" si="125">I407+1</f>
+        <v>69</v>
+      </c>
+      <c r="J413">
+        <v>2</v>
+      </c>
+      <c r="K413" t="s">
+        <v>3</v>
+      </c>
+      <c r="L413">
+        <f>VLOOKUP(I413,ToRaid,J413,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O413" t="str">
+        <f>CHAR(34)&amp;K413&amp;CHAR(34)&amp;": "&amp;L413&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="414" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I414">
+        <f t="shared" si="125"/>
+        <v>69</v>
+      </c>
+      <c r="J414">
+        <v>3</v>
+      </c>
+      <c r="K414" t="s">
+        <v>4</v>
+      </c>
+      <c r="L414">
+        <f>VLOOKUP(I414,ToRaid,J414,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O414" t="str">
+        <f>CHAR(34)&amp;K414&amp;CHAR(34)&amp;": "&amp;L414</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="415" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I415">
+        <f t="shared" si="125"/>
+        <v>69</v>
+      </c>
+      <c r="J415">
+        <v>4</v>
+      </c>
+      <c r="K415" t="s">
+        <v>10</v>
+      </c>
+      <c r="L415">
+        <f>VLOOKUP(I415,ToRaid,J415,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O415" t="str">
+        <f>CHAR(34)&amp;K415&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L415&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="416" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O417" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I418">
+        <f>I412+1</f>
+        <v>70</v>
+      </c>
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="K418" t="s">
+        <v>2</v>
+      </c>
+      <c r="L418">
+        <f>VLOOKUP(I418,ToRaid,J418,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="O418" t="str">
+        <f>CHAR(34)&amp;K418&amp;CHAR(34)&amp;": "&amp;L418&amp;","</f>
+        <v>"Id": 70,</v>
+      </c>
+    </row>
+    <row r="419" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I419">
+        <f t="shared" ref="I419:I421" si="126">I413+1</f>
+        <v>70</v>
+      </c>
+      <c r="J419">
+        <v>2</v>
+      </c>
+      <c r="K419" t="s">
+        <v>3</v>
+      </c>
+      <c r="L419">
+        <f>VLOOKUP(I419,ToRaid,J419,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O419" t="str">
+        <f>CHAR(34)&amp;K419&amp;CHAR(34)&amp;": "&amp;L419&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="420" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I420">
+        <f t="shared" si="126"/>
+        <v>70</v>
+      </c>
+      <c r="J420">
+        <v>3</v>
+      </c>
+      <c r="K420" t="s">
+        <v>4</v>
+      </c>
+      <c r="L420">
+        <f>VLOOKUP(I420,ToRaid,J420,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O420" t="str">
+        <f>CHAR(34)&amp;K420&amp;CHAR(34)&amp;": "&amp;L420</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="421" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I421">
+        <f t="shared" si="126"/>
+        <v>70</v>
+      </c>
+      <c r="J421">
+        <v>4</v>
+      </c>
+      <c r="K421" t="s">
+        <v>10</v>
+      </c>
+      <c r="L421">
+        <f>VLOOKUP(I421,ToRaid,J421,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O421" t="str">
+        <f>CHAR(34)&amp;K421&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L421&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="422" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O423" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I424">
+        <f>I418+1</f>
+        <v>71</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424" t="s">
+        <v>2</v>
+      </c>
+      <c r="L424">
+        <f>VLOOKUP(I424,ToRaid,J424,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="O424" t="str">
+        <f>CHAR(34)&amp;K424&amp;CHAR(34)&amp;": "&amp;L424&amp;","</f>
+        <v>"Id": 71,</v>
+      </c>
+    </row>
+    <row r="425" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I425">
+        <f t="shared" ref="I425:I427" si="127">I419+1</f>
+        <v>71</v>
+      </c>
+      <c r="J425">
+        <v>2</v>
+      </c>
+      <c r="K425" t="s">
+        <v>3</v>
+      </c>
+      <c r="L425">
+        <f>VLOOKUP(I425,ToRaid,J425,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O425" t="str">
+        <f>CHAR(34)&amp;K425&amp;CHAR(34)&amp;": "&amp;L425&amp;","</f>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="426" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I426">
+        <f t="shared" si="127"/>
+        <v>71</v>
+      </c>
+      <c r="J426">
+        <v>3</v>
+      </c>
+      <c r="K426" t="s">
+        <v>4</v>
+      </c>
+      <c r="L426">
+        <f>VLOOKUP(I426,ToRaid,J426,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O426" t="str">
+        <f>CHAR(34)&amp;K426&amp;CHAR(34)&amp;": "&amp;L426</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="427" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I427">
+        <f t="shared" si="127"/>
+        <v>71</v>
+      </c>
+      <c r="J427">
+        <v>4</v>
+      </c>
+      <c r="K427" t="s">
+        <v>10</v>
+      </c>
+      <c r="L427">
+        <f>VLOOKUP(I427,ToRaid,J427,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O427" t="str">
+        <f>CHAR(34)&amp;K427&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L427&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="428" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O429" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I430">
+        <f>I424+1</f>
+        <v>72</v>
+      </c>
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="K430" t="s">
+        <v>2</v>
+      </c>
+      <c r="L430">
+        <f>VLOOKUP(I430,ToRaid,J430,FALSE)</f>
+        <v>72</v>
+      </c>
+      <c r="O430" t="str">
+        <f t="shared" ref="O430:O431" si="128">CHAR(34)&amp;K430&amp;CHAR(34)&amp;": "&amp;L430&amp;","</f>
+        <v>"Id": 72,</v>
+      </c>
+    </row>
+    <row r="431" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I431">
+        <f t="shared" ref="I431:I433" si="129">I425+1</f>
+        <v>72</v>
+      </c>
+      <c r="J431">
+        <v>2</v>
+      </c>
+      <c r="K431" t="s">
+        <v>3</v>
+      </c>
+      <c r="L431">
+        <f>VLOOKUP(I431,ToRaid,J431,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O431" t="str">
+        <f t="shared" si="128"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="432" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I432">
+        <f t="shared" si="129"/>
+        <v>72</v>
+      </c>
+      <c r="J432">
+        <v>3</v>
+      </c>
+      <c r="K432" t="s">
+        <v>4</v>
+      </c>
+      <c r="L432">
+        <f>VLOOKUP(I432,ToRaid,J432,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O432" t="str">
+        <f t="shared" ref="O432" si="130">CHAR(34)&amp;K432&amp;CHAR(34)&amp;": "&amp;L432</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="433" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I433">
+        <f t="shared" si="129"/>
+        <v>72</v>
+      </c>
+      <c r="J433">
+        <v>4</v>
+      </c>
+      <c r="K433" t="s">
+        <v>10</v>
+      </c>
+      <c r="L433">
+        <f>VLOOKUP(I433,ToRaid,J433,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O433" t="str">
+        <f t="shared" ref="O433" si="131">CHAR(34)&amp;K433&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L433&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="434" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O435" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I436">
+        <f>I430+1</f>
+        <v>73</v>
+      </c>
+      <c r="J436">
+        <v>1</v>
+      </c>
+      <c r="K436" t="s">
+        <v>2</v>
+      </c>
+      <c r="L436">
+        <f>VLOOKUP(I436,ToRaid,J436,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="O436" t="str">
+        <f t="shared" ref="O436:O437" si="132">CHAR(34)&amp;K436&amp;CHAR(34)&amp;": "&amp;L436&amp;","</f>
+        <v>"Id": 73,</v>
+      </c>
+    </row>
+    <row r="437" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I437">
+        <f t="shared" ref="I437:I439" si="133">I431+1</f>
+        <v>73</v>
+      </c>
+      <c r="J437">
+        <v>2</v>
+      </c>
+      <c r="K437" t="s">
+        <v>3</v>
+      </c>
+      <c r="L437">
+        <f>VLOOKUP(I437,ToRaid,J437,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O437" t="str">
+        <f t="shared" si="132"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="438" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I438">
+        <f t="shared" si="133"/>
+        <v>73</v>
+      </c>
+      <c r="J438">
+        <v>3</v>
+      </c>
+      <c r="K438" t="s">
+        <v>4</v>
+      </c>
+      <c r="L438">
+        <f>VLOOKUP(I438,ToRaid,J438,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O438" t="str">
+        <f t="shared" ref="O438" si="134">CHAR(34)&amp;K438&amp;CHAR(34)&amp;": "&amp;L438</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="439" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I439">
+        <f t="shared" si="133"/>
+        <v>73</v>
+      </c>
+      <c r="J439">
+        <v>4</v>
+      </c>
+      <c r="K439" t="s">
+        <v>10</v>
+      </c>
+      <c r="L439">
+        <f>VLOOKUP(I439,ToRaid,J439,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O439" t="str">
+        <f t="shared" ref="O439" si="135">CHAR(34)&amp;K439&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L439&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="440" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O441" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I442">
+        <f>I436+1</f>
+        <v>74</v>
+      </c>
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" t="s">
+        <v>2</v>
+      </c>
+      <c r="L442">
+        <f>VLOOKUP(I442,ToRaid,J442,FALSE)</f>
+        <v>74</v>
+      </c>
+      <c r="O442" t="str">
+        <f t="shared" ref="O442:O443" si="136">CHAR(34)&amp;K442&amp;CHAR(34)&amp;": "&amp;L442&amp;","</f>
+        <v>"Id": 74,</v>
+      </c>
+    </row>
+    <row r="443" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I443">
+        <f t="shared" ref="I443:I445" si="137">I437+1</f>
+        <v>74</v>
+      </c>
+      <c r="J443">
+        <v>2</v>
+      </c>
+      <c r="K443" t="s">
+        <v>3</v>
+      </c>
+      <c r="L443">
+        <f>VLOOKUP(I443,ToRaid,J443,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O443" t="str">
+        <f t="shared" si="136"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="444" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I444">
+        <f t="shared" si="137"/>
+        <v>74</v>
+      </c>
+      <c r="J444">
+        <v>3</v>
+      </c>
+      <c r="K444" t="s">
+        <v>4</v>
+      </c>
+      <c r="L444">
+        <f>VLOOKUP(I444,ToRaid,J444,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O444" t="str">
+        <f t="shared" ref="O444" si="138">CHAR(34)&amp;K444&amp;CHAR(34)&amp;": "&amp;L444</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="445" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I445">
+        <f t="shared" si="137"/>
+        <v>74</v>
+      </c>
+      <c r="J445">
+        <v>4</v>
+      </c>
+      <c r="K445" t="s">
+        <v>10</v>
+      </c>
+      <c r="L445">
+        <f>VLOOKUP(I445,ToRaid,J445,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O445" t="str">
+        <f t="shared" ref="O445" si="139">CHAR(34)&amp;K445&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L445&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="446" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I448">
+        <f>I442+1</f>
+        <v>75</v>
+      </c>
+      <c r="J448">
+        <v>1</v>
+      </c>
+      <c r="K448" t="s">
+        <v>2</v>
+      </c>
+      <c r="L448">
+        <f>VLOOKUP(I448,ToRaid,J448,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="O448" t="str">
+        <f t="shared" ref="O448:O449" si="140">CHAR(34)&amp;K448&amp;CHAR(34)&amp;": "&amp;L448&amp;","</f>
+        <v>"Id": 75,</v>
+      </c>
+    </row>
+    <row r="449" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I449">
+        <f t="shared" ref="I449:I451" si="141">I443+1</f>
+        <v>75</v>
+      </c>
+      <c r="J449">
+        <v>2</v>
+      </c>
+      <c r="K449" t="s">
+        <v>3</v>
+      </c>
+      <c r="L449">
+        <f>VLOOKUP(I449,ToRaid,J449,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O449" t="str">
+        <f t="shared" si="140"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="450" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I450">
+        <f t="shared" si="141"/>
+        <v>75</v>
+      </c>
+      <c r="J450">
+        <v>3</v>
+      </c>
+      <c r="K450" t="s">
+        <v>4</v>
+      </c>
+      <c r="L450">
+        <f>VLOOKUP(I450,ToRaid,J450,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O450" t="str">
+        <f t="shared" ref="O450" si="142">CHAR(34)&amp;K450&amp;CHAR(34)&amp;": "&amp;L450</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="451" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I451">
+        <f t="shared" si="141"/>
+        <v>75</v>
+      </c>
+      <c r="J451">
+        <v>4</v>
+      </c>
+      <c r="K451" t="s">
+        <v>10</v>
+      </c>
+      <c r="L451">
+        <f>VLOOKUP(I451,ToRaid,J451,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O451" t="str">
+        <f t="shared" ref="O451" si="143">CHAR(34)&amp;K451&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L451&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="452" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I454">
+        <f>I448+1</f>
+        <v>76</v>
+      </c>
+      <c r="J454">
+        <v>1</v>
+      </c>
+      <c r="K454" t="s">
+        <v>2</v>
+      </c>
+      <c r="L454">
+        <f>VLOOKUP(I454,ToRaid,J454,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="O454" t="str">
+        <f t="shared" ref="O454:O455" si="144">CHAR(34)&amp;K454&amp;CHAR(34)&amp;": "&amp;L454&amp;","</f>
+        <v>"Id": 76,</v>
+      </c>
+    </row>
+    <row r="455" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I455">
+        <f t="shared" ref="I455:I457" si="145">I449+1</f>
+        <v>76</v>
+      </c>
+      <c r="J455">
+        <v>2</v>
+      </c>
+      <c r="K455" t="s">
+        <v>3</v>
+      </c>
+      <c r="L455">
+        <f>VLOOKUP(I455,ToRaid,J455,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O455" t="str">
+        <f t="shared" si="144"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="456" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I456">
+        <f t="shared" si="145"/>
+        <v>76</v>
+      </c>
+      <c r="J456">
+        <v>3</v>
+      </c>
+      <c r="K456" t="s">
+        <v>4</v>
+      </c>
+      <c r="L456">
+        <f>VLOOKUP(I456,ToRaid,J456,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O456" t="str">
+        <f t="shared" ref="O456" si="146">CHAR(34)&amp;K456&amp;CHAR(34)&amp;": "&amp;L456</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="457" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I457">
+        <f t="shared" si="145"/>
+        <v>76</v>
+      </c>
+      <c r="J457">
+        <v>4</v>
+      </c>
+      <c r="K457" t="s">
+        <v>10</v>
+      </c>
+      <c r="L457">
+        <f>VLOOKUP(I457,ToRaid,J457,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O457" t="str">
+        <f t="shared" ref="O457" si="147">CHAR(34)&amp;K457&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L457&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="458" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O459" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I460">
+        <f>I454+1</f>
+        <v>77</v>
+      </c>
+      <c r="J460">
+        <v>1</v>
+      </c>
+      <c r="K460" t="s">
+        <v>2</v>
+      </c>
+      <c r="L460">
+        <f>VLOOKUP(I460,ToRaid,J460,FALSE)</f>
+        <v>77</v>
+      </c>
+      <c r="O460" t="str">
+        <f t="shared" ref="O460:O461" si="148">CHAR(34)&amp;K460&amp;CHAR(34)&amp;": "&amp;L460&amp;","</f>
+        <v>"Id": 77,</v>
+      </c>
+    </row>
+    <row r="461" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I461">
+        <f t="shared" ref="I461:I463" si="149">I455+1</f>
+        <v>77</v>
+      </c>
+      <c r="J461">
+        <v>2</v>
+      </c>
+      <c r="K461" t="s">
+        <v>3</v>
+      </c>
+      <c r="L461">
+        <f>VLOOKUP(I461,ToRaid,J461,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O461" t="str">
+        <f t="shared" si="148"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="462" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I462">
+        <f t="shared" si="149"/>
+        <v>77</v>
+      </c>
+      <c r="J462">
+        <v>3</v>
+      </c>
+      <c r="K462" t="s">
+        <v>4</v>
+      </c>
+      <c r="L462">
+        <f>VLOOKUP(I462,ToRaid,J462,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O462" t="str">
+        <f t="shared" ref="O462" si="150">CHAR(34)&amp;K462&amp;CHAR(34)&amp;": "&amp;L462</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="463" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I463">
+        <f t="shared" si="149"/>
+        <v>77</v>
+      </c>
+      <c r="J463">
+        <v>4</v>
+      </c>
+      <c r="K463" t="s">
+        <v>10</v>
+      </c>
+      <c r="L463">
+        <f>VLOOKUP(I463,ToRaid,J463,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O463" t="str">
+        <f t="shared" ref="O463" si="151">CHAR(34)&amp;K463&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L463&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="464" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O465" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I466">
+        <f>I460+1</f>
+        <v>78</v>
+      </c>
+      <c r="J466">
+        <v>1</v>
+      </c>
+      <c r="K466" t="s">
+        <v>2</v>
+      </c>
+      <c r="L466">
+        <f>VLOOKUP(I466,ToRaid,J466,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="O466" t="str">
+        <f t="shared" ref="O466:O467" si="152">CHAR(34)&amp;K466&amp;CHAR(34)&amp;": "&amp;L466&amp;","</f>
+        <v>"Id": 78,</v>
+      </c>
+    </row>
+    <row r="467" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I467">
+        <f t="shared" ref="I467:I469" si="153">I461+1</f>
+        <v>78</v>
+      </c>
+      <c r="J467">
+        <v>2</v>
+      </c>
+      <c r="K467" t="s">
+        <v>3</v>
+      </c>
+      <c r="L467">
+        <f>VLOOKUP(I467,ToRaid,J467,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O467" t="str">
+        <f t="shared" si="152"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="468" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I468">
+        <f t="shared" si="153"/>
+        <v>78</v>
+      </c>
+      <c r="J468">
+        <v>3</v>
+      </c>
+      <c r="K468" t="s">
+        <v>4</v>
+      </c>
+      <c r="L468">
+        <f>VLOOKUP(I468,ToRaid,J468,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O468" t="str">
+        <f t="shared" ref="O468" si="154">CHAR(34)&amp;K468&amp;CHAR(34)&amp;": "&amp;L468</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="469" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I469">
+        <f t="shared" si="153"/>
+        <v>78</v>
+      </c>
+      <c r="J469">
+        <v>4</v>
+      </c>
+      <c r="K469" t="s">
+        <v>10</v>
+      </c>
+      <c r="L469">
+        <f>VLOOKUP(I469,ToRaid,J469,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O469" t="str">
+        <f t="shared" ref="O469" si="155">CHAR(34)&amp;K469&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L469&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="470" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O471" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I472">
+        <f>I466+1</f>
+        <v>79</v>
+      </c>
+      <c r="J472">
+        <v>1</v>
+      </c>
+      <c r="K472" t="s">
+        <v>2</v>
+      </c>
+      <c r="L472">
+        <f>VLOOKUP(I472,ToRaid,J472,FALSE)</f>
+        <v>79</v>
+      </c>
+      <c r="O472" t="str">
+        <f t="shared" ref="O472:O473" si="156">CHAR(34)&amp;K472&amp;CHAR(34)&amp;": "&amp;L472&amp;","</f>
+        <v>"Id": 79,</v>
+      </c>
+    </row>
+    <row r="473" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I473">
+        <f t="shared" ref="I473:I475" si="157">I467+1</f>
+        <v>79</v>
+      </c>
+      <c r="J473">
+        <v>2</v>
+      </c>
+      <c r="K473" t="s">
+        <v>3</v>
+      </c>
+      <c r="L473">
+        <f>VLOOKUP(I473,ToRaid,J473,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O473" t="str">
+        <f t="shared" si="156"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="474" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I474">
+        <f t="shared" si="157"/>
+        <v>79</v>
+      </c>
+      <c r="J474">
+        <v>3</v>
+      </c>
+      <c r="K474" t="s">
+        <v>4</v>
+      </c>
+      <c r="L474">
+        <f>VLOOKUP(I474,ToRaid,J474,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O474" t="str">
+        <f t="shared" ref="O474" si="158">CHAR(34)&amp;K474&amp;CHAR(34)&amp;": "&amp;L474</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="475" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I475">
+        <f t="shared" si="157"/>
+        <v>79</v>
+      </c>
+      <c r="J475">
+        <v>4</v>
+      </c>
+      <c r="K475" t="s">
+        <v>10</v>
+      </c>
+      <c r="L475">
+        <f>VLOOKUP(I475,ToRaid,J475,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O475" t="str">
+        <f t="shared" ref="O475" si="159">CHAR(34)&amp;K475&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L475&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
+      </c>
+    </row>
+    <row r="476" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="O477" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I478">
+        <f>I472+1</f>
+        <v>80</v>
+      </c>
+      <c r="J478">
+        <v>1</v>
+      </c>
+      <c r="K478" t="s">
+        <v>2</v>
+      </c>
+      <c r="L478">
+        <f>VLOOKUP(I478,ToRaid,J478,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="O478" t="str">
+        <f t="shared" ref="O478:O479" si="160">CHAR(34)&amp;K478&amp;CHAR(34)&amp;": "&amp;L478&amp;","</f>
+        <v>"Id": 80,</v>
+      </c>
+    </row>
+    <row r="479" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I479">
+        <f t="shared" ref="I479:I481" si="161">I473+1</f>
+        <v>80</v>
+      </c>
+      <c r="J479">
+        <v>2</v>
+      </c>
+      <c r="K479" t="s">
+        <v>3</v>
+      </c>
+      <c r="L479">
+        <f>VLOOKUP(I479,ToRaid,J479,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O479" t="str">
+        <f t="shared" si="160"/>
+        <v>"X": 0,</v>
+      </c>
+    </row>
+    <row r="480" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I480">
+        <f t="shared" si="161"/>
+        <v>80</v>
+      </c>
+      <c r="J480">
+        <v>3</v>
+      </c>
+      <c r="K480" t="s">
+        <v>4</v>
+      </c>
+      <c r="L480">
+        <f>VLOOKUP(I480,ToRaid,J480,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O480" t="str">
+        <f t="shared" ref="O480" si="162">CHAR(34)&amp;K480&amp;CHAR(34)&amp;": "&amp;L480</f>
+        <v>"Y": 0</v>
+      </c>
+    </row>
+    <row r="481" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I481">
+        <f t="shared" si="161"/>
+        <v>80</v>
+      </c>
+      <c r="J481">
+        <v>4</v>
+      </c>
+      <c r="K481" t="s">
+        <v>10</v>
+      </c>
+      <c r="L481">
+        <f>VLOOKUP(I481,ToRaid,J481,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O481" t="str">
+        <f t="shared" ref="O481" si="163">CHAR(34)&amp;K481&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L481&amp;CHAR(34)</f>
+        <v>"CanRaid": "0"</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C5:H29">
-    <sortCondition ref="F5:F29"/>
+  <sortState ref="C5:G63">
+    <sortCondition ref="F5:F63"/>
   </sortState>
-  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24 G26:G37 E5:E37">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24 E5:E63 G26:G63">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(E5="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(G6="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF(G25="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U36">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF(U4="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4 V6:V23 V25:V36">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF(V4="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(V5="false",TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(G25="false",TRUE,FALSE)</formula>
+      <formula>IF(V24="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68A2FF-792C-49CD-93E4-7AE41846BAE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDB246-9912-46C5-84BE-CE0D5CD16A44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="17">
   <si>
     <t>Oases</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>actif</t>
+  </si>
+  <si>
+    <t>banned</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -213,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,19 +518,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -539,7 +542,7 @@
         <v>"Id": 0,</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -551,7 +554,7 @@
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -563,17 +566,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -585,7 +588,7 @@
         <v>"Id": 1,</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>3</v>
       </c>
@@ -597,7 +600,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -609,17 +612,17 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -631,7 +634,7 @@
         <v>"Id": 2,</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -643,7 +646,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>4</v>
       </c>
@@ -655,17 +658,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -677,7 +680,7 @@
         <v>"Id": 3,</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>3</v>
       </c>
@@ -689,7 +692,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -701,17 +704,17 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -723,7 +726,7 @@
         <v>"Id": 4,</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>3</v>
       </c>
@@ -735,7 +738,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -747,17 +750,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -770,7 +773,7 @@
         <v>"Id": 5,</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>3</v>
       </c>
@@ -782,7 +785,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>4</v>
       </c>
@@ -794,17 +797,17 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -817,7 +820,7 @@
         <v>"Id": 6,</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -829,7 +832,7 @@
         <v>"X": -37,</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>4</v>
       </c>
@@ -841,17 +844,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -864,7 +867,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -876,7 +879,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -888,17 +891,17 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -911,7 +914,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>3</v>
       </c>
@@ -923,7 +926,7 @@
         <v>"X": -27,</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>4</v>
       </c>
@@ -935,17 +938,17 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -958,7 +961,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>3</v>
       </c>
@@ -970,7 +973,7 @@
         <v>"X": -23,</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>4</v>
       </c>
@@ -982,17 +985,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>4</v>
       </c>
@@ -1029,17 +1032,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G58" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>"X": -29,</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -1076,17 +1079,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -1123,17 +1126,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -1170,17 +1173,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -1217,17 +1220,17 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>6</v>
       </c>
@@ -1272,12 +1275,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>4</v>
       </c>
@@ -1314,17 +1317,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>4</v>
       </c>
@@ -1361,17 +1364,17 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>"X": -20,</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>4</v>
       </c>
@@ -1408,17 +1411,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>"Id": 19,</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -1455,17 +1458,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>"Id": 20,</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>4</v>
       </c>
@@ -1502,17 +1505,17 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>2</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>"Id": 21,</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>"X": -19,</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>4</v>
       </c>
@@ -1549,17 +1552,17 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>"Id": 22,</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>4</v>
       </c>
@@ -1596,17 +1599,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>"Id": 23,</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>3</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>4</v>
       </c>
@@ -1643,17 +1646,17 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -1666,7 +1669,7 @@
         <v>"Id": 24,</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>4</v>
       </c>
@@ -1690,17 +1693,17 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G127" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G128" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>"Id": 25,</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>4</v>
       </c>
@@ -1731,17 +1734,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G132" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>2</v>
       </c>
@@ -1754,7 +1757,7 @@
         <v>"Id": 26,</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>4</v>
       </c>
@@ -1772,17 +1775,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>2</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>"Id": 27,</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>4</v>
       </c>
@@ -1813,17 +1816,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G142" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>"Id": 28,</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>3</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>4</v>
       </c>
@@ -1854,17 +1857,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G147" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>"Id": 29,</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>4</v>
       </c>
@@ -1895,17 +1898,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>2</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>"Id": 30,</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>4</v>
       </c>
@@ -1936,17 +1939,17 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>"Id": 31,</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +1971,7 @@
         <v>"X": ,</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>4</v>
       </c>
@@ -1977,12 +1980,12 @@
         <v xml:space="preserve">"Y": </v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>2</v>
       </c>
@@ -1991,17 +1994,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>2</v>
       </c>
@@ -2010,17 +2013,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>2</v>
       </c>
@@ -2029,17 +2032,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>2</v>
       </c>
@@ -2048,17 +2051,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>2</v>
       </c>
@@ -2067,12 +2070,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>4</v>
       </c>
@@ -2087,16 +2090,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2107,17 +2110,17 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="O3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>$A$1&amp;C5&amp;"&amp;y="&amp;D5</f>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-52</v>
@@ -2222,7 +2225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" ref="A6:A37" si="1">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-50</v>
@@ -2276,7 +2279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-54</v>
@@ -2330,7 +2333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-54</v>
@@ -2370,7 +2373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-53</v>
@@ -2411,7 +2414,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-31&amp;y=-46</v>
@@ -2467,7 +2470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-56</v>
@@ -2522,7 +2525,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-46</v>
@@ -2578,7 +2581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-54</v>
@@ -2633,7 +2636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-48</v>
@@ -2673,7 +2676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-50</v>
@@ -2713,7 +2716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-55</v>
@@ -2769,7 +2772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-45</v>
@@ -2824,7 +2827,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-58</v>
@@ -2880,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-45</v>
@@ -2935,7 +2938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-46</v>
@@ -2975,7 +2978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-55</v>
@@ -3015,7 +3018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-58</v>
@@ -3073,7 +3076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-43</v>
@@ -3128,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-51</v>
@@ -3183,7 +3186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-56</v>
@@ -3197,8 +3200,8 @@
       <c r="D25" s="2">
         <v>-56</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
+      <c r="E25" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -3239,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-54</v>
@@ -3279,7 +3282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-42</v>
@@ -3319,7 +3322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-41&amp;y=-52</v>
@@ -3374,7 +3377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-52</v>
@@ -3429,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-47</v>
@@ -3484,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-54</v>
@@ -3539,7 +3542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-22&amp;y=-58</v>
@@ -3579,7 +3582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-56</v>
@@ -3619,7 +3622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-53</v>
@@ -3674,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-55</v>
@@ -3729,7 +3732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-39</v>
@@ -3784,7 +3787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-39</v>
@@ -3827,7 +3830,7 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" ref="A38:A95" si="8">$A$1&amp;C38&amp;"&amp;y="&amp;D38</f>
         <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-41</v>
@@ -3855,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-51</v>
@@ -3883,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-46</v>
@@ -3926,7 +3929,7 @@
         <v>"Id": 7,</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-38&amp;y=-40</v>
@@ -3969,7 +3972,7 @@
         <v>"X": -30,</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-48</v>
@@ -4012,7 +4015,7 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-39</v>
@@ -4055,7 +4058,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
@@ -4083,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-39</v>
@@ -4111,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
@@ -4154,7 +4157,7 @@
         <v>"Id": 8,</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-53</v>
@@ -4197,7 +4200,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-49</v>
@@ -4240,7 +4243,7 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-37</v>
@@ -4255,7 +4258,7 @@
         <v>-37</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <f t="shared" si="7"/>
@@ -4283,7 +4286,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-40</v>
@@ -4298,7 +4301,7 @@
         <v>-40</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50">
         <f t="shared" si="7"/>
@@ -4307,11 +4310,14 @@
       <c r="G50" s="2">
         <v>41</v>
       </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
       <c r="O50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-45&amp;y=-57</v>
@@ -4339,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-37</v>
@@ -4382,7 +4388,7 @@
         <v>"Id": 9,</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-23&amp;y=-38</v>
@@ -4425,7 +4431,7 @@
         <v>"X": -36,</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
@@ -4468,7 +4474,7 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
@@ -4511,7 +4517,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-46</v>
@@ -4539,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-45</v>
@@ -4567,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-38</v>
@@ -4610,7 +4616,7 @@
         <v>"Id": 10,</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-43</v>
@@ -4653,7 +4659,7 @@
         <v>"X": -26,</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-43</v>
@@ -4696,7 +4702,7 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-18&amp;y=-37</v>
@@ -4739,7 +4745,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-38</v>
@@ -4767,7 +4773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-38</v>
@@ -4795,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4822,7 +4828,7 @@
         <v>"Id": 11,</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4849,7 +4855,7 @@
         <v>"X": -37,</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4876,7 +4882,7 @@
         <v>"Y": -50</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4903,7 +4909,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4915,7 +4921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4927,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4954,7 +4960,7 @@
         <v>"Id": 12,</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -4981,7 +4987,7 @@
         <v>"X": -26,</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5008,7 +5014,7 @@
         <v>"Y": -55</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5035,7 +5041,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5047,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5059,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5086,7 +5092,7 @@
         <v>"Id": 13,</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5113,7 +5119,7 @@
         <v>"X": -28,</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5140,7 +5146,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5167,7 +5173,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5179,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5191,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5218,7 +5224,7 @@
         <v>"Id": 14,</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5245,7 +5251,7 @@
         <v>"X": -32,</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5272,7 +5278,7 @@
         <v>"Y": -58</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5299,7 +5305,7 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5311,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5323,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5350,7 +5356,7 @@
         <v>"Id": 15,</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5377,7 +5383,7 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5404,7 +5410,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5431,7 +5437,7 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5443,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5455,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5482,7 +5488,7 @@
         <v>"Id": 16,</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="8"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
@@ -5509,7 +5515,7 @@
         <v>"X": -25,</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I96">
         <f t="shared" si="18"/>
         <v>16</v>
@@ -5529,7 +5535,7 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="97" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I97">
         <f t="shared" si="18"/>
         <v>16</v>
@@ -5549,17 +5555,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="98" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I100">
         <f>I94+1</f>
         <v>17</v>
@@ -5579,7 +5585,7 @@
         <v>"Id": 17,</v>
       </c>
     </row>
-    <row r="101" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I101">
         <f t="shared" ref="I101:I103" si="19">I95+1</f>
         <v>17</v>
@@ -5599,7 +5605,7 @@
         <v>"X": -24,</v>
       </c>
     </row>
-    <row r="102" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I102">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -5619,7 +5625,7 @@
         <v>"Y": -55</v>
       </c>
     </row>
-    <row r="103" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I103">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -5639,17 +5645,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="104" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I106">
         <f>I100+1</f>
         <v>18</v>
@@ -5669,7 +5675,7 @@
         <v>"Id": 18,</v>
       </c>
     </row>
-    <row r="107" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I107">
         <f t="shared" ref="I107:I109" si="20">I101+1</f>
         <v>18</v>
@@ -5689,7 +5695,7 @@
         <v>"X": -26,</v>
       </c>
     </row>
-    <row r="108" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I108">
         <f t="shared" si="20"/>
         <v>18</v>
@@ -5709,7 +5715,7 @@
         <v>"Y": -58</v>
       </c>
     </row>
-    <row r="109" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I109">
         <f t="shared" si="20"/>
         <v>18</v>
@@ -5729,17 +5735,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="110" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I112">
         <f>I106+1</f>
         <v>19</v>
@@ -5759,7 +5765,7 @@
         <v>"Id": 19,</v>
       </c>
     </row>
-    <row r="113" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I113">
         <f t="shared" ref="I113:I115" si="21">I107+1</f>
         <v>19</v>
@@ -5779,7 +5785,7 @@
         <v>"X": -27,</v>
       </c>
     </row>
-    <row r="114" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I114">
         <f t="shared" si="21"/>
         <v>19</v>
@@ -5799,7 +5805,7 @@
         <v>"Y": -43</v>
       </c>
     </row>
-    <row r="115" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I115">
         <f t="shared" si="21"/>
         <v>19</v>
@@ -5819,17 +5825,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="116" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O116" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I118">
         <f>I112+1</f>
         <v>20</v>
@@ -5849,7 +5855,7 @@
         <v>"Id": 20,</v>
       </c>
     </row>
-    <row r="119" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I119">
         <f t="shared" ref="I119:I121" si="22">I113+1</f>
         <v>20</v>
@@ -5869,7 +5875,7 @@
         <v>"X": -40,</v>
       </c>
     </row>
-    <row r="120" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I120">
         <f t="shared" si="22"/>
         <v>20</v>
@@ -5889,7 +5895,7 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="121" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I121">
         <f t="shared" si="22"/>
         <v>20</v>
@@ -5909,17 +5915,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="122" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I124">
         <f>I118+1</f>
         <v>21</v>
@@ -5939,7 +5945,7 @@
         <v>"Id": 21,</v>
       </c>
     </row>
-    <row r="125" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I125">
         <f t="shared" ref="I125:I127" si="23">I119+1</f>
         <v>21</v>
@@ -5959,7 +5965,7 @@
         <v>"X": -39,</v>
       </c>
     </row>
-    <row r="126" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I126">
         <f t="shared" si="23"/>
         <v>21</v>
@@ -5979,7 +5985,7 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="127" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I127">
         <f t="shared" si="23"/>
         <v>21</v>
@@ -5990,26 +5996,26 @@
       <c r="K127" t="s">
         <v>10</v>
       </c>
-      <c r="L127" t="str">
+      <c r="L127" t="b">
         <f>VLOOKUP(I127,ToRaid,J127,FALSE)</f>
-        <v>true</v>
+        <v>0</v>
       </c>
       <c r="O127" t="str">
         <f>CHAR(34)&amp;K127&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L127&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="128" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "FALSE"</v>
+      </c>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O128" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I130">
         <f>I124+1</f>
         <v>22</v>
@@ -6029,7 +6035,7 @@
         <v>"Id": 22,</v>
       </c>
     </row>
-    <row r="131" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I131">
         <f t="shared" ref="I131:I133" si="24">I125+1</f>
         <v>22</v>
@@ -6049,7 +6055,7 @@
         <v>"X": -40,</v>
       </c>
     </row>
-    <row r="132" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I132">
         <f t="shared" si="24"/>
         <v>22</v>
@@ -6069,7 +6075,7 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="133" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I133">
         <f t="shared" si="24"/>
         <v>22</v>
@@ -6089,17 +6095,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="134" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I136">
         <f>I130+1</f>
         <v>23</v>
@@ -6119,7 +6125,7 @@
         <v>"Id": 23,</v>
       </c>
     </row>
-    <row r="137" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I137">
         <f t="shared" ref="I137:I139" si="25">I131+1</f>
         <v>23</v>
@@ -6139,7 +6145,7 @@
         <v>"X": -28,</v>
       </c>
     </row>
-    <row r="138" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I138">
         <f t="shared" si="25"/>
         <v>23</v>
@@ -6159,7 +6165,7 @@
         <v>"Y": -42</v>
       </c>
     </row>
-    <row r="139" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I139">
         <f t="shared" si="25"/>
         <v>23</v>
@@ -6179,17 +6185,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="140" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O140" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I142">
         <f>I136+1</f>
         <v>24</v>
@@ -6209,7 +6215,7 @@
         <v>"Id": 24,</v>
       </c>
     </row>
-    <row r="143" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I143">
         <f t="shared" ref="I143:I145" si="26">I137+1</f>
         <v>24</v>
@@ -6229,7 +6235,7 @@
         <v>"X": -41,</v>
       </c>
     </row>
-    <row r="144" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I144">
         <f t="shared" si="26"/>
         <v>24</v>
@@ -6249,7 +6255,7 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I145">
         <f t="shared" si="26"/>
         <v>24</v>
@@ -6269,17 +6275,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="146" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O146" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I148">
         <f>I142+1</f>
         <v>25</v>
@@ -6299,7 +6305,7 @@
         <v>"Id": 25,</v>
       </c>
     </row>
-    <row r="149" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I149">
         <f t="shared" ref="I149:I151" si="27">I143+1</f>
         <v>25</v>
@@ -6319,7 +6325,7 @@
         <v>"X": -21,</v>
       </c>
     </row>
-    <row r="150" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I150">
         <f t="shared" si="27"/>
         <v>25</v>
@@ -6339,7 +6345,7 @@
         <v>"Y": -52</v>
       </c>
     </row>
-    <row r="151" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I151">
         <f t="shared" si="27"/>
         <v>25</v>
@@ -6359,17 +6365,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="152" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I154">
         <f>I148+1</f>
         <v>26</v>
@@ -6389,7 +6395,7 @@
         <v>"Id": 26,</v>
       </c>
     </row>
-    <row r="155" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I155">
         <f t="shared" ref="I155:I157" si="28">I149+1</f>
         <v>26</v>
@@ -6409,7 +6415,7 @@
         <v>"X": -21,</v>
       </c>
     </row>
-    <row r="156" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I156">
         <f t="shared" si="28"/>
         <v>26</v>
@@ -6429,7 +6435,7 @@
         <v>"Y": -47</v>
       </c>
     </row>
-    <row r="157" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I157">
         <f t="shared" si="28"/>
         <v>26</v>
@@ -6449,17 +6455,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="158" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O158" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I160">
         <f>I154+1</f>
         <v>27</v>
@@ -6479,7 +6485,7 @@
         <v>"Id": 27,</v>
       </c>
     </row>
-    <row r="161" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I161">
         <f t="shared" ref="I161:I163" si="29">I155+1</f>
         <v>27</v>
@@ -6499,7 +6505,7 @@
         <v>"X": -42,</v>
       </c>
     </row>
-    <row r="162" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I162">
         <f t="shared" si="29"/>
         <v>27</v>
@@ -6519,7 +6525,7 @@
         <v>"Y": -54</v>
       </c>
     </row>
-    <row r="163" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I163">
         <f t="shared" si="29"/>
         <v>27</v>
@@ -6539,17 +6545,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="164" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O164" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I166">
         <f>I160+1</f>
         <v>28</v>
@@ -6569,7 +6575,7 @@
         <v>"Id": 28,</v>
       </c>
     </row>
-    <row r="167" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I167">
         <f t="shared" ref="I167:I169" si="31">I161+1</f>
         <v>28</v>
@@ -6589,7 +6595,7 @@
         <v>"X": -22,</v>
       </c>
     </row>
-    <row r="168" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I168">
         <f t="shared" si="31"/>
         <v>28</v>
@@ -6609,7 +6615,7 @@
         <v>"Y": -58</v>
       </c>
     </row>
-    <row r="169" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I169">
         <f t="shared" si="31"/>
         <v>28</v>
@@ -6629,17 +6635,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="170" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I172">
         <f>I166+1</f>
         <v>29</v>
@@ -6659,7 +6665,7 @@
         <v>"Id": 29,</v>
       </c>
     </row>
-    <row r="173" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I173">
         <f t="shared" ref="I173:I175" si="35">I167+1</f>
         <v>29</v>
@@ -6679,7 +6685,7 @@
         <v>"X": -42,</v>
       </c>
     </row>
-    <row r="174" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I174">
         <f t="shared" si="35"/>
         <v>29</v>
@@ -6699,7 +6705,7 @@
         <v>"Y": -56</v>
       </c>
     </row>
-    <row r="175" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I175">
         <f t="shared" si="35"/>
         <v>29</v>
@@ -6719,17 +6725,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="176" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O176" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I178">
         <f>I172+1</f>
         <v>30</v>
@@ -6749,7 +6755,7 @@
         <v>"Id": 30,</v>
       </c>
     </row>
-    <row r="179" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I179">
         <f t="shared" ref="I179:I181" si="39">I173+1</f>
         <v>30</v>
@@ -6769,7 +6775,7 @@
         <v>"X": -43,</v>
       </c>
     </row>
-    <row r="180" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I180">
         <f t="shared" si="39"/>
         <v>30</v>
@@ -6789,7 +6795,7 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="181" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I181">
         <f t="shared" si="39"/>
         <v>30</v>
@@ -6809,17 +6815,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="182" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O182" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I184">
         <f>I178+1</f>
         <v>31</v>
@@ -6839,7 +6845,7 @@
         <v>"Id": 31,</v>
       </c>
     </row>
-    <row r="185" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I185">
         <f t="shared" ref="I185:I187" si="43">I179+1</f>
         <v>31</v>
@@ -6859,7 +6865,7 @@
         <v>"X": -43,</v>
       </c>
     </row>
-    <row r="186" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I186">
         <f t="shared" si="43"/>
         <v>31</v>
@@ -6879,7 +6885,7 @@
         <v>"Y": -55</v>
       </c>
     </row>
-    <row r="187" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I187">
         <f t="shared" si="43"/>
         <v>31</v>
@@ -6899,17 +6905,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="188" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O188" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I190">
         <f>I184+1</f>
         <v>32</v>
@@ -6929,7 +6935,7 @@
         <v>"Id": 32,</v>
       </c>
     </row>
-    <row r="191" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I191">
         <f t="shared" ref="I191:I193" si="47">I185+1</f>
         <v>32</v>
@@ -6949,7 +6955,7 @@
         <v>"X": -35,</v>
       </c>
     </row>
-    <row r="192" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I192">
         <f t="shared" si="47"/>
         <v>32</v>
@@ -6969,7 +6975,7 @@
         <v>"Y": -39</v>
       </c>
     </row>
-    <row r="193" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I193">
         <f t="shared" si="47"/>
         <v>32</v>
@@ -6989,17 +6995,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="194" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O194" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I196">
         <f>I190+1</f>
         <v>33</v>
@@ -7019,7 +7025,7 @@
         <v>"Id": 33,</v>
       </c>
     </row>
-    <row r="197" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I197">
         <f t="shared" ref="I197:I199" si="51">I191+1</f>
         <v>33</v>
@@ -7039,7 +7045,7 @@
         <v>"X": -27,</v>
       </c>
     </row>
-    <row r="198" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I198">
         <f t="shared" si="51"/>
         <v>33</v>
@@ -7059,7 +7065,7 @@
         <v>"Y": -39</v>
       </c>
     </row>
-    <row r="199" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I199">
         <f t="shared" si="51"/>
         <v>33</v>
@@ -7079,17 +7085,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="200" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O200" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I202">
         <f>I196+1</f>
         <v>34</v>
@@ -7109,7 +7115,7 @@
         <v>"Id": 34,</v>
       </c>
     </row>
-    <row r="203" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I203">
         <f t="shared" ref="I203:I205" si="55">I197+1</f>
         <v>34</v>
@@ -7129,7 +7135,7 @@
         <v>"X": -39,</v>
       </c>
     </row>
-    <row r="204" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I204">
         <f t="shared" si="55"/>
         <v>34</v>
@@ -7149,7 +7155,7 @@
         <v>"Y": -41</v>
       </c>
     </row>
-    <row r="205" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I205">
         <f t="shared" si="55"/>
         <v>34</v>
@@ -7169,17 +7175,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="206" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O206" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I208">
         <f>I202+1</f>
         <v>35</v>
@@ -7199,7 +7205,7 @@
         <v>"Id": 35,</v>
       </c>
     </row>
-    <row r="209" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I209">
         <f t="shared" ref="I209:I211" si="59">I203+1</f>
         <v>35</v>
@@ -7219,7 +7225,7 @@
         <v>"X": -44,</v>
       </c>
     </row>
-    <row r="210" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I210">
         <f t="shared" si="59"/>
         <v>35</v>
@@ -7239,7 +7245,7 @@
         <v>"Y": -51</v>
       </c>
     </row>
-    <row r="211" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I211">
         <f t="shared" si="59"/>
         <v>35</v>
@@ -7259,17 +7265,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="212" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O212" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I214">
         <f>I208+1</f>
         <v>36</v>
@@ -7289,7 +7295,7 @@
         <v>"Id": 36,</v>
       </c>
     </row>
-    <row r="215" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I215">
         <f t="shared" ref="I215:I217" si="63">I209+1</f>
         <v>36</v>
@@ -7309,7 +7315,7 @@
         <v>"X": -43,</v>
       </c>
     </row>
-    <row r="216" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I216">
         <f t="shared" si="63"/>
         <v>36</v>
@@ -7329,7 +7335,7 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="217" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I217">
         <f t="shared" si="63"/>
         <v>36</v>
@@ -7349,17 +7355,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="218" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O218" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O219" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I220">
         <f>I214+1</f>
         <v>37</v>
@@ -7379,7 +7385,7 @@
         <v>"Id": 37,</v>
       </c>
     </row>
-    <row r="221" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I221">
         <f t="shared" ref="I221:I223" si="66">I215+1</f>
         <v>37</v>
@@ -7399,7 +7405,7 @@
         <v>"X": -38,</v>
       </c>
     </row>
-    <row r="222" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I222">
         <f t="shared" si="66"/>
         <v>37</v>
@@ -7419,7 +7425,7 @@
         <v>"Y": -40</v>
       </c>
     </row>
-    <row r="223" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I223">
         <f t="shared" si="66"/>
         <v>37</v>
@@ -7439,17 +7445,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="224" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O224" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I226">
         <f>I220+1</f>
         <v>38</v>
@@ -7469,7 +7475,7 @@
         <v>"Id": 38,</v>
       </c>
     </row>
-    <row r="227" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I227">
         <f t="shared" ref="I227:I229" si="67">I221+1</f>
         <v>38</v>
@@ -7489,7 +7495,7 @@
         <v>"X": -44,</v>
       </c>
     </row>
-    <row r="228" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I228">
         <f t="shared" si="67"/>
         <v>38</v>
@@ -7509,7 +7515,7 @@
         <v>"Y": -48</v>
       </c>
     </row>
-    <row r="229" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I229">
         <f t="shared" si="67"/>
         <v>38</v>
@@ -7529,17 +7535,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="230" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O230" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I232">
         <f>I226+1</f>
         <v>39</v>
@@ -7559,7 +7565,7 @@
         <v>"Id": 39,</v>
       </c>
     </row>
-    <row r="233" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I233">
         <f t="shared" ref="I233:I235" si="68">I227+1</f>
         <v>39</v>
@@ -7579,7 +7585,7 @@
         <v>"X": -37,</v>
       </c>
     </row>
-    <row r="234" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I234">
         <f t="shared" si="68"/>
         <v>39</v>
@@ -7599,7 +7605,7 @@
         <v>"Y": -39</v>
       </c>
     </row>
-    <row r="235" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I235">
         <f t="shared" si="68"/>
         <v>39</v>
@@ -7619,17 +7625,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="236" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O236" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I238">
         <f>I232+1</f>
         <v>40</v>
@@ -7649,7 +7655,7 @@
         <v>"Id": 40,</v>
       </c>
     </row>
-    <row r="239" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I239">
         <f t="shared" ref="I239:I241" si="69">I233+1</f>
         <v>40</v>
@@ -7669,7 +7675,7 @@
         <v>"X": -43,</v>
       </c>
     </row>
-    <row r="240" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I240">
         <f t="shared" si="69"/>
         <v>40</v>
@@ -7689,7 +7695,7 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="241" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I241">
         <f t="shared" si="69"/>
         <v>40</v>
@@ -7709,17 +7715,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="242" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O242" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I244">
         <f>I238+1</f>
         <v>41</v>
@@ -7739,7 +7745,7 @@
         <v>"Id": 41,</v>
       </c>
     </row>
-    <row r="245" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I245">
         <f t="shared" ref="I245:I247" si="70">I239+1</f>
         <v>41</v>
@@ -7759,7 +7765,7 @@
         <v>"X": -24,</v>
       </c>
     </row>
-    <row r="246" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I246">
         <f t="shared" si="70"/>
         <v>41</v>
@@ -7779,7 +7785,7 @@
         <v>"Y": -39</v>
       </c>
     </row>
-    <row r="247" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I247">
         <f t="shared" si="70"/>
         <v>41</v>
@@ -7799,17 +7805,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="248" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O248" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I250">
         <f>I244+1</f>
         <v>42</v>
@@ -7829,7 +7835,7 @@
         <v>"Id": 42,</v>
       </c>
     </row>
-    <row r="251" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I251">
         <f t="shared" ref="I251:I253" si="71">I245+1</f>
         <v>42</v>
@@ -7849,7 +7855,7 @@
         <v>"X": -43,</v>
       </c>
     </row>
-    <row r="252" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I252">
         <f t="shared" si="71"/>
         <v>42</v>
@@ -7869,7 +7875,7 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="253" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I253">
         <f t="shared" si="71"/>
         <v>42</v>
@@ -7889,17 +7895,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="254" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O254" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I256">
         <f>I250+1</f>
         <v>43</v>
@@ -7919,7 +7925,7 @@
         <v>"Id": 43,</v>
       </c>
     </row>
-    <row r="257" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I257">
         <f t="shared" ref="I257:I259" si="72">I251+1</f>
         <v>43</v>
@@ -7939,7 +7945,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="258" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I258">
         <f t="shared" si="72"/>
         <v>43</v>
@@ -7959,7 +7965,7 @@
         <v>"Y": -53</v>
       </c>
     </row>
-    <row r="259" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I259">
         <f t="shared" si="72"/>
         <v>43</v>
@@ -7979,17 +7985,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="260" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O260" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I262">
         <f>I256+1</f>
         <v>44</v>
@@ -8009,7 +8015,7 @@
         <v>"Id": 44,</v>
       </c>
     </row>
-    <row r="263" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I263">
         <f t="shared" ref="I263:I265" si="73">I257+1</f>
         <v>44</v>
@@ -8029,7 +8035,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="264" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I264">
         <f t="shared" si="73"/>
         <v>44</v>
@@ -8049,7 +8055,7 @@
         <v>"Y": -49</v>
       </c>
     </row>
-    <row r="265" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I265">
         <f t="shared" si="73"/>
         <v>44</v>
@@ -8069,17 +8075,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="266" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O266" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I268">
         <f>I262+1</f>
         <v>45</v>
@@ -8099,7 +8105,7 @@
         <v>"Id": 45,</v>
       </c>
     </row>
-    <row r="269" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I269">
         <f t="shared" ref="I269:I271" si="74">I263+1</f>
         <v>45</v>
@@ -8119,7 +8125,7 @@
         <v>"X": -33,</v>
       </c>
     </row>
-    <row r="270" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I270">
         <f t="shared" si="74"/>
         <v>45</v>
@@ -8139,7 +8145,7 @@
         <v>"Y": -37</v>
       </c>
     </row>
-    <row r="271" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I271">
         <f t="shared" si="74"/>
         <v>45</v>
@@ -8152,24 +8158,24 @@
       </c>
       <c r="L271" t="str">
         <f>VLOOKUP(I271,ToRaid,J271,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O271" t="str">
         <f>CHAR(34)&amp;K271&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L271&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="272" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="272" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O272" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I274">
         <f>I268+1</f>
         <v>46</v>
@@ -8189,7 +8195,7 @@
         <v>"Id": 46,</v>
       </c>
     </row>
-    <row r="275" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I275">
         <f t="shared" ref="I275:I277" si="75">I269+1</f>
         <v>46</v>
@@ -8209,7 +8215,7 @@
         <v>"X": -21,</v>
       </c>
     </row>
-    <row r="276" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I276">
         <f t="shared" si="75"/>
         <v>46</v>
@@ -8229,7 +8235,7 @@
         <v>"Y": -40</v>
       </c>
     </row>
-    <row r="277" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I277">
         <f t="shared" si="75"/>
         <v>46</v>
@@ -8242,24 +8248,24 @@
       </c>
       <c r="L277" t="str">
         <f>VLOOKUP(I277,ToRaid,J277,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O277" t="str">
         <f>CHAR(34)&amp;K277&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L277&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
-      </c>
-    </row>
-    <row r="278" spans="9:15" x14ac:dyDescent="0.25">
+        <v>"CanRaid": "false"</v>
+      </c>
+    </row>
+    <row r="278" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O278" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O279" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I280">
         <f>I274+1</f>
         <v>47</v>
@@ -8279,7 +8285,7 @@
         <v>"Id": 47,</v>
       </c>
     </row>
-    <row r="281" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I281">
         <f t="shared" ref="I281:I283" si="76">I275+1</f>
         <v>47</v>
@@ -8299,7 +8305,7 @@
         <v>"X": -45,</v>
       </c>
     </row>
-    <row r="282" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I282">
         <f t="shared" si="76"/>
         <v>47</v>
@@ -8319,7 +8325,7 @@
         <v>"Y": -57</v>
       </c>
     </row>
-    <row r="283" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I283">
         <f t="shared" si="76"/>
         <v>47</v>
@@ -8339,17 +8345,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="284" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O284" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I286">
         <f>I280+1</f>
         <v>48</v>
@@ -8369,7 +8375,7 @@
         <v>"Id": 48,</v>
       </c>
     </row>
-    <row r="287" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I287">
         <f t="shared" ref="I287:I289" si="77">I281+1</f>
         <v>48</v>
@@ -8389,7 +8395,7 @@
         <v>"X": -25,</v>
       </c>
     </row>
-    <row r="288" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I288">
         <f t="shared" si="77"/>
         <v>48</v>
@@ -8409,7 +8415,7 @@
         <v>"Y": -37</v>
       </c>
     </row>
-    <row r="289" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I289">
         <f t="shared" si="77"/>
         <v>48</v>
@@ -8429,17 +8435,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="290" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O290" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I292">
         <f>I286+1</f>
         <v>49</v>
@@ -8459,7 +8465,7 @@
         <v>"Id": 49,</v>
       </c>
     </row>
-    <row r="293" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I293">
         <f t="shared" ref="I293:I295" si="78">I287+1</f>
         <v>49</v>
@@ -8479,7 +8485,7 @@
         <v>"X": -23,</v>
       </c>
     </row>
-    <row r="294" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I294">
         <f t="shared" si="78"/>
         <v>49</v>
@@ -8499,7 +8505,7 @@
         <v>"Y": -38</v>
       </c>
     </row>
-    <row r="295" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I295">
         <f t="shared" si="78"/>
         <v>49</v>
@@ -8519,17 +8525,17 @@
         <v>"CanRaid": "false"</v>
       </c>
     </row>
-    <row r="296" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O296" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I298">
         <f>I292+1</f>
         <v>50</v>
@@ -8549,7 +8555,7 @@
         <v>"Id": 50,</v>
       </c>
     </row>
-    <row r="299" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I299">
         <f t="shared" ref="I299:I301" si="80">I293+1</f>
         <v>50</v>
@@ -8569,7 +8575,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="300" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I300">
         <f t="shared" si="80"/>
         <v>50</v>
@@ -8589,7 +8595,7 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="301" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I301">
         <f t="shared" si="80"/>
         <v>50</v>
@@ -8609,17 +8615,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="302" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O302" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I304">
         <f>I298+1</f>
         <v>51</v>
@@ -8639,7 +8645,7 @@
         <v>"Id": 51,</v>
       </c>
     </row>
-    <row r="305" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I305">
         <f t="shared" ref="I305:I307" si="84">I299+1</f>
         <v>51</v>
@@ -8659,7 +8665,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="306" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I306">
         <f t="shared" si="84"/>
         <v>51</v>
@@ -8679,7 +8685,7 @@
         <v>"Y": -44</v>
       </c>
     </row>
-    <row r="307" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I307">
         <f t="shared" si="84"/>
         <v>51</v>
@@ -8699,17 +8705,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="308" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O308" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O309" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I310">
         <f>I304+1</f>
         <v>52</v>
@@ -8729,7 +8735,7 @@
         <v>"Id": 52,</v>
       </c>
     </row>
-    <row r="311" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I311">
         <f t="shared" ref="I311:I313" si="88">I305+1</f>
         <v>52</v>
@@ -8749,7 +8755,7 @@
         <v>"X": -16,</v>
       </c>
     </row>
-    <row r="312" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I312">
         <f t="shared" si="88"/>
         <v>52</v>
@@ -8769,7 +8775,7 @@
         <v>"Y": -46</v>
       </c>
     </row>
-    <row r="313" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I313">
         <f t="shared" si="88"/>
         <v>52</v>
@@ -8789,17 +8795,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="314" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O314" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I316">
         <f>I310+1</f>
         <v>53</v>
@@ -8819,7 +8825,7 @@
         <v>"Id": 53,</v>
       </c>
     </row>
-    <row r="317" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I317">
         <f t="shared" ref="I317:I319" si="92">I311+1</f>
         <v>53</v>
@@ -8839,7 +8845,7 @@
         <v>"X": -46,</v>
       </c>
     </row>
-    <row r="318" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I318">
         <f t="shared" si="92"/>
         <v>53</v>
@@ -8859,7 +8865,7 @@
         <v>"Y": -45</v>
       </c>
     </row>
-    <row r="319" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I319">
         <f t="shared" si="92"/>
         <v>53</v>
@@ -8879,17 +8885,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="320" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O320" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I322">
         <f>I316+1</f>
         <v>54</v>
@@ -8909,7 +8915,7 @@
         <v>"Id": 54,</v>
       </c>
     </row>
-    <row r="323" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I323">
         <f t="shared" ref="I323:I325" si="96">I317+1</f>
         <v>54</v>
@@ -8929,7 +8935,7 @@
         <v>"X": -21,</v>
       </c>
     </row>
-    <row r="324" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I324">
         <f t="shared" si="96"/>
         <v>54</v>
@@ -8949,7 +8955,7 @@
         <v>"Y": -38</v>
       </c>
     </row>
-    <row r="325" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I325">
         <f t="shared" si="96"/>
         <v>54</v>
@@ -8969,17 +8975,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="326" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O326" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O327" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I328">
         <f>I322+1</f>
         <v>55</v>
@@ -8999,7 +9005,7 @@
         <v>"Id": 55,</v>
       </c>
     </row>
-    <row r="329" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I329">
         <f t="shared" ref="I329:I331" si="100">I323+1</f>
         <v>55</v>
@@ -9019,7 +9025,7 @@
         <v>"X": -46,</v>
       </c>
     </row>
-    <row r="330" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I330">
         <f t="shared" si="100"/>
         <v>55</v>
@@ -9039,7 +9045,7 @@
         <v>"Y": -43</v>
       </c>
     </row>
-    <row r="331" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I331">
         <f t="shared" si="100"/>
         <v>55</v>
@@ -9059,17 +9065,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="332" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O332" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I334">
         <f>I328+1</f>
         <v>56</v>
@@ -9089,7 +9095,7 @@
         <v>"Id": 56,</v>
       </c>
     </row>
-    <row r="335" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I335">
         <f t="shared" ref="I335:I337" si="104">I329+1</f>
         <v>56</v>
@@ -9109,7 +9115,7 @@
         <v>"X": -16,</v>
       </c>
     </row>
-    <row r="336" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I336">
         <f t="shared" si="104"/>
         <v>56</v>
@@ -9129,7 +9135,7 @@
         <v>"Y": -43</v>
       </c>
     </row>
-    <row r="337" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I337">
         <f t="shared" si="104"/>
         <v>56</v>
@@ -9149,17 +9155,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="338" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O338" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I340">
         <f>I334+1</f>
         <v>57</v>
@@ -9179,7 +9185,7 @@
         <v>"Id": 57,</v>
       </c>
     </row>
-    <row r="341" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I341">
         <f t="shared" ref="I341:I343" si="108">I335+1</f>
         <v>57</v>
@@ -9199,7 +9205,7 @@
         <v>"X": -18,</v>
       </c>
     </row>
-    <row r="342" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I342">
         <f t="shared" si="108"/>
         <v>57</v>
@@ -9219,7 +9225,7 @@
         <v>"Y": -37</v>
       </c>
     </row>
-    <row r="343" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I343">
         <f t="shared" si="108"/>
         <v>57</v>
@@ -9239,17 +9245,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="344" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O344" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I346">
         <f>I340+1</f>
         <v>58</v>
@@ -9269,7 +9275,7 @@
         <v>"Id": 58,</v>
       </c>
     </row>
-    <row r="347" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I347">
         <f t="shared" ref="I347:I349" si="112">I341+1</f>
         <v>58</v>
@@ -9289,7 +9295,7 @@
         <v>"X": -17,</v>
       </c>
     </row>
-    <row r="348" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I348">
         <f t="shared" si="112"/>
         <v>58</v>
@@ -9309,7 +9315,7 @@
         <v>"Y": -38</v>
       </c>
     </row>
-    <row r="349" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I349">
         <f t="shared" si="112"/>
         <v>58</v>
@@ -9329,17 +9335,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="350" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O350" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I352">
         <f>I346+1</f>
         <v>59</v>
@@ -9359,7 +9365,7 @@
         <v>"Id": 59,</v>
       </c>
     </row>
-    <row r="353" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I353">
         <f t="shared" ref="I353:I355" si="115">I347+1</f>
         <v>59</v>
@@ -9379,7 +9385,7 @@
         <v>"X": -46,</v>
       </c>
     </row>
-    <row r="354" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I354">
         <f t="shared" si="115"/>
         <v>59</v>
@@ -9399,7 +9405,7 @@
         <v>"Y": -38</v>
       </c>
     </row>
-    <row r="355" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I355">
         <f t="shared" si="115"/>
         <v>59</v>
@@ -9419,17 +9425,17 @@
         <v>"CanRaid": "true"</v>
       </c>
     </row>
-    <row r="356" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O356" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I358">
         <f>I352+1</f>
         <v>60</v>
@@ -9449,7 +9455,7 @@
         <v>"Id": 60,</v>
       </c>
     </row>
-    <row r="359" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I359">
         <f t="shared" ref="I359:I361" si="116">I353+1</f>
         <v>60</v>
@@ -9469,7 +9475,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="360" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I360">
         <f t="shared" si="116"/>
         <v>60</v>
@@ -9489,7 +9495,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="361" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I361">
         <f t="shared" si="116"/>
         <v>60</v>
@@ -9509,17 +9515,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="362" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O362" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I364">
         <f>I358+1</f>
         <v>61</v>
@@ -9539,7 +9545,7 @@
         <v>"Id": 61,</v>
       </c>
     </row>
-    <row r="365" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I365">
         <f t="shared" ref="I365:I367" si="117">I359+1</f>
         <v>61</v>
@@ -9559,7 +9565,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="366" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I366">
         <f t="shared" si="117"/>
         <v>61</v>
@@ -9579,7 +9585,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="367" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I367">
         <f t="shared" si="117"/>
         <v>61</v>
@@ -9599,17 +9605,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="368" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O368" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I370">
         <f>I364+1</f>
         <v>62</v>
@@ -9629,7 +9635,7 @@
         <v>"Id": 62,</v>
       </c>
     </row>
-    <row r="371" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I371">
         <f t="shared" ref="I371:I373" si="118">I365+1</f>
         <v>62</v>
@@ -9649,7 +9655,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="372" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I372">
         <f t="shared" si="118"/>
         <v>62</v>
@@ -9669,7 +9675,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="373" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I373">
         <f t="shared" si="118"/>
         <v>62</v>
@@ -9689,17 +9695,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="374" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O374" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I376">
         <f>I370+1</f>
         <v>63</v>
@@ -9719,7 +9725,7 @@
         <v>"Id": 63,</v>
       </c>
     </row>
-    <row r="377" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I377">
         <f t="shared" ref="I377:I379" si="119">I371+1</f>
         <v>63</v>
@@ -9739,7 +9745,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="378" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I378">
         <f t="shared" si="119"/>
         <v>63</v>
@@ -9759,7 +9765,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="379" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I379">
         <f t="shared" si="119"/>
         <v>63</v>
@@ -9779,17 +9785,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="380" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O380" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I382">
         <f>I376+1</f>
         <v>64</v>
@@ -9809,7 +9815,7 @@
         <v>"Id": 64,</v>
       </c>
     </row>
-    <row r="383" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I383">
         <f t="shared" ref="I383:I385" si="120">I377+1</f>
         <v>64</v>
@@ -9829,7 +9835,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="384" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I384">
         <f t="shared" si="120"/>
         <v>64</v>
@@ -9849,7 +9855,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="385" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I385">
         <f t="shared" si="120"/>
         <v>64</v>
@@ -9869,17 +9875,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="386" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O386" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I388">
         <f>I382+1</f>
         <v>65</v>
@@ -9899,7 +9905,7 @@
         <v>"Id": 65,</v>
       </c>
     </row>
-    <row r="389" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I389">
         <f t="shared" ref="I389:I391" si="121">I383+1</f>
         <v>65</v>
@@ -9919,7 +9925,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="390" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I390">
         <f t="shared" si="121"/>
         <v>65</v>
@@ -9939,7 +9945,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="391" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I391">
         <f t="shared" si="121"/>
         <v>65</v>
@@ -9959,17 +9965,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="392" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O392" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I394">
         <f>I388+1</f>
         <v>66</v>
@@ -9989,7 +9995,7 @@
         <v>"Id": 66,</v>
       </c>
     </row>
-    <row r="395" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I395">
         <f t="shared" ref="I395:I397" si="122">I389+1</f>
         <v>66</v>
@@ -10009,7 +10015,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="396" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I396">
         <f t="shared" si="122"/>
         <v>66</v>
@@ -10029,7 +10035,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="397" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I397">
         <f t="shared" si="122"/>
         <v>66</v>
@@ -10049,17 +10055,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="398" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O398" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O399" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I400">
         <f>I394+1</f>
         <v>67</v>
@@ -10079,7 +10085,7 @@
         <v>"Id": 67,</v>
       </c>
     </row>
-    <row r="401" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I401">
         <f t="shared" ref="I401:I403" si="123">I395+1</f>
         <v>67</v>
@@ -10099,7 +10105,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="402" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I402">
         <f t="shared" si="123"/>
         <v>67</v>
@@ -10119,7 +10125,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="403" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I403">
         <f t="shared" si="123"/>
         <v>67</v>
@@ -10139,17 +10145,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="404" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O404" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O405" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I406">
         <f>I400+1</f>
         <v>68</v>
@@ -10169,7 +10175,7 @@
         <v>"Id": 68,</v>
       </c>
     </row>
-    <row r="407" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I407">
         <f t="shared" ref="I407:I409" si="124">I401+1</f>
         <v>68</v>
@@ -10189,7 +10195,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="408" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I408">
         <f t="shared" si="124"/>
         <v>68</v>
@@ -10209,7 +10215,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="409" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I409">
         <f t="shared" si="124"/>
         <v>68</v>
@@ -10229,17 +10235,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="410" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O410" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O411" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I412">
         <f>I406+1</f>
         <v>69</v>
@@ -10259,7 +10265,7 @@
         <v>"Id": 69,</v>
       </c>
     </row>
-    <row r="413" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I413">
         <f t="shared" ref="I413:I415" si="125">I407+1</f>
         <v>69</v>
@@ -10279,7 +10285,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="414" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I414">
         <f t="shared" si="125"/>
         <v>69</v>
@@ -10299,7 +10305,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="415" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I415">
         <f t="shared" si="125"/>
         <v>69</v>
@@ -10319,17 +10325,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="416" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O416" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O417" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I418">
         <f>I412+1</f>
         <v>70</v>
@@ -10349,7 +10355,7 @@
         <v>"Id": 70,</v>
       </c>
     </row>
-    <row r="419" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I419">
         <f t="shared" ref="I419:I421" si="126">I413+1</f>
         <v>70</v>
@@ -10369,7 +10375,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="420" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I420">
         <f t="shared" si="126"/>
         <v>70</v>
@@ -10389,7 +10395,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="421" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I421">
         <f t="shared" si="126"/>
         <v>70</v>
@@ -10409,17 +10415,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="422" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O422" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O423" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I424">
         <f>I418+1</f>
         <v>71</v>
@@ -10439,7 +10445,7 @@
         <v>"Id": 71,</v>
       </c>
     </row>
-    <row r="425" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I425">
         <f t="shared" ref="I425:I427" si="127">I419+1</f>
         <v>71</v>
@@ -10459,7 +10465,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="426" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I426">
         <f t="shared" si="127"/>
         <v>71</v>
@@ -10479,7 +10485,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="427" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I427">
         <f t="shared" si="127"/>
         <v>71</v>
@@ -10499,17 +10505,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="428" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O428" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O429" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I430">
         <f>I424+1</f>
         <v>72</v>
@@ -10529,7 +10535,7 @@
         <v>"Id": 72,</v>
       </c>
     </row>
-    <row r="431" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I431">
         <f t="shared" ref="I431:I433" si="129">I425+1</f>
         <v>72</v>
@@ -10549,7 +10555,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="432" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I432">
         <f t="shared" si="129"/>
         <v>72</v>
@@ -10569,7 +10575,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="433" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I433">
         <f t="shared" si="129"/>
         <v>72</v>
@@ -10589,17 +10595,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="434" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O434" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O435" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I436">
         <f>I430+1</f>
         <v>73</v>
@@ -10619,7 +10625,7 @@
         <v>"Id": 73,</v>
       </c>
     </row>
-    <row r="437" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I437">
         <f t="shared" ref="I437:I439" si="133">I431+1</f>
         <v>73</v>
@@ -10639,7 +10645,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="438" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I438">
         <f t="shared" si="133"/>
         <v>73</v>
@@ -10659,7 +10665,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="439" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I439">
         <f t="shared" si="133"/>
         <v>73</v>
@@ -10679,17 +10685,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="440" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O440" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O441" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I442">
         <f>I436+1</f>
         <v>74</v>
@@ -10709,7 +10715,7 @@
         <v>"Id": 74,</v>
       </c>
     </row>
-    <row r="443" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I443">
         <f t="shared" ref="I443:I445" si="137">I437+1</f>
         <v>74</v>
@@ -10729,7 +10735,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="444" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I444">
         <f t="shared" si="137"/>
         <v>74</v>
@@ -10749,7 +10755,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="445" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I445">
         <f t="shared" si="137"/>
         <v>74</v>
@@ -10769,17 +10775,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="446" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O446" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O447" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I448">
         <f>I442+1</f>
         <v>75</v>
@@ -10799,7 +10805,7 @@
         <v>"Id": 75,</v>
       </c>
     </row>
-    <row r="449" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I449">
         <f t="shared" ref="I449:I451" si="141">I443+1</f>
         <v>75</v>
@@ -10819,7 +10825,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="450" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I450">
         <f t="shared" si="141"/>
         <v>75</v>
@@ -10839,7 +10845,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="451" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I451">
         <f t="shared" si="141"/>
         <v>75</v>
@@ -10859,17 +10865,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="452" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O452" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O453" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I454">
         <f>I448+1</f>
         <v>76</v>
@@ -10889,7 +10895,7 @@
         <v>"Id": 76,</v>
       </c>
     </row>
-    <row r="455" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I455">
         <f t="shared" ref="I455:I457" si="145">I449+1</f>
         <v>76</v>
@@ -10909,7 +10915,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="456" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I456">
         <f t="shared" si="145"/>
         <v>76</v>
@@ -10929,7 +10935,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="457" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I457">
         <f t="shared" si="145"/>
         <v>76</v>
@@ -10949,17 +10955,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="458" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O458" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O459" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I460">
         <f>I454+1</f>
         <v>77</v>
@@ -10979,7 +10985,7 @@
         <v>"Id": 77,</v>
       </c>
     </row>
-    <row r="461" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I461">
         <f t="shared" ref="I461:I463" si="149">I455+1</f>
         <v>77</v>
@@ -10999,7 +11005,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="462" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I462">
         <f t="shared" si="149"/>
         <v>77</v>
@@ -11019,7 +11025,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="463" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I463">
         <f t="shared" si="149"/>
         <v>77</v>
@@ -11039,17 +11045,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="464" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O464" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O465" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I466">
         <f>I460+1</f>
         <v>78</v>
@@ -11069,7 +11075,7 @@
         <v>"Id": 78,</v>
       </c>
     </row>
-    <row r="467" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I467">
         <f t="shared" ref="I467:I469" si="153">I461+1</f>
         <v>78</v>
@@ -11089,7 +11095,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="468" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I468">
         <f t="shared" si="153"/>
         <v>78</v>
@@ -11109,7 +11115,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="469" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I469">
         <f t="shared" si="153"/>
         <v>78</v>
@@ -11129,17 +11135,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="470" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O470" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O471" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I472">
         <f>I466+1</f>
         <v>79</v>
@@ -11159,7 +11165,7 @@
         <v>"Id": 79,</v>
       </c>
     </row>
-    <row r="473" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I473">
         <f t="shared" ref="I473:I475" si="157">I467+1</f>
         <v>79</v>
@@ -11179,7 +11185,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="474" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I474">
         <f t="shared" si="157"/>
         <v>79</v>
@@ -11199,7 +11205,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="475" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I475">
         <f t="shared" si="157"/>
         <v>79</v>
@@ -11219,17 +11225,17 @@
         <v>"CanRaid": "0"</v>
       </c>
     </row>
-    <row r="476" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O476" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="9:15" x14ac:dyDescent="0.3">
       <c r="O477" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I478">
         <f>I472+1</f>
         <v>80</v>
@@ -11249,7 +11255,7 @@
         <v>"Id": 80,</v>
       </c>
     </row>
-    <row r="479" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I479">
         <f t="shared" ref="I479:I481" si="161">I473+1</f>
         <v>80</v>
@@ -11269,7 +11275,7 @@
         <v>"X": 0,</v>
       </c>
     </row>
-    <row r="480" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I480">
         <f t="shared" si="161"/>
         <v>80</v>
@@ -11289,7 +11295,7 @@
         <v>"Y": 0</v>
       </c>
     </row>
-    <row r="481" spans="9:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I481">
         <f t="shared" si="161"/>
         <v>80</v>
@@ -11313,7 +11319,7 @@
   <sortState ref="C5:G63">
     <sortCondition ref="F5:F63"/>
   </sortState>
-  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24 E5:E63 G26:G63">
+  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24 G26:G63 E5:E63">
     <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(E5="false",TRUE,FALSE)</formula>
     </cfRule>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA5D317-0528-498D-8C55-CDE16CF2B531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF90A13-4EEB-4466-ABBA-457F1BAE0FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="177">
   <si>
     <t>Oases</t>
   </si>
@@ -1793,7 +1793,7 @@
   <dimension ref="C2:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -3368,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="T347" sqref="T347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -3477,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <f>ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
+        <f t="shared" ref="F5:F36" si="0">ROUND(SQRT((C5-$C$1)^2+(D5-$D$1)^2),2)</f>
         <v>1.41</v>
       </c>
       <c r="G5" s="2">
@@ -3508,7 +3508,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="str">
-        <f t="shared" ref="A6:A37" si="0">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
+        <f t="shared" ref="A6:A24" si="1">$A$1&amp;C6&amp;"&amp;y="&amp;D6</f>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-50</v>
       </c>
       <c r="B6" s="2">
@@ -3524,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <f>ROUND(SQRT((C6-$C$1)^2+(D6-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>1.41</v>
       </c>
       <c r="G6" s="2">
@@ -3554,7 +3554,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-54</v>
       </c>
       <c r="B7" s="2">
@@ -3570,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f>ROUND(SQRT((C7-$C$1)^2+(D7-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>3.16</v>
       </c>
       <c r="G7" s="2">
@@ -3600,7 +3600,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-54</v>
       </c>
       <c r="B8" s="2">
@@ -3616,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <f>ROUND(SQRT((C8-$C$1)^2+(D8-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>3.16</v>
       </c>
       <c r="G8" s="2">
@@ -3632,7 +3632,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-53</v>
       </c>
       <c r="B9" s="2">
@@ -3648,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <f>ROUND(SQRT((C9-$C$1)^2+(D9-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>4.47</v>
       </c>
       <c r="G9" s="2">
@@ -3665,7 +3665,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-31&amp;y=-46</v>
       </c>
       <c r="B10" s="2">
@@ -3681,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <f>ROUND(SQRT((C10-$C$1)^2+(D10-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="2">
@@ -3715,7 +3715,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-56</v>
       </c>
       <c r="B11" s="2">
@@ -3731,14 +3731,14 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <f>ROUND(SQRT((C11-$C$1)^2+(D11-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I13" si="1">I5+1</f>
+        <f t="shared" ref="I11:I13" si="2">I5+1</f>
         <v>2</v>
       </c>
       <c r="J11">
@@ -3762,7 +3762,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-46</v>
       </c>
       <c r="B12" s="2">
@@ -3778,7 +3778,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <f>ROUND(SQRT((C12-$C$1)^2+(D12-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.39</v>
       </c>
       <c r="G12" s="2">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J12">
@@ -3810,7 +3810,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-54</v>
       </c>
       <c r="B13" s="2">
@@ -3826,14 +3826,14 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <f>ROUND(SQRT((C13-$C$1)^2+(D13-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.83</v>
       </c>
       <c r="G13" s="2">
         <v>22</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J13">
@@ -3857,7 +3857,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-48</v>
       </c>
       <c r="B14" s="2">
@@ -3873,7 +3873,7 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <f>ROUND(SQRT((C14-$C$1)^2+(D14-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>5.83</v>
       </c>
       <c r="G14" s="2">
@@ -3889,7 +3889,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-50</v>
       </c>
       <c r="B15" s="2">
@@ -3905,7 +3905,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <f>ROUND(SQRT((C15-$C$1)^2+(D15-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>6.08</v>
       </c>
       <c r="G15" s="2">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-55</v>
       </c>
       <c r="B16" s="2">
@@ -3937,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <f>ROUND(SQRT((C16-$C$1)^2+(D16-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
       <c r="G16" s="2">
@@ -3969,7 +3969,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-45</v>
       </c>
       <c r="B17" s="2">
@@ -3985,14 +3985,14 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <f>ROUND(SQRT((C17-$C$1)^2+(D17-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>6.71</v>
       </c>
       <c r="G17" s="2">
         <v>21</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I19" si="2">I11+1</f>
+        <f t="shared" ref="I17:I19" si="3">I11+1</f>
         <v>3</v>
       </c>
       <c r="J17">
@@ -4016,7 +4016,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-32&amp;y=-58</v>
       </c>
       <c r="B18" s="2">
@@ -4032,7 +4032,7 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <f>ROUND(SQRT((C18-$C$1)^2+(D18-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>7.07</v>
       </c>
       <c r="G18" s="2">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J18">
@@ -4064,7 +4064,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-45</v>
       </c>
       <c r="B19" s="2">
@@ -4080,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <f>ROUND(SQRT((C19-$C$1)^2+(D19-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>7.21</v>
       </c>
       <c r="G19" s="2">
@@ -4090,7 +4090,7 @@
         <v>19</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J19">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-46</v>
       </c>
       <c r="B20" s="2">
@@ -4130,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <f>ROUND(SQRT((C20-$C$1)^2+(D20-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>7.81</v>
       </c>
       <c r="G20" s="2">
@@ -4146,7 +4146,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-55</v>
       </c>
       <c r="B21" s="2">
@@ -4162,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f>ROUND(SQRT((C21-$C$1)^2+(D21-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>8.06</v>
       </c>
       <c r="G21" s="2">
@@ -4178,7 +4178,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-26&amp;y=-58</v>
       </c>
       <c r="B22" s="2">
@@ -4194,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <f>ROUND(SQRT((C22-$C$1)^2+(D22-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="G22" s="2">
@@ -4228,7 +4228,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-43</v>
       </c>
       <c r="B23" s="2">
@@ -4244,14 +4244,14 @@
         <v>11</v>
       </c>
       <c r="F23">
-        <f>ROUND(SQRT((C23-$C$1)^2+(D23-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>8.94</v>
       </c>
       <c r="G23" s="2">
         <v>30</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:I25" si="3">I17+1</f>
+        <f t="shared" ref="I23:I25" si="4">I17+1</f>
         <v>4</v>
       </c>
       <c r="J23">
@@ -4275,7 +4275,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-51</v>
       </c>
       <c r="B24" s="2">
@@ -4291,7 +4291,7 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <f>ROUND(SQRT((C24-$C$1)^2+(D24-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G24" s="2">
@@ -4301,7 +4301,7 @@
         <v>17</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J24">
@@ -4325,7 +4325,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="str">
-        <f t="shared" ref="A25:A88" si="4">$A$1&amp;C25&amp;"&amp;y="&amp;D25</f>
+        <f t="shared" ref="A25:A88" si="5">$A$1&amp;C25&amp;"&amp;y="&amp;D25</f>
         <v>https://ts4.travian.com/position_details.php?x=-40&amp;y=-54</v>
       </c>
       <c r="B25" s="2">
@@ -4341,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <f>ROUND(SQRT((C25-$C$1)^2+(D25-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>9.49</v>
       </c>
       <c r="G25" s="2">
@@ -4351,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J25">
@@ -4375,7 +4375,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-28&amp;y=-42</v>
       </c>
       <c r="B26" s="2">
@@ -4391,7 +4391,7 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <f>ROUND(SQRT((C26-$C$1)^2+(D26-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>9.49</v>
       </c>
       <c r="G26" s="2">
@@ -4407,7 +4407,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-41&amp;y=-52</v>
       </c>
       <c r="B27" s="2">
@@ -4423,7 +4423,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <f>ROUND(SQRT((C27-$C$1)^2+(D27-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>10.050000000000001</v>
       </c>
       <c r="G27" s="2">
@@ -4439,7 +4439,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-52</v>
       </c>
       <c r="B28" s="2">
@@ -4455,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <f>ROUND(SQRT((C28-$C$1)^2+(D28-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>10.050000000000001</v>
       </c>
       <c r="G28" s="2">
@@ -4486,7 +4486,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-47</v>
       </c>
       <c r="B29" s="2">
@@ -4502,14 +4502,14 @@
         <v>11</v>
       </c>
       <c r="F29">
-        <f>ROUND(SQRT((C29-$C$1)^2+(D29-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>10.77</v>
       </c>
       <c r="G29" s="2">
         <v>10</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I31" si="5">I23+1</f>
+        <f t="shared" ref="I29:I31" si="6">I23+1</f>
         <v>5</v>
       </c>
       <c r="J29">
@@ -4533,7 +4533,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-54</v>
       </c>
       <c r="B30" s="2">
@@ -4549,14 +4549,14 @@
         <v>11</v>
       </c>
       <c r="F30">
-        <f>ROUND(SQRT((C30-$C$1)^2+(D30-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
       <c r="G30" s="2">
         <v>7</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J30">
@@ -4580,7 +4580,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-22&amp;y=-58</v>
       </c>
       <c r="B31" s="2">
@@ -4596,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <f>ROUND(SQRT((C31-$C$1)^2+(D31-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
       <c r="G31" s="2">
@@ -4606,7 +4606,7 @@
         <v>176</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="J31">
@@ -4630,7 +4630,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-31&amp;y=-63</v>
       </c>
       <c r="B32" s="2">
@@ -4646,7 +4646,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <f>ROUND(SQRT((C32-$C$1)^2+(D32-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G32" s="2">
@@ -4662,7 +4662,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-42&amp;y=-56</v>
       </c>
       <c r="B33" s="2">
@@ -4678,7 +4678,7 @@
         <v>12</v>
       </c>
       <c r="F33">
-        <f>ROUND(SQRT((C33-$C$1)^2+(D33-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>12.08</v>
       </c>
       <c r="G33" s="2">
@@ -4697,7 +4697,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-53</v>
       </c>
       <c r="B34" s="2">
@@ -4713,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <f>ROUND(SQRT((C34-$C$1)^2+(D34-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>12.17</v>
       </c>
       <c r="G34" s="2">
@@ -4747,7 +4747,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-55</v>
       </c>
       <c r="B35" s="2">
@@ -4763,7 +4763,7 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <f>ROUND(SQRT((C35-$C$1)^2+(D35-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>12.65</v>
       </c>
       <c r="G35" s="2">
@@ -4773,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="I35">
-        <f t="shared" ref="I35:I37" si="6">I29+1</f>
+        <f t="shared" ref="I35:I37" si="7">I29+1</f>
         <v>6</v>
       </c>
       <c r="J35">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-35&amp;y=-39</v>
       </c>
       <c r="B36" s="2">
@@ -4813,14 +4813,14 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <f>ROUND(SQRT((C36-$C$1)^2+(D36-$D$1)^2),2)</f>
+        <f t="shared" si="0"/>
         <v>12.65</v>
       </c>
       <c r="G36" s="2">
         <v>127</v>
       </c>
       <c r="I36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J36">
@@ -4844,7 +4844,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-27&amp;y=-39</v>
       </c>
       <c r="B37" s="2">
@@ -4860,14 +4860,14 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <f>ROUND(SQRT((C37-$C$1)^2+(D37-$D$1)^2),2)</f>
+        <f t="shared" ref="F37:F53" si="8">ROUND(SQRT((C37-$C$1)^2+(D37-$D$1)^2),2)</f>
         <v>12.65</v>
       </c>
       <c r="G37" s="2">
         <v>63</v>
       </c>
       <c r="I37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J37">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-39&amp;y=-41</v>
       </c>
       <c r="B38" s="2">
@@ -4903,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="F38">
-        <f>ROUND(SQRT((C38-$C$1)^2+(D38-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>12.81</v>
       </c>
       <c r="G38" s="2">
@@ -4915,7 +4915,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-51</v>
       </c>
       <c r="B39" s="2">
@@ -4931,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <f>ROUND(SQRT((C39-$C$1)^2+(D39-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G39" s="2">
@@ -4943,7 +4943,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-46</v>
       </c>
       <c r="B40" s="2">
@@ -4959,7 +4959,7 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <f>ROUND(SQRT((C40-$C$1)^2+(D40-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="G40" s="2">
@@ -4986,7 +4986,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-38&amp;y=-40</v>
       </c>
       <c r="B41" s="2">
@@ -5002,14 +5002,14 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <f>ROUND(SQRT((C41-$C$1)^2+(D41-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.04</v>
       </c>
       <c r="G41" s="2">
         <v>15</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I43" si="7">I35+1</f>
+        <f t="shared" ref="I41:I43" si="9">I35+1</f>
         <v>7</v>
       </c>
       <c r="J41">
@@ -5029,7 +5029,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-44&amp;y=-48</v>
       </c>
       <c r="B42" s="2">
@@ -5045,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <f>ROUND(SQRT((C42-$C$1)^2+(D42-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.34</v>
       </c>
       <c r="G42" s="2">
@@ -5055,7 +5055,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J42">
@@ -5075,7 +5075,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-37&amp;y=-39</v>
       </c>
       <c r="B43" s="2">
@@ -5091,14 +5091,14 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <f>ROUND(SQRT((C43-$C$1)^2+(D43-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.42</v>
       </c>
       <c r="G43" s="2">
         <v>8</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J43">
@@ -5118,7 +5118,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
       </c>
       <c r="B44" s="2">
@@ -5134,7 +5134,7 @@
         <v>11</v>
       </c>
       <c r="F44">
-        <f>ROUND(SQRT((C44-$C$1)^2+(D44-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.89</v>
       </c>
       <c r="G44" s="2">
@@ -5146,7 +5146,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-24&amp;y=-39</v>
       </c>
       <c r="B45" s="2">
@@ -5162,7 +5162,7 @@
         <v>11</v>
       </c>
       <c r="F45">
-        <f>ROUND(SQRT((C45-$C$1)^2+(D45-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.89</v>
       </c>
       <c r="G45" s="2">
@@ -5174,7 +5174,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-43&amp;y=-44</v>
       </c>
       <c r="B46" s="2">
@@ -5190,7 +5190,7 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <f>ROUND(SQRT((C46-$C$1)^2+(D46-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>13.89</v>
       </c>
       <c r="G46" s="2">
@@ -5217,7 +5217,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-53</v>
       </c>
       <c r="B47" s="2">
@@ -5233,14 +5233,14 @@
         <v>11</v>
       </c>
       <c r="F47">
-        <f>ROUND(SQRT((C47-$C$1)^2+(D47-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>14.14</v>
       </c>
       <c r="G47" s="2">
         <v>10</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I49" si="8">I41+1</f>
+        <f t="shared" ref="I47:I49" si="10">I41+1</f>
         <v>8</v>
       </c>
       <c r="J47">
@@ -5260,7 +5260,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-49</v>
       </c>
       <c r="B48" s="2">
@@ -5276,14 +5276,14 @@
         <v>11</v>
       </c>
       <c r="F48">
-        <f>ROUND(SQRT((C48-$C$1)^2+(D48-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>14.14</v>
       </c>
       <c r="G48" s="2">
         <v>34</v>
       </c>
       <c r="I48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J48">
@@ -5303,7 +5303,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-33&amp;y=-37</v>
       </c>
       <c r="B49" s="2">
@@ -5319,14 +5319,14 @@
         <v>12</v>
       </c>
       <c r="F49">
-        <f>ROUND(SQRT((C49-$C$1)^2+(D49-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>14.14</v>
       </c>
       <c r="G49" s="2">
         <v>14</v>
       </c>
       <c r="I49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="J49">
@@ -5346,7 +5346,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-40</v>
       </c>
       <c r="B50" s="2">
@@ -5362,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <f>ROUND(SQRT((C50-$C$1)^2+(D50-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>14.87</v>
       </c>
       <c r="G50" s="2">
@@ -5377,7 +5377,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-45&amp;y=-57</v>
       </c>
       <c r="B51" s="2">
@@ -5393,7 +5393,7 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <f>ROUND(SQRT((C51-$C$1)^2+(D51-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>15.23</v>
       </c>
       <c r="G51" s="2">
@@ -5405,7 +5405,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-25&amp;y=-37</v>
       </c>
       <c r="B52" s="2">
@@ -5421,7 +5421,7 @@
         <v>11</v>
       </c>
       <c r="F52">
-        <f>ROUND(SQRT((C52-$C$1)^2+(D52-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>15.23</v>
       </c>
       <c r="G52" s="2">
@@ -5448,7 +5448,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-23&amp;y=-38</v>
       </c>
       <c r="B53" s="2">
@@ -5464,14 +5464,14 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <f>ROUND(SQRT((C53-$C$1)^2+(D53-$D$1)^2),2)</f>
+        <f t="shared" si="8"/>
         <v>15.26</v>
       </c>
       <c r="G53" s="2">
         <v>82</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53:I55" si="9">I47+1</f>
+        <f t="shared" ref="I53:I55" si="11">I47+1</f>
         <v>9</v>
       </c>
       <c r="J53">
@@ -5491,7 +5491,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
       </c>
       <c r="B54" s="2">
@@ -5507,14 +5507,14 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <f>ROUND(SQRT((C54-$C$1)^2+(D54-$D$1)^2),2)</f>
+        <f t="shared" ref="F54:F62" si="12">ROUND(SQRT((C54-$C$1)^2+(D54-$D$1)^2),2)</f>
         <v>15.65</v>
       </c>
       <c r="G54" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="J54">
@@ -5534,30 +5534,30 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-44</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-46</v>
       </c>
       <c r="B55" s="2">
         <v>51</v>
       </c>
       <c r="C55" s="2">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="D55" s="2">
-        <v>-44</v>
+        <v>-46</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F55">
-        <f>ROUND(SQRT((C55-$C$1)^2+(D55-$D$1)^2),2)</f>
-        <v>15.65</v>
+        <f t="shared" si="12"/>
+        <v>15.81</v>
       </c>
       <c r="G55" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="J55">
@@ -5577,27 +5577,27 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-46</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-45</v>
       </c>
       <c r="B56" s="2">
         <v>52</v>
       </c>
       <c r="C56" s="2">
-        <v>-16</v>
+        <v>-46</v>
       </c>
       <c r="D56" s="2">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <f>ROUND(SQRT((C56-$C$1)^2+(D56-$D$1)^2),2)</f>
-        <v>15.81</v>
+        <f t="shared" si="12"/>
+        <v>16.16</v>
       </c>
       <c r="G56" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O56" t="s">
         <v>5</v>
@@ -5605,27 +5605,27 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-45</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-38</v>
       </c>
       <c r="B57" s="2">
         <v>53</v>
       </c>
       <c r="C57" s="2">
-        <v>-46</v>
+        <v>-21</v>
       </c>
       <c r="D57" s="2">
-        <v>-45</v>
+        <v>-38</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <f>ROUND(SQRT((C57-$C$1)^2+(D57-$D$1)^2),2)</f>
-        <v>16.16</v>
+        <f t="shared" si="12"/>
+        <v>16.399999999999999</v>
       </c>
       <c r="G57" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="O57" t="s">
         <v>1</v>
@@ -5633,27 +5633,27 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-21&amp;y=-38</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-43</v>
       </c>
       <c r="B58" s="2">
         <v>54</v>
       </c>
       <c r="C58" s="2">
-        <v>-21</v>
+        <v>-46</v>
       </c>
       <c r="D58" s="2">
-        <v>-38</v>
+        <v>-43</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <f>ROUND(SQRT((C58-$C$1)^2+(D58-$D$1)^2),2)</f>
-        <v>16.399999999999999</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="G58" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I58">
         <f>I52+1</f>
@@ -5676,14 +5676,14 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-43</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-43</v>
       </c>
       <c r="B59" s="2">
         <v>55</v>
       </c>
       <c r="C59" s="2">
-        <v>-46</v>
+        <v>-16</v>
       </c>
       <c r="D59" s="2">
         <v>-43</v>
@@ -5692,14 +5692,14 @@
         <v>11</v>
       </c>
       <c r="F59">
-        <f>ROUND(SQRT((C59-$C$1)^2+(D59-$D$1)^2),2)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="G59" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I59">
-        <f t="shared" ref="I59:I61" si="10">I53+1</f>
+        <f t="shared" ref="I59:I61" si="13">I53+1</f>
         <v>10</v>
       </c>
       <c r="J59">
@@ -5719,30 +5719,30 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-16&amp;y=-43</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-18&amp;y=-37</v>
       </c>
       <c r="B60" s="2">
         <v>56</v>
       </c>
       <c r="C60" s="2">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="D60" s="2">
-        <v>-43</v>
+        <v>-37</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60">
-        <f>ROUND(SQRT((C60-$C$1)^2+(D60-$D$1)^2),2)</f>
-        <v>17</v>
+        <f t="shared" si="12"/>
+        <v>19.100000000000001</v>
       </c>
       <c r="G60" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="J60">
@@ -5762,30 +5762,30 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-18&amp;y=-37</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-38</v>
       </c>
       <c r="B61" s="2">
         <v>57</v>
       </c>
       <c r="C61" s="2">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="D61" s="2">
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F61">
-        <f>ROUND(SQRT((C61-$C$1)^2+(D61-$D$1)^2),2)</f>
+        <f t="shared" si="12"/>
         <v>19.100000000000001</v>
       </c>
       <c r="G61" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="J61">
@@ -5805,27 +5805,30 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-17&amp;y=-38</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-38</v>
       </c>
       <c r="B62" s="2">
         <v>58</v>
       </c>
       <c r="C62" s="2">
-        <v>-17</v>
+        <v>-46</v>
       </c>
       <c r="D62" s="2">
         <v>-38</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <f>ROUND(SQRT((C62-$C$1)^2+(D62-$D$1)^2),2)</f>
-        <v>19.100000000000001</v>
+        <f t="shared" si="12"/>
+        <v>19.850000000000001</v>
       </c>
       <c r="G62" s="2">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
       </c>
       <c r="O62" t="s">
         <v>5</v>
@@ -5833,38 +5836,23 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="str">
-        <f t="shared" si="4"/>
-        <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-38</v>
+        <f t="shared" si="5"/>
+        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B63" s="2">
         <v>59</v>
       </c>
-      <c r="C63" s="2">
-        <v>-46</v>
-      </c>
-      <c r="D63" s="2">
-        <v>-38</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <f>ROUND(SQRT((C63-$C$1)^2+(D63-$D$1)^2),2)</f>
-        <v>19.850000000000001</v>
-      </c>
-      <c r="G63" s="2">
-        <v>129</v>
-      </c>
-      <c r="H63" t="s">
-        <v>15</v>
-      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="O63" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B64" s="2">
@@ -5891,14 +5879,14 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B65" s="2">
         <v>61</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65:I67" si="11">I59+1</f>
+        <f t="shared" ref="I65:I67" si="14">I59+1</f>
         <v>11</v>
       </c>
       <c r="J65">
@@ -5918,14 +5906,14 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B66" s="2">
         <v>62</v>
       </c>
       <c r="I66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="J66">
@@ -5945,14 +5933,14 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B67" s="2">
         <v>63</v>
       </c>
       <c r="I67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="J67">
@@ -5972,7 +5960,7 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B68" s="2">
@@ -5984,7 +5972,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B69" s="2">
@@ -5996,7 +5984,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B70" s="2">
@@ -6023,14 +6011,14 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B71" s="2">
         <v>67</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I73" si="12">I65+1</f>
+        <f t="shared" ref="I71:I73" si="15">I65+1</f>
         <v>12</v>
       </c>
       <c r="J71">
@@ -6050,14 +6038,14 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B72" s="2">
         <v>68</v>
       </c>
       <c r="I72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="J72">
@@ -6077,14 +6065,14 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B73" s="2">
         <v>69</v>
       </c>
       <c r="I73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="J73">
@@ -6104,7 +6092,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B74" s="2">
@@ -6116,7 +6104,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B75" s="2">
@@ -6128,7 +6116,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B76" s="2">
@@ -6155,14 +6143,14 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B77" s="2">
         <v>73</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77:I79" si="13">I71+1</f>
+        <f t="shared" ref="I77:I79" si="16">I71+1</f>
         <v>13</v>
       </c>
       <c r="J77">
@@ -6182,14 +6170,14 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B78" s="2">
         <v>74</v>
       </c>
       <c r="I78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="J78">
@@ -6209,14 +6197,14 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B79" s="2">
         <v>75</v>
       </c>
       <c r="I79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="J79">
@@ -6236,7 +6224,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B80" s="2">
@@ -6248,7 +6236,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B81" s="2">
@@ -6260,7 +6248,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B82" s="2">
@@ -6287,14 +6275,14 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B83" s="2">
         <v>79</v>
       </c>
       <c r="I83">
-        <f t="shared" ref="I83:I85" si="14">I77+1</f>
+        <f t="shared" ref="I83:I85" si="17">I77+1</f>
         <v>14</v>
       </c>
       <c r="J83">
@@ -6314,14 +6302,14 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B84" s="2">
         <v>80</v>
       </c>
       <c r="I84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="J84">
@@ -6341,14 +6329,14 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B85" s="2">
         <v>81</v>
       </c>
       <c r="I85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="J85">
@@ -6368,7 +6356,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B86" s="2">
@@ -6380,7 +6368,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B87" s="2">
@@ -6392,7 +6380,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B88" s="2">
@@ -6419,14 +6407,14 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="str">
-        <f t="shared" ref="A89:A94" si="15">$A$1&amp;C89&amp;"&amp;y="&amp;D89</f>
+        <f t="shared" ref="A89:A94" si="18">$A$1&amp;C89&amp;"&amp;y="&amp;D89</f>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B89" s="2">
         <v>85</v>
       </c>
       <c r="I89">
-        <f t="shared" ref="I89:I91" si="16">I83+1</f>
+        <f t="shared" ref="I89:I91" si="19">I83+1</f>
         <v>15</v>
       </c>
       <c r="J89">
@@ -6446,14 +6434,14 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B90" s="2">
         <v>86</v>
       </c>
       <c r="I90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="J90">
@@ -6473,14 +6461,14 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B91" s="2">
         <v>87</v>
       </c>
       <c r="I91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="J91">
@@ -6500,7 +6488,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B92" s="2">
@@ -6512,7 +6500,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B93" s="2">
@@ -6524,7 +6512,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
       </c>
       <c r="B94" s="2">
@@ -6552,7 +6540,7 @@
     <row r="95" spans="1:15">
       <c r="B95" s="2"/>
       <c r="I95">
-        <f t="shared" ref="I95:I97" si="17">I89+1</f>
+        <f t="shared" ref="I95:I97" si="20">I89+1</f>
         <v>16</v>
       </c>
       <c r="J95">
@@ -6572,7 +6560,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="I96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="J96">
@@ -6592,7 +6580,7 @@
     </row>
     <row r="97" spans="9:15">
       <c r="I97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="J97">
@@ -6642,7 +6630,7 @@
     </row>
     <row r="101" spans="9:15">
       <c r="I101">
-        <f t="shared" ref="I101:I103" si="18">I95+1</f>
+        <f t="shared" ref="I101:I103" si="21">I95+1</f>
         <v>17</v>
       </c>
       <c r="J101">
@@ -6662,7 +6650,7 @@
     </row>
     <row r="102" spans="9:15">
       <c r="I102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="J102">
@@ -6682,7 +6670,7 @@
     </row>
     <row r="103" spans="9:15">
       <c r="I103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="J103">
@@ -6732,7 +6720,7 @@
     </row>
     <row r="107" spans="9:15">
       <c r="I107">
-        <f t="shared" ref="I107:I109" si="19">I101+1</f>
+        <f t="shared" ref="I107:I109" si="22">I101+1</f>
         <v>18</v>
       </c>
       <c r="J107">
@@ -6752,7 +6740,7 @@
     </row>
     <row r="108" spans="9:15">
       <c r="I108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J108">
@@ -6772,7 +6760,7 @@
     </row>
     <row r="109" spans="9:15">
       <c r="I109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J109">
@@ -6822,7 +6810,7 @@
     </row>
     <row r="113" spans="9:15">
       <c r="I113">
-        <f t="shared" ref="I113:I115" si="20">I107+1</f>
+        <f t="shared" ref="I113:I115" si="23">I107+1</f>
         <v>19</v>
       </c>
       <c r="J113">
@@ -6842,7 +6830,7 @@
     </row>
     <row r="114" spans="9:15">
       <c r="I114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="J114">
@@ -6862,7 +6850,7 @@
     </row>
     <row r="115" spans="9:15">
       <c r="I115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="J115">
@@ -6912,7 +6900,7 @@
     </row>
     <row r="119" spans="9:15">
       <c r="I119">
-        <f t="shared" ref="I119:I121" si="21">I113+1</f>
+        <f t="shared" ref="I119:I121" si="24">I113+1</f>
         <v>20</v>
       </c>
       <c r="J119">
@@ -6932,7 +6920,7 @@
     </row>
     <row r="120" spans="9:15">
       <c r="I120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J120">
@@ -6952,7 +6940,7 @@
     </row>
     <row r="121" spans="9:15">
       <c r="I121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J121">
@@ -7002,7 +6990,7 @@
     </row>
     <row r="125" spans="9:15">
       <c r="I125">
-        <f t="shared" ref="I125:I127" si="22">I119+1</f>
+        <f t="shared" ref="I125:I127" si="25">I119+1</f>
         <v>21</v>
       </c>
       <c r="J125">
@@ -7022,7 +7010,7 @@
     </row>
     <row r="126" spans="9:15">
       <c r="I126">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="J126">
@@ -7042,7 +7030,7 @@
     </row>
     <row r="127" spans="9:15">
       <c r="I127">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="J127">
@@ -7092,7 +7080,7 @@
     </row>
     <row r="131" spans="9:15">
       <c r="I131">
-        <f t="shared" ref="I131:I133" si="23">I125+1</f>
+        <f t="shared" ref="I131:I133" si="26">I125+1</f>
         <v>22</v>
       </c>
       <c r="J131">
@@ -7112,7 +7100,7 @@
     </row>
     <row r="132" spans="9:15">
       <c r="I132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J132">
@@ -7132,7 +7120,7 @@
     </row>
     <row r="133" spans="9:15">
       <c r="I133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J133">
@@ -7182,7 +7170,7 @@
     </row>
     <row r="137" spans="9:15">
       <c r="I137">
-        <f t="shared" ref="I137:I139" si="24">I131+1</f>
+        <f t="shared" ref="I137:I139" si="27">I131+1</f>
         <v>23</v>
       </c>
       <c r="J137">
@@ -7202,7 +7190,7 @@
     </row>
     <row r="138" spans="9:15">
       <c r="I138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J138">
@@ -7222,7 +7210,7 @@
     </row>
     <row r="139" spans="9:15">
       <c r="I139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J139">
@@ -7272,7 +7260,7 @@
     </row>
     <row r="143" spans="9:15">
       <c r="I143">
-        <f t="shared" ref="I143:I145" si="25">I137+1</f>
+        <f t="shared" ref="I143:I145" si="28">I137+1</f>
         <v>24</v>
       </c>
       <c r="J143">
@@ -7292,7 +7280,7 @@
     </row>
     <row r="144" spans="9:15">
       <c r="I144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="J144">
@@ -7312,7 +7300,7 @@
     </row>
     <row r="145" spans="9:15">
       <c r="I145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="J145">
@@ -7362,7 +7350,7 @@
     </row>
     <row r="149" spans="9:15">
       <c r="I149">
-        <f t="shared" ref="I149:I151" si="26">I143+1</f>
+        <f t="shared" ref="I149:I151" si="29">I143+1</f>
         <v>25</v>
       </c>
       <c r="J149">
@@ -7382,7 +7370,7 @@
     </row>
     <row r="150" spans="9:15">
       <c r="I150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J150">
@@ -7402,7 +7390,7 @@
     </row>
     <row r="151" spans="9:15">
       <c r="I151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="J151">
@@ -7452,7 +7440,7 @@
     </row>
     <row r="155" spans="9:15">
       <c r="I155">
-        <f t="shared" ref="I155:I157" si="27">I149+1</f>
+        <f t="shared" ref="I155:I157" si="30">I149+1</f>
         <v>26</v>
       </c>
       <c r="J155">
@@ -7472,7 +7460,7 @@
     </row>
     <row r="156" spans="9:15">
       <c r="I156">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>26</v>
       </c>
       <c r="J156">
@@ -7492,7 +7480,7 @@
     </row>
     <row r="157" spans="9:15">
       <c r="I157">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>26</v>
       </c>
       <c r="J157">
@@ -7542,7 +7530,7 @@
     </row>
     <row r="161" spans="9:15">
       <c r="I161">
-        <f t="shared" ref="I161:I163" si="28">I155+1</f>
+        <f t="shared" ref="I161:I163" si="31">I155+1</f>
         <v>27</v>
       </c>
       <c r="J161">
@@ -7562,7 +7550,7 @@
     </row>
     <row r="162" spans="9:15">
       <c r="I162">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>27</v>
       </c>
       <c r="J162">
@@ -7582,7 +7570,7 @@
     </row>
     <row r="163" spans="9:15">
       <c r="I163">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>27</v>
       </c>
       <c r="J163">
@@ -7626,13 +7614,13 @@
         <v>28</v>
       </c>
       <c r="O166" t="str">
-        <f t="shared" ref="O166:O167" si="29">CHAR(34)&amp;K166&amp;CHAR(34)&amp;": "&amp;L166&amp;","</f>
+        <f t="shared" ref="O166:O167" si="32">CHAR(34)&amp;K166&amp;CHAR(34)&amp;": "&amp;L166&amp;","</f>
         <v>"Id": 28,</v>
       </c>
     </row>
     <row r="167" spans="9:15">
       <c r="I167">
-        <f t="shared" ref="I167:I169" si="30">I161+1</f>
+        <f t="shared" ref="I167:I169" si="33">I161+1</f>
         <v>28</v>
       </c>
       <c r="J167">
@@ -7646,13 +7634,13 @@
         <v>-31</v>
       </c>
       <c r="O167" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>"X": -31,</v>
       </c>
     </row>
     <row r="168" spans="9:15">
       <c r="I168">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="J168">
@@ -7666,13 +7654,13 @@
         <v>-63</v>
       </c>
       <c r="O168" t="str">
-        <f t="shared" ref="O168" si="31">CHAR(34)&amp;K168&amp;CHAR(34)&amp;": "&amp;L168</f>
+        <f t="shared" ref="O168" si="34">CHAR(34)&amp;K168&amp;CHAR(34)&amp;": "&amp;L168</f>
         <v>"Y": -63</v>
       </c>
     </row>
     <row r="169" spans="9:15">
       <c r="I169">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>28</v>
       </c>
       <c r="J169">
@@ -7686,7 +7674,7 @@
         <v>true</v>
       </c>
       <c r="O169" t="str">
-        <f t="shared" ref="O169" si="32">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
+        <f t="shared" ref="O169" si="35">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -7716,13 +7704,13 @@
         <v>29</v>
       </c>
       <c r="O172" t="str">
-        <f t="shared" ref="O172:O173" si="33">CHAR(34)&amp;K172&amp;CHAR(34)&amp;": "&amp;L172&amp;","</f>
+        <f t="shared" ref="O172:O173" si="36">CHAR(34)&amp;K172&amp;CHAR(34)&amp;": "&amp;L172&amp;","</f>
         <v>"Id": 29,</v>
       </c>
     </row>
     <row r="173" spans="9:15">
       <c r="I173">
-        <f t="shared" ref="I173:I175" si="34">I167+1</f>
+        <f t="shared" ref="I173:I175" si="37">I167+1</f>
         <v>29</v>
       </c>
       <c r="J173">
@@ -7736,13 +7724,13 @@
         <v>-42</v>
       </c>
       <c r="O173" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>"X": -42,</v>
       </c>
     </row>
     <row r="174" spans="9:15">
       <c r="I174">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>29</v>
       </c>
       <c r="J174">
@@ -7756,13 +7744,13 @@
         <v>-56</v>
       </c>
       <c r="O174" t="str">
-        <f t="shared" ref="O174" si="35">CHAR(34)&amp;K174&amp;CHAR(34)&amp;": "&amp;L174</f>
+        <f t="shared" ref="O174" si="38">CHAR(34)&amp;K174&amp;CHAR(34)&amp;": "&amp;L174</f>
         <v>"Y": -56</v>
       </c>
     </row>
     <row r="175" spans="9:15">
       <c r="I175">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>29</v>
       </c>
       <c r="J175">
@@ -7776,7 +7764,7 @@
         <v>false</v>
       </c>
       <c r="O175" t="str">
-        <f t="shared" ref="O175" si="36">CHAR(34)&amp;K175&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L175&amp;CHAR(34)</f>
+        <f t="shared" ref="O175" si="39">CHAR(34)&amp;K175&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L175&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
@@ -7806,13 +7794,13 @@
         <v>30</v>
       </c>
       <c r="O178" t="str">
-        <f t="shared" ref="O178:O179" si="37">CHAR(34)&amp;K178&amp;CHAR(34)&amp;": "&amp;L178&amp;","</f>
+        <f t="shared" ref="O178:O179" si="40">CHAR(34)&amp;K178&amp;CHAR(34)&amp;": "&amp;L178&amp;","</f>
         <v>"Id": 30,</v>
       </c>
     </row>
     <row r="179" spans="9:15">
       <c r="I179">
-        <f t="shared" ref="I179:I181" si="38">I173+1</f>
+        <f t="shared" ref="I179:I181" si="41">I173+1</f>
         <v>30</v>
       </c>
       <c r="J179">
@@ -7826,13 +7814,13 @@
         <v>-43</v>
       </c>
       <c r="O179" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>"X": -43,</v>
       </c>
     </row>
     <row r="180" spans="9:15">
       <c r="I180">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="J180">
@@ -7846,13 +7834,13 @@
         <v>-53</v>
       </c>
       <c r="O180" t="str">
-        <f t="shared" ref="O180" si="39">CHAR(34)&amp;K180&amp;CHAR(34)&amp;": "&amp;L180</f>
+        <f t="shared" ref="O180" si="42">CHAR(34)&amp;K180&amp;CHAR(34)&amp;": "&amp;L180</f>
         <v>"Y": -53</v>
       </c>
     </row>
     <row r="181" spans="9:15">
       <c r="I181">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>30</v>
       </c>
       <c r="J181">
@@ -7866,7 +7854,7 @@
         <v>false</v>
       </c>
       <c r="O181" t="str">
-        <f t="shared" ref="O181" si="40">CHAR(34)&amp;K181&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L181&amp;CHAR(34)</f>
+        <f t="shared" ref="O181" si="43">CHAR(34)&amp;K181&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L181&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
@@ -7896,13 +7884,13 @@
         <v>31</v>
       </c>
       <c r="O184" t="str">
-        <f t="shared" ref="O184:O185" si="41">CHAR(34)&amp;K184&amp;CHAR(34)&amp;": "&amp;L184&amp;","</f>
+        <f t="shared" ref="O184:O185" si="44">CHAR(34)&amp;K184&amp;CHAR(34)&amp;": "&amp;L184&amp;","</f>
         <v>"Id": 31,</v>
       </c>
     </row>
     <row r="185" spans="9:15">
       <c r="I185">
-        <f t="shared" ref="I185:I187" si="42">I179+1</f>
+        <f t="shared" ref="I185:I187" si="45">I179+1</f>
         <v>31</v>
       </c>
       <c r="J185">
@@ -7916,13 +7904,13 @@
         <v>-43</v>
       </c>
       <c r="O185" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>"X": -43,</v>
       </c>
     </row>
     <row r="186" spans="9:15">
       <c r="I186">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>31</v>
       </c>
       <c r="J186">
@@ -7936,13 +7924,13 @@
         <v>-55</v>
       </c>
       <c r="O186" t="str">
-        <f t="shared" ref="O186" si="43">CHAR(34)&amp;K186&amp;CHAR(34)&amp;": "&amp;L186</f>
+        <f t="shared" ref="O186" si="46">CHAR(34)&amp;K186&amp;CHAR(34)&amp;": "&amp;L186</f>
         <v>"Y": -55</v>
       </c>
     </row>
     <row r="187" spans="9:15">
       <c r="I187">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>31</v>
       </c>
       <c r="J187">
@@ -7956,7 +7944,7 @@
         <v>false</v>
       </c>
       <c r="O187" t="str">
-        <f t="shared" ref="O187" si="44">CHAR(34)&amp;K187&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L187&amp;CHAR(34)</f>
+        <f t="shared" ref="O187" si="47">CHAR(34)&amp;K187&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L187&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
@@ -7986,13 +7974,13 @@
         <v>32</v>
       </c>
       <c r="O190" t="str">
-        <f t="shared" ref="O190:O191" si="45">CHAR(34)&amp;K190&amp;CHAR(34)&amp;": "&amp;L190&amp;","</f>
+        <f t="shared" ref="O190:O191" si="48">CHAR(34)&amp;K190&amp;CHAR(34)&amp;": "&amp;L190&amp;","</f>
         <v>"Id": 32,</v>
       </c>
     </row>
     <row r="191" spans="9:15">
       <c r="I191">
-        <f t="shared" ref="I191:I193" si="46">I185+1</f>
+        <f t="shared" ref="I191:I193" si="49">I185+1</f>
         <v>32</v>
       </c>
       <c r="J191">
@@ -8006,13 +7994,13 @@
         <v>-35</v>
       </c>
       <c r="O191" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>"X": -35,</v>
       </c>
     </row>
     <row r="192" spans="9:15">
       <c r="I192">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>32</v>
       </c>
       <c r="J192">
@@ -8026,13 +8014,13 @@
         <v>-39</v>
       </c>
       <c r="O192" t="str">
-        <f t="shared" ref="O192" si="47">CHAR(34)&amp;K192&amp;CHAR(34)&amp;": "&amp;L192</f>
+        <f t="shared" ref="O192" si="50">CHAR(34)&amp;K192&amp;CHAR(34)&amp;": "&amp;L192</f>
         <v>"Y": -39</v>
       </c>
     </row>
     <row r="193" spans="9:15">
       <c r="I193">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>32</v>
       </c>
       <c r="J193">
@@ -8046,7 +8034,7 @@
         <v>false</v>
       </c>
       <c r="O193" t="str">
-        <f t="shared" ref="O193" si="48">CHAR(34)&amp;K193&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L193&amp;CHAR(34)</f>
+        <f t="shared" ref="O193" si="51">CHAR(34)&amp;K193&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L193&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
@@ -8076,13 +8064,13 @@
         <v>33</v>
       </c>
       <c r="O196" t="str">
-        <f t="shared" ref="O196:O197" si="49">CHAR(34)&amp;K196&amp;CHAR(34)&amp;": "&amp;L196&amp;","</f>
+        <f t="shared" ref="O196:O197" si="52">CHAR(34)&amp;K196&amp;CHAR(34)&amp;": "&amp;L196&amp;","</f>
         <v>"Id": 33,</v>
       </c>
     </row>
     <row r="197" spans="9:15">
       <c r="I197">
-        <f t="shared" ref="I197:I199" si="50">I191+1</f>
+        <f t="shared" ref="I197:I199" si="53">I191+1</f>
         <v>33</v>
       </c>
       <c r="J197">
@@ -8096,13 +8084,13 @@
         <v>-27</v>
       </c>
       <c r="O197" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>"X": -27,</v>
       </c>
     </row>
     <row r="198" spans="9:15">
       <c r="I198">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>33</v>
       </c>
       <c r="J198">
@@ -8116,13 +8104,13 @@
         <v>-39</v>
       </c>
       <c r="O198" t="str">
-        <f t="shared" ref="O198" si="51">CHAR(34)&amp;K198&amp;CHAR(34)&amp;": "&amp;L198</f>
+        <f t="shared" ref="O198" si="54">CHAR(34)&amp;K198&amp;CHAR(34)&amp;": "&amp;L198</f>
         <v>"Y": -39</v>
       </c>
     </row>
     <row r="199" spans="9:15">
       <c r="I199">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>33</v>
       </c>
       <c r="J199">
@@ -8136,7 +8124,7 @@
         <v>true</v>
       </c>
       <c r="O199" t="str">
-        <f t="shared" ref="O199" si="52">CHAR(34)&amp;K199&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L199&amp;CHAR(34)</f>
+        <f t="shared" ref="O199" si="55">CHAR(34)&amp;K199&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L199&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -8166,13 +8154,13 @@
         <v>34</v>
       </c>
       <c r="O202" t="str">
-        <f t="shared" ref="O202:O203" si="53">CHAR(34)&amp;K202&amp;CHAR(34)&amp;": "&amp;L202&amp;","</f>
+        <f t="shared" ref="O202:O203" si="56">CHAR(34)&amp;K202&amp;CHAR(34)&amp;": "&amp;L202&amp;","</f>
         <v>"Id": 34,</v>
       </c>
     </row>
     <row r="203" spans="9:15">
       <c r="I203">
-        <f t="shared" ref="I203:I205" si="54">I197+1</f>
+        <f t="shared" ref="I203:I205" si="57">I197+1</f>
         <v>34</v>
       </c>
       <c r="J203">
@@ -8186,13 +8174,13 @@
         <v>-39</v>
       </c>
       <c r="O203" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>"X": -39,</v>
       </c>
     </row>
     <row r="204" spans="9:15">
       <c r="I204">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>34</v>
       </c>
       <c r="J204">
@@ -8206,13 +8194,13 @@
         <v>-41</v>
       </c>
       <c r="O204" t="str">
-        <f t="shared" ref="O204" si="55">CHAR(34)&amp;K204&amp;CHAR(34)&amp;": "&amp;L204</f>
+        <f t="shared" ref="O204" si="58">CHAR(34)&amp;K204&amp;CHAR(34)&amp;": "&amp;L204</f>
         <v>"Y": -41</v>
       </c>
     </row>
     <row r="205" spans="9:15">
       <c r="I205">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>34</v>
       </c>
       <c r="J205">
@@ -8226,7 +8214,7 @@
         <v>true</v>
       </c>
       <c r="O205" t="str">
-        <f t="shared" ref="O205" si="56">CHAR(34)&amp;K205&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L205&amp;CHAR(34)</f>
+        <f t="shared" ref="O205" si="59">CHAR(34)&amp;K205&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L205&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -8256,13 +8244,13 @@
         <v>35</v>
       </c>
       <c r="O208" t="str">
-        <f t="shared" ref="O208:O209" si="57">CHAR(34)&amp;K208&amp;CHAR(34)&amp;": "&amp;L208&amp;","</f>
+        <f t="shared" ref="O208:O209" si="60">CHAR(34)&amp;K208&amp;CHAR(34)&amp;": "&amp;L208&amp;","</f>
         <v>"Id": 35,</v>
       </c>
     </row>
     <row r="209" spans="9:15">
       <c r="I209">
-        <f t="shared" ref="I209:I211" si="58">I203+1</f>
+        <f t="shared" ref="I209:I211" si="61">I203+1</f>
         <v>35</v>
       </c>
       <c r="J209">
@@ -8276,13 +8264,13 @@
         <v>-44</v>
       </c>
       <c r="O209" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>"X": -44,</v>
       </c>
     </row>
     <row r="210" spans="9:15">
       <c r="I210">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>35</v>
       </c>
       <c r="J210">
@@ -8296,13 +8284,13 @@
         <v>-51</v>
       </c>
       <c r="O210" t="str">
-        <f t="shared" ref="O210" si="59">CHAR(34)&amp;K210&amp;CHAR(34)&amp;": "&amp;L210</f>
+        <f t="shared" ref="O210" si="62">CHAR(34)&amp;K210&amp;CHAR(34)&amp;": "&amp;L210</f>
         <v>"Y": -51</v>
       </c>
     </row>
     <row r="211" spans="9:15">
       <c r="I211">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>35</v>
       </c>
       <c r="J211">
@@ -8316,7 +8304,7 @@
         <v>false</v>
       </c>
       <c r="O211" t="str">
-        <f t="shared" ref="O211" si="60">CHAR(34)&amp;K211&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L211&amp;CHAR(34)</f>
+        <f t="shared" ref="O211" si="63">CHAR(34)&amp;K211&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L211&amp;CHAR(34)</f>
         <v>"CanRaid": "false"</v>
       </c>
     </row>
@@ -8346,13 +8334,13 @@
         <v>36</v>
       </c>
       <c r="O214" t="str">
-        <f t="shared" ref="O214:O215" si="61">CHAR(34)&amp;K214&amp;CHAR(34)&amp;": "&amp;L214&amp;","</f>
+        <f t="shared" ref="O214:O215" si="64">CHAR(34)&amp;K214&amp;CHAR(34)&amp;": "&amp;L214&amp;","</f>
         <v>"Id": 36,</v>
       </c>
     </row>
     <row r="215" spans="9:15">
       <c r="I215">
-        <f t="shared" ref="I215:I217" si="62">I209+1</f>
+        <f t="shared" ref="I215:I217" si="65">I209+1</f>
         <v>36</v>
       </c>
       <c r="J215">
@@ -8366,13 +8354,13 @@
         <v>-43</v>
       </c>
       <c r="O215" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>"X": -43,</v>
       </c>
     </row>
     <row r="216" spans="9:15">
       <c r="I216">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>36</v>
       </c>
       <c r="J216">
@@ -8386,13 +8374,13 @@
         <v>-46</v>
       </c>
       <c r="O216" t="str">
-        <f t="shared" ref="O216" si="63">CHAR(34)&amp;K216&amp;CHAR(34)&amp;": "&amp;L216</f>
+        <f t="shared" ref="O216" si="66">CHAR(34)&amp;K216&amp;CHAR(34)&amp;": "&amp;L216</f>
         <v>"Y": -46</v>
       </c>
     </row>
     <row r="217" spans="9:15">
       <c r="I217">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>36</v>
       </c>
       <c r="J217">
@@ -8406,7 +8394,7 @@
         <v>true</v>
       </c>
       <c r="O217" t="str">
-        <f t="shared" ref="O217" si="64">CHAR(34)&amp;K217&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L217&amp;CHAR(34)</f>
+        <f t="shared" ref="O217" si="67">CHAR(34)&amp;K217&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L217&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -8442,7 +8430,7 @@
     </row>
     <row r="221" spans="9:15">
       <c r="I221">
-        <f t="shared" ref="I221:I223" si="65">I215+1</f>
+        <f t="shared" ref="I221:I223" si="68">I215+1</f>
         <v>37</v>
       </c>
       <c r="J221">
@@ -8462,7 +8450,7 @@
     </row>
     <row r="222" spans="9:15">
       <c r="I222">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>37</v>
       </c>
       <c r="J222">
@@ -8482,7 +8470,7 @@
     </row>
     <row r="223" spans="9:15">
       <c r="I223">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>37</v>
       </c>
       <c r="J223">
@@ -8532,7 +8520,7 @@
     </row>
     <row r="227" spans="9:15">
       <c r="I227">
-        <f t="shared" ref="I227:I229" si="66">I221+1</f>
+        <f t="shared" ref="I227:I229" si="69">I221+1</f>
         <v>38</v>
       </c>
       <c r="J227">
@@ -8552,7 +8540,7 @@
     </row>
     <row r="228" spans="9:15">
       <c r="I228">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>38</v>
       </c>
       <c r="J228">
@@ -8572,7 +8560,7 @@
     </row>
     <row r="229" spans="9:15">
       <c r="I229">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>38</v>
       </c>
       <c r="J229">
@@ -8622,7 +8610,7 @@
     </row>
     <row r="233" spans="9:15">
       <c r="I233">
-        <f t="shared" ref="I233:I235" si="67">I227+1</f>
+        <f t="shared" ref="I233:I235" si="70">I227+1</f>
         <v>39</v>
       </c>
       <c r="J233">
@@ -8642,7 +8630,7 @@
     </row>
     <row r="234" spans="9:15">
       <c r="I234">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>39</v>
       </c>
       <c r="J234">
@@ -8662,7 +8650,7 @@
     </row>
     <row r="235" spans="9:15">
       <c r="I235">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>39</v>
       </c>
       <c r="J235">
@@ -8712,7 +8700,7 @@
     </row>
     <row r="239" spans="9:15">
       <c r="I239">
-        <f t="shared" ref="I239:I241" si="68">I233+1</f>
+        <f t="shared" ref="I239:I241" si="71">I233+1</f>
         <v>40</v>
       </c>
       <c r="J239">
@@ -8732,7 +8720,7 @@
     </row>
     <row r="240" spans="9:15">
       <c r="I240">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>40</v>
       </c>
       <c r="J240">
@@ -8752,7 +8740,7 @@
     </row>
     <row r="241" spans="9:15">
       <c r="I241">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>40</v>
       </c>
       <c r="J241">
@@ -8802,7 +8790,7 @@
     </row>
     <row r="245" spans="9:15">
       <c r="I245">
-        <f t="shared" ref="I245:I247" si="69">I239+1</f>
+        <f t="shared" ref="I245:I247" si="72">I239+1</f>
         <v>41</v>
       </c>
       <c r="J245">
@@ -8822,7 +8810,7 @@
     </row>
     <row r="246" spans="9:15">
       <c r="I246">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>41</v>
       </c>
       <c r="J246">
@@ -8842,7 +8830,7 @@
     </row>
     <row r="247" spans="9:15">
       <c r="I247">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>41</v>
       </c>
       <c r="J247">
@@ -8892,7 +8880,7 @@
     </row>
     <row r="251" spans="9:15">
       <c r="I251">
-        <f t="shared" ref="I251:I253" si="70">I245+1</f>
+        <f t="shared" ref="I251:I253" si="73">I245+1</f>
         <v>42</v>
       </c>
       <c r="J251">
@@ -8912,7 +8900,7 @@
     </row>
     <row r="252" spans="9:15">
       <c r="I252">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>42</v>
       </c>
       <c r="J252">
@@ -8932,7 +8920,7 @@
     </row>
     <row r="253" spans="9:15">
       <c r="I253">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>42</v>
       </c>
       <c r="J253">
@@ -8982,7 +8970,7 @@
     </row>
     <row r="257" spans="9:15">
       <c r="I257">
-        <f t="shared" ref="I257:I259" si="71">I251+1</f>
+        <f t="shared" ref="I257:I259" si="74">I251+1</f>
         <v>43</v>
       </c>
       <c r="J257">
@@ -9002,7 +8990,7 @@
     </row>
     <row r="258" spans="9:15">
       <c r="I258">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>43</v>
       </c>
       <c r="J258">
@@ -9022,7 +9010,7 @@
     </row>
     <row r="259" spans="9:15">
       <c r="I259">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>43</v>
       </c>
       <c r="J259">
@@ -9072,7 +9060,7 @@
     </row>
     <row r="263" spans="9:15">
       <c r="I263">
-        <f t="shared" ref="I263:I265" si="72">I257+1</f>
+        <f t="shared" ref="I263:I265" si="75">I257+1</f>
         <v>44</v>
       </c>
       <c r="J263">
@@ -9092,7 +9080,7 @@
     </row>
     <row r="264" spans="9:15">
       <c r="I264">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>44</v>
       </c>
       <c r="J264">
@@ -9112,7 +9100,7 @@
     </row>
     <row r="265" spans="9:15">
       <c r="I265">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>44</v>
       </c>
       <c r="J265">
@@ -9162,7 +9150,7 @@
     </row>
     <row r="269" spans="9:15">
       <c r="I269">
-        <f t="shared" ref="I269:I271" si="73">I263+1</f>
+        <f t="shared" ref="I269:I271" si="76">I263+1</f>
         <v>45</v>
       </c>
       <c r="J269">
@@ -9182,7 +9170,7 @@
     </row>
     <row r="270" spans="9:15">
       <c r="I270">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>45</v>
       </c>
       <c r="J270">
@@ -9202,7 +9190,7 @@
     </row>
     <row r="271" spans="9:15">
       <c r="I271">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>45</v>
       </c>
       <c r="J271">
@@ -9252,7 +9240,7 @@
     </row>
     <row r="275" spans="9:15">
       <c r="I275">
-        <f t="shared" ref="I275:I277" si="74">I269+1</f>
+        <f t="shared" ref="I275:I277" si="77">I269+1</f>
         <v>46</v>
       </c>
       <c r="J275">
@@ -9272,7 +9260,7 @@
     </row>
     <row r="276" spans="9:15">
       <c r="I276">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>46</v>
       </c>
       <c r="J276">
@@ -9292,7 +9280,7 @@
     </row>
     <row r="277" spans="9:15">
       <c r="I277">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>46</v>
       </c>
       <c r="J277">
@@ -9342,7 +9330,7 @@
     </row>
     <row r="281" spans="9:15">
       <c r="I281">
-        <f t="shared" ref="I281:I283" si="75">I275+1</f>
+        <f t="shared" ref="I281:I283" si="78">I275+1</f>
         <v>47</v>
       </c>
       <c r="J281">
@@ -9362,7 +9350,7 @@
     </row>
     <row r="282" spans="9:15">
       <c r="I282">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>47</v>
       </c>
       <c r="J282">
@@ -9382,7 +9370,7 @@
     </row>
     <row r="283" spans="9:15">
       <c r="I283">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>47</v>
       </c>
       <c r="J283">
@@ -9432,7 +9420,7 @@
     </row>
     <row r="287" spans="9:15">
       <c r="I287">
-        <f t="shared" ref="I287:I289" si="76">I281+1</f>
+        <f t="shared" ref="I287:I289" si="79">I281+1</f>
         <v>48</v>
       </c>
       <c r="J287">
@@ -9452,7 +9440,7 @@
     </row>
     <row r="288" spans="9:15">
       <c r="I288">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>48</v>
       </c>
       <c r="J288">
@@ -9472,7 +9460,7 @@
     </row>
     <row r="289" spans="9:15">
       <c r="I289">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>48</v>
       </c>
       <c r="J289">
@@ -9522,7 +9510,7 @@
     </row>
     <row r="293" spans="9:15">
       <c r="I293">
-        <f t="shared" ref="I293:I295" si="77">I287+1</f>
+        <f t="shared" ref="I293:I295" si="80">I287+1</f>
         <v>49</v>
       </c>
       <c r="J293">
@@ -9542,7 +9530,7 @@
     </row>
     <row r="294" spans="9:15">
       <c r="I294">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>49</v>
       </c>
       <c r="J294">
@@ -9562,7 +9550,7 @@
     </row>
     <row r="295" spans="9:15">
       <c r="I295">
-        <f t="shared" si="77"/>
+        <f t="shared" si="80"/>
         <v>49</v>
       </c>
       <c r="J295">
@@ -9606,13 +9594,13 @@
         <v>50</v>
       </c>
       <c r="O298" t="str">
-        <f t="shared" ref="O298:O299" si="78">CHAR(34)&amp;K298&amp;CHAR(34)&amp;": "&amp;L298&amp;","</f>
+        <f t="shared" ref="O298:O299" si="81">CHAR(34)&amp;K298&amp;CHAR(34)&amp;": "&amp;L298&amp;","</f>
         <v>"Id": 50,</v>
       </c>
     </row>
     <row r="299" spans="9:15">
       <c r="I299">
-        <f t="shared" ref="I299:I301" si="79">I293+1</f>
+        <f t="shared" ref="I299:I301" si="82">I293+1</f>
         <v>50</v>
       </c>
       <c r="J299">
@@ -9626,13 +9614,13 @@
         <v>-17</v>
       </c>
       <c r="O299" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>"X": -17,</v>
       </c>
     </row>
     <row r="300" spans="9:15">
       <c r="I300">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>50</v>
       </c>
       <c r="J300">
@@ -9646,13 +9634,13 @@
         <v>-44</v>
       </c>
       <c r="O300" t="str">
-        <f t="shared" ref="O300" si="80">CHAR(34)&amp;K300&amp;CHAR(34)&amp;": "&amp;L300</f>
+        <f t="shared" ref="O300" si="83">CHAR(34)&amp;K300&amp;CHAR(34)&amp;": "&amp;L300</f>
         <v>"Y": -44</v>
       </c>
     </row>
     <row r="301" spans="9:15">
       <c r="I301">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>50</v>
       </c>
       <c r="J301">
@@ -9666,7 +9654,7 @@
         <v>true</v>
       </c>
       <c r="O301" t="str">
-        <f t="shared" ref="O301" si="81">CHAR(34)&amp;K301&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L301&amp;CHAR(34)</f>
+        <f t="shared" ref="O301" si="84">CHAR(34)&amp;K301&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L301&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -9696,13 +9684,13 @@
         <v>51</v>
       </c>
       <c r="O304" t="str">
-        <f t="shared" ref="O304:O305" si="82">CHAR(34)&amp;K304&amp;CHAR(34)&amp;": "&amp;L304&amp;","</f>
+        <f t="shared" ref="O304:O305" si="85">CHAR(34)&amp;K304&amp;CHAR(34)&amp;": "&amp;L304&amp;","</f>
         <v>"Id": 51,</v>
       </c>
     </row>
     <row r="305" spans="9:15">
       <c r="I305">
-        <f t="shared" ref="I305:I307" si="83">I299+1</f>
+        <f t="shared" ref="I305:I307" si="86">I299+1</f>
         <v>51</v>
       </c>
       <c r="J305">
@@ -9713,16 +9701,16 @@
       </c>
       <c r="L305">
         <f>VLOOKUP(I305,ToRaid,J305,FALSE)</f>
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="O305" t="str">
-        <f t="shared" si="82"/>
-        <v>"X": -17,</v>
+        <f t="shared" si="85"/>
+        <v>"X": -16,</v>
       </c>
     </row>
     <row r="306" spans="9:15">
       <c r="I306">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>51</v>
       </c>
       <c r="J306">
@@ -9733,16 +9721,16 @@
       </c>
       <c r="L306">
         <f>VLOOKUP(I306,ToRaid,J306,FALSE)</f>
-        <v>-44</v>
+        <v>-46</v>
       </c>
       <c r="O306" t="str">
-        <f t="shared" ref="O306" si="84">CHAR(34)&amp;K306&amp;CHAR(34)&amp;": "&amp;L306</f>
-        <v>"Y": -44</v>
+        <f t="shared" ref="O306" si="87">CHAR(34)&amp;K306&amp;CHAR(34)&amp;": "&amp;L306</f>
+        <v>"Y": -46</v>
       </c>
     </row>
     <row r="307" spans="9:15">
       <c r="I307">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>51</v>
       </c>
       <c r="J307">
@@ -9756,7 +9744,7 @@
         <v>true</v>
       </c>
       <c r="O307" t="str">
-        <f t="shared" ref="O307" si="85">CHAR(34)&amp;K307&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L307&amp;CHAR(34)</f>
+        <f t="shared" ref="O307" si="88">CHAR(34)&amp;K307&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L307&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -9786,13 +9774,13 @@
         <v>52</v>
       </c>
       <c r="O310" t="str">
-        <f t="shared" ref="O310:O311" si="86">CHAR(34)&amp;K310&amp;CHAR(34)&amp;": "&amp;L310&amp;","</f>
+        <f t="shared" ref="O310:O311" si="89">CHAR(34)&amp;K310&amp;CHAR(34)&amp;": "&amp;L310&amp;","</f>
         <v>"Id": 52,</v>
       </c>
     </row>
     <row r="311" spans="9:15">
       <c r="I311">
-        <f t="shared" ref="I311:I313" si="87">I305+1</f>
+        <f t="shared" ref="I311:I313" si="90">I305+1</f>
         <v>52</v>
       </c>
       <c r="J311">
@@ -9803,16 +9791,16 @@
       </c>
       <c r="L311">
         <f>VLOOKUP(I311,ToRaid,J311,FALSE)</f>
-        <v>-16</v>
+        <v>-46</v>
       </c>
       <c r="O311" t="str">
-        <f t="shared" si="86"/>
-        <v>"X": -16,</v>
+        <f t="shared" si="89"/>
+        <v>"X": -46,</v>
       </c>
     </row>
     <row r="312" spans="9:15">
       <c r="I312">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>52</v>
       </c>
       <c r="J312">
@@ -9823,16 +9811,16 @@
       </c>
       <c r="L312">
         <f>VLOOKUP(I312,ToRaid,J312,FALSE)</f>
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="O312" t="str">
-        <f t="shared" ref="O312" si="88">CHAR(34)&amp;K312&amp;CHAR(34)&amp;": "&amp;L312</f>
-        <v>"Y": -46</v>
+        <f t="shared" ref="O312" si="91">CHAR(34)&amp;K312&amp;CHAR(34)&amp;": "&amp;L312</f>
+        <v>"Y": -45</v>
       </c>
     </row>
     <row r="313" spans="9:15">
       <c r="I313">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>52</v>
       </c>
       <c r="J313">
@@ -9846,7 +9834,7 @@
         <v>true</v>
       </c>
       <c r="O313" t="str">
-        <f t="shared" ref="O313" si="89">CHAR(34)&amp;K313&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L313&amp;CHAR(34)</f>
+        <f t="shared" ref="O313" si="92">CHAR(34)&amp;K313&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L313&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -9876,13 +9864,13 @@
         <v>53</v>
       </c>
       <c r="O316" t="str">
-        <f t="shared" ref="O316:O317" si="90">CHAR(34)&amp;K316&amp;CHAR(34)&amp;": "&amp;L316&amp;","</f>
+        <f t="shared" ref="O316:O317" si="93">CHAR(34)&amp;K316&amp;CHAR(34)&amp;": "&amp;L316&amp;","</f>
         <v>"Id": 53,</v>
       </c>
     </row>
     <row r="317" spans="9:15">
       <c r="I317">
-        <f t="shared" ref="I317:I319" si="91">I311+1</f>
+        <f t="shared" ref="I317:I319" si="94">I311+1</f>
         <v>53</v>
       </c>
       <c r="J317">
@@ -9893,16 +9881,16 @@
       </c>
       <c r="L317">
         <f>VLOOKUP(I317,ToRaid,J317,FALSE)</f>
-        <v>-46</v>
+        <v>-21</v>
       </c>
       <c r="O317" t="str">
-        <f t="shared" si="90"/>
-        <v>"X": -46,</v>
+        <f t="shared" si="93"/>
+        <v>"X": -21,</v>
       </c>
     </row>
     <row r="318" spans="9:15">
       <c r="I318">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>53</v>
       </c>
       <c r="J318">
@@ -9913,16 +9901,16 @@
       </c>
       <c r="L318">
         <f>VLOOKUP(I318,ToRaid,J318,FALSE)</f>
-        <v>-45</v>
+        <v>-38</v>
       </c>
       <c r="O318" t="str">
-        <f t="shared" ref="O318" si="92">CHAR(34)&amp;K318&amp;CHAR(34)&amp;": "&amp;L318</f>
-        <v>"Y": -45</v>
+        <f t="shared" ref="O318" si="95">CHAR(34)&amp;K318&amp;CHAR(34)&amp;": "&amp;L318</f>
+        <v>"Y": -38</v>
       </c>
     </row>
     <row r="319" spans="9:15">
       <c r="I319">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>53</v>
       </c>
       <c r="J319">
@@ -9936,7 +9924,7 @@
         <v>true</v>
       </c>
       <c r="O319" t="str">
-        <f t="shared" ref="O319" si="93">CHAR(34)&amp;K319&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L319&amp;CHAR(34)</f>
+        <f t="shared" ref="O319" si="96">CHAR(34)&amp;K319&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L319&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -9966,13 +9954,13 @@
         <v>54</v>
       </c>
       <c r="O322" t="str">
-        <f t="shared" ref="O322:O323" si="94">CHAR(34)&amp;K322&amp;CHAR(34)&amp;": "&amp;L322&amp;","</f>
+        <f t="shared" ref="O322:O323" si="97">CHAR(34)&amp;K322&amp;CHAR(34)&amp;": "&amp;L322&amp;","</f>
         <v>"Id": 54,</v>
       </c>
     </row>
     <row r="323" spans="9:15">
       <c r="I323">
-        <f t="shared" ref="I323:I325" si="95">I317+1</f>
+        <f t="shared" ref="I323:I325" si="98">I317+1</f>
         <v>54</v>
       </c>
       <c r="J323">
@@ -9983,16 +9971,16 @@
       </c>
       <c r="L323">
         <f>VLOOKUP(I323,ToRaid,J323,FALSE)</f>
-        <v>-21</v>
+        <v>-46</v>
       </c>
       <c r="O323" t="str">
-        <f t="shared" si="94"/>
-        <v>"X": -21,</v>
+        <f t="shared" si="97"/>
+        <v>"X": -46,</v>
       </c>
     </row>
     <row r="324" spans="9:15">
       <c r="I324">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>54</v>
       </c>
       <c r="J324">
@@ -10003,16 +9991,16 @@
       </c>
       <c r="L324">
         <f>VLOOKUP(I324,ToRaid,J324,FALSE)</f>
-        <v>-38</v>
+        <v>-43</v>
       </c>
       <c r="O324" t="str">
-        <f t="shared" ref="O324" si="96">CHAR(34)&amp;K324&amp;CHAR(34)&amp;": "&amp;L324</f>
-        <v>"Y": -38</v>
+        <f t="shared" ref="O324" si="99">CHAR(34)&amp;K324&amp;CHAR(34)&amp;": "&amp;L324</f>
+        <v>"Y": -43</v>
       </c>
     </row>
     <row r="325" spans="9:15">
       <c r="I325">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>54</v>
       </c>
       <c r="J325">
@@ -10026,7 +10014,7 @@
         <v>true</v>
       </c>
       <c r="O325" t="str">
-        <f t="shared" ref="O325" si="97">CHAR(34)&amp;K325&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L325&amp;CHAR(34)</f>
+        <f t="shared" ref="O325" si="100">CHAR(34)&amp;K325&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L325&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -10056,13 +10044,13 @@
         <v>55</v>
       </c>
       <c r="O328" t="str">
-        <f t="shared" ref="O328:O329" si="98">CHAR(34)&amp;K328&amp;CHAR(34)&amp;": "&amp;L328&amp;","</f>
+        <f t="shared" ref="O328:O329" si="101">CHAR(34)&amp;K328&amp;CHAR(34)&amp;": "&amp;L328&amp;","</f>
         <v>"Id": 55,</v>
       </c>
     </row>
     <row r="329" spans="9:15">
       <c r="I329">
-        <f t="shared" ref="I329:I331" si="99">I323+1</f>
+        <f t="shared" ref="I329:I331" si="102">I323+1</f>
         <v>55</v>
       </c>
       <c r="J329">
@@ -10073,16 +10061,16 @@
       </c>
       <c r="L329">
         <f>VLOOKUP(I329,ToRaid,J329,FALSE)</f>
-        <v>-46</v>
+        <v>-16</v>
       </c>
       <c r="O329" t="str">
-        <f t="shared" si="98"/>
-        <v>"X": -46,</v>
+        <f t="shared" si="101"/>
+        <v>"X": -16,</v>
       </c>
     </row>
     <row r="330" spans="9:15">
       <c r="I330">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>55</v>
       </c>
       <c r="J330">
@@ -10096,13 +10084,13 @@
         <v>-43</v>
       </c>
       <c r="O330" t="str">
-        <f t="shared" ref="O330" si="100">CHAR(34)&amp;K330&amp;CHAR(34)&amp;": "&amp;L330</f>
+        <f t="shared" ref="O330" si="103">CHAR(34)&amp;K330&amp;CHAR(34)&amp;": "&amp;L330</f>
         <v>"Y": -43</v>
       </c>
     </row>
     <row r="331" spans="9:15">
       <c r="I331">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>55</v>
       </c>
       <c r="J331">
@@ -10116,7 +10104,7 @@
         <v>true</v>
       </c>
       <c r="O331" t="str">
-        <f t="shared" ref="O331" si="101">CHAR(34)&amp;K331&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L331&amp;CHAR(34)</f>
+        <f t="shared" ref="O331" si="104">CHAR(34)&amp;K331&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L331&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -10146,13 +10134,13 @@
         <v>56</v>
       </c>
       <c r="O334" t="str">
-        <f t="shared" ref="O334:O335" si="102">CHAR(34)&amp;K334&amp;CHAR(34)&amp;": "&amp;L334&amp;","</f>
+        <f t="shared" ref="O334:O335" si="105">CHAR(34)&amp;K334&amp;CHAR(34)&amp;": "&amp;L334&amp;","</f>
         <v>"Id": 56,</v>
       </c>
     </row>
     <row r="335" spans="9:15">
       <c r="I335">
-        <f t="shared" ref="I335:I337" si="103">I329+1</f>
+        <f t="shared" ref="I335:I337" si="106">I329+1</f>
         <v>56</v>
       </c>
       <c r="J335">
@@ -10163,16 +10151,16 @@
       </c>
       <c r="L335">
         <f>VLOOKUP(I335,ToRaid,J335,FALSE)</f>
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="O335" t="str">
-        <f t="shared" si="102"/>
-        <v>"X": -16,</v>
+        <f t="shared" si="105"/>
+        <v>"X": -18,</v>
       </c>
     </row>
     <row r="336" spans="9:15">
       <c r="I336">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>56</v>
       </c>
       <c r="J336">
@@ -10183,16 +10171,16 @@
       </c>
       <c r="L336">
         <f>VLOOKUP(I336,ToRaid,J336,FALSE)</f>
-        <v>-43</v>
+        <v>-37</v>
       </c>
       <c r="O336" t="str">
-        <f t="shared" ref="O336" si="104">CHAR(34)&amp;K336&amp;CHAR(34)&amp;": "&amp;L336</f>
-        <v>"Y": -43</v>
+        <f t="shared" ref="O336" si="107">CHAR(34)&amp;K336&amp;CHAR(34)&amp;": "&amp;L336</f>
+        <v>"Y": -37</v>
       </c>
     </row>
     <row r="337" spans="9:15">
       <c r="I337">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>56</v>
       </c>
       <c r="J337">
@@ -10206,7 +10194,7 @@
         <v>true</v>
       </c>
       <c r="O337" t="str">
-        <f t="shared" ref="O337" si="105">CHAR(34)&amp;K337&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L337&amp;CHAR(34)</f>
+        <f t="shared" ref="O337" si="108">CHAR(34)&amp;K337&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L337&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -10236,13 +10224,13 @@
         <v>57</v>
       </c>
       <c r="O340" t="str">
-        <f t="shared" ref="O340:O341" si="106">CHAR(34)&amp;K340&amp;CHAR(34)&amp;": "&amp;L340&amp;","</f>
+        <f t="shared" ref="O340:O341" si="109">CHAR(34)&amp;K340&amp;CHAR(34)&amp;": "&amp;L340&amp;","</f>
         <v>"Id": 57,</v>
       </c>
     </row>
     <row r="341" spans="9:15">
       <c r="I341">
-        <f t="shared" ref="I341:I343" si="107">I335+1</f>
+        <f t="shared" ref="I341:I343" si="110">I335+1</f>
         <v>57</v>
       </c>
       <c r="J341">
@@ -10253,16 +10241,16 @@
       </c>
       <c r="L341">
         <f>VLOOKUP(I341,ToRaid,J341,FALSE)</f>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="O341" t="str">
-        <f t="shared" si="106"/>
-        <v>"X": -18,</v>
+        <f t="shared" si="109"/>
+        <v>"X": -17,</v>
       </c>
     </row>
     <row r="342" spans="9:15">
       <c r="I342">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>57</v>
       </c>
       <c r="J342">
@@ -10273,16 +10261,16 @@
       </c>
       <c r="L342">
         <f>VLOOKUP(I342,ToRaid,J342,FALSE)</f>
-        <v>-37</v>
+        <v>-38</v>
       </c>
       <c r="O342" t="str">
-        <f t="shared" ref="O342" si="108">CHAR(34)&amp;K342&amp;CHAR(34)&amp;": "&amp;L342</f>
-        <v>"Y": -37</v>
+        <f t="shared" ref="O342" si="111">CHAR(34)&amp;K342&amp;CHAR(34)&amp;": "&amp;L342</f>
+        <v>"Y": -38</v>
       </c>
     </row>
     <row r="343" spans="9:15">
       <c r="I343">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>57</v>
       </c>
       <c r="J343">
@@ -10296,7 +10284,7 @@
         <v>true</v>
       </c>
       <c r="O343" t="str">
-        <f t="shared" ref="O343" si="109">CHAR(34)&amp;K343&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L343&amp;CHAR(34)</f>
+        <f t="shared" ref="O343" si="112">CHAR(34)&amp;K343&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L343&amp;CHAR(34)</f>
         <v>"CanRaid": "true"</v>
       </c>
     </row>
@@ -10326,13 +10314,13 @@
         <v>58</v>
       </c>
       <c r="O346" t="str">
-        <f t="shared" ref="O346:O347" si="110">CHAR(34)&amp;K346&amp;CHAR(34)&amp;": "&amp;L346&amp;","</f>
+        <f t="shared" ref="O346:O347" si="113">CHAR(34)&amp;K346&amp;CHAR(34)&amp;": "&amp;L346&amp;","</f>
         <v>"Id": 58,</v>
       </c>
     </row>
     <row r="347" spans="9:15">
       <c r="I347">
-        <f t="shared" ref="I347:I349" si="111">I341+1</f>
+        <f t="shared" ref="I347:I349" si="114">I341+1</f>
         <v>58</v>
       </c>
       <c r="J347">
@@ -10343,16 +10331,16 @@
       </c>
       <c r="L347">
         <f>VLOOKUP(I347,ToRaid,J347,FALSE)</f>
-        <v>-17</v>
+        <v>-46</v>
       </c>
       <c r="O347" t="str">
-        <f t="shared" si="110"/>
-        <v>"X": -17,</v>
+        <f t="shared" si="113"/>
+        <v>"X": -46,</v>
       </c>
     </row>
     <row r="348" spans="9:15">
       <c r="I348">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>58</v>
       </c>
       <c r="J348">
@@ -10366,13 +10354,13 @@
         <v>-38</v>
       </c>
       <c r="O348" t="str">
-        <f t="shared" ref="O348" si="112">CHAR(34)&amp;K348&amp;CHAR(34)&amp;": "&amp;L348</f>
+        <f t="shared" ref="O348" si="115">CHAR(34)&amp;K348&amp;CHAR(34)&amp;": "&amp;L348</f>
         <v>"Y": -38</v>
       </c>
     </row>
     <row r="349" spans="9:15">
       <c r="I349">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>58</v>
       </c>
       <c r="J349">
@@ -10383,11 +10371,11 @@
       </c>
       <c r="L349" t="str">
         <f>VLOOKUP(I349,ToRaid,J349,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O349" t="str">
-        <f t="shared" ref="O349" si="113">CHAR(34)&amp;K349&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L349&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <f t="shared" ref="O349" si="116">CHAR(34)&amp;K349&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L349&amp;CHAR(34)</f>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="350" spans="9:15">
@@ -10422,7 +10410,7 @@
     </row>
     <row r="353" spans="9:15">
       <c r="I353">
-        <f t="shared" ref="I353:I355" si="114">I347+1</f>
+        <f t="shared" ref="I353:I355" si="117">I347+1</f>
         <v>59</v>
       </c>
       <c r="J353">
@@ -10433,16 +10421,16 @@
       </c>
       <c r="L353">
         <f>VLOOKUP(I353,ToRaid,J353,FALSE)</f>
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="O353" t="str">
         <f>CHAR(34)&amp;K353&amp;CHAR(34)&amp;": "&amp;L353&amp;","</f>
-        <v>"X": -46,</v>
+        <v>"X": 0,</v>
       </c>
     </row>
     <row r="354" spans="9:15">
       <c r="I354">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>59</v>
       </c>
       <c r="J354">
@@ -10453,16 +10441,16 @@
       </c>
       <c r="L354">
         <f>VLOOKUP(I354,ToRaid,J354,FALSE)</f>
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="O354" t="str">
         <f>CHAR(34)&amp;K354&amp;CHAR(34)&amp;": "&amp;L354</f>
-        <v>"Y": -38</v>
+        <v>"Y": 0</v>
       </c>
     </row>
     <row r="355" spans="9:15">
       <c r="I355">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>59</v>
       </c>
       <c r="J355">
@@ -10471,13 +10459,13 @@
       <c r="K355" t="s">
         <v>10</v>
       </c>
-      <c r="L355" t="str">
+      <c r="L355">
         <f>VLOOKUP(I355,ToRaid,J355,FALSE)</f>
-        <v>false</v>
+        <v>0</v>
       </c>
       <c r="O355" t="str">
         <f>CHAR(34)&amp;K355&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L355&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
+        <v>"CanRaid": "0"</v>
       </c>
     </row>
     <row r="356" spans="9:15">
@@ -10512,7 +10500,7 @@
     </row>
     <row r="359" spans="9:15">
       <c r="I359">
-        <f t="shared" ref="I359:I361" si="115">I353+1</f>
+        <f t="shared" ref="I359:I361" si="118">I353+1</f>
         <v>60</v>
       </c>
       <c r="J359">
@@ -10532,7 +10520,7 @@
     </row>
     <row r="360" spans="9:15">
       <c r="I360">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>60</v>
       </c>
       <c r="J360">
@@ -10552,7 +10540,7 @@
     </row>
     <row r="361" spans="9:15">
       <c r="I361">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>60</v>
       </c>
       <c r="J361">
@@ -10602,7 +10590,7 @@
     </row>
     <row r="365" spans="9:15">
       <c r="I365">
-        <f t="shared" ref="I365:I367" si="116">I359+1</f>
+        <f t="shared" ref="I365:I367" si="119">I359+1</f>
         <v>61</v>
       </c>
       <c r="J365">
@@ -10622,7 +10610,7 @@
     </row>
     <row r="366" spans="9:15">
       <c r="I366">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>61</v>
       </c>
       <c r="J366">
@@ -10642,7 +10630,7 @@
     </row>
     <row r="367" spans="9:15">
       <c r="I367">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>61</v>
       </c>
       <c r="J367">
@@ -10692,7 +10680,7 @@
     </row>
     <row r="371" spans="9:15">
       <c r="I371">
-        <f t="shared" ref="I371:I373" si="117">I365+1</f>
+        <f t="shared" ref="I371:I373" si="120">I365+1</f>
         <v>62</v>
       </c>
       <c r="J371">
@@ -10712,7 +10700,7 @@
     </row>
     <row r="372" spans="9:15">
       <c r="I372">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>62</v>
       </c>
       <c r="J372">
@@ -10732,7 +10720,7 @@
     </row>
     <row r="373" spans="9:15">
       <c r="I373">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>62</v>
       </c>
       <c r="J373">
@@ -10782,7 +10770,7 @@
     </row>
     <row r="377" spans="9:15">
       <c r="I377">
-        <f t="shared" ref="I377:I379" si="118">I371+1</f>
+        <f t="shared" ref="I377:I379" si="121">I371+1</f>
         <v>63</v>
       </c>
       <c r="J377">
@@ -10802,7 +10790,7 @@
     </row>
     <row r="378" spans="9:15">
       <c r="I378">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>63</v>
       </c>
       <c r="J378">
@@ -10822,7 +10810,7 @@
     </row>
     <row r="379" spans="9:15">
       <c r="I379">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>63</v>
       </c>
       <c r="J379">
@@ -10872,7 +10860,7 @@
     </row>
     <row r="383" spans="9:15">
       <c r="I383">
-        <f t="shared" ref="I383:I385" si="119">I377+1</f>
+        <f t="shared" ref="I383:I385" si="122">I377+1</f>
         <v>64</v>
       </c>
       <c r="J383">
@@ -10892,7 +10880,7 @@
     </row>
     <row r="384" spans="9:15">
       <c r="I384">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>64</v>
       </c>
       <c r="J384">
@@ -10912,7 +10900,7 @@
     </row>
     <row r="385" spans="9:15">
       <c r="I385">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>64</v>
       </c>
       <c r="J385">
@@ -10962,7 +10950,7 @@
     </row>
     <row r="389" spans="9:15">
       <c r="I389">
-        <f t="shared" ref="I389:I391" si="120">I383+1</f>
+        <f t="shared" ref="I389:I391" si="123">I383+1</f>
         <v>65</v>
       </c>
       <c r="J389">
@@ -10982,7 +10970,7 @@
     </row>
     <row r="390" spans="9:15">
       <c r="I390">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>65</v>
       </c>
       <c r="J390">
@@ -11002,7 +10990,7 @@
     </row>
     <row r="391" spans="9:15">
       <c r="I391">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>65</v>
       </c>
       <c r="J391">
@@ -11052,7 +11040,7 @@
     </row>
     <row r="395" spans="9:15">
       <c r="I395">
-        <f t="shared" ref="I395:I397" si="121">I389+1</f>
+        <f t="shared" ref="I395:I397" si="124">I389+1</f>
         <v>66</v>
       </c>
       <c r="J395">
@@ -11072,7 +11060,7 @@
     </row>
     <row r="396" spans="9:15">
       <c r="I396">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>66</v>
       </c>
       <c r="J396">
@@ -11092,7 +11080,7 @@
     </row>
     <row r="397" spans="9:15">
       <c r="I397">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>66</v>
       </c>
       <c r="J397">
@@ -11142,7 +11130,7 @@
     </row>
     <row r="401" spans="9:15">
       <c r="I401">
-        <f t="shared" ref="I401:I403" si="122">I395+1</f>
+        <f t="shared" ref="I401:I403" si="125">I395+1</f>
         <v>67</v>
       </c>
       <c r="J401">
@@ -11162,7 +11150,7 @@
     </row>
     <row r="402" spans="9:15">
       <c r="I402">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>67</v>
       </c>
       <c r="J402">
@@ -11182,7 +11170,7 @@
     </row>
     <row r="403" spans="9:15">
       <c r="I403">
-        <f t="shared" si="122"/>
+        <f t="shared" si="125"/>
         <v>67</v>
       </c>
       <c r="J403">
@@ -11232,7 +11220,7 @@
     </row>
     <row r="407" spans="9:15">
       <c r="I407">
-        <f t="shared" ref="I407:I409" si="123">I401+1</f>
+        <f t="shared" ref="I407:I409" si="126">I401+1</f>
         <v>68</v>
       </c>
       <c r="J407">
@@ -11252,7 +11240,7 @@
     </row>
     <row r="408" spans="9:15">
       <c r="I408">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>68</v>
       </c>
       <c r="J408">
@@ -11272,7 +11260,7 @@
     </row>
     <row r="409" spans="9:15">
       <c r="I409">
-        <f t="shared" si="123"/>
+        <f t="shared" si="126"/>
         <v>68</v>
       </c>
       <c r="J409">
@@ -11322,7 +11310,7 @@
     </row>
     <row r="413" spans="9:15">
       <c r="I413">
-        <f t="shared" ref="I413:I415" si="124">I407+1</f>
+        <f t="shared" ref="I413:I415" si="127">I407+1</f>
         <v>69</v>
       </c>
       <c r="J413">
@@ -11342,7 +11330,7 @@
     </row>
     <row r="414" spans="9:15">
       <c r="I414">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>69</v>
       </c>
       <c r="J414">
@@ -11362,7 +11350,7 @@
     </row>
     <row r="415" spans="9:15">
       <c r="I415">
-        <f t="shared" si="124"/>
+        <f t="shared" si="127"/>
         <v>69</v>
       </c>
       <c r="J415">
@@ -11412,7 +11400,7 @@
     </row>
     <row r="419" spans="9:15">
       <c r="I419">
-        <f t="shared" ref="I419:I421" si="125">I413+1</f>
+        <f t="shared" ref="I419:I421" si="128">I413+1</f>
         <v>70</v>
       </c>
       <c r="J419">
@@ -11432,7 +11420,7 @@
     </row>
     <row r="420" spans="9:15">
       <c r="I420">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>70</v>
       </c>
       <c r="J420">
@@ -11452,7 +11440,7 @@
     </row>
     <row r="421" spans="9:15">
       <c r="I421">
-        <f t="shared" si="125"/>
+        <f t="shared" si="128"/>
         <v>70</v>
       </c>
       <c r="J421">
@@ -11502,7 +11490,7 @@
     </row>
     <row r="425" spans="9:15">
       <c r="I425">
-        <f t="shared" ref="I425:I427" si="126">I419+1</f>
+        <f t="shared" ref="I425:I427" si="129">I419+1</f>
         <v>71</v>
       </c>
       <c r="J425">
@@ -11522,7 +11510,7 @@
     </row>
     <row r="426" spans="9:15">
       <c r="I426">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>71</v>
       </c>
       <c r="J426">
@@ -11542,7 +11530,7 @@
     </row>
     <row r="427" spans="9:15">
       <c r="I427">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>71</v>
       </c>
       <c r="J427">
@@ -11586,13 +11574,13 @@
         <v>72</v>
       </c>
       <c r="O430" t="str">
-        <f t="shared" ref="O430:O431" si="127">CHAR(34)&amp;K430&amp;CHAR(34)&amp;": "&amp;L430&amp;","</f>
+        <f t="shared" ref="O430:O431" si="130">CHAR(34)&amp;K430&amp;CHAR(34)&amp;": "&amp;L430&amp;","</f>
         <v>"Id": 72,</v>
       </c>
     </row>
     <row r="431" spans="9:15">
       <c r="I431">
-        <f t="shared" ref="I431:I433" si="128">I425+1</f>
+        <f t="shared" ref="I431:I433" si="131">I425+1</f>
         <v>72</v>
       </c>
       <c r="J431">
@@ -11606,13 +11594,13 @@
         <v>0</v>
       </c>
       <c r="O431" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="432" spans="9:15">
       <c r="I432">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>72</v>
       </c>
       <c r="J432">
@@ -11626,13 +11614,13 @@
         <v>0</v>
       </c>
       <c r="O432" t="str">
-        <f t="shared" ref="O432" si="129">CHAR(34)&amp;K432&amp;CHAR(34)&amp;": "&amp;L432</f>
+        <f t="shared" ref="O432" si="132">CHAR(34)&amp;K432&amp;CHAR(34)&amp;": "&amp;L432</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="433" spans="9:15">
       <c r="I433">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>72</v>
       </c>
       <c r="J433">
@@ -11646,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="O433" t="str">
-        <f t="shared" ref="O433" si="130">CHAR(34)&amp;K433&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L433&amp;CHAR(34)</f>
+        <f t="shared" ref="O433" si="133">CHAR(34)&amp;K433&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L433&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -11676,13 +11664,13 @@
         <v>73</v>
       </c>
       <c r="O436" t="str">
-        <f t="shared" ref="O436:O437" si="131">CHAR(34)&amp;K436&amp;CHAR(34)&amp;": "&amp;L436&amp;","</f>
+        <f t="shared" ref="O436:O437" si="134">CHAR(34)&amp;K436&amp;CHAR(34)&amp;": "&amp;L436&amp;","</f>
         <v>"Id": 73,</v>
       </c>
     </row>
     <row r="437" spans="9:15">
       <c r="I437">
-        <f t="shared" ref="I437:I439" si="132">I431+1</f>
+        <f t="shared" ref="I437:I439" si="135">I431+1</f>
         <v>73</v>
       </c>
       <c r="J437">
@@ -11696,13 +11684,13 @@
         <v>0</v>
       </c>
       <c r="O437" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="438" spans="9:15">
       <c r="I438">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>73</v>
       </c>
       <c r="J438">
@@ -11716,13 +11704,13 @@
         <v>0</v>
       </c>
       <c r="O438" t="str">
-        <f t="shared" ref="O438" si="133">CHAR(34)&amp;K438&amp;CHAR(34)&amp;": "&amp;L438</f>
+        <f t="shared" ref="O438" si="136">CHAR(34)&amp;K438&amp;CHAR(34)&amp;": "&amp;L438</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="439" spans="9:15">
       <c r="I439">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>73</v>
       </c>
       <c r="J439">
@@ -11736,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="O439" t="str">
-        <f t="shared" ref="O439" si="134">CHAR(34)&amp;K439&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L439&amp;CHAR(34)</f>
+        <f t="shared" ref="O439" si="137">CHAR(34)&amp;K439&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L439&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -11766,13 +11754,13 @@
         <v>74</v>
       </c>
       <c r="O442" t="str">
-        <f t="shared" ref="O442:O443" si="135">CHAR(34)&amp;K442&amp;CHAR(34)&amp;": "&amp;L442&amp;","</f>
+        <f t="shared" ref="O442:O443" si="138">CHAR(34)&amp;K442&amp;CHAR(34)&amp;": "&amp;L442&amp;","</f>
         <v>"Id": 74,</v>
       </c>
     </row>
     <row r="443" spans="9:15">
       <c r="I443">
-        <f t="shared" ref="I443:I445" si="136">I437+1</f>
+        <f t="shared" ref="I443:I445" si="139">I437+1</f>
         <v>74</v>
       </c>
       <c r="J443">
@@ -11786,13 +11774,13 @@
         <v>0</v>
       </c>
       <c r="O443" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="444" spans="9:15">
       <c r="I444">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>74</v>
       </c>
       <c r="J444">
@@ -11806,13 +11794,13 @@
         <v>0</v>
       </c>
       <c r="O444" t="str">
-        <f t="shared" ref="O444" si="137">CHAR(34)&amp;K444&amp;CHAR(34)&amp;": "&amp;L444</f>
+        <f t="shared" ref="O444" si="140">CHAR(34)&amp;K444&amp;CHAR(34)&amp;": "&amp;L444</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="445" spans="9:15">
       <c r="I445">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>74</v>
       </c>
       <c r="J445">
@@ -11826,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="O445" t="str">
-        <f t="shared" ref="O445" si="138">CHAR(34)&amp;K445&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L445&amp;CHAR(34)</f>
+        <f t="shared" ref="O445" si="141">CHAR(34)&amp;K445&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L445&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -11856,13 +11844,13 @@
         <v>75</v>
       </c>
       <c r="O448" t="str">
-        <f t="shared" ref="O448:O449" si="139">CHAR(34)&amp;K448&amp;CHAR(34)&amp;": "&amp;L448&amp;","</f>
+        <f t="shared" ref="O448:O449" si="142">CHAR(34)&amp;K448&amp;CHAR(34)&amp;": "&amp;L448&amp;","</f>
         <v>"Id": 75,</v>
       </c>
     </row>
     <row r="449" spans="9:15">
       <c r="I449">
-        <f t="shared" ref="I449:I451" si="140">I443+1</f>
+        <f t="shared" ref="I449:I451" si="143">I443+1</f>
         <v>75</v>
       </c>
       <c r="J449">
@@ -11876,13 +11864,13 @@
         <v>0</v>
       </c>
       <c r="O449" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="450" spans="9:15">
       <c r="I450">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>75</v>
       </c>
       <c r="J450">
@@ -11896,13 +11884,13 @@
         <v>0</v>
       </c>
       <c r="O450" t="str">
-        <f t="shared" ref="O450" si="141">CHAR(34)&amp;K450&amp;CHAR(34)&amp;": "&amp;L450</f>
+        <f t="shared" ref="O450" si="144">CHAR(34)&amp;K450&amp;CHAR(34)&amp;": "&amp;L450</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="451" spans="9:15">
       <c r="I451">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>75</v>
       </c>
       <c r="J451">
@@ -11916,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="O451" t="str">
-        <f t="shared" ref="O451" si="142">CHAR(34)&amp;K451&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L451&amp;CHAR(34)</f>
+        <f t="shared" ref="O451" si="145">CHAR(34)&amp;K451&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L451&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -11946,13 +11934,13 @@
         <v>76</v>
       </c>
       <c r="O454" t="str">
-        <f t="shared" ref="O454:O455" si="143">CHAR(34)&amp;K454&amp;CHAR(34)&amp;": "&amp;L454&amp;","</f>
+        <f t="shared" ref="O454:O455" si="146">CHAR(34)&amp;K454&amp;CHAR(34)&amp;": "&amp;L454&amp;","</f>
         <v>"Id": 76,</v>
       </c>
     </row>
     <row r="455" spans="9:15">
       <c r="I455">
-        <f t="shared" ref="I455:I457" si="144">I449+1</f>
+        <f t="shared" ref="I455:I457" si="147">I449+1</f>
         <v>76</v>
       </c>
       <c r="J455">
@@ -11966,13 +11954,13 @@
         <v>0</v>
       </c>
       <c r="O455" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="146"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="456" spans="9:15">
       <c r="I456">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>76</v>
       </c>
       <c r="J456">
@@ -11986,13 +11974,13 @@
         <v>0</v>
       </c>
       <c r="O456" t="str">
-        <f t="shared" ref="O456" si="145">CHAR(34)&amp;K456&amp;CHAR(34)&amp;": "&amp;L456</f>
+        <f t="shared" ref="O456" si="148">CHAR(34)&amp;K456&amp;CHAR(34)&amp;": "&amp;L456</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="457" spans="9:15">
       <c r="I457">
-        <f t="shared" si="144"/>
+        <f t="shared" si="147"/>
         <v>76</v>
       </c>
       <c r="J457">
@@ -12006,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="O457" t="str">
-        <f t="shared" ref="O457" si="146">CHAR(34)&amp;K457&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L457&amp;CHAR(34)</f>
+        <f t="shared" ref="O457" si="149">CHAR(34)&amp;K457&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L457&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -12036,13 +12024,13 @@
         <v>77</v>
       </c>
       <c r="O460" t="str">
-        <f t="shared" ref="O460:O461" si="147">CHAR(34)&amp;K460&amp;CHAR(34)&amp;": "&amp;L460&amp;","</f>
+        <f t="shared" ref="O460:O461" si="150">CHAR(34)&amp;K460&amp;CHAR(34)&amp;": "&amp;L460&amp;","</f>
         <v>"Id": 77,</v>
       </c>
     </row>
     <row r="461" spans="9:15">
       <c r="I461">
-        <f t="shared" ref="I461:I463" si="148">I455+1</f>
+        <f t="shared" ref="I461:I463" si="151">I455+1</f>
         <v>77</v>
       </c>
       <c r="J461">
@@ -12056,13 +12044,13 @@
         <v>0</v>
       </c>
       <c r="O461" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="150"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="462" spans="9:15">
       <c r="I462">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>77</v>
       </c>
       <c r="J462">
@@ -12076,13 +12064,13 @@
         <v>0</v>
       </c>
       <c r="O462" t="str">
-        <f t="shared" ref="O462" si="149">CHAR(34)&amp;K462&amp;CHAR(34)&amp;": "&amp;L462</f>
+        <f t="shared" ref="O462" si="152">CHAR(34)&amp;K462&amp;CHAR(34)&amp;": "&amp;L462</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="463" spans="9:15">
       <c r="I463">
-        <f t="shared" si="148"/>
+        <f t="shared" si="151"/>
         <v>77</v>
       </c>
       <c r="J463">
@@ -12096,7 +12084,7 @@
         <v>0</v>
       </c>
       <c r="O463" t="str">
-        <f t="shared" ref="O463" si="150">CHAR(34)&amp;K463&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L463&amp;CHAR(34)</f>
+        <f t="shared" ref="O463" si="153">CHAR(34)&amp;K463&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L463&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -12126,13 +12114,13 @@
         <v>78</v>
       </c>
       <c r="O466" t="str">
-        <f t="shared" ref="O466:O467" si="151">CHAR(34)&amp;K466&amp;CHAR(34)&amp;": "&amp;L466&amp;","</f>
+        <f t="shared" ref="O466:O467" si="154">CHAR(34)&amp;K466&amp;CHAR(34)&amp;": "&amp;L466&amp;","</f>
         <v>"Id": 78,</v>
       </c>
     </row>
     <row r="467" spans="9:15">
       <c r="I467">
-        <f t="shared" ref="I467:I469" si="152">I461+1</f>
+        <f t="shared" ref="I467:I469" si="155">I461+1</f>
         <v>78</v>
       </c>
       <c r="J467">
@@ -12146,13 +12134,13 @@
         <v>0</v>
       </c>
       <c r="O467" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" si="154"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="468" spans="9:15">
       <c r="I468">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>78</v>
       </c>
       <c r="J468">
@@ -12166,13 +12154,13 @@
         <v>0</v>
       </c>
       <c r="O468" t="str">
-        <f t="shared" ref="O468" si="153">CHAR(34)&amp;K468&amp;CHAR(34)&amp;": "&amp;L468</f>
+        <f t="shared" ref="O468" si="156">CHAR(34)&amp;K468&amp;CHAR(34)&amp;": "&amp;L468</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="469" spans="9:15">
       <c r="I469">
-        <f t="shared" si="152"/>
+        <f t="shared" si="155"/>
         <v>78</v>
       </c>
       <c r="J469">
@@ -12186,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="O469" t="str">
-        <f t="shared" ref="O469" si="154">CHAR(34)&amp;K469&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L469&amp;CHAR(34)</f>
+        <f t="shared" ref="O469" si="157">CHAR(34)&amp;K469&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L469&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -12216,13 +12204,13 @@
         <v>79</v>
       </c>
       <c r="O472" t="str">
-        <f t="shared" ref="O472:O473" si="155">CHAR(34)&amp;K472&amp;CHAR(34)&amp;": "&amp;L472&amp;","</f>
+        <f t="shared" ref="O472:O473" si="158">CHAR(34)&amp;K472&amp;CHAR(34)&amp;": "&amp;L472&amp;","</f>
         <v>"Id": 79,</v>
       </c>
     </row>
     <row r="473" spans="9:15">
       <c r="I473">
-        <f t="shared" ref="I473:I475" si="156">I467+1</f>
+        <f t="shared" ref="I473:I475" si="159">I467+1</f>
         <v>79</v>
       </c>
       <c r="J473">
@@ -12236,13 +12224,13 @@
         <v>0</v>
       </c>
       <c r="O473" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="158"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="474" spans="9:15">
       <c r="I474">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>79</v>
       </c>
       <c r="J474">
@@ -12256,13 +12244,13 @@
         <v>0</v>
       </c>
       <c r="O474" t="str">
-        <f t="shared" ref="O474" si="157">CHAR(34)&amp;K474&amp;CHAR(34)&amp;": "&amp;L474</f>
+        <f t="shared" ref="O474" si="160">CHAR(34)&amp;K474&amp;CHAR(34)&amp;": "&amp;L474</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="475" spans="9:15">
       <c r="I475">
-        <f t="shared" si="156"/>
+        <f t="shared" si="159"/>
         <v>79</v>
       </c>
       <c r="J475">
@@ -12276,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="O475" t="str">
-        <f t="shared" ref="O475" si="158">CHAR(34)&amp;K475&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L475&amp;CHAR(34)</f>
+        <f t="shared" ref="O475" si="161">CHAR(34)&amp;K475&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L475&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -12306,13 +12294,13 @@
         <v>80</v>
       </c>
       <c r="O478" t="str">
-        <f t="shared" ref="O478:O479" si="159">CHAR(34)&amp;K478&amp;CHAR(34)&amp;": "&amp;L478&amp;","</f>
+        <f t="shared" ref="O478:O479" si="162">CHAR(34)&amp;K478&amp;CHAR(34)&amp;": "&amp;L478&amp;","</f>
         <v>"Id": 80,</v>
       </c>
     </row>
     <row r="479" spans="9:15">
       <c r="I479">
-        <f t="shared" ref="I479:I481" si="160">I473+1</f>
+        <f t="shared" ref="I479:I481" si="163">I473+1</f>
         <v>80</v>
       </c>
       <c r="J479">
@@ -12326,13 +12314,13 @@
         <v>0</v>
       </c>
       <c r="O479" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>"X": 0,</v>
       </c>
     </row>
     <row r="480" spans="9:15">
       <c r="I480">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>80</v>
       </c>
       <c r="J480">
@@ -12346,13 +12334,13 @@
         <v>0</v>
       </c>
       <c r="O480" t="str">
-        <f t="shared" ref="O480" si="161">CHAR(34)&amp;K480&amp;CHAR(34)&amp;": "&amp;L480</f>
+        <f t="shared" ref="O480" si="164">CHAR(34)&amp;K480&amp;CHAR(34)&amp;": "&amp;L480</f>
         <v>"Y": 0</v>
       </c>
     </row>
     <row r="481" spans="9:15">
       <c r="I481">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>80</v>
       </c>
       <c r="J481">
@@ -12366,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="O481" t="str">
-        <f t="shared" ref="O481" si="162">CHAR(34)&amp;K481&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L481&amp;CHAR(34)</f>
+        <f t="shared" ref="O481" si="165">CHAR(34)&amp;K481&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L481&amp;CHAR(34)</f>
         <v>"CanRaid": "0"</v>
       </c>
     </row>
@@ -12375,37 +12363,37 @@
     <sortCondition ref="F5:F63"/>
   </sortState>
   <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24:G63 E5:E63">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF(E5="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(G6="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF(G25="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U36">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(U4="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4 V6:V23 V25:V36">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(V4="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF(V5="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(V24="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF90A13-4EEB-4466-ABBA-457F1BAE0FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D076BE1-1039-4812-B274-BA7B72181830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -3368,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="T347" sqref="T347"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -5461,7 +5461,7 @@
         <v>-38</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53">
         <f t="shared" si="8"/>
@@ -9561,11 +9561,11 @@
       </c>
       <c r="L295" t="str">
         <f>VLOOKUP(I295,ToRaid,J295,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="O295" t="str">
         <f>CHAR(34)&amp;K295&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L295&amp;CHAR(34)</f>
-        <v>"CanRaid": "false"</v>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="296" spans="9:15">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF372071-66FF-4EB3-BD30-359A3517BBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E8937-A83A-4A04-A990-20ECE825CD46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="368">
   <si>
     <t>Oases</t>
   </si>
@@ -6404,8 +6404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,9 +6723,7 @@
       <c r="G10" s="2">
         <v>196</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10">
         <f>I4+1</f>
         <v>2</v>
@@ -7488,7 +7486,7 @@
         <v>-52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -10347,11 +10345,11 @@
       </c>
       <c r="L145" t="str">
         <f>VLOOKUP(I145,ToRaid,J145,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O145" t="str">
         <f>CHAR(34)&amp;K145&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L145&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.25">
@@ -15446,7 +15444,7 @@
   <dimension ref="B2:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16432,11 +16430,9 @@
         <v>149</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="57">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="L26" s="57"/>
       <c r="M26" s="47"/>
       <c r="N26" s="64"/>
     </row>
@@ -19762,7 +19758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58BAFAA-1352-4B86-B4DE-F1EE12D71509}">
   <dimension ref="D2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E8937-A83A-4A04-A990-20ECE825CD46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA2F1A-F3C8-4674-BA65-27AECDDB9E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -6404,8 +6404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,14 +7677,14 @@
         <v>-63</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G32" s="2">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="O32" t="s">
         <v>5</v>
@@ -10705,11 +10705,11 @@
       </c>
       <c r="L169" t="str">
         <f>VLOOKUP(I169,ToRaid,J169,FALSE)</f>
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="O169" t="str">
         <f t="shared" ref="O169" si="35">CHAR(34)&amp;K169&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L169&amp;CHAR(34)</f>
-        <v>"CanRaid": "true"</v>
+        <v>"CanRaid": "false"</v>
       </c>
     </row>
     <row r="170" spans="9:15" x14ac:dyDescent="0.25">
@@ -15443,8 +15443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF22575-6A1A-4F29-8B52-FC457B6C6596}">
   <dimension ref="B2:T101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA2F1A-F3C8-4674-BA65-27AECDDB9E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D35B71-3023-4B30-A28C-B0CF41C78210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="368">
   <si>
     <t>Oases</t>
   </si>
@@ -4504,6 +4504,230 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18" descr="offense">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9DE0EA-DE63-48F6-8E1C-75ACD1FD8E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3190875"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19" descr="offense">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82374088-3C20-4C4D-8E98-5B450170144D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3810000" y="3190875"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20" descr="Defense value against infantry">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9057935E-9ED3-4A77-8267-9E44A15A2A3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4572000" y="3190875"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9525" cy="9525"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21" descr="Defense value against cavalry">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07521A4-0C2A-4963-B087-07BB3D07CFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="3190875"/>
+          <a:ext cx="9525" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6404,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8541,7 +8765,7 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F62" si="12">ROUND(SQRT((C54-$C$1)^2+(D54-$D$1)^2),2)</f>
+        <f t="shared" ref="F54:F64" si="12">ROUND(SQRT((C54-$C$1)^2+(D54-$D$1)^2),2)</f>
         <v>15.65</v>
       </c>
       <c r="G54" s="2">
@@ -8839,7 +9063,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f t="shared" si="5"/>
+        <f>$A$1&amp;C62&amp;"&amp;y="&amp;D62</f>
         <v>https://ts4.travian.com/position_details.php?x=-46&amp;y=-38</v>
       </c>
       <c r="B62" s="2">
@@ -8871,15 +9095,27 @@
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="5"/>
-        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+        <v>https://ts4.travian.com/position_details.php?x=-30&amp;y=-60</v>
       </c>
       <c r="B63" s="2">
         <v>59</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="C63" s="2">
+        <v>-30</v>
+      </c>
+      <c r="D63" s="2">
+        <v>-60</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="12"/>
+        <v>9.06</v>
+      </c>
+      <c r="G63" s="2">
+        <v>25</v>
+      </c>
       <c r="O63" t="s">
         <v>1</v>
       </c>
@@ -8887,10 +9123,23 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="5"/>
-        <v>https://ts4.travian.com/position_details.php?x=&amp;y=</v>
+        <v>https://ts4.travian.com/position_details.php?x=-36&amp;y=-62</v>
       </c>
       <c r="B64" s="2">
         <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>-36</v>
+      </c>
+      <c r="D64" s="2">
+        <v>-62</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="12"/>
+        <v>12.08</v>
       </c>
       <c r="I64">
         <f>I58+1</f>
@@ -13455,11 +13704,11 @@
       </c>
       <c r="L353">
         <f>VLOOKUP(I353,ToRaid,J353,FALSE)</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="O353" t="str">
         <f>CHAR(34)&amp;K353&amp;CHAR(34)&amp;": "&amp;L353&amp;","</f>
-        <v>"X": 0,</v>
+        <v>"X": -30,</v>
       </c>
     </row>
     <row r="354" spans="9:15" x14ac:dyDescent="0.25">
@@ -13475,11 +13724,11 @@
       </c>
       <c r="L354">
         <f>VLOOKUP(I354,ToRaid,J354,FALSE)</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="O354" t="str">
         <f>CHAR(34)&amp;K354&amp;CHAR(34)&amp;": "&amp;L354</f>
-        <v>"Y": 0</v>
+        <v>"Y": -60</v>
       </c>
     </row>
     <row r="355" spans="9:15" x14ac:dyDescent="0.25">
@@ -13493,13 +13742,13 @@
       <c r="K355" t="s">
         <v>10</v>
       </c>
-      <c r="L355">
+      <c r="L355" t="str">
         <f>VLOOKUP(I355,ToRaid,J355,FALSE)</f>
-        <v>0</v>
+        <v>true</v>
       </c>
       <c r="O355" t="str">
         <f>CHAR(34)&amp;K355&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L355&amp;CHAR(34)</f>
-        <v>"CanRaid": "0"</v>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="356" spans="9:15" x14ac:dyDescent="0.25">
@@ -13545,11 +13794,11 @@
       </c>
       <c r="L359">
         <f>VLOOKUP(I359,ToRaid,J359,FALSE)</f>
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="O359" t="str">
         <f>CHAR(34)&amp;K359&amp;CHAR(34)&amp;": "&amp;L359&amp;","</f>
-        <v>"X": 0,</v>
+        <v>"X": -36,</v>
       </c>
     </row>
     <row r="360" spans="9:15" x14ac:dyDescent="0.25">
@@ -13565,11 +13814,11 @@
       </c>
       <c r="L360">
         <f>VLOOKUP(I360,ToRaid,J360,FALSE)</f>
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="O360" t="str">
         <f>CHAR(34)&amp;K360&amp;CHAR(34)&amp;": "&amp;L360</f>
-        <v>"Y": 0</v>
+        <v>"Y": -62</v>
       </c>
     </row>
     <row r="361" spans="9:15" x14ac:dyDescent="0.25">
@@ -13583,13 +13832,13 @@
       <c r="K361" t="s">
         <v>10</v>
       </c>
-      <c r="L361">
+      <c r="L361" t="str">
         <f>VLOOKUP(I361,ToRaid,J361,FALSE)</f>
-        <v>0</v>
+        <v>true</v>
       </c>
       <c r="O361" t="str">
         <f>CHAR(34)&amp;K361&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;L361&amp;CHAR(34)</f>
-        <v>"CanRaid": "0"</v>
+        <v>"CanRaid": "true"</v>
       </c>
     </row>
     <row r="362" spans="9:15" x14ac:dyDescent="0.25">
@@ -15396,7 +15645,7 @@
   <sortState ref="C5:H63">
     <sortCondition ref="F5:F63"/>
   </sortState>
-  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24:G63 E5:E63">
+  <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24:G63 E5:E64">
     <cfRule type="expression" dxfId="23" priority="7">
       <formula>IF(E5="false",TRUE,FALSE)</formula>
     </cfRule>
@@ -15443,8 +15692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF22575-6A1A-4F29-8B52-FC457B6C6596}">
   <dimension ref="B2:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19756,10 +20005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58BAFAA-1352-4B86-B4DE-F1EE12D71509}">
-  <dimension ref="D2:H26"/>
+  <dimension ref="D2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20166,6 +20415,121 @@
         <v>3133</v>
       </c>
     </row>
+    <row r="28" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="66"/>
+      <c r="E29" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="E30" s="66">
+        <v>4</v>
+      </c>
+      <c r="F30" s="66">
+        <f t="shared" ref="F30:H33" si="4">VLOOKUP($D30,Animals,F$15,FALSE)*$E30</f>
+        <v>200</v>
+      </c>
+      <c r="G30" s="66">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="H30" s="66">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="66">
+        <v>3</v>
+      </c>
+      <c r="F31" s="66">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G31" s="66">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="H31" s="66">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="66">
+        <v>3</v>
+      </c>
+      <c r="F32" s="66">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="G32" s="66">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="H32" s="66">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="66">
+        <v>15</v>
+      </c>
+      <c r="F33" s="66">
+        <f t="shared" si="4"/>
+        <v>6750</v>
+      </c>
+      <c r="G33" s="66">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+      <c r="H33" s="66">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="66"/>
+      <c r="E34" s="69">
+        <f>SUM(E30:E33)</f>
+        <v>25</v>
+      </c>
+      <c r="F34" s="69">
+        <f t="shared" ref="F34:H34" si="5">SUM(F30:F33)</f>
+        <v>8000</v>
+      </c>
+      <c r="G34" s="69">
+        <f t="shared" si="5"/>
+        <v>6640</v>
+      </c>
+      <c r="H34" s="69">
+        <f t="shared" si="5"/>
+        <v>4542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D35B71-3023-4B30-A28C-B0CF41C78210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0C878-C554-483B-B08B-B82CB086DEA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Oasis" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="368">
   <si>
     <t>Oases</t>
   </si>
@@ -2954,6 +2954,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3420,62 +3476,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4732,22 +4732,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7698737D-84E8-4AF2-9755-E371DDB732E0}" name="Villages" displayName="Villages" ref="B2:N101" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7698737D-84E8-4AF2-9755-E371DDB732E0}" name="Villages" displayName="Villages" ref="B2:N101" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
   <autoFilter ref="B2:N101" xr:uid="{E70DD6E8-3F17-4193-A463-6610E91B20F1}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AB7CF577-6E61-4CFC-983E-F11DF8A411DF}" name="DISTANCE" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{67E804B9-B263-4B93-AAFC-1AF426B10D97}" name="Coordonnées" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{4EB015F9-B075-46D8-A92C-E76B154F7036}" name="VILLAGE" dataDxfId="10" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="6" xr3:uid="{D1B93C3D-8B1C-41F4-A38D-86D9ACFF5212}" name="05-Nov" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{D97E1C3B-E675-4299-AE6A-39DD65CACA91}" name="05-Oct" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{FC5861E7-9881-4EBA-9B7F-D420A82E646D}" name="05-Sep" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B2988A59-B3DD-46C4-8E82-01290A037CC9}" name="05-Aug" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{F2F77203-A5C1-4FFA-83D6-7D73C31B2F24}" name="05-Jul" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{9CA2C2F1-C625-46F8-835F-9E3038A1CCE8}" name="PLAYER" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{29675D41-1007-44D9-AD6B-9AE176573730}" name="CanRaid" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{0DDD18EB-CEB8-4230-ABBF-D8CBC0AAFB84}" name="TroopToSendMultiplier" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{4BDF327F-65C5-4954-B61B-BF6CB7399E2A}" name="ALLIANCE" dataDxfId="1" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="17" xr3:uid="{E412D31A-3BF4-4F4E-8539-669B4D8A22EA}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AB7CF577-6E61-4CFC-983E-F11DF8A411DF}" name="DISTANCE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{67E804B9-B263-4B93-AAFC-1AF426B10D97}" name="Coordonnées" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4EB015F9-B075-46D8-A92C-E76B154F7036}" name="VILLAGE" dataDxfId="18" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="6" xr3:uid="{D1B93C3D-8B1C-41F4-A38D-86D9ACFF5212}" name="05-Nov" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{D97E1C3B-E675-4299-AE6A-39DD65CACA91}" name="05-Oct" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{FC5861E7-9881-4EBA-9B7F-D420A82E646D}" name="05-Sep" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{B2988A59-B3DD-46C4-8E82-01290A037CC9}" name="05-Aug" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{F2F77203-A5C1-4FFA-83D6-7D73C31B2F24}" name="05-Jul" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{9CA2C2F1-C625-46F8-835F-9E3038A1CCE8}" name="PLAYER" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{29675D41-1007-44D9-AD6B-9AE176573730}" name="CanRaid" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{0DDD18EB-CEB8-4230-ABBF-D8CBC0AAFB84}" name="TroopToSendMultiplier" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{4BDF327F-65C5-4954-B61B-BF6CB7399E2A}" name="ALLIANCE" dataDxfId="9" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="17" xr3:uid="{E412D31A-3BF4-4F4E-8539-669B4D8A22EA}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6628,7 +6628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F8A261-BA65-422E-B26D-412D101A8365}">
   <dimension ref="A1:V481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+    <sheetView topLeftCell="A335" workbookViewId="0">
       <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
@@ -15646,37 +15646,37 @@
     <sortCondition ref="F5:F63"/>
   </sortState>
   <conditionalFormatting sqref="G10:H10 G14:H14 G16:H16 G20:H20 G23:H23 G5:H5 G7:H8 G9 G11:G13 G15 G17:G19 G21:G22 G24:G63 E5:E64">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>IF(E5="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>IF(G6="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>IF(G25="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U36">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>IF(U4="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4 V6:V23 V25:V36">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>IF(V4="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF(V5="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF(V24="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19301,7 +19301,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:K101">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(K3="false",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20005,10 +20005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58BAFAA-1352-4B86-B4DE-F1EE12D71509}">
-  <dimension ref="D2:H34"/>
+  <dimension ref="D2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20530,6 +20530,46 @@
         <v>4542</v>
       </c>
     </row>
+    <row r="36" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="66">
+        <v>9</v>
+      </c>
+      <c r="F37" s="66">
+        <f t="shared" ref="F37:H37" si="6">VLOOKUP($D37,Animals,F$15,FALSE)*$E37</f>
+        <v>2250</v>
+      </c>
+      <c r="G37" s="66">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+      <c r="H37" s="66">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="66"/>
+      <c r="E38" s="69">
+        <f>SUM(E35:E37)</f>
+        <v>9</v>
+      </c>
+      <c r="F38" s="69">
+        <f>SUM(F35:F37)</f>
+        <v>2250</v>
+      </c>
+      <c r="G38" s="69">
+        <f>SUM(G35:G37)</f>
+        <v>1260</v>
+      </c>
+      <c r="H38" s="69">
+        <f>SUM(H35:H37)</f>
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A03827F-CBD2-453D-ABAE-410441AF5BB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317EFA63-76B6-4E7A-96B1-BCBA75EC40F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" activeTab="2" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="351">
   <si>
     <t>Oases</t>
   </si>
@@ -15396,8 +15396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF22575-6A1A-4F29-8B52-FC457B6C6596}">
   <dimension ref="B1:V701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D67" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+    <sheetView tabSelected="1" topLeftCell="G673" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20012,9 +20012,7 @@
         <v>10</v>
       </c>
       <c r="O81" s="18"/>
-      <c r="P81" s="38" t="s">
-        <v>346</v>
-      </c>
+      <c r="P81" s="38"/>
       <c r="Q81">
         <f t="shared" ref="Q81:Q84" si="10">Q74+1</f>
         <v>12</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Bots\Travian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2CA706-FA4A-473B-BB2F-8A5720785820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CAA959-16F8-40D0-81C8-34409A675B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{705390CF-FC32-4C9B-ABF1-7644E5C5C3AB}"/>
   </bookViews>
@@ -15393,8 +15393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF22575-6A1A-4F29-8B52-FC457B6C6596}">
   <dimension ref="B1:V701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D664" workbookViewId="0">
-      <selection activeCell="M684" sqref="M684"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19533,7 +19533,7 @@
         <v>317</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L73" s="13" t="str">
         <f>SUBSTITUTE(LEFT(Villages[[#This Row],[Coordonnées]],SEARCH("|",Villages[[#This Row],[Coordonnées]])-1),"(","")</f>
@@ -26524,11 +26524,11 @@
       </c>
       <c r="S496" t="str">
         <f>INDEX(Villages[],Q496,10)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="V496" t="str">
         <f>CHAR(34)&amp;R496&amp;CHAR(34)&amp;": "&amp;CHAR(34)&amp;S496&amp;CHAR(34)&amp;","</f>
-        <v>"CanRaid": "false",</v>
+        <v>"CanRaid": "true",</v>
       </c>
     </row>
     <row r="497" spans="17:22" x14ac:dyDescent="0.25">
